--- a/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
@@ -645,106 +645,106 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>104.9476784286014</v>
+        <v>104.9478496666325</v>
       </c>
       <c r="D2">
-        <v>1281.782924214605</v>
+        <v>1281.78285303395</v>
       </c>
       <c r="E2">
-        <v>19946.80296074217</v>
+        <v>19925.59180766373</v>
       </c>
       <c r="F2">
-        <v>1281.782974217105</v>
+        <v>1281.78280303145</v>
       </c>
       <c r="G2">
-        <v>59361.74901674854</v>
+        <v>59223.82470853057</v>
       </c>
       <c r="H2">
-        <v>1.072402163153089</v>
+        <v>1.072207796519638</v>
       </c>
       <c r="I2">
-        <v>21.20268519462382</v>
+        <v>22.2595915426198</v>
       </c>
       <c r="J2">
-        <v>0.7512733148692338</v>
+        <v>0.7478997811857619</v>
       </c>
       <c r="K2">
-        <v>2.144804326306178</v>
+        <v>2.144415593039276</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
       </c>
       <c r="M2">
-        <v>1386.730702648206</v>
+        <v>1386.730702700583</v>
       </c>
       <c r="N2">
-        <v>38316.94835676606</v>
+        <v>38316.95205939841</v>
       </c>
       <c r="O2">
-        <v>1386.730652645706</v>
+        <v>1386.730652698083</v>
       </c>
       <c r="P2">
-        <v>110740.7973950741</v>
+        <v>110740.8923980164</v>
       </c>
       <c r="Q2">
-        <v>1.03187789561305</v>
+        <v>1.031877856068558</v>
       </c>
       <c r="S2">
-        <v>30.09136953056005</v>
+        <v>30.09186963671485</v>
       </c>
       <c r="T2">
-        <v>0.7623907070993852</v>
+        <v>0.7623922052988341</v>
       </c>
       <c r="U2">
-        <v>2.063755791226099</v>
+        <v>2.063755712137115</v>
       </c>
       <c r="V2" t="s">
         <v>49</v>
       </c>
       <c r="W2">
-        <v>1261.632906580897</v>
+        <v>1261.67503132038</v>
       </c>
       <c r="X2">
-        <v>7988.40234071237</v>
+        <v>8071.39044586972</v>
       </c>
       <c r="Y2">
-        <v>3.214880017098329</v>
+        <v>3.214341540171463</v>
       </c>
       <c r="Z2">
-        <v>1408.045241093079</v>
+        <v>1408.045232676294</v>
       </c>
       <c r="AA2">
-        <v>9990.415487224678</v>
+        <v>9991.231357784845</v>
       </c>
       <c r="AB2">
-        <v>2.881867499966566</v>
+        <v>2.881708240785989</v>
       </c>
       <c r="AC2">
-        <v>1369.530276479747</v>
+        <v>1369.530276842664</v>
       </c>
       <c r="AD2">
-        <v>1318.789010407202</v>
+        <v>1318.789766398923</v>
       </c>
       <c r="AE2">
-        <v>0.5152012696179091</v>
+        <v>0.5152012689177474</v>
       </c>
       <c r="AF2">
-        <v>1387.124278426793</v>
+        <v>1387.123349688856</v>
       </c>
       <c r="AG2">
-        <v>10605.639589914</v>
+        <v>10604.90281699654</v>
       </c>
       <c r="AH2">
-        <v>15.12793057208762</v>
+        <v>15.12747104506315</v>
       </c>
       <c r="AI2">
-        <v>1282.884695019693</v>
+        <v>1283.449785285714</v>
       </c>
       <c r="AJ2">
-        <v>7700.896305388147</v>
+        <v>6552.322607782286</v>
       </c>
       <c r="AK2">
-        <v>13.74205608903671</v>
+        <v>12.02182981461524</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -755,106 +755,106 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>104.1634687468404</v>
+        <v>104.1634896641658</v>
       </c>
       <c r="D3">
-        <v>1283.321329841807</v>
+        <v>1283.321307257664</v>
       </c>
       <c r="E3">
-        <v>4285.943136536168</v>
+        <v>4282.982714565069</v>
       </c>
       <c r="F3">
-        <v>1283.321479849308</v>
+        <v>1283.321457265164</v>
       </c>
       <c r="G3">
-        <v>13342.90543479747</v>
+        <v>13347.66223231939</v>
       </c>
       <c r="H3">
-        <v>1.188512016791407</v>
+        <v>1.188501239481526</v>
       </c>
       <c r="I3">
-        <v>6.217971306569927</v>
+        <v>6.387508824700069</v>
       </c>
       <c r="J3">
-        <v>0.5990287554746254</v>
+        <v>0.5996909705503961</v>
       </c>
       <c r="K3">
-        <v>2.377024033582813</v>
+        <v>2.377002478963052</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
       </c>
       <c r="M3">
-        <v>1387.484898593648</v>
+        <v>1387.48489692683</v>
       </c>
       <c r="N3">
-        <v>8737.273677504829</v>
+        <v>8737.258150737285</v>
       </c>
       <c r="O3">
-        <v>1387.484948596148</v>
+        <v>1387.48494692933</v>
       </c>
       <c r="P3">
-        <v>22927.79158534891</v>
+        <v>22927.36517891365</v>
       </c>
       <c r="Q3">
-        <v>0.96780491055662</v>
+        <v>0.9678053562251345</v>
       </c>
       <c r="S3">
-        <v>7.2994244363107</v>
+        <v>7.298549309407349</v>
       </c>
       <c r="T3">
-        <v>0.6763617537940487</v>
+        <v>0.6763284256856074</v>
       </c>
       <c r="U3">
-        <v>1.93560982111324</v>
+        <v>1.935610712450269</v>
       </c>
       <c r="V3" t="s">
         <v>49</v>
       </c>
       <c r="W3">
-        <v>1263.250630846301</v>
+        <v>1263.250347183641</v>
       </c>
       <c r="X3">
-        <v>1435.316911002287</v>
+        <v>1449.674148013675</v>
       </c>
       <c r="Y3">
-        <v>2.175299263578923</v>
+        <v>2.192785274127533</v>
       </c>
       <c r="Z3">
-        <v>1408.861535095919</v>
+        <v>1408.861594309556</v>
       </c>
       <c r="AA3">
-        <v>2414.847321130944</v>
+        <v>2411.814482672314</v>
       </c>
       <c r="AB3">
-        <v>1.964629053372389</v>
+        <v>1.965416779584328</v>
       </c>
       <c r="AC3">
-        <v>1369.725556490832</v>
+        <v>1369.725564612961</v>
       </c>
       <c r="AD3">
-        <v>288.865383367693</v>
+        <v>288.9176788065948</v>
       </c>
       <c r="AE3">
-        <v>0.4826822220693966</v>
+        <v>0.4826811841164803</v>
       </c>
       <c r="AF3">
-        <v>1382.803050651505</v>
+        <v>1382.849182286702</v>
       </c>
       <c r="AG3">
-        <v>1396.486866576858</v>
+        <v>1399.714843556944</v>
       </c>
       <c r="AH3">
-        <v>16.7072591383349</v>
+        <v>16.73941767105325</v>
       </c>
       <c r="AI3">
-        <v>1276.695156594785</v>
+        <v>1277.422196594052</v>
       </c>
       <c r="AJ3">
-        <v>1688.646654957218</v>
+        <v>1401.45173577406</v>
       </c>
       <c r="AK3">
-        <v>22.72769260675942</v>
+        <v>21.56498089006308</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -865,106 +865,106 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>104.1339880773223</v>
+        <v>104.1340449923514</v>
       </c>
       <c r="D4">
-        <v>1283.384666309429</v>
+        <v>1283.384609768979</v>
       </c>
       <c r="E4">
-        <v>4014.343851195673</v>
+        <v>4011.283490807263</v>
       </c>
       <c r="F4">
-        <v>1283.384716311929</v>
+        <v>1283.384659771479</v>
       </c>
       <c r="G4">
-        <v>12619.18498504297</v>
+        <v>12619.83276137962</v>
       </c>
       <c r="H4">
-        <v>1.197467930972734</v>
+        <v>1.197456191505402</v>
       </c>
       <c r="I4">
-        <v>4.452257801031305</v>
+        <v>4.509574483006478</v>
       </c>
       <c r="J4">
-        <v>0.6034430585570295</v>
+        <v>0.6035637898890784</v>
       </c>
       <c r="K4">
-        <v>2.394935861945468</v>
+        <v>2.394912383010805</v>
       </c>
       <c r="L4" t="s">
         <v>49</v>
       </c>
       <c r="M4">
-        <v>1387.518654386751</v>
+        <v>1387.51865476133</v>
       </c>
       <c r="N4">
-        <v>8263.065115526346</v>
+        <v>8263.067793784623</v>
       </c>
       <c r="O4">
-        <v>1387.518704389251</v>
+        <v>1387.51870476383</v>
       </c>
       <c r="P4">
-        <v>21696.41879932801</v>
+        <v>21696.48832772792</v>
       </c>
       <c r="Q4">
-        <v>0.9701184734574737</v>
+        <v>0.9701183304143701</v>
       </c>
       <c r="S4">
-        <v>7.066707184051723</v>
+        <v>7.067006534031276</v>
       </c>
       <c r="T4">
-        <v>0.6718872131336326</v>
+        <v>0.6718931569137898</v>
       </c>
       <c r="U4">
-        <v>1.940236946914947</v>
+        <v>1.94023666082874</v>
       </c>
       <c r="V4" t="s">
         <v>49</v>
       </c>
       <c r="W4">
-        <v>1263.384517806205</v>
+        <v>1263.382070857522</v>
       </c>
       <c r="X4">
-        <v>1453.802449146238</v>
+        <v>1483.15809202557</v>
       </c>
       <c r="Y4">
-        <v>2.231148909879786</v>
+        <v>2.268097187425845</v>
       </c>
       <c r="Z4">
-        <v>1408.878035328111</v>
+        <v>1408.878006502127</v>
       </c>
       <c r="AA4">
-        <v>2286.440281203986</v>
+        <v>2286.761835402572</v>
       </c>
       <c r="AB4">
-        <v>1.955350199852014</v>
+        <v>1.955503814436022</v>
       </c>
       <c r="AC4">
-        <v>1369.751627276293</v>
+        <v>1369.751632523907</v>
       </c>
       <c r="AD4">
-        <v>279.260071026489</v>
+        <v>279.2425328945567</v>
       </c>
       <c r="AE4">
-        <v>0.4838007302846202</v>
+        <v>0.4838007304321029</v>
       </c>
       <c r="AF4">
-        <v>1382.433045226813</v>
+        <v>1382.424339351862</v>
       </c>
       <c r="AG4">
-        <v>1284.289719739767</v>
+        <v>1283.863427600875</v>
       </c>
       <c r="AH4">
-        <v>16.29813461146106</v>
+        <v>16.29255622776407</v>
       </c>
       <c r="AI4">
-        <v>1279.938007025533</v>
+        <v>1281.758100839774</v>
       </c>
       <c r="AJ4">
-        <v>1388.538381365647</v>
+        <v>1088.686771003217</v>
       </c>
       <c r="AK4">
-        <v>22.21669017522827</v>
+        <v>20.20030636654501</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -975,106 +975,106 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>104.1083205581394</v>
+        <v>104.10837231903</v>
       </c>
       <c r="D5">
-        <v>1283.442811884607</v>
+        <v>1283.442761979152</v>
       </c>
       <c r="E5">
-        <v>3722.729975022833</v>
+        <v>3719.984586930429</v>
       </c>
       <c r="F5">
-        <v>1283.442861887107</v>
+        <v>1283.442811981652</v>
       </c>
       <c r="G5">
-        <v>11828.47928705928</v>
+        <v>11830.43207220396</v>
       </c>
       <c r="H5">
-        <v>1.211493227862678</v>
+        <v>1.211481554943264</v>
       </c>
       <c r="I5">
-        <v>4.229893637573201</v>
+        <v>4.361848430086903</v>
       </c>
       <c r="J5">
-        <v>0.6008989795370185</v>
+        <v>0.6012207456352101</v>
       </c>
       <c r="K5">
-        <v>2.422986455725355</v>
+        <v>2.422963109886529</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
       <c r="M5">
-        <v>1387.551132442747</v>
+        <v>1387.551134298182</v>
       </c>
       <c r="N5">
-        <v>7698.684692585603</v>
+        <v>7698.699999845526</v>
       </c>
       <c r="O5">
-        <v>1387.551182445247</v>
+        <v>1387.551184300682</v>
       </c>
       <c r="P5">
-        <v>20138.71832973745</v>
+        <v>20139.13620822139</v>
       </c>
       <c r="Q5">
-        <v>0.9669075289160429</v>
+        <v>0.966907002747762</v>
       </c>
       <c r="S5">
-        <v>6.853014636952102</v>
+        <v>6.854935225355411</v>
       </c>
       <c r="T5">
-        <v>0.6705957311639356</v>
+        <v>0.6706331368640742</v>
       </c>
       <c r="U5">
-        <v>1.933815057832086</v>
+        <v>1.933814005495524</v>
       </c>
       <c r="V5" t="s">
         <v>49</v>
       </c>
       <c r="W5">
-        <v>1263.403543312355</v>
+        <v>1263.402244461215</v>
       </c>
       <c r="X5">
-        <v>1349.448072559533</v>
+        <v>1372.236340805252</v>
       </c>
       <c r="Y5">
-        <v>2.177789850468851</v>
+        <v>2.20838909323303</v>
       </c>
       <c r="Z5">
-        <v>1408.908633904419</v>
+        <v>1408.908558074916</v>
       </c>
       <c r="AA5">
-        <v>2177.794201633589</v>
+        <v>2180.135709985438</v>
       </c>
       <c r="AB5">
-        <v>1.970584708835324</v>
+        <v>1.970350287258973</v>
       </c>
       <c r="AC5">
-        <v>1369.747014869201</v>
+        <v>1369.747029091012</v>
       </c>
       <c r="AD5">
-        <v>250.4687809867945</v>
+        <v>250.4037249456869</v>
       </c>
       <c r="AE5">
-        <v>0.4822528986099598</v>
+        <v>0.4822528981574503</v>
       </c>
       <c r="AF5">
-        <v>1381.89248108495</v>
+        <v>1381.846527084175</v>
       </c>
       <c r="AG5">
-        <v>1176.265354872738</v>
+        <v>1173.652471714056</v>
       </c>
       <c r="AH5">
-        <v>16.31659742727674</v>
+        <v>16.28332541706301</v>
       </c>
       <c r="AI5">
-        <v>1279.920225886894</v>
+        <v>1281.577327742763</v>
       </c>
       <c r="AJ5">
-        <v>1297.834953723794</v>
+        <v>1027.604867710714</v>
       </c>
       <c r="AK5">
-        <v>22.6279039386698</v>
+        <v>20.81151869087206</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1085,106 +1085,106 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>104.0682996942642</v>
+        <v>104.0683617331929</v>
       </c>
       <c r="D6">
-        <v>1283.528819302094</v>
+        <v>1283.528756599555</v>
       </c>
       <c r="E6">
-        <v>3489.25611053682</v>
+        <v>3486.269576105035</v>
       </c>
       <c r="F6">
-        <v>1283.528869304594</v>
+        <v>1283.528806602055</v>
       </c>
       <c r="G6">
-        <v>11076.55297267731</v>
+        <v>11077.04215914734</v>
       </c>
       <c r="H6">
-        <v>1.212781793259066</v>
+        <v>1.212768394001139</v>
       </c>
       <c r="I6">
-        <v>3.721927932813009</v>
+        <v>3.821871558884021</v>
       </c>
       <c r="J6">
-        <v>0.5961684907143696</v>
+        <v>0.5962807081069034</v>
       </c>
       <c r="K6">
-        <v>2.425563586518132</v>
+        <v>2.425536788002278</v>
       </c>
       <c r="L6" t="s">
         <v>49</v>
       </c>
       <c r="M6">
-        <v>1387.597118996358</v>
+        <v>1387.597118332748</v>
       </c>
       <c r="N6">
-        <v>7159.727310668255</v>
+        <v>7159.721426923975</v>
       </c>
       <c r="O6">
-        <v>1387.597168998858</v>
+        <v>1387.597168335248</v>
       </c>
       <c r="P6">
-        <v>18583.56743725797</v>
+        <v>18583.42509811092</v>
       </c>
       <c r="Q6">
-        <v>0.967285461683675</v>
+        <v>0.9672858909584132</v>
       </c>
       <c r="S6">
-        <v>6.454182950187187</v>
+        <v>6.453242189694992</v>
       </c>
       <c r="T6">
-        <v>0.6514527940516144</v>
+        <v>0.6514382504058682</v>
       </c>
       <c r="U6">
-        <v>1.93457092336735</v>
+        <v>1.934571781916826</v>
       </c>
       <c r="V6" t="s">
         <v>49</v>
       </c>
       <c r="W6">
-        <v>1263.468225981421</v>
+        <v>1263.465998655362</v>
       </c>
       <c r="X6">
-        <v>1265.465839131508</v>
+        <v>1292.840908403106</v>
       </c>
       <c r="Y6">
-        <v>2.185418354722417</v>
+        <v>2.224367624571414</v>
       </c>
       <c r="Z6">
-        <v>1408.98598802434</v>
+        <v>1408.986045706742</v>
       </c>
       <c r="AA6">
-        <v>2008.038440916199</v>
+        <v>2007.626425700544</v>
       </c>
       <c r="AB6">
-        <v>1.900696054019485</v>
+        <v>1.900335298791257</v>
       </c>
       <c r="AC6">
-        <v>1369.767047465218</v>
+        <v>1369.767035814685</v>
       </c>
       <c r="AD6">
-        <v>237.6538845777187</v>
+        <v>237.6817199531145</v>
       </c>
       <c r="AE6">
-        <v>0.4823742972168144</v>
+        <v>0.482374274163515</v>
       </c>
       <c r="AF6">
-        <v>1381.560599713861</v>
+        <v>1381.574209138537</v>
       </c>
       <c r="AG6">
-        <v>1204.26232417848</v>
+        <v>1204.879818592681</v>
       </c>
       <c r="AH6">
-        <v>16.17691523450666</v>
+        <v>16.18523838977968</v>
       </c>
       <c r="AI6">
-        <v>1279.77511353325</v>
+        <v>1281.764153652764</v>
       </c>
       <c r="AJ6">
-        <v>1211.517784785733</v>
+        <v>922.1381380360406</v>
       </c>
       <c r="AK6">
-        <v>22.18394570899532</v>
+        <v>19.94780241479366</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1195,106 +1195,106 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>104.8866189548082</v>
+        <v>104.8868100282075</v>
       </c>
       <c r="D7">
-        <v>1281.88907510107</v>
+        <v>1281.888983985242</v>
       </c>
       <c r="E7">
-        <v>30379.42090076623</v>
+        <v>30344.97041090761</v>
       </c>
       <c r="F7">
-        <v>1281.88912510357</v>
+        <v>1281.888933982742</v>
       </c>
       <c r="G7">
-        <v>90018.45137289981</v>
+        <v>89788.66201611368</v>
       </c>
       <c r="H7">
-        <v>1.071777779501954</v>
+        <v>1.071560090597576</v>
       </c>
       <c r="I7">
-        <v>32.3421621353319</v>
+        <v>33.7286677471191</v>
       </c>
       <c r="J7">
-        <v>0.741807613025274</v>
+        <v>0.7380824900486804</v>
       </c>
       <c r="K7">
-        <v>2.143555559003907</v>
+        <v>2.143120181195152</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
       </c>
       <c r="M7">
-        <v>1386.775794060879</v>
+        <v>1386.775794013449</v>
       </c>
       <c r="N7">
-        <v>58208.92090503233</v>
+        <v>58208.92549527358</v>
       </c>
       <c r="O7">
-        <v>1386.775744058378</v>
+        <v>1386.775744010949</v>
       </c>
       <c r="P7">
-        <v>166901.7076173946</v>
+        <v>166901.8290845899</v>
       </c>
       <c r="Q7">
-        <v>1.026372305592948</v>
+        <v>1.026372264206658</v>
       </c>
       <c r="S7">
-        <v>46.87271128401891</v>
+        <v>46.86727233993703</v>
       </c>
       <c r="T7">
-        <v>0.7555304133624288</v>
+        <v>0.7555317255910026</v>
       </c>
       <c r="U7">
-        <v>2.052744611185895</v>
+        <v>2.052744528413315</v>
       </c>
       <c r="V7" t="s">
         <v>49</v>
       </c>
       <c r="W7">
-        <v>1261.742840124733</v>
+        <v>1261.789677239491</v>
       </c>
       <c r="X7">
-        <v>12258.88753321141</v>
+        <v>12372.95717052931</v>
       </c>
       <c r="Y7">
-        <v>3.212322654505554</v>
+        <v>3.211825542166687</v>
       </c>
       <c r="Z7">
-        <v>1408.080263591396</v>
+        <v>1408.080232042952</v>
       </c>
       <c r="AA7">
-        <v>15464.5298486343</v>
+        <v>15463.86967775415</v>
       </c>
       <c r="AB7">
-        <v>2.799791126942308</v>
+        <v>2.800108861377019</v>
       </c>
       <c r="AC7">
-        <v>1369.544862548211</v>
+        <v>1369.545243517332</v>
       </c>
       <c r="AD7">
-        <v>1991.004234491088</v>
+        <v>1991.308911176011</v>
       </c>
       <c r="AE7">
-        <v>0.5123864461621754</v>
+        <v>0.5123863445803297</v>
       </c>
       <c r="AF7">
-        <v>1386.907308002764</v>
+        <v>1386.908099315165</v>
       </c>
       <c r="AG7">
-        <v>15445.68808924585</v>
+        <v>15445.68097400491</v>
       </c>
       <c r="AH7">
-        <v>15.25228864431229</v>
+        <v>15.25237252192918</v>
       </c>
       <c r="AI7">
-        <v>1283.422980853106</v>
+        <v>1283.975908136263</v>
       </c>
       <c r="AJ7">
-        <v>11464.04929015567</v>
+        <v>9617.207658762525</v>
       </c>
       <c r="AK7">
-        <v>13.72605984323579</v>
+        <v>11.82120599479968</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1305,106 +1305,106 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>104.8017200966906</v>
+        <v>104.8018815788087</v>
       </c>
       <c r="D8">
-        <v>1282.036992983411</v>
+        <v>1282.036831628419</v>
       </c>
       <c r="E8">
-        <v>29870.12344271944</v>
+        <v>29839.52648868916</v>
       </c>
       <c r="F8">
-        <v>1282.036942980911</v>
+        <v>1282.036781625919</v>
       </c>
       <c r="G8">
-        <v>88160.65154073133</v>
+        <v>87994.28239777667</v>
       </c>
       <c r="H8">
-        <v>1.07362682931085</v>
+        <v>1.07346205867944</v>
       </c>
       <c r="I8">
-        <v>32.56759609500725</v>
+        <v>33.33659783634976</v>
       </c>
       <c r="J8">
-        <v>0.7274224271053745</v>
+        <v>0.7246475071288185</v>
       </c>
       <c r="K8">
-        <v>2.147253658621701</v>
+        <v>2.14692411735888</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
       </c>
       <c r="M8">
-        <v>1386.838713080102</v>
+        <v>1386.838713207228</v>
       </c>
       <c r="N8">
-        <v>57199.58486310243</v>
+        <v>57199.59335548995</v>
       </c>
       <c r="O8">
-        <v>1386.838663077602</v>
+        <v>1386.838663204728</v>
       </c>
       <c r="P8">
-        <v>162202.382401414</v>
+        <v>162202.6343576041</v>
       </c>
       <c r="Q8">
-        <v>1.021362700831028</v>
+        <v>1.021362676683424</v>
       </c>
       <c r="S8">
-        <v>46.83239054876043</v>
+        <v>46.8342854079804</v>
       </c>
       <c r="T8">
-        <v>0.7401474560565362</v>
+        <v>0.7401501207069918</v>
       </c>
       <c r="U8">
-        <v>2.042725401662056</v>
+        <v>2.042725353366847</v>
       </c>
       <c r="V8" t="s">
         <v>49</v>
       </c>
       <c r="W8">
-        <v>1261.928120989732</v>
+        <v>1261.972479400157</v>
       </c>
       <c r="X8">
-        <v>12517.12002016837</v>
+        <v>12483.55643172245</v>
       </c>
       <c r="Y8">
-        <v>3.218898260553122</v>
+        <v>3.218381928692018</v>
       </c>
       <c r="Z8">
-        <v>1408.171140087663</v>
+        <v>1408.171140270667</v>
       </c>
       <c r="AA8">
-        <v>15270.89133519147</v>
+        <v>15273.33380849432</v>
       </c>
       <c r="AB8">
-        <v>2.663107488602925</v>
+        <v>2.662937728833496</v>
       </c>
       <c r="AC8">
-        <v>1369.548992523463</v>
+        <v>1369.548992627606</v>
       </c>
       <c r="AD8">
-        <v>1940.605001822975</v>
+        <v>1940.612754040422</v>
       </c>
       <c r="AE8">
-        <v>0.5098611658749261</v>
+        <v>0.5098611665065548</v>
       </c>
       <c r="AF8">
-        <v>1386.74589719222</v>
+        <v>1386.743598747168</v>
       </c>
       <c r="AG8">
-        <v>14473.40100691585</v>
+        <v>14471.14399588187</v>
       </c>
       <c r="AH8">
-        <v>15.34084335822093</v>
+        <v>15.3396050677217</v>
       </c>
       <c r="AI8">
-        <v>1284.397674398874</v>
+        <v>1284.70634421266</v>
       </c>
       <c r="AJ8">
-        <v>10260.04085044253</v>
+        <v>8747.256965297918</v>
       </c>
       <c r="AK8">
-        <v>12.88775454639097</v>
+        <v>11.37575329728699</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1415,106 +1415,106 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>104.7003558476947</v>
+        <v>104.7004138870464</v>
       </c>
       <c r="D9">
-        <v>1282.221636216673</v>
+        <v>1282.221578304502</v>
       </c>
       <c r="E9">
-        <v>28916.84507900834</v>
+        <v>28888.88105838941</v>
       </c>
       <c r="F9">
-        <v>1282.221586214172</v>
+        <v>1282.221528302002</v>
       </c>
       <c r="G9">
-        <v>85316.89735660466</v>
+        <v>85184.36312431714</v>
       </c>
       <c r="H9">
-        <v>1.076237422964805</v>
+        <v>1.076145134233272</v>
       </c>
       <c r="I9">
-        <v>30.8850520013057</v>
+        <v>31.21864002821825</v>
       </c>
       <c r="J9">
-        <v>0.7179579378233887</v>
+        <v>0.7155597704558642</v>
       </c>
       <c r="K9">
-        <v>2.15247484592961</v>
+        <v>2.152290268466544</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
       </c>
       <c r="M9">
-        <v>1386.921892059367</v>
+        <v>1386.921892186549</v>
       </c>
       <c r="N9">
-        <v>55484.77748250605</v>
+        <v>55484.77668014246</v>
       </c>
       <c r="O9">
-        <v>1386.921942061867</v>
+        <v>1386.921942189049</v>
       </c>
       <c r="P9">
-        <v>154794.2731140872</v>
+        <v>154794.2765620148</v>
       </c>
       <c r="Q9">
-        <v>1.010723251289345</v>
+        <v>1.010723297011116</v>
       </c>
       <c r="S9">
-        <v>49.47894718751608</v>
+        <v>49.48269078216374</v>
       </c>
       <c r="T9">
-        <v>0.7262953028792517</v>
+        <v>0.7262952233857991</v>
       </c>
       <c r="U9">
-        <v>2.02144650257869</v>
+        <v>2.021446594022232</v>
       </c>
       <c r="V9" t="s">
         <v>49</v>
       </c>
       <c r="W9">
-        <v>1262.117832911509</v>
+        <v>1262.142006298195</v>
       </c>
       <c r="X9">
-        <v>12291.50200755396</v>
+        <v>11930.96450802724</v>
       </c>
       <c r="Y9">
-        <v>3.218448184222668</v>
+        <v>3.117481738186523</v>
       </c>
       <c r="Z9">
-        <v>1408.253535519731</v>
+        <v>1408.253588268903</v>
       </c>
       <c r="AA9">
-        <v>15400.02611500276</v>
+        <v>15401.16958632971</v>
       </c>
       <c r="AB9">
-        <v>2.530687225894553</v>
+        <v>2.530085604259976</v>
       </c>
       <c r="AC9">
-        <v>1369.568296688094</v>
+        <v>1369.568233070651</v>
       </c>
       <c r="AD9">
-        <v>1842.105051582262</v>
+        <v>1841.874097703146</v>
       </c>
       <c r="AE9">
-        <v>0.5046529226197681</v>
+        <v>0.5046529788923625</v>
       </c>
       <c r="AF9">
-        <v>1385.337717090046</v>
+        <v>1385.336013907098</v>
       </c>
       <c r="AG9">
-        <v>13403.30762420714</v>
+        <v>13402.73358512288</v>
       </c>
       <c r="AH9">
-        <v>14.64988370686458</v>
+        <v>14.64940812944357</v>
       </c>
       <c r="AI9">
-        <v>1285.152033360348</v>
+        <v>1285.10360331304</v>
       </c>
       <c r="AJ9">
-        <v>9148.205203843399</v>
+        <v>7982.572248014918</v>
       </c>
       <c r="AK9">
-        <v>13.30489075891099</v>
+        <v>12.15491775905931</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1525,106 +1525,106 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>104.649246356483</v>
+        <v>104.6492937636167</v>
       </c>
       <c r="D10">
-        <v>1282.314935009189</v>
+        <v>1282.314887465148</v>
       </c>
       <c r="E10">
-        <v>28702.14224577214</v>
+        <v>28671.24415340627</v>
       </c>
       <c r="F10">
-        <v>1282.314885006689</v>
+        <v>1282.314837462648</v>
       </c>
       <c r="G10">
-        <v>84821.84426653621</v>
+        <v>84678.80669581388</v>
       </c>
       <c r="H10">
-        <v>1.082583828183045</v>
+        <v>1.082499301981117</v>
       </c>
       <c r="I10">
-        <v>32.12623351083221</v>
+        <v>32.40707890881654</v>
       </c>
       <c r="J10">
-        <v>0.7075983007297127</v>
+        <v>0.7049499791224537</v>
       </c>
       <c r="K10">
-        <v>2.165167656366089</v>
+        <v>2.164998603962234</v>
       </c>
       <c r="L10" t="s">
         <v>49</v>
       </c>
       <c r="M10">
-        <v>1386.964181365672</v>
+        <v>1386.964181228764</v>
       </c>
       <c r="N10">
-        <v>55425.97160929334</v>
+        <v>55425.9686960186</v>
       </c>
       <c r="O10">
-        <v>1386.964131363172</v>
+        <v>1386.964131226264</v>
       </c>
       <c r="P10">
-        <v>153543.9494138448</v>
+        <v>153543.8738327501</v>
       </c>
       <c r="Q10">
-        <v>1.00390843701207</v>
+        <v>1.003908476632274</v>
       </c>
       <c r="S10">
-        <v>45.09650751274634</v>
+        <v>45.09533458141363</v>
       </c>
       <c r="T10">
-        <v>0.7240885784529663</v>
+        <v>0.7240876041943284</v>
       </c>
       <c r="U10">
-        <v>2.00781687402414</v>
+        <v>2.007816953264548</v>
       </c>
       <c r="V10" t="s">
         <v>49</v>
       </c>
       <c r="W10">
-        <v>1262.216827514924</v>
+        <v>1262.242601300955</v>
       </c>
       <c r="X10">
-        <v>12563.13596455659</v>
+        <v>12061.00771032144</v>
       </c>
       <c r="Y10">
-        <v>3.239559410506343</v>
+        <v>3.11160428890289</v>
       </c>
       <c r="Z10">
-        <v>1408.301167063854</v>
+        <v>1408.301230340493</v>
       </c>
       <c r="AA10">
-        <v>15078.59897140502</v>
+        <v>15077.86167402011</v>
       </c>
       <c r="AB10">
-        <v>2.497953627987417</v>
+        <v>2.4974211229282</v>
       </c>
       <c r="AC10">
-        <v>1369.588311716183</v>
+        <v>1369.588315265164</v>
       </c>
       <c r="AD10">
-        <v>1898.34598415018</v>
+        <v>1898.386486341248</v>
       </c>
       <c r="AE10">
-        <v>0.5012248611519241</v>
+        <v>0.5012250227991257</v>
       </c>
       <c r="AF10">
-        <v>1385.8883233372</v>
+        <v>1385.889993572342</v>
       </c>
       <c r="AG10">
-        <v>12727.43380108534</v>
+        <v>12728.36144833529</v>
       </c>
       <c r="AH10">
-        <v>15.42232362540409</v>
+        <v>15.42337172211148</v>
       </c>
       <c r="AI10">
-        <v>1285.844392558135</v>
+        <v>1285.663052791519</v>
       </c>
       <c r="AJ10">
-        <v>8702.298969341769</v>
+        <v>7538.306872584559</v>
       </c>
       <c r="AK10">
-        <v>12.74722236087225</v>
+        <v>11.64264861918377</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1635,106 +1635,106 @@
         <v>45</v>
       </c>
       <c r="C11">
-        <v>104.5921805490543</v>
+        <v>104.5928126114977</v>
       </c>
       <c r="D11">
-        <v>1282.423043641377</v>
+        <v>1282.422511255556</v>
       </c>
       <c r="E11">
-        <v>27837.94021136283</v>
+        <v>27808.75750339062</v>
       </c>
       <c r="F11">
-        <v>1282.423093643877</v>
+        <v>1282.422461253056</v>
       </c>
       <c r="G11">
-        <v>82550.77430937519</v>
+        <v>82327.99564310031</v>
       </c>
       <c r="H11">
-        <v>1.087030234241068</v>
+        <v>1.086695482653225</v>
       </c>
       <c r="I11">
-        <v>31.12520716971445</v>
+        <v>31.60549305743164</v>
       </c>
       <c r="J11">
-        <v>0.7036046678314473</v>
+        <v>0.6998370741170293</v>
       </c>
       <c r="K11">
-        <v>2.174060468482137</v>
+        <v>2.173390965306449</v>
       </c>
       <c r="L11" t="s">
         <v>49</v>
       </c>
       <c r="M11">
-        <v>1387.015324195432</v>
+        <v>1387.015323867053</v>
       </c>
       <c r="N11">
-        <v>53953.75051794459</v>
+        <v>53953.73509823385</v>
       </c>
       <c r="O11">
-        <v>1387.015274192932</v>
+        <v>1387.015273864553</v>
       </c>
       <c r="P11">
-        <v>148492.134822727</v>
+        <v>148491.7556424952</v>
       </c>
       <c r="Q11">
-        <v>0.9979383024019841</v>
+        <v>0.9979384483065841</v>
       </c>
       <c r="S11">
-        <v>44.99605225985803</v>
+        <v>44.99538839882754</v>
       </c>
       <c r="T11">
-        <v>0.7221235481392299</v>
+        <v>0.7221188253001614</v>
       </c>
       <c r="U11">
-        <v>1.995876604803968</v>
+        <v>1.995876896613168</v>
       </c>
       <c r="V11" t="s">
         <v>49</v>
       </c>
       <c r="W11">
-        <v>1262.350989578253</v>
+        <v>1262.400272530145</v>
       </c>
       <c r="X11">
-        <v>10285.12117702119</v>
+        <v>11752.94610199405</v>
       </c>
       <c r="Y11">
-        <v>2.809876570844418</v>
+        <v>3.107531900048968</v>
       </c>
       <c r="Z11">
-        <v>1408.363960250719</v>
+        <v>1408.364013983661</v>
       </c>
       <c r="AA11">
-        <v>14701.85191277854</v>
+        <v>14698.31474688056</v>
       </c>
       <c r="AB11">
-        <v>2.399255104772506</v>
+        <v>2.399001798731201</v>
       </c>
       <c r="AC11">
-        <v>1369.590141570878</v>
+        <v>1369.590160611281</v>
       </c>
       <c r="AD11">
-        <v>1850.567359026356</v>
+        <v>1850.8084809749</v>
       </c>
       <c r="AE11">
-        <v>0.4981191942714219</v>
+        <v>0.4981193353875173</v>
       </c>
       <c r="AF11">
-        <v>1385.977783045168</v>
+        <v>1385.983771230878</v>
       </c>
       <c r="AG11">
-        <v>12339.74386515496</v>
+        <v>12343.21854318623</v>
       </c>
       <c r="AH11">
-        <v>16.07327196500686</v>
+        <v>16.07630846059018</v>
       </c>
       <c r="AI11">
-        <v>1282.865249619122</v>
+        <v>1286.365970860786</v>
       </c>
       <c r="AJ11">
-        <v>10167.33091525949</v>
+        <v>6889.765839748602</v>
       </c>
       <c r="AK11">
-        <v>17.28571753137428</v>
+        <v>11.68444839107632</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1745,106 +1745,106 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>104.5283078861826</v>
+        <v>104.5283346550509</v>
       </c>
       <c r="D12">
-        <v>1282.556637147004</v>
+        <v>1282.556610392357</v>
       </c>
       <c r="E12">
-        <v>26116.38533561481</v>
+        <v>26093.13378463376</v>
       </c>
       <c r="F12">
-        <v>1282.556587144504</v>
+        <v>1282.556560389857</v>
       </c>
       <c r="G12">
-        <v>77687.35855074393</v>
+        <v>77623.27651417826</v>
       </c>
       <c r="H12">
-        <v>1.096680128154716</v>
+        <v>1.096656218151082</v>
       </c>
       <c r="I12">
-        <v>34.34180747443114</v>
+        <v>34.6065843925966</v>
       </c>
       <c r="J12">
-        <v>0.6894321428427368</v>
+        <v>0.6880754574362306</v>
       </c>
       <c r="K12">
-        <v>2.193360256309433</v>
+        <v>2.193312436302164</v>
       </c>
       <c r="L12" t="s">
         <v>49</v>
       </c>
       <c r="M12">
-        <v>1387.084845028186</v>
+        <v>1387.084845042408</v>
       </c>
       <c r="N12">
-        <v>50879.22596248755</v>
+        <v>50879.22690829908</v>
       </c>
       <c r="O12">
-        <v>1387.084895030686</v>
+        <v>1387.084895044908</v>
       </c>
       <c r="P12">
-        <v>138780.1978167919</v>
+        <v>138780.2206958605</v>
       </c>
       <c r="Q12">
-        <v>0.9919694530806409</v>
+        <v>0.9919694441902652</v>
       </c>
       <c r="S12">
-        <v>38.8341272351274</v>
+        <v>38.83425482343576</v>
       </c>
       <c r="T12">
-        <v>0.7139269070784922</v>
+        <v>0.7139272084753743</v>
       </c>
       <c r="U12">
-        <v>1.983938906161282</v>
+        <v>1.98393888838053</v>
       </c>
       <c r="V12" t="s">
         <v>49</v>
       </c>
       <c r="W12">
-        <v>1262.469754965305</v>
+        <v>1262.48856247416</v>
       </c>
       <c r="X12">
-        <v>11356.28526483407</v>
+        <v>10913.15029999522</v>
       </c>
       <c r="Y12">
-        <v>3.108487299251562</v>
+        <v>2.988074702803588</v>
       </c>
       <c r="Z12">
-        <v>1408.433868521351</v>
+        <v>1408.433870997297</v>
       </c>
       <c r="AA12">
-        <v>13991.41355583596</v>
+        <v>13991.60136609716</v>
       </c>
       <c r="AB12">
-        <v>2.357544805062003</v>
+        <v>2.357508819589025</v>
       </c>
       <c r="AC12">
-        <v>1369.606317842155</v>
+        <v>1369.60631773827</v>
       </c>
       <c r="AD12">
-        <v>1717.892910929028</v>
+        <v>1717.891306553505</v>
       </c>
       <c r="AE12">
-        <v>0.4949926182152982</v>
+        <v>0.4949926200286653</v>
       </c>
       <c r="AF12">
-        <v>1384.961388744078</v>
+        <v>1384.961097583291</v>
       </c>
       <c r="AG12">
-        <v>10576.93364120173</v>
+        <v>10576.74862490588</v>
       </c>
       <c r="AH12">
-        <v>15.79162324645591</v>
+        <v>15.79144377512745</v>
       </c>
       <c r="AI12">
-        <v>1287.620727292672</v>
+        <v>1287.496118878822</v>
       </c>
       <c r="AJ12">
-        <v>7536.56406161087</v>
+        <v>6596.542666405434</v>
       </c>
       <c r="AK12">
-        <v>13.35508306579045</v>
+        <v>12.51744223446433</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1855,106 +1855,106 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>104.4412170779108</v>
+        <v>104.4418423469142</v>
       </c>
       <c r="D13">
-        <v>1282.731559171592</v>
+        <v>1282.731033914628</v>
       </c>
       <c r="E13">
-        <v>14929.89294401888</v>
+        <v>14917.97726975859</v>
       </c>
       <c r="F13">
-        <v>1282.731609174092</v>
+        <v>1282.730983912128</v>
       </c>
       <c r="G13">
-        <v>44966.13882659719</v>
+        <v>44962.29857117086</v>
       </c>
       <c r="H13">
-        <v>1.107363162682109</v>
+        <v>1.107161843145317</v>
       </c>
       <c r="I13">
-        <v>16.62949747238742</v>
+        <v>17.60831232052928</v>
       </c>
       <c r="J13">
-        <v>0.6926406797400113</v>
+        <v>0.6929834648433405</v>
       </c>
       <c r="K13">
-        <v>2.214726325364219</v>
+        <v>2.214323686290633</v>
       </c>
       <c r="L13" t="s">
         <v>49</v>
       </c>
       <c r="M13">
-        <v>1387.172776249503</v>
+        <v>1387.172776256542</v>
       </c>
       <c r="N13">
-        <v>29356.83720467423</v>
+        <v>29356.84237168048</v>
       </c>
       <c r="O13">
-        <v>1387.172826252003</v>
+        <v>1387.172826259042</v>
       </c>
       <c r="P13">
-        <v>79228.06050283472</v>
+        <v>79228.18879199799</v>
       </c>
       <c r="Q13">
-        <v>0.9800098059506859</v>
+        <v>0.9800097382732106</v>
       </c>
       <c r="S13">
-        <v>22.15614835454804</v>
+        <v>22.15643040939512</v>
       </c>
       <c r="T13">
-        <v>0.7163381369337839</v>
+        <v>0.7163410226670377</v>
       </c>
       <c r="U13">
-        <v>1.960019611901372</v>
+        <v>1.960019476546421</v>
       </c>
       <c r="V13" t="s">
         <v>49</v>
       </c>
       <c r="W13">
-        <v>1262.625481146838</v>
+        <v>1262.65577316832</v>
       </c>
       <c r="X13">
-        <v>5406.463352832475</v>
+        <v>6271.909623558962</v>
       </c>
       <c r="Y13">
-        <v>2.587638816426935</v>
+        <v>2.920139473983684</v>
       </c>
       <c r="Z13">
-        <v>1408.510417776882</v>
+        <v>1408.510429931705</v>
       </c>
       <c r="AA13">
-        <v>8305.074394310795</v>
+        <v>8305.580788473442</v>
       </c>
       <c r="AB13">
-        <v>2.270156975163738</v>
+        <v>2.269978118783623</v>
       </c>
       <c r="AC13">
-        <v>1369.629837671011</v>
+        <v>1369.629842399211</v>
       </c>
       <c r="AD13">
-        <v>1005.867793125203</v>
+        <v>1005.990346923887</v>
       </c>
       <c r="AE13">
-        <v>0.4887696443155753</v>
+        <v>0.4887698243721418</v>
       </c>
       <c r="AF13">
-        <v>1383.925199177076</v>
+        <v>1383.924633862897</v>
       </c>
       <c r="AG13">
-        <v>5680.660089570938</v>
+        <v>5680.033081755016</v>
       </c>
       <c r="AH13">
-        <v>16.0878369557016</v>
+        <v>16.08724509175524</v>
       </c>
       <c r="AI13">
-        <v>1282.436299181152</v>
+        <v>1288.017159922867</v>
       </c>
       <c r="AJ13">
-        <v>5051.014707028477</v>
+        <v>3068.569724485375</v>
       </c>
       <c r="AK13">
-        <v>19.39066380447843</v>
+        <v>12.53682486071012</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1965,106 +1965,106 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>104.3843420628157</v>
+        <v>104.3844299670398</v>
       </c>
       <c r="D14">
-        <v>1282.850161012111</v>
+        <v>1282.850173114743</v>
       </c>
       <c r="E14">
-        <v>3953.757641435436</v>
+        <v>3950.41060703261</v>
       </c>
       <c r="F14">
-        <v>1282.850111009611</v>
+        <v>1282.850023107243</v>
       </c>
       <c r="G14">
-        <v>11926.82719988605</v>
+        <v>11924.93617466462</v>
       </c>
       <c r="H14">
-        <v>1.107727652873427</v>
+        <v>1.107727125048333</v>
       </c>
       <c r="I14">
-        <v>5.441436715099147</v>
+        <v>5.285675800141982</v>
       </c>
       <c r="J14">
-        <v>0.693641651314289</v>
+        <v>0.6933681386608419</v>
       </c>
       <c r="K14">
-        <v>2.215455305746855</v>
+        <v>2.215454250096665</v>
       </c>
       <c r="L14" t="s">
         <v>49</v>
       </c>
       <c r="M14">
-        <v>1387.234403069926</v>
+        <v>1387.234403071782</v>
       </c>
       <c r="N14">
-        <v>7749.415797683992</v>
+        <v>7749.415890311578</v>
       </c>
       <c r="O14">
-        <v>1387.234453072427</v>
+        <v>1387.234453074283</v>
       </c>
       <c r="P14">
-        <v>20844.67522620203</v>
+        <v>20844.67858390975</v>
       </c>
       <c r="Q14">
-        <v>0.9798715630000432</v>
+        <v>0.9798715710968546</v>
       </c>
       <c r="S14">
-        <v>6.032724715690596</v>
+        <v>6.032740480811333</v>
       </c>
       <c r="T14">
-        <v>0.7076708910088947</v>
+        <v>0.7076711401341902</v>
       </c>
       <c r="U14">
-        <v>1.959743126000086</v>
+        <v>1.959743142193709</v>
       </c>
       <c r="V14" t="s">
         <v>49</v>
       </c>
       <c r="W14">
-        <v>1262.772290433368</v>
+        <v>1262.792303141506</v>
       </c>
       <c r="X14">
-        <v>1774.883293698979</v>
+        <v>1710.926308898288</v>
       </c>
       <c r="Y14">
-        <v>3.020410962703126</v>
+        <v>2.913509069358828</v>
       </c>
       <c r="Z14">
-        <v>1408.584523101346</v>
+        <v>1408.584522639381</v>
       </c>
       <c r="AA14">
-        <v>2160.2851602455</v>
+        <v>2160.284480653922</v>
       </c>
       <c r="AB14">
-        <v>2.258534693797938</v>
+        <v>2.258534057225157</v>
       </c>
       <c r="AC14">
-        <v>1369.645314939548</v>
+        <v>1369.645599836226</v>
       </c>
       <c r="AD14">
-        <v>266.1557643899489</v>
+        <v>266.1499388110757</v>
       </c>
       <c r="AE14">
-        <v>0.4885976274038515</v>
+        <v>0.4885976269908106</v>
       </c>
       <c r="AF14">
-        <v>1383.386463528387</v>
+        <v>1383.386308547076</v>
       </c>
       <c r="AG14">
-        <v>1366.453405094706</v>
+        <v>1366.459986603946</v>
       </c>
       <c r="AH14">
-        <v>15.94888067905873</v>
+        <v>15.9490676300213</v>
       </c>
       <c r="AI14">
-        <v>1289.473180670511</v>
+        <v>1289.639915600924</v>
       </c>
       <c r="AJ14">
-        <v>854.1202680336515</v>
+        <v>697.4562771957657</v>
       </c>
       <c r="AK14">
-        <v>13.038962299408</v>
+        <v>11.71868118827373</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>filename</t>
   </si>
@@ -124,9 +124,24 @@
     <t>Diad1_Gauss_Sigma</t>
   </si>
   <si>
+    <t>FG04_31_MI3 (1)</t>
+  </si>
+  <si>
+    <t>FG04_31_MI3</t>
+  </si>
+  <si>
+    <t>FG04_31_MI4 (1)</t>
+  </si>
+  <si>
     <t>POC1</t>
   </si>
   <si>
+    <t>POC10</t>
+  </si>
+  <si>
+    <t>POC11</t>
+  </si>
+  <si>
     <t>POC12</t>
   </si>
   <si>
@@ -139,13 +154,100 @@
     <t>POC15</t>
   </si>
   <si>
+    <t>POC16</t>
+  </si>
+  <si>
+    <t>POC17</t>
+  </si>
+  <si>
+    <t>POC18</t>
+  </si>
+  <si>
+    <t>POC19</t>
+  </si>
+  <si>
     <t>POC2</t>
   </si>
   <si>
+    <t>POC20</t>
+  </si>
+  <si>
+    <t>POC21</t>
+  </si>
+  <si>
+    <t>POC22</t>
+  </si>
+  <si>
+    <t>POC23</t>
+  </si>
+  <si>
+    <t>POC24</t>
+  </si>
+  <si>
+    <t>POC26</t>
+  </si>
+  <si>
+    <t>POC27</t>
+  </si>
+  <si>
+    <t>POC28</t>
+  </si>
+  <si>
+    <t>POC29</t>
+  </si>
+  <si>
     <t>POC3</t>
   </si>
   <si>
+    <t>POC30</t>
+  </si>
+  <si>
+    <t>POC31</t>
+  </si>
+  <si>
+    <t>POC32</t>
+  </si>
+  <si>
+    <t>POC33</t>
+  </si>
+  <si>
+    <t>POC34</t>
+  </si>
+  <si>
+    <t>POC35</t>
+  </si>
+  <si>
+    <t>POC36</t>
+  </si>
+  <si>
+    <t>POC37</t>
+  </si>
+  <si>
+    <t>POC38</t>
+  </si>
+  <si>
+    <t>POC39</t>
+  </si>
+  <si>
     <t>POC4</t>
+  </si>
+  <si>
+    <t>POC40</t>
+  </si>
+  <si>
+    <t>POC41</t>
+  </si>
+  <si>
+    <t>POC42</t>
+  </si>
+  <si>
+    <t>POC43</t>
+  </si>
+  <si>
+    <t>POC44</t>
+  </si>
+  <si>
+    <t>POC45</t>
   </si>
   <si>
     <t>POC5</t>
@@ -521,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,106 +747,106 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>104.9478496666325</v>
+        <v>103.5024739359617</v>
       </c>
       <c r="D2">
-        <v>1281.78285303395</v>
+        <v>1284.78218862115</v>
       </c>
       <c r="E2">
-        <v>19925.59180766373</v>
+        <v>2016.836131581833</v>
       </c>
       <c r="F2">
-        <v>1281.78280303145</v>
+        <v>1284.78233862865</v>
       </c>
       <c r="G2">
-        <v>59223.82470853057</v>
+        <v>5982.489525059562</v>
       </c>
       <c r="H2">
-        <v>1.072207796519638</v>
+        <v>1.184255709058669</v>
       </c>
       <c r="I2">
-        <v>22.2595915426198</v>
+        <v>3.980544407315822</v>
       </c>
       <c r="J2">
-        <v>0.7478997811857619</v>
+        <v>0.4815225197372087</v>
       </c>
       <c r="K2">
-        <v>2.144415593039276</v>
+        <v>2.368511418117339</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M2">
-        <v>1386.730702700583</v>
+        <v>1388.284862567112</v>
       </c>
       <c r="N2">
-        <v>38316.95205939841</v>
+        <v>4086.213787503306</v>
       </c>
       <c r="O2">
-        <v>1386.730652698083</v>
+        <v>1388.284812564612</v>
       </c>
       <c r="P2">
-        <v>110740.8923980164</v>
+        <v>9767.741621780309</v>
       </c>
       <c r="Q2">
-        <v>1.031877856068558</v>
+        <v>0.9182566546060267</v>
       </c>
       <c r="S2">
-        <v>30.09186963671485</v>
+        <v>5.203577261129728</v>
       </c>
       <c r="T2">
-        <v>0.7623922052988341</v>
+        <v>0.5728631631679982</v>
       </c>
       <c r="U2">
-        <v>2.063755712137115</v>
+        <v>1.836513309212053</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W2">
-        <v>1261.67503132038</v>
+        <v>1264.77028413111</v>
       </c>
       <c r="X2">
-        <v>8071.39044586972</v>
+        <v>882.8954352386572</v>
       </c>
       <c r="Y2">
-        <v>3.214341540171463</v>
+        <v>1.654448183305139</v>
       </c>
       <c r="Z2">
-        <v>1408.045232676294</v>
+        <v>1409.684437746694</v>
       </c>
       <c r="AA2">
-        <v>9991.231357784845</v>
+        <v>1298.541140919999</v>
       </c>
       <c r="AB2">
-        <v>2.881708240785989</v>
+        <v>1.309342710627673</v>
       </c>
       <c r="AC2">
-        <v>1369.530276842664</v>
+        <v>1370.210185449962</v>
       </c>
       <c r="AD2">
-        <v>1318.789766398923</v>
+        <v>129.6122269697012</v>
       </c>
       <c r="AE2">
-        <v>0.5152012689177474</v>
+        <v>0.4574501968441614</v>
       </c>
       <c r="AF2">
-        <v>1387.123349688856</v>
+        <v>1388.735687903949</v>
       </c>
       <c r="AG2">
-        <v>10604.90281699654</v>
+        <v>646.7058448820653</v>
       </c>
       <c r="AH2">
-        <v>15.12747104506315</v>
+        <v>22.87250984220865</v>
       </c>
       <c r="AI2">
-        <v>1283.449785285714</v>
+        <v>1277.815715000622</v>
       </c>
       <c r="AJ2">
-        <v>6552.322607782286</v>
+        <v>699.7177842539941</v>
       </c>
       <c r="AK2">
-        <v>12.02182981461524</v>
+        <v>23.86647577183846</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -755,106 +857,106 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>104.1634896641658</v>
+        <v>103.2411514030518</v>
       </c>
       <c r="D3">
-        <v>1283.321307257664</v>
+        <v>1285.256201252776</v>
       </c>
       <c r="E3">
-        <v>4282.982714565069</v>
+        <v>1311.60658745383</v>
       </c>
       <c r="F3">
-        <v>1283.321457265164</v>
+        <v>1285.256251255277</v>
       </c>
       <c r="G3">
-        <v>13347.66223231939</v>
+        <v>3553.365537968923</v>
       </c>
       <c r="H3">
-        <v>1.188501239481526</v>
+        <v>1.071777375312809</v>
       </c>
       <c r="I3">
-        <v>6.387508824700069</v>
+        <v>4.069544436642986</v>
       </c>
       <c r="J3">
-        <v>0.5996909705503961</v>
+        <v>0.4967263984462785</v>
       </c>
       <c r="K3">
-        <v>2.377002478963052</v>
+        <v>2.143554750625618</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M3">
-        <v>1387.48489692683</v>
+        <v>1388.497352655828</v>
       </c>
       <c r="N3">
-        <v>8737.258150737285</v>
+        <v>2606.136990676723</v>
       </c>
       <c r="O3">
-        <v>1387.48494692933</v>
+        <v>1388.497402658328</v>
       </c>
       <c r="P3">
-        <v>22927.36517891365</v>
+        <v>5608.903174563684</v>
       </c>
       <c r="Q3">
-        <v>0.9678053562251345</v>
+        <v>0.8356604972671242</v>
       </c>
       <c r="S3">
-        <v>7.298549309407349</v>
+        <v>4.308379340794746</v>
       </c>
       <c r="T3">
-        <v>0.6763284256856074</v>
+        <v>0.5419084991178834</v>
       </c>
       <c r="U3">
-        <v>1.935610712450269</v>
+        <v>1.671320994534248</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W3">
-        <v>1263.250347183641</v>
+        <v>1265.226825781344</v>
       </c>
       <c r="X3">
-        <v>1449.674148013675</v>
+        <v>518.0344600834214</v>
       </c>
       <c r="Y3">
-        <v>2.192785274127533</v>
+        <v>1.219160770868686</v>
       </c>
       <c r="Z3">
-        <v>1408.861594309556</v>
+        <v>1409.878986248839</v>
       </c>
       <c r="AA3">
-        <v>2411.814482672314</v>
+        <v>751.8917459877631</v>
       </c>
       <c r="AB3">
-        <v>1.965416779584328</v>
+        <v>1.015010234756613</v>
       </c>
       <c r="AC3">
-        <v>1369.725564612961</v>
+        <v>1370.311438033277</v>
       </c>
       <c r="AD3">
-        <v>288.9176788065948</v>
+        <v>72.51542737560783</v>
       </c>
       <c r="AE3">
-        <v>0.4826811841164803</v>
+        <v>0.4168536716900627</v>
       </c>
       <c r="AF3">
-        <v>1382.849182286702</v>
+        <v>1381.588106752429</v>
       </c>
       <c r="AG3">
-        <v>1399.714843556944</v>
+        <v>201.7125745116236</v>
       </c>
       <c r="AH3">
-        <v>16.73941767105325</v>
+        <v>20.84274548438298</v>
       </c>
       <c r="AI3">
-        <v>1277.422196594052</v>
+        <v>1278.358859017164</v>
       </c>
       <c r="AJ3">
-        <v>1401.45173577406</v>
+        <v>217.8568655993365</v>
       </c>
       <c r="AK3">
-        <v>21.56498089006308</v>
+        <v>26.6751181448709</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -865,106 +967,106 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>104.1340449923514</v>
+        <v>103.7099220408293</v>
       </c>
       <c r="D4">
-        <v>1283.384609768979</v>
+        <v>1284.338718476173</v>
       </c>
       <c r="E4">
-        <v>4011.283490807263</v>
+        <v>921.5743360379774</v>
       </c>
       <c r="F4">
-        <v>1283.384659771479</v>
+        <v>1284.338768478673</v>
       </c>
       <c r="G4">
-        <v>12619.83276137962</v>
+        <v>2757.625518154756</v>
       </c>
       <c r="H4">
-        <v>1.197456191505402</v>
+        <v>1.149531748144084</v>
       </c>
       <c r="I4">
-        <v>4.509574483006478</v>
+        <v>1.972799405366395</v>
       </c>
       <c r="J4">
-        <v>0.6035637898890784</v>
+        <v>0.5742091807225681</v>
       </c>
       <c r="K4">
-        <v>2.394912383010805</v>
+        <v>2.299063496288167</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M4">
-        <v>1387.51865476133</v>
+        <v>1388.048640517002</v>
       </c>
       <c r="N4">
-        <v>8263.067793784623</v>
+        <v>1854.610832143663</v>
       </c>
       <c r="O4">
-        <v>1387.51870476383</v>
+        <v>1388.048690519502</v>
       </c>
       <c r="P4">
-        <v>21696.48832772792</v>
+        <v>4503.428176736394</v>
       </c>
       <c r="Q4">
-        <v>0.9701183304143701</v>
+        <v>0.9147365234116489</v>
       </c>
       <c r="S4">
-        <v>7.067006534031276</v>
+        <v>2.683411421012937</v>
       </c>
       <c r="T4">
-        <v>0.6718931569137898</v>
+        <v>0.62250208813199</v>
       </c>
       <c r="U4">
-        <v>1.94023666082874</v>
+        <v>1.829473046823298</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W4">
-        <v>1263.382070857522</v>
+        <v>1264.203642666055</v>
       </c>
       <c r="X4">
-        <v>1483.15809202557</v>
+        <v>355.5596743953699</v>
       </c>
       <c r="Y4">
-        <v>2.268097187425845</v>
+        <v>1.848347290337601</v>
       </c>
       <c r="Z4">
-        <v>1408.878006502127</v>
+        <v>1409.431100871639</v>
       </c>
       <c r="AA4">
-        <v>2286.761835402572</v>
+        <v>510.3031736128368</v>
       </c>
       <c r="AB4">
-        <v>1.955503814436022</v>
+        <v>1.492792805515609</v>
       </c>
       <c r="AC4">
-        <v>1369.751632523907</v>
+        <v>1370.21477405011</v>
       </c>
       <c r="AD4">
-        <v>279.2425328945567</v>
+        <v>59.21211748766839</v>
       </c>
       <c r="AE4">
-        <v>0.4838007304321029</v>
+        <v>0.4562908145026895</v>
       </c>
       <c r="AF4">
-        <v>1382.424339351862</v>
+        <v>1381.05466762105</v>
       </c>
       <c r="AG4">
-        <v>1283.863427600875</v>
+        <v>244.2268460071</v>
       </c>
       <c r="AH4">
-        <v>16.29255622776407</v>
+        <v>15.89740990661249</v>
       </c>
       <c r="AI4">
-        <v>1281.758100839774</v>
+        <v>1277.272514001279</v>
       </c>
       <c r="AJ4">
-        <v>1088.686771003217</v>
+        <v>160.266464038795</v>
       </c>
       <c r="AK4">
-        <v>20.20030636654501</v>
+        <v>21.55459998380041</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -975,106 +1077,106 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>104.10837231903</v>
+        <v>104.9478663916716</v>
       </c>
       <c r="D5">
-        <v>1283.442761979152</v>
+        <v>1281.782853051227</v>
       </c>
       <c r="E5">
-        <v>3719.984586930429</v>
+        <v>19925.59182502848</v>
       </c>
       <c r="F5">
-        <v>1283.442811981652</v>
+        <v>1281.782803048727</v>
       </c>
       <c r="G5">
-        <v>11830.43207220396</v>
+        <v>59223.82689371194</v>
       </c>
       <c r="H5">
-        <v>1.211481554943264</v>
+        <v>1.072207805159362</v>
       </c>
       <c r="I5">
-        <v>4.361848430086903</v>
+        <v>22.2596015018759</v>
       </c>
       <c r="J5">
-        <v>0.6012207456352101</v>
+        <v>0.7478998208190026</v>
       </c>
       <c r="K5">
-        <v>2.422963109886529</v>
+        <v>2.144415610318724</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M5">
-        <v>1387.551134298182</v>
+        <v>1386.730719442899</v>
       </c>
       <c r="N5">
-        <v>7698.699999845526</v>
+        <v>38316.47654528952</v>
       </c>
       <c r="O5">
-        <v>1387.551184300682</v>
+        <v>1386.730669440399</v>
       </c>
       <c r="P5">
-        <v>20139.13620822139</v>
+        <v>110726.0443635604</v>
       </c>
       <c r="Q5">
-        <v>0.966907002747762</v>
+        <v>1.031880257447189</v>
       </c>
       <c r="S5">
-        <v>6.854935225355411</v>
+        <v>30.35438509294123</v>
       </c>
       <c r="T5">
-        <v>0.6706331368640742</v>
+        <v>0.7621627196740799</v>
       </c>
       <c r="U5">
-        <v>1.933814005495524</v>
+        <v>2.063760514894379</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W5">
-        <v>1263.402244461215</v>
+        <v>1261.675028322757</v>
       </c>
       <c r="X5">
-        <v>1372.236340805252</v>
+        <v>8071.346888512908</v>
       </c>
       <c r="Y5">
-        <v>2.20838909323303</v>
+        <v>3.214323281114495</v>
       </c>
       <c r="Z5">
-        <v>1408.908558074916</v>
+        <v>1408.044365920259</v>
       </c>
       <c r="AA5">
-        <v>2180.135709985438</v>
+        <v>10008.51664731564</v>
       </c>
       <c r="AB5">
-        <v>1.970350287258973</v>
+        <v>2.883646792691631</v>
       </c>
       <c r="AC5">
-        <v>1369.747029091012</v>
+        <v>1369.523672042738</v>
       </c>
       <c r="AD5">
-        <v>250.4037249456869</v>
+        <v>1257.673493487952</v>
       </c>
       <c r="AE5">
-        <v>0.4822528981574503</v>
+        <v>0.5152019260216009</v>
       </c>
       <c r="AF5">
-        <v>1381.846527084175</v>
+        <v>1386.954043682071</v>
       </c>
       <c r="AG5">
-        <v>1173.652471714056</v>
+        <v>10676.64804036343</v>
       </c>
       <c r="AH5">
-        <v>16.28332541706301</v>
+        <v>15.18171884169033</v>
       </c>
       <c r="AI5">
-        <v>1281.577327742763</v>
+        <v>1283.449720743308</v>
       </c>
       <c r="AJ5">
-        <v>1027.604867710714</v>
+        <v>6552.356610187506</v>
       </c>
       <c r="AK5">
-        <v>20.81151869087206</v>
+        <v>12.02190248084736</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1085,106 +1187,106 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>104.0683617331929</v>
+        <v>104.3060859906013</v>
       </c>
       <c r="D6">
-        <v>1283.528756599555</v>
+        <v>1283.014020840471</v>
       </c>
       <c r="E6">
-        <v>3486.269576105035</v>
+        <v>3839.584991179304</v>
       </c>
       <c r="F6">
-        <v>1283.528806602055</v>
+        <v>1283.014070842971</v>
       </c>
       <c r="G6">
-        <v>11077.04215914734</v>
+        <v>11734.97479233316</v>
       </c>
       <c r="H6">
-        <v>1.212768394001139</v>
+        <v>1.134802438079989</v>
       </c>
       <c r="I6">
-        <v>3.821871558884021</v>
+        <v>4.870762878134244</v>
       </c>
       <c r="J6">
-        <v>0.5962807081069034</v>
+        <v>0.665596145720896</v>
       </c>
       <c r="K6">
-        <v>2.425536788002278</v>
+        <v>2.269604876159979</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M6">
-        <v>1387.597118332748</v>
+        <v>1387.320106831073</v>
       </c>
       <c r="N6">
-        <v>7159.721426923975</v>
+        <v>7636.700300145299</v>
       </c>
       <c r="O6">
-        <v>1387.597168335248</v>
+        <v>1387.320156833573</v>
       </c>
       <c r="P6">
-        <v>18583.42509811092</v>
+        <v>20274.30477300307</v>
       </c>
       <c r="Q6">
-        <v>0.9672858909584132</v>
+        <v>0.9749830565108013</v>
       </c>
       <c r="S6">
-        <v>6.453242189694992</v>
+        <v>6.52467831141878</v>
       </c>
       <c r="T6">
-        <v>0.6514382504058682</v>
+        <v>0.6880515826781426</v>
       </c>
       <c r="U6">
-        <v>1.934571781916826</v>
+        <v>1.949966113021603</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W6">
-        <v>1263.465998655362</v>
+        <v>1262.917062534297</v>
       </c>
       <c r="X6">
-        <v>1292.840908403106</v>
+        <v>1408.492257466634</v>
       </c>
       <c r="Y6">
-        <v>2.224367624571414</v>
+        <v>2.454479947756828</v>
       </c>
       <c r="Z6">
-        <v>1408.986045706742</v>
+        <v>1408.687231648653</v>
       </c>
       <c r="AA6">
-        <v>2007.626425700544</v>
+        <v>2101.894215276549</v>
       </c>
       <c r="AB6">
-        <v>1.900335298791257</v>
+        <v>2.117084112123615</v>
       </c>
       <c r="AC6">
-        <v>1369.767035814685</v>
+        <v>1369.671103080343</v>
       </c>
       <c r="AD6">
-        <v>237.6817199531145</v>
+        <v>226.5909927456841</v>
       </c>
       <c r="AE6">
-        <v>0.482374274163515</v>
+        <v>0.4861237349940479</v>
       </c>
       <c r="AF6">
-        <v>1381.574209138537</v>
+        <v>1383.607969056248</v>
       </c>
       <c r="AG6">
-        <v>1204.879818592681</v>
+        <v>1392.402158373761</v>
       </c>
       <c r="AH6">
-        <v>16.18523838977968</v>
+        <v>16.72613696736671</v>
       </c>
       <c r="AI6">
-        <v>1281.764153652764</v>
+        <v>1283.126494639667</v>
       </c>
       <c r="AJ6">
-        <v>922.1381380360406</v>
+        <v>983.34927962027</v>
       </c>
       <c r="AK6">
-        <v>19.94780241479366</v>
+        <v>18.09348516198005</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1195,106 +1297,106 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>104.8868100282075</v>
+        <v>104.2506647216896</v>
       </c>
       <c r="D7">
-        <v>1281.888983985242</v>
+        <v>1283.138754877788</v>
       </c>
       <c r="E7">
-        <v>30344.97041090761</v>
+        <v>3180.584330403543</v>
       </c>
       <c r="F7">
-        <v>1281.888933982742</v>
+        <v>1283.138804880288</v>
       </c>
       <c r="G7">
-        <v>89788.66201611368</v>
+        <v>9823.971976539269</v>
       </c>
       <c r="H7">
-        <v>1.071560090597576</v>
+        <v>1.167960201955865</v>
       </c>
       <c r="I7">
-        <v>33.7286677471191</v>
+        <v>4.486729839605801</v>
       </c>
       <c r="J7">
-        <v>0.7380824900486804</v>
+        <v>0.621376561883289</v>
       </c>
       <c r="K7">
-        <v>2.143120181195152</v>
+        <v>2.335920403911729</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M7">
-        <v>1386.775794013449</v>
+        <v>1387.389419599478</v>
       </c>
       <c r="N7">
-        <v>58208.92549527358</v>
+        <v>6469.97202226457</v>
       </c>
       <c r="O7">
-        <v>1386.775744010949</v>
+        <v>1387.389469601978</v>
       </c>
       <c r="P7">
-        <v>166901.8290845899</v>
+        <v>17129.68351909966</v>
       </c>
       <c r="Q7">
-        <v>1.026372264206658</v>
+        <v>0.9640919567959296</v>
       </c>
       <c r="S7">
-        <v>46.86727233993703</v>
+        <v>5.255771434638009</v>
       </c>
       <c r="T7">
-        <v>0.7555317255910026</v>
+        <v>0.7068214317368068</v>
       </c>
       <c r="U7">
-        <v>2.052744528413315</v>
+        <v>1.928183913591859</v>
       </c>
       <c r="V7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W7">
-        <v>1261.789677239491</v>
+        <v>1263.067793250146</v>
       </c>
       <c r="X7">
-        <v>12372.95717052931</v>
+        <v>1171.13855048081</v>
       </c>
       <c r="Y7">
-        <v>3.211825542166687</v>
+        <v>2.391827090104907</v>
       </c>
       <c r="Z7">
-        <v>1408.080232042952</v>
+        <v>1408.756296201366</v>
       </c>
       <c r="AA7">
-        <v>15463.86967775415</v>
+        <v>1840.643664828222</v>
       </c>
       <c r="AB7">
-        <v>2.800108861377019</v>
+        <v>2.065669060388978</v>
       </c>
       <c r="AC7">
-        <v>1369.545243517332</v>
+        <v>1369.72581932929</v>
       </c>
       <c r="AD7">
-        <v>1991.308911176011</v>
+        <v>211.2312978492071</v>
       </c>
       <c r="AE7">
-        <v>0.5123863445803297</v>
+        <v>0.4808273660020314</v>
       </c>
       <c r="AF7">
-        <v>1386.908099315165</v>
+        <v>1381.191262299348</v>
       </c>
       <c r="AG7">
-        <v>15445.68097400491</v>
+        <v>993.9758368767299</v>
       </c>
       <c r="AH7">
-        <v>15.25237252192918</v>
+        <v>16.06925903719148</v>
       </c>
       <c r="AI7">
-        <v>1283.975908136263</v>
+        <v>1283.197223461654</v>
       </c>
       <c r="AJ7">
-        <v>9617.207658762525</v>
+        <v>836.610458008436</v>
       </c>
       <c r="AK7">
-        <v>11.82120599479968</v>
+        <v>17.71749998230974</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1305,106 +1407,106 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>104.8018815788087</v>
+        <v>104.1635007077141</v>
       </c>
       <c r="D8">
-        <v>1282.036831628419</v>
+        <v>1283.32130728113</v>
       </c>
       <c r="E8">
-        <v>29839.52648868916</v>
+        <v>4282.982759143219</v>
       </c>
       <c r="F8">
-        <v>1282.036781625919</v>
+        <v>1283.321457288631</v>
       </c>
       <c r="G8">
-        <v>87994.28239777667</v>
+        <v>13347.6495823874</v>
       </c>
       <c r="H8">
-        <v>1.07346205867944</v>
+        <v>1.18850104016051</v>
       </c>
       <c r="I8">
-        <v>33.33659783634976</v>
+        <v>6.387246837594915</v>
       </c>
       <c r="J8">
-        <v>0.7246475071288185</v>
+        <v>0.5996897349955985</v>
       </c>
       <c r="K8">
-        <v>2.14692411735888</v>
+        <v>2.377002080321019</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M8">
-        <v>1386.838713207228</v>
+        <v>1387.484907993845</v>
       </c>
       <c r="N8">
-        <v>57199.59335548995</v>
+        <v>8737.181537445529</v>
       </c>
       <c r="O8">
-        <v>1386.838663204728</v>
+        <v>1387.484957996345</v>
       </c>
       <c r="P8">
-        <v>162202.6343576041</v>
+        <v>22925.16175798122</v>
       </c>
       <c r="Q8">
-        <v>1.021362676683424</v>
+        <v>0.9678067794489189</v>
       </c>
       <c r="S8">
-        <v>46.8342854079804</v>
+        <v>7.330709116599201</v>
       </c>
       <c r="T8">
-        <v>0.7401501207069918</v>
+        <v>0.6761581856932876</v>
       </c>
       <c r="U8">
-        <v>2.042725353366847</v>
+        <v>1.935613558897838</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W8">
-        <v>1261.972479400157</v>
+        <v>1263.250328377786</v>
       </c>
       <c r="X8">
-        <v>12483.55643172245</v>
+        <v>1449.69663833253</v>
       </c>
       <c r="Y8">
-        <v>3.218381928692018</v>
+        <v>2.192832341037456</v>
       </c>
       <c r="Z8">
-        <v>1408.171140270667</v>
+        <v>1408.861325976493</v>
       </c>
       <c r="AA8">
-        <v>15273.33380849432</v>
+        <v>2418.624359627424</v>
       </c>
       <c r="AB8">
-        <v>2.662937728833496</v>
+        <v>1.966793460003623</v>
       </c>
       <c r="AC8">
-        <v>1369.548992627606</v>
+        <v>1369.727980712515</v>
       </c>
       <c r="AD8">
-        <v>1940.612754040422</v>
+        <v>279.7420190658992</v>
       </c>
       <c r="AE8">
-        <v>0.5098611665065548</v>
+        <v>0.4826823407541843</v>
       </c>
       <c r="AF8">
-        <v>1386.743598747168</v>
+        <v>1382.597798234655</v>
       </c>
       <c r="AG8">
-        <v>14471.14399588187</v>
+        <v>1404.506784708711</v>
       </c>
       <c r="AH8">
-        <v>15.3396050677217</v>
+        <v>16.64139076170225</v>
       </c>
       <c r="AI8">
-        <v>1284.70634421266</v>
+        <v>1277.422804659887</v>
       </c>
       <c r="AJ8">
-        <v>8747.256965297918</v>
+        <v>1401.376556172038</v>
       </c>
       <c r="AK8">
-        <v>11.37575329728699</v>
+        <v>21.56281224008837</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1415,106 +1517,106 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>104.7004138870464</v>
+        <v>104.1340581734091</v>
       </c>
       <c r="D9">
-        <v>1282.221578304502</v>
+        <v>1283.384609766869</v>
       </c>
       <c r="E9">
-        <v>28888.88105838941</v>
+        <v>4011.283439121358</v>
       </c>
       <c r="F9">
-        <v>1282.221528302002</v>
+        <v>1283.384659769369</v>
       </c>
       <c r="G9">
-        <v>85184.36312431714</v>
+        <v>12619.83177928013</v>
       </c>
       <c r="H9">
-        <v>1.076145134233272</v>
+        <v>1.197456212856704</v>
       </c>
       <c r="I9">
-        <v>31.21864002821825</v>
+        <v>4.509574757347719</v>
       </c>
       <c r="J9">
-        <v>0.7155597704558642</v>
+        <v>0.6035636173738341</v>
       </c>
       <c r="K9">
-        <v>2.152290268466544</v>
+        <v>2.394912425713408</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M9">
-        <v>1386.921892186549</v>
+        <v>1387.518667940278</v>
       </c>
       <c r="N9">
-        <v>55484.77668014246</v>
+        <v>8263.016202073013</v>
       </c>
       <c r="O9">
-        <v>1386.921942189049</v>
+        <v>1387.518717942778</v>
       </c>
       <c r="P9">
-        <v>154794.2765620148</v>
+        <v>21694.9861952464</v>
       </c>
       <c r="Q9">
-        <v>1.010723297011116</v>
+        <v>0.9701191618526606</v>
       </c>
       <c r="S9">
-        <v>49.48269078216374</v>
+        <v>7.08941512238215</v>
       </c>
       <c r="T9">
-        <v>0.7262952233857991</v>
+        <v>0.6717708423957544</v>
       </c>
       <c r="U9">
-        <v>2.021446594022232</v>
+        <v>1.940238323705321</v>
       </c>
       <c r="V9" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W9">
-        <v>1262.142006298195</v>
+        <v>1263.382070613962</v>
       </c>
       <c r="X9">
-        <v>11930.96450802724</v>
+        <v>1483.162587695962</v>
       </c>
       <c r="Y9">
-        <v>3.117481738186523</v>
+        <v>2.268105299841534</v>
       </c>
       <c r="Z9">
-        <v>1408.253588268903</v>
+        <v>1408.877609792666</v>
       </c>
       <c r="AA9">
-        <v>15401.16958632971</v>
+        <v>2295.217922877988</v>
       </c>
       <c r="AB9">
-        <v>2.530085604259976</v>
+        <v>1.956974101462321</v>
       </c>
       <c r="AC9">
-        <v>1369.568233070651</v>
+        <v>1369.754896520914</v>
       </c>
       <c r="AD9">
-        <v>1841.874097703146</v>
+        <v>270.8833933374038</v>
       </c>
       <c r="AE9">
-        <v>0.5046529788923625</v>
+        <v>0.4838010603323536</v>
       </c>
       <c r="AF9">
-        <v>1385.336013907098</v>
+        <v>1382.144718499078</v>
       </c>
       <c r="AG9">
-        <v>13402.73358512288</v>
+        <v>1285.327303276218</v>
       </c>
       <c r="AH9">
-        <v>14.64940812944357</v>
+        <v>16.15901248852559</v>
       </c>
       <c r="AI9">
-        <v>1285.10360331304</v>
+        <v>1281.758230488909</v>
       </c>
       <c r="AJ9">
-        <v>7982.572248014918</v>
+        <v>1088.68157323824</v>
       </c>
       <c r="AK9">
-        <v>12.15491775905931</v>
+        <v>20.20018444762267</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1525,106 +1627,106 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>104.6492937636167</v>
+        <v>104.1083876165378</v>
       </c>
       <c r="D10">
-        <v>1282.314887465148</v>
+        <v>1283.44276185328</v>
       </c>
       <c r="E10">
-        <v>28671.24415340627</v>
+        <v>3719.985945740878</v>
       </c>
       <c r="F10">
-        <v>1282.314837462648</v>
+        <v>1283.44281185578</v>
       </c>
       <c r="G10">
-        <v>84678.80669581388</v>
+        <v>11830.46758595298</v>
       </c>
       <c r="H10">
-        <v>1.082499301981117</v>
+        <v>1.211481268712264</v>
       </c>
       <c r="I10">
-        <v>32.40707890881654</v>
+        <v>4.361933892757024</v>
       </c>
       <c r="J10">
-        <v>0.7049499791224537</v>
+        <v>0.6012266478176302</v>
       </c>
       <c r="K10">
-        <v>2.164998603962234</v>
+        <v>2.422962537424529</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M10">
-        <v>1386.964181228764</v>
+        <v>1387.551149469818</v>
       </c>
       <c r="N10">
-        <v>55425.9686960186</v>
+        <v>7698.632950271317</v>
       </c>
       <c r="O10">
-        <v>1386.964131226264</v>
+        <v>1387.551199472318</v>
       </c>
       <c r="P10">
-        <v>153543.8738327501</v>
+        <v>20137.19586834805</v>
       </c>
       <c r="Q10">
-        <v>1.003908476632274</v>
+        <v>0.9669083046118983</v>
       </c>
       <c r="S10">
-        <v>45.09533458141363</v>
+        <v>6.898106996751451</v>
       </c>
       <c r="T10">
-        <v>0.7240876041943284</v>
+        <v>0.6704618723723896</v>
       </c>
       <c r="U10">
-        <v>2.007816953264548</v>
+        <v>1.933816609223797</v>
       </c>
       <c r="V10" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W10">
-        <v>1262.242601300955</v>
+        <v>1263.402231852323</v>
       </c>
       <c r="X10">
-        <v>12061.00771032144</v>
+        <v>1372.36047791513</v>
       </c>
       <c r="Y10">
-        <v>3.11160428890289</v>
+        <v>2.208615832191354</v>
       </c>
       <c r="Z10">
-        <v>1408.301230340493</v>
+        <v>1408.908054279417</v>
       </c>
       <c r="AA10">
-        <v>15077.86167402011</v>
+        <v>2187.731824239903</v>
       </c>
       <c r="AB10">
-        <v>2.4974211229282</v>
+        <v>1.97285574259697</v>
       </c>
       <c r="AC10">
-        <v>1369.588315265164</v>
+        <v>1369.751171651247</v>
       </c>
       <c r="AD10">
-        <v>1898.386486341248</v>
+        <v>240.5780937360153</v>
       </c>
       <c r="AE10">
-        <v>0.5012250227991257</v>
+        <v>0.4822529994306347</v>
       </c>
       <c r="AF10">
-        <v>1385.889993572342</v>
+        <v>1381.534046919628</v>
       </c>
       <c r="AG10">
-        <v>12728.36144833529</v>
+        <v>1177.734328484374</v>
       </c>
       <c r="AH10">
-        <v>15.42337172211148</v>
+        <v>16.13288185985488</v>
       </c>
       <c r="AI10">
-        <v>1285.663052791519</v>
+        <v>1281.58051375691</v>
       </c>
       <c r="AJ10">
-        <v>7538.306872584559</v>
+        <v>1027.431416183005</v>
       </c>
       <c r="AK10">
-        <v>11.64264861918377</v>
+        <v>20.8107659337481</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1635,106 +1737,106 @@
         <v>45</v>
       </c>
       <c r="C11">
-        <v>104.5928126114977</v>
+        <v>104.0683619541562</v>
       </c>
       <c r="D11">
-        <v>1282.422511255556</v>
+        <v>1283.528756399358</v>
       </c>
       <c r="E11">
-        <v>27808.75750339062</v>
+        <v>3486.271262932503</v>
       </c>
       <c r="F11">
-        <v>1282.422461253056</v>
+        <v>1283.528806401858</v>
       </c>
       <c r="G11">
-        <v>82327.99564310031</v>
+        <v>11077.08478270041</v>
       </c>
       <c r="H11">
-        <v>1.086695482653225</v>
+        <v>1.212767981471817</v>
       </c>
       <c r="I11">
-        <v>31.60549305743164</v>
+        <v>3.822075443543804</v>
       </c>
       <c r="J11">
-        <v>0.6998370741170293</v>
+        <v>0.5962883965764657</v>
       </c>
       <c r="K11">
-        <v>2.173390965306449</v>
+        <v>2.425535962943635</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>1387.015323867053</v>
+        <v>1387.597118353515</v>
       </c>
       <c r="N11">
-        <v>53953.73509823385</v>
+        <v>7159.721667306154</v>
       </c>
       <c r="O11">
-        <v>1387.015273864553</v>
+        <v>1387.597168356015</v>
       </c>
       <c r="P11">
-        <v>148491.7556424952</v>
+        <v>18583.42998779963</v>
       </c>
       <c r="Q11">
-        <v>0.9979384483065841</v>
+        <v>0.9672858655737397</v>
       </c>
       <c r="S11">
-        <v>44.99538839882754</v>
+        <v>6.453260869843809</v>
       </c>
       <c r="T11">
-        <v>0.7221188253001614</v>
+        <v>0.6514387746257295</v>
       </c>
       <c r="U11">
-        <v>1.995876896613168</v>
+        <v>1.934571731147479</v>
       </c>
       <c r="V11" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W11">
-        <v>1262.400272530145</v>
+        <v>1263.465979290928</v>
       </c>
       <c r="X11">
-        <v>11752.94610199405</v>
+        <v>1293.003511474288</v>
       </c>
       <c r="Y11">
-        <v>3.107531900048968</v>
+        <v>2.224672055542879</v>
       </c>
       <c r="Z11">
-        <v>1408.364013983661</v>
+        <v>1408.986043211605</v>
       </c>
       <c r="AA11">
-        <v>14698.31474688056</v>
+        <v>2007.641652095217</v>
       </c>
       <c r="AB11">
-        <v>2.399001798731201</v>
+        <v>1.900349708464428</v>
       </c>
       <c r="AC11">
-        <v>1369.590160611281</v>
+        <v>1369.76703319167</v>
       </c>
       <c r="AD11">
-        <v>1850.8084809749</v>
+        <v>237.6813017674903</v>
       </c>
       <c r="AE11">
-        <v>0.4981193353875173</v>
+        <v>0.4823747517784205</v>
       </c>
       <c r="AF11">
-        <v>1385.983771230878</v>
+        <v>1381.573810740775</v>
       </c>
       <c r="AG11">
-        <v>12343.21854318623</v>
+        <v>1204.856851473462</v>
       </c>
       <c r="AH11">
-        <v>16.07630846059018</v>
+        <v>16.1849372005484</v>
       </c>
       <c r="AI11">
-        <v>1286.365970860786</v>
+        <v>1281.768850222384</v>
       </c>
       <c r="AJ11">
-        <v>6889.765839748602</v>
+        <v>921.9086786022054</v>
       </c>
       <c r="AK11">
-        <v>11.68444839107632</v>
+        <v>19.94625279415712</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1745,106 +1847,106 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>104.5283346550509</v>
+        <v>104.0260138138331</v>
       </c>
       <c r="D12">
-        <v>1282.556610392357</v>
+        <v>1283.620047924136</v>
       </c>
       <c r="E12">
-        <v>26093.13378463376</v>
+        <v>3195.985792706285</v>
       </c>
       <c r="F12">
-        <v>1282.556560389857</v>
+        <v>1283.620097926636</v>
       </c>
       <c r="G12">
-        <v>77623.27651417826</v>
+        <v>10144.3164741135</v>
       </c>
       <c r="H12">
-        <v>1.096656218151082</v>
+        <v>1.22772040226166</v>
       </c>
       <c r="I12">
-        <v>34.6065843925966</v>
+        <v>3.584994550200475</v>
       </c>
       <c r="J12">
-        <v>0.6880754574362306</v>
+        <v>0.5640082619450063</v>
       </c>
       <c r="K12">
-        <v>2.193312436302164</v>
+        <v>2.455440804523319</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>1387.084845042408</v>
+        <v>1387.646061737969</v>
       </c>
       <c r="N12">
-        <v>50879.22690829908</v>
+        <v>6590.499705249374</v>
       </c>
       <c r="O12">
-        <v>1387.084895044908</v>
+        <v>1387.646111740469</v>
       </c>
       <c r="P12">
-        <v>138780.2206958605</v>
+        <v>17065.050919253</v>
       </c>
       <c r="Q12">
-        <v>0.9919694441902652</v>
+        <v>0.9696089345037884</v>
       </c>
       <c r="S12">
-        <v>38.83425482343576</v>
+        <v>6.159727349114655</v>
       </c>
       <c r="T12">
-        <v>0.7139272084753743</v>
+        <v>0.6389844368255111</v>
       </c>
       <c r="U12">
-        <v>1.98393888838053</v>
+        <v>1.939217869007577</v>
       </c>
       <c r="V12" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W12">
-        <v>1262.48856247416</v>
+        <v>1263.553268248417</v>
       </c>
       <c r="X12">
-        <v>10913.15029999522</v>
+        <v>1139.501307154908</v>
       </c>
       <c r="Y12">
-        <v>2.988074702803588</v>
+        <v>2.108657245566192</v>
       </c>
       <c r="Z12">
-        <v>1408.433870997297</v>
+        <v>1409.056762588777</v>
       </c>
       <c r="AA12">
-        <v>13991.60136609716</v>
+        <v>1797.58524134883</v>
       </c>
       <c r="AB12">
-        <v>2.357508819589025</v>
+        <v>1.817147259459093</v>
       </c>
       <c r="AC12">
-        <v>1369.60631773827</v>
+        <v>1369.812618859524</v>
       </c>
       <c r="AD12">
-        <v>1717.891306553505</v>
+        <v>205.92571884271</v>
       </c>
       <c r="AE12">
-        <v>0.4949926200286653</v>
+        <v>0.4834924695117471</v>
       </c>
       <c r="AF12">
-        <v>1384.961097583291</v>
+        <v>1381.346928839888</v>
       </c>
       <c r="AG12">
-        <v>10576.74862490588</v>
+        <v>1002.213049973979</v>
       </c>
       <c r="AH12">
-        <v>15.79144377512745</v>
+        <v>15.39342899947335</v>
       </c>
       <c r="AI12">
-        <v>1287.496118878822</v>
+        <v>1279.964998487436</v>
       </c>
       <c r="AJ12">
-        <v>6596.542666405434</v>
+        <v>980.9747110995833</v>
       </c>
       <c r="AK12">
-        <v>12.51744223446433</v>
+        <v>20.76965670064662</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1855,106 +1957,106 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>104.4418423469142</v>
+        <v>103.9609521559412</v>
       </c>
       <c r="D13">
-        <v>1282.731033914628</v>
+        <v>1283.770159576746</v>
       </c>
       <c r="E13">
-        <v>14917.97726975859</v>
+        <v>2937.201907172055</v>
       </c>
       <c r="F13">
-        <v>1282.730983912128</v>
+        <v>1283.770309584247</v>
       </c>
       <c r="G13">
-        <v>44962.29857117086</v>
+        <v>9334.048562629318</v>
       </c>
       <c r="H13">
-        <v>1.107161843145317</v>
+        <v>1.237341381848532</v>
       </c>
       <c r="I13">
-        <v>17.60831232052928</v>
+        <v>2.848956548277986</v>
       </c>
       <c r="J13">
-        <v>0.6929834648433405</v>
+        <v>0.5460942397597613</v>
       </c>
       <c r="K13">
-        <v>2.214323686290633</v>
+        <v>2.474682763697063</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>1387.172776256542</v>
+        <v>1387.731211737688</v>
       </c>
       <c r="N13">
-        <v>29356.84237168048</v>
+        <v>6072.556422667467</v>
       </c>
       <c r="O13">
-        <v>1387.172826259042</v>
+        <v>1387.731261740188</v>
       </c>
       <c r="P13">
-        <v>79228.18879199799</v>
+        <v>15630.09917372226</v>
       </c>
       <c r="Q13">
-        <v>0.9800097382732106</v>
+        <v>0.9677465608817621</v>
       </c>
       <c r="S13">
-        <v>22.15643040939512</v>
+        <v>5.950921800386506</v>
       </c>
       <c r="T13">
-        <v>0.7163410226670377</v>
+        <v>0.6294412244716328</v>
       </c>
       <c r="U13">
-        <v>1.960019476546421</v>
+        <v>1.935493121763524</v>
       </c>
       <c r="V13" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="W13">
-        <v>1262.65577316832</v>
+        <v>1263.718796587699</v>
       </c>
       <c r="X13">
-        <v>6271.909623558962</v>
+        <v>1045.09919552723</v>
       </c>
       <c r="Y13">
-        <v>2.920139473983684</v>
+        <v>2.075926138071219</v>
       </c>
       <c r="Z13">
-        <v>1408.510429931705</v>
+        <v>1409.158207699486</v>
       </c>
       <c r="AA13">
-        <v>8305.580788473442</v>
+        <v>1647.768689854564</v>
       </c>
       <c r="AB13">
-        <v>2.269978118783623</v>
+        <v>1.720376998309904</v>
       </c>
       <c r="AC13">
-        <v>1369.629842399211</v>
+        <v>1369.81822391998</v>
       </c>
       <c r="AD13">
-        <v>1005.990346923887</v>
+        <v>185.0954459125456</v>
       </c>
       <c r="AE13">
-        <v>0.4887698243721418</v>
+        <v>0.4822759485718058</v>
       </c>
       <c r="AF13">
-        <v>1383.924633862897</v>
+        <v>1382.195777496195</v>
       </c>
       <c r="AG13">
-        <v>5680.033081755016</v>
+        <v>1034.034478444795</v>
       </c>
       <c r="AH13">
-        <v>16.08724509175524</v>
+        <v>16.75162622405286</v>
       </c>
       <c r="AI13">
-        <v>1288.017159922867</v>
+        <v>1279.208440637156</v>
       </c>
       <c r="AJ13">
-        <v>3068.569724485375</v>
+        <v>879.1247399880057</v>
       </c>
       <c r="AK13">
-        <v>12.53682486071012</v>
+        <v>21.63942846774881</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -1965,106 +2067,3846 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>104.3844299670398</v>
+        <v>103.8722224383064</v>
       </c>
       <c r="D14">
-        <v>1282.850173114743</v>
+        <v>1283.955808297864</v>
       </c>
       <c r="E14">
-        <v>3950.41060703261</v>
+        <v>2387.793480771882</v>
       </c>
       <c r="F14">
-        <v>1282.850023107243</v>
+        <v>1283.955958305365</v>
       </c>
       <c r="G14">
-        <v>11924.93617466462</v>
+        <v>7618.819082272598</v>
       </c>
       <c r="H14">
-        <v>1.107727125048333</v>
+        <v>1.245498005257999</v>
       </c>
       <c r="I14">
-        <v>5.285675800141982</v>
+        <v>2.784160995935535</v>
       </c>
       <c r="J14">
-        <v>0.6933681386608419</v>
+        <v>0.5388010971918287</v>
       </c>
       <c r="K14">
-        <v>2.215454250096665</v>
+        <v>2.490996010515998</v>
       </c>
       <c r="L14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14">
+        <v>1387.828130741171</v>
+      </c>
+      <c r="N14">
+        <v>4950.992660889963</v>
+      </c>
+      <c r="O14">
+        <v>1387.828180743671</v>
+      </c>
+      <c r="P14">
+        <v>12640.24173636766</v>
+      </c>
+      <c r="Q14">
+        <v>0.9625220231003411</v>
+      </c>
+      <c r="S14">
+        <v>5.008285579146468</v>
+      </c>
+      <c r="T14">
+        <v>0.6222416277999353</v>
+      </c>
+      <c r="U14">
+        <v>1.925044046200682</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14">
+        <v>1263.952207126354</v>
+      </c>
+      <c r="X14">
+        <v>836.6186211053679</v>
+      </c>
+      <c r="Y14">
+        <v>2.001837726045298</v>
+      </c>
+      <c r="Z14">
+        <v>1409.224091308339</v>
+      </c>
+      <c r="AA14">
+        <v>1315.613539847399</v>
+      </c>
+      <c r="AB14">
+        <v>1.617655073279475</v>
+      </c>
+      <c r="AC14">
+        <v>1370.048852687916</v>
+      </c>
+      <c r="AD14">
+        <v>150.7165438529987</v>
+      </c>
+      <c r="AE14">
+        <v>0.4796577808857595</v>
+      </c>
+      <c r="AF14">
+        <v>1382.336836104548</v>
+      </c>
+      <c r="AG14">
+        <v>861.1679442325462</v>
+      </c>
+      <c r="AH14">
+        <v>18.07590135056758</v>
+      </c>
+      <c r="AI14">
+        <v>1278.051297715088</v>
+      </c>
+      <c r="AJ14">
+        <v>684.6279559457525</v>
+      </c>
+      <c r="AK14">
+        <v>21.57917142845566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="M14">
-        <v>1387.234403071782</v>
-      </c>
-      <c r="N14">
-        <v>7749.415890311578</v>
-      </c>
-      <c r="O14">
-        <v>1387.234453074283</v>
-      </c>
-      <c r="P14">
-        <v>20844.67858390975</v>
-      </c>
-      <c r="Q14">
-        <v>0.9798715710968546</v>
-      </c>
-      <c r="S14">
-        <v>6.032740480811333</v>
-      </c>
-      <c r="T14">
-        <v>0.7076711401341902</v>
-      </c>
-      <c r="U14">
-        <v>1.959743142193709</v>
-      </c>
-      <c r="V14" t="s">
-        <v>49</v>
-      </c>
-      <c r="W14">
-        <v>1262.792303141506</v>
-      </c>
-      <c r="X14">
-        <v>1710.926308898288</v>
-      </c>
-      <c r="Y14">
-        <v>2.913509069358828</v>
-      </c>
-      <c r="Z14">
-        <v>1408.584522639381</v>
-      </c>
-      <c r="AA14">
-        <v>2160.284480653922</v>
-      </c>
-      <c r="AB14">
-        <v>2.258534057225157</v>
-      </c>
-      <c r="AC14">
-        <v>1369.645599836226</v>
-      </c>
-      <c r="AD14">
-        <v>266.1499388110757</v>
-      </c>
-      <c r="AE14">
-        <v>0.4885976269908106</v>
-      </c>
-      <c r="AF14">
-        <v>1383.386308547076</v>
-      </c>
-      <c r="AG14">
-        <v>1366.459986603946</v>
-      </c>
-      <c r="AH14">
-        <v>15.9490676300213</v>
-      </c>
-      <c r="AI14">
-        <v>1289.639915600924</v>
-      </c>
-      <c r="AJ14">
-        <v>697.4562771957657</v>
-      </c>
-      <c r="AK14">
-        <v>11.71868118827373</v>
+      <c r="C15">
+        <v>103.7654220939814</v>
+      </c>
+      <c r="D15">
+        <v>1284.202599975575</v>
+      </c>
+      <c r="E15">
+        <v>2091.484888549283</v>
+      </c>
+      <c r="F15">
+        <v>1284.202749983075</v>
+      </c>
+      <c r="G15">
+        <v>6544.096865143298</v>
+      </c>
+      <c r="H15">
+        <v>1.232452527148765</v>
+      </c>
+      <c r="I15">
+        <v>3.07114706765079</v>
+      </c>
+      <c r="J15">
+        <v>0.5158010617823806</v>
+      </c>
+      <c r="K15">
+        <v>2.46490505429753</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15">
+        <v>1387.968122074557</v>
+      </c>
+      <c r="N15">
+        <v>4288.912432991327</v>
+      </c>
+      <c r="O15">
+        <v>1387.968172077057</v>
+      </c>
+      <c r="P15">
+        <v>10733.50436312005</v>
+      </c>
+      <c r="Q15">
+        <v>0.9486102519625856</v>
+      </c>
+      <c r="S15">
+        <v>5.063606215747041</v>
+      </c>
+      <c r="T15">
+        <v>0.6077181376076184</v>
+      </c>
+      <c r="U15">
+        <v>1.897220503925171</v>
+      </c>
+      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="W15">
+        <v>1264.169789950901</v>
+      </c>
+      <c r="X15">
+        <v>688.5154852224455</v>
+      </c>
+      <c r="Y15">
+        <v>1.795422948535029</v>
+      </c>
+      <c r="Z15">
+        <v>1409.400054534116</v>
+      </c>
+      <c r="AA15">
+        <v>1141.318592653614</v>
+      </c>
+      <c r="AB15">
+        <v>1.542375681174862</v>
+      </c>
+      <c r="AC15">
+        <v>1370.134979939821</v>
+      </c>
+      <c r="AD15">
+        <v>143.1345461130617</v>
+      </c>
+      <c r="AE15">
+        <v>0.4729112347124294</v>
+      </c>
+      <c r="AF15">
+        <v>1381.054667120021</v>
+      </c>
+      <c r="AG15">
+        <v>650.0439807635206</v>
+      </c>
+      <c r="AH15">
+        <v>17.19657009631433</v>
+      </c>
+      <c r="AI15">
+        <v>1277.272514007443</v>
+      </c>
+      <c r="AJ15">
+        <v>650.4169960742305</v>
+      </c>
+      <c r="AK15">
+        <v>22.19492050742906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>104.886838593435</v>
+      </c>
+      <c r="D16">
+        <v>1281.888983970542</v>
+      </c>
+      <c r="E16">
+        <v>30344.97038773379</v>
+      </c>
+      <c r="F16">
+        <v>1281.888933968042</v>
+      </c>
+      <c r="G16">
+        <v>89788.65901923015</v>
+      </c>
+      <c r="H16">
+        <v>1.071560082720978</v>
+      </c>
+      <c r="I16">
+        <v>33.7286914206019</v>
+      </c>
+      <c r="J16">
+        <v>0.7380824529713077</v>
+      </c>
+      <c r="K16">
+        <v>2.143120165441957</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16">
+        <v>1386.775822563977</v>
+      </c>
+      <c r="N16">
+        <v>58207.63394074432</v>
+      </c>
+      <c r="O16">
+        <v>1386.775772561477</v>
+      </c>
+      <c r="P16">
+        <v>166861.5371111309</v>
+      </c>
+      <c r="Q16">
+        <v>1.026376097860981</v>
+      </c>
+      <c r="S16">
+        <v>47.78052759929902</v>
+      </c>
+      <c r="T16">
+        <v>0.7551182431468331</v>
+      </c>
+      <c r="U16">
+        <v>2.052752195721961</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16">
+        <v>1261.789678941551</v>
+      </c>
+      <c r="X16">
+        <v>12373.01060165884</v>
+      </c>
+      <c r="Y16">
+        <v>3.211840589161495</v>
+      </c>
+      <c r="Z16">
+        <v>1408.079020254509</v>
+      </c>
+      <c r="AA16">
+        <v>15519.37491723711</v>
+      </c>
+      <c r="AB16">
+        <v>2.801964519759545</v>
+      </c>
+      <c r="AC16">
+        <v>1369.533437706368</v>
+      </c>
+      <c r="AD16">
+        <v>1827.647856712837</v>
+      </c>
+      <c r="AE16">
+        <v>0.5123848290841826</v>
+      </c>
+      <c r="AF16">
+        <v>1386.589716334343</v>
+      </c>
+      <c r="AG16">
+        <v>15628.76252451105</v>
+      </c>
+      <c r="AH16">
+        <v>15.33543185339175</v>
+      </c>
+      <c r="AI16">
+        <v>1283.975958673962</v>
+      </c>
+      <c r="AJ16">
+        <v>9617.166843712623</v>
+      </c>
+      <c r="AK16">
+        <v>11.82114446139374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>103.6686621646008</v>
+      </c>
+      <c r="D17">
+        <v>1284.419211591377</v>
+      </c>
+      <c r="E17">
+        <v>1863.787972224211</v>
+      </c>
+      <c r="F17">
+        <v>1284.419361598878</v>
+      </c>
+      <c r="G17">
+        <v>5683.761661383309</v>
+      </c>
+      <c r="H17">
+        <v>1.207401502619214</v>
+      </c>
+      <c r="I17">
+        <v>3.085972669532289</v>
+      </c>
+      <c r="J17">
+        <v>0.5022512781918466</v>
+      </c>
+      <c r="K17">
+        <v>2.414803005238428</v>
+      </c>
+      <c r="L17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17">
+        <v>1388.087973760979</v>
+      </c>
+      <c r="N17">
+        <v>3825.760178018796</v>
+      </c>
+      <c r="O17">
+        <v>1388.088023763479</v>
+      </c>
+      <c r="P17">
+        <v>9286.344877129788</v>
+      </c>
+      <c r="Q17">
+        <v>0.9275410014452978</v>
+      </c>
+      <c r="S17">
+        <v>4.710094059168595</v>
+      </c>
+      <c r="T17">
+        <v>0.5880211608755563</v>
+      </c>
+      <c r="U17">
+        <v>1.855082002890596</v>
+      </c>
+      <c r="V17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W17">
+        <v>1264.352190998355</v>
+      </c>
+      <c r="X17">
+        <v>626.4930058261943</v>
+      </c>
+      <c r="Y17">
+        <v>1.670396304812301</v>
+      </c>
+      <c r="Z17">
+        <v>1409.474764770113</v>
+      </c>
+      <c r="AA17">
+        <v>994.1329453865243</v>
+      </c>
+      <c r="AB17">
+        <v>1.485358058266265</v>
+      </c>
+      <c r="AC17">
+        <v>1370.16559507091</v>
+      </c>
+      <c r="AD17">
+        <v>113.5286645111226</v>
+      </c>
+      <c r="AE17">
+        <v>0.4625592606977762</v>
+      </c>
+      <c r="AF17">
+        <v>1381.054667009769</v>
+      </c>
+      <c r="AG17">
+        <v>601.3914369699231</v>
+      </c>
+      <c r="AH17">
+        <v>16.38504832673751</v>
+      </c>
+      <c r="AI17">
+        <v>1277.272514113919</v>
+      </c>
+      <c r="AJ17">
+        <v>567.1359888966771</v>
+      </c>
+      <c r="AK17">
+        <v>21.95068096115681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>103.6002085023629</v>
+      </c>
+      <c r="D18">
+        <v>1284.568845406591</v>
+      </c>
+      <c r="E18">
+        <v>2587.34810543873</v>
+      </c>
+      <c r="F18">
+        <v>1284.568895409091</v>
+      </c>
+      <c r="G18">
+        <v>7713.933537295449</v>
+      </c>
+      <c r="H18">
+        <v>1.159982850288063</v>
+      </c>
+      <c r="I18">
+        <v>4.825453203470301</v>
+      </c>
+      <c r="J18">
+        <v>0.5440497955479833</v>
+      </c>
+      <c r="K18">
+        <v>2.319965700576126</v>
+      </c>
+      <c r="L18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18">
+        <v>1388.169053908954</v>
+      </c>
+      <c r="N18">
+        <v>5245.629310466617</v>
+      </c>
+      <c r="O18">
+        <v>1388.169103911454</v>
+      </c>
+      <c r="P18">
+        <v>12506.58654041228</v>
+      </c>
+      <c r="Q18">
+        <v>0.9062843298186745</v>
+      </c>
+      <c r="S18">
+        <v>6.763427629161385</v>
+      </c>
+      <c r="T18">
+        <v>0.598974772708342</v>
+      </c>
+      <c r="U18">
+        <v>1.812568659637349</v>
+      </c>
+      <c r="V18" t="s">
+        <v>83</v>
+      </c>
+      <c r="W18">
+        <v>1264.475848203154</v>
+      </c>
+      <c r="X18">
+        <v>874.30529447666</v>
+      </c>
+      <c r="Y18">
+        <v>1.726789555868807</v>
+      </c>
+      <c r="Z18">
+        <v>1409.567869428325</v>
+      </c>
+      <c r="AA18">
+        <v>1304.924878945406</v>
+      </c>
+      <c r="AB18">
+        <v>1.348568909499323</v>
+      </c>
+      <c r="AC18">
+        <v>1370.170003617969</v>
+      </c>
+      <c r="AD18">
+        <v>171.994654495006</v>
+      </c>
+      <c r="AE18">
+        <v>0.4518967968350162</v>
+      </c>
+      <c r="AF18">
+        <v>1381.054667000005</v>
+      </c>
+      <c r="AG18">
+        <v>680.719775562565</v>
+      </c>
+      <c r="AH18">
+        <v>18.24159722136199</v>
+      </c>
+      <c r="AI18">
+        <v>1277.815715225375</v>
+      </c>
+      <c r="AJ18">
+        <v>645.4610167893687</v>
+      </c>
+      <c r="AK18">
+        <v>24.01180938700072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>103.5464821602807</v>
+      </c>
+      <c r="D19">
+        <v>1284.689884359881</v>
+      </c>
+      <c r="E19">
+        <v>2484.134463262671</v>
+      </c>
+      <c r="F19">
+        <v>1284.689934362381</v>
+      </c>
+      <c r="G19">
+        <v>7246.377432891838</v>
+      </c>
+      <c r="H19">
+        <v>1.124015064740619</v>
+      </c>
+      <c r="I19">
+        <v>4.918527771696338</v>
+      </c>
+      <c r="J19">
+        <v>0.5660518019892369</v>
+      </c>
+      <c r="K19">
+        <v>2.248030129481238</v>
+      </c>
+      <c r="L19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19">
+        <v>1388.236366520161</v>
+      </c>
+      <c r="N19">
+        <v>4937.161750726062</v>
+      </c>
+      <c r="O19">
+        <v>1388.236416522661</v>
+      </c>
+      <c r="P19">
+        <v>11480.16972495907</v>
+      </c>
+      <c r="Q19">
+        <v>0.887106588766063</v>
+      </c>
+      <c r="S19">
+        <v>6.539228312755977</v>
+      </c>
+      <c r="T19">
+        <v>0.5905460773954792</v>
+      </c>
+      <c r="U19">
+        <v>1.774213177532126</v>
+      </c>
+      <c r="V19" t="s">
+        <v>83</v>
+      </c>
+      <c r="W19">
+        <v>1264.589224863644</v>
+      </c>
+      <c r="X19">
+        <v>800.8670622350008</v>
+      </c>
+      <c r="Y19">
+        <v>1.653576166790159</v>
+      </c>
+      <c r="Z19">
+        <v>1409.625052989742</v>
+      </c>
+      <c r="AA19">
+        <v>1167.491529047604</v>
+      </c>
+      <c r="AB19">
+        <v>1.337580177502121</v>
+      </c>
+      <c r="AC19">
+        <v>1370.218515739696</v>
+      </c>
+      <c r="AD19">
+        <v>149.1952587176633</v>
+      </c>
+      <c r="AE19">
+        <v>0.4421302340829136</v>
+      </c>
+      <c r="AF19">
+        <v>1381.054667000004</v>
+      </c>
+      <c r="AG19">
+        <v>779.3831255704376</v>
+      </c>
+      <c r="AH19">
+        <v>20.10440195956528</v>
+      </c>
+      <c r="AI19">
+        <v>1277.815715012735</v>
+      </c>
+      <c r="AJ19">
+        <v>472.3394824725718</v>
+      </c>
+      <c r="AK19">
+        <v>24.42983910678593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>103.5036299014864</v>
+      </c>
+      <c r="D20">
+        <v>1284.813736134267</v>
+      </c>
+      <c r="E20">
+        <v>2387.179267050295</v>
+      </c>
+      <c r="F20">
+        <v>1284.813786136767</v>
+      </c>
+      <c r="G20">
+        <v>6757.375618462681</v>
+      </c>
+      <c r="H20">
+        <v>1.106078426265614</v>
+      </c>
+      <c r="I20">
+        <v>4.691492973167313</v>
+      </c>
+      <c r="J20">
+        <v>0.5327076282476266</v>
+      </c>
+      <c r="K20">
+        <v>2.212156852531227</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20">
+        <v>1388.317366035753</v>
+      </c>
+      <c r="N20">
+        <v>4773.182531536167</v>
+      </c>
+      <c r="O20">
+        <v>1388.317416038253</v>
+      </c>
+      <c r="P20">
+        <v>10842.71222781269</v>
+      </c>
+      <c r="Q20">
+        <v>0.8646619781898159</v>
+      </c>
+      <c r="S20">
+        <v>6.380516607129747</v>
+      </c>
+      <c r="T20">
+        <v>0.5950686498959127</v>
+      </c>
+      <c r="U20">
+        <v>1.729323956379632</v>
+      </c>
+      <c r="V20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20">
+        <v>1264.738615834104</v>
+      </c>
+      <c r="X20">
+        <v>748.2508502318707</v>
+      </c>
+      <c r="Y20">
+        <v>1.538125203262521</v>
+      </c>
+      <c r="Z20">
+        <v>1409.692860125551</v>
+      </c>
+      <c r="AA20">
+        <v>1119.34661883538</v>
+      </c>
+      <c r="AB20">
+        <v>1.243383937288542</v>
+      </c>
+      <c r="AC20">
+        <v>1370.221345177277</v>
+      </c>
+      <c r="AD20">
+        <v>154.7881375584865</v>
+      </c>
+      <c r="AE20">
+        <v>0.4308810857797704</v>
+      </c>
+      <c r="AF20">
+        <v>1381.5869</v>
+      </c>
+      <c r="AG20">
+        <v>653.0949212951954</v>
+      </c>
+      <c r="AH20">
+        <v>21.00854426794083</v>
+      </c>
+      <c r="AI20">
+        <v>1277.815715018867</v>
+      </c>
+      <c r="AJ20">
+        <v>590.516143690258</v>
+      </c>
+      <c r="AK20">
+        <v>24.07249674717679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>103.4548960795164</v>
+      </c>
+      <c r="D21">
+        <v>1284.906053758065</v>
+      </c>
+      <c r="E21">
+        <v>2317.012673678346</v>
+      </c>
+      <c r="F21">
+        <v>1284.906103760565</v>
+      </c>
+      <c r="G21">
+        <v>6406.947425768652</v>
+      </c>
+      <c r="H21">
+        <v>1.069242040675729</v>
+      </c>
+      <c r="I21">
+        <v>4.408482073229845</v>
+      </c>
+      <c r="J21">
+        <v>0.5564863901702928</v>
+      </c>
+      <c r="K21">
+        <v>2.138484081351457</v>
+      </c>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21">
+        <v>1388.361049842581</v>
+      </c>
+      <c r="N21">
+        <v>4556.269687783561</v>
+      </c>
+      <c r="O21">
+        <v>1388.360999840081</v>
+      </c>
+      <c r="P21">
+        <v>10107.95575223912</v>
+      </c>
+      <c r="Q21">
+        <v>0.8484335444090758</v>
+      </c>
+      <c r="S21">
+        <v>5.70086674929518</v>
+      </c>
+      <c r="T21">
+        <v>0.5831132228879072</v>
+      </c>
+      <c r="U21">
+        <v>1.696867088818152</v>
+      </c>
+      <c r="V21" t="s">
+        <v>83</v>
+      </c>
+      <c r="W21">
+        <v>1264.771964143968</v>
+      </c>
+      <c r="X21">
+        <v>693.0378715907848</v>
+      </c>
+      <c r="Y21">
+        <v>1.515975211156105</v>
+      </c>
+      <c r="Z21">
+        <v>1409.748330660872</v>
+      </c>
+      <c r="AA21">
+        <v>975.3389313390452</v>
+      </c>
+      <c r="AB21">
+        <v>1.219041369896444</v>
+      </c>
+      <c r="AC21">
+        <v>1370.258264785752</v>
+      </c>
+      <c r="AD21">
+        <v>138.9639708729071</v>
+      </c>
+      <c r="AE21">
+        <v>0.4228938519395676</v>
+      </c>
+      <c r="AF21">
+        <v>1388.223638187281</v>
+      </c>
+      <c r="AG21">
+        <v>596.2312621341022</v>
+      </c>
+      <c r="AH21">
+        <v>21.14470239480171</v>
+      </c>
+      <c r="AI21">
+        <v>1277.815715000378</v>
+      </c>
+      <c r="AJ21">
+        <v>444.8150690859935</v>
+      </c>
+      <c r="AK21">
+        <v>26.34746692990624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>103.393475879918</v>
+      </c>
+      <c r="D22">
+        <v>1285.059604986085</v>
+      </c>
+      <c r="E22">
+        <v>2320.00119706261</v>
+      </c>
+      <c r="F22">
+        <v>1285.059654988585</v>
+      </c>
+      <c r="G22">
+        <v>6079.641623872882</v>
+      </c>
+      <c r="H22">
+        <v>1.000958594324253</v>
+      </c>
+      <c r="I22">
+        <v>4.414541524557901</v>
+      </c>
+      <c r="J22">
+        <v>0.5872637328953789</v>
+      </c>
+      <c r="K22">
+        <v>2.001917188648506</v>
+      </c>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22">
+        <v>1388.453080866003</v>
+      </c>
+      <c r="N22">
+        <v>4438.070640254792</v>
+      </c>
+      <c r="O22">
+        <v>1388.453130868503</v>
+      </c>
+      <c r="P22">
+        <v>9453.16891382591</v>
+      </c>
+      <c r="Q22">
+        <v>0.8127630617490551</v>
+      </c>
+      <c r="S22">
+        <v>5.233292712419007</v>
+      </c>
+      <c r="T22">
+        <v>0.587914519686245</v>
+      </c>
+      <c r="U22">
+        <v>1.62552612349811</v>
+      </c>
+      <c r="V22" t="s">
+        <v>83</v>
+      </c>
+      <c r="W22">
+        <v>1264.970645551504</v>
+      </c>
+      <c r="X22">
+        <v>662.7980921480103</v>
+      </c>
+      <c r="Y22">
+        <v>1.4368040519703</v>
+      </c>
+      <c r="Z22">
+        <v>1409.844952753268</v>
+      </c>
+      <c r="AA22">
+        <v>971.8724466550032</v>
+      </c>
+      <c r="AB22">
+        <v>1.160271655779295</v>
+      </c>
+      <c r="AC22">
+        <v>1370.291755092986</v>
+      </c>
+      <c r="AD22">
+        <v>124.0697439377241</v>
+      </c>
+      <c r="AE22">
+        <v>0.4053832819907968</v>
+      </c>
+      <c r="AF22">
+        <v>1383.17089452997</v>
+      </c>
+      <c r="AG22">
+        <v>492.9751587069529</v>
+      </c>
+      <c r="AH22">
+        <v>20.26917222874144</v>
+      </c>
+      <c r="AI22">
+        <v>1277.81571500102</v>
+      </c>
+      <c r="AJ22">
+        <v>413.8371424680843</v>
+      </c>
+      <c r="AK22">
+        <v>24.92444879704419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>103.3653431122361</v>
+      </c>
+      <c r="D23">
+        <v>1285.121604946713</v>
+      </c>
+      <c r="E23">
+        <v>2577.315850772363</v>
+      </c>
+      <c r="F23">
+        <v>1285.121654949213</v>
+      </c>
+      <c r="G23">
+        <v>6611.245636161327</v>
+      </c>
+      <c r="H23">
+        <v>0.9886395952973848</v>
+      </c>
+      <c r="I23">
+        <v>5.014418849532643</v>
+      </c>
+      <c r="J23">
+        <v>0.5657708608820153</v>
+      </c>
+      <c r="K23">
+        <v>1.97727919059477</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23">
+        <v>1388.487048063949</v>
+      </c>
+      <c r="N23">
+        <v>4875.097822985286</v>
+      </c>
+      <c r="O23">
+        <v>1388.486998061449</v>
+      </c>
+      <c r="P23">
+        <v>10241.05407199865</v>
+      </c>
+      <c r="Q23">
+        <v>0.8114569578790329</v>
+      </c>
+      <c r="S23">
+        <v>8.342198630495355</v>
+      </c>
+      <c r="T23">
+        <v>0.5625056164770214</v>
+      </c>
+      <c r="U23">
+        <v>1.622913915758066</v>
+      </c>
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23">
+        <v>1265.008354921539</v>
+      </c>
+      <c r="X23">
+        <v>714.4918595173954</v>
+      </c>
+      <c r="Y23">
+        <v>1.355173510885511</v>
+      </c>
+      <c r="Z23">
+        <v>1409.840399633496</v>
+      </c>
+      <c r="AA23">
+        <v>874.5023898645047</v>
+      </c>
+      <c r="AB23">
+        <v>1.123455507114407</v>
+      </c>
+      <c r="AC23">
+        <v>1370.304882118499</v>
+      </c>
+      <c r="AD23">
+        <v>132.0759911055576</v>
+      </c>
+      <c r="AE23">
+        <v>0.4044259022966274</v>
+      </c>
+      <c r="AF23">
+        <v>1395.586899999909</v>
+      </c>
+      <c r="AG23">
+        <v>1107.346690509592</v>
+      </c>
+      <c r="AH23">
+        <v>19.36249343103514</v>
+      </c>
+      <c r="AI23">
+        <v>1278.35885900233</v>
+      </c>
+      <c r="AJ23">
+        <v>531.2368134657092</v>
+      </c>
+      <c r="AK23">
+        <v>24.61024605733697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>103.2706859629629</v>
+      </c>
+      <c r="D24">
+        <v>1285.368063458413</v>
+      </c>
+      <c r="E24">
+        <v>2444.680842800774</v>
+      </c>
+      <c r="F24">
+        <v>1285.368113460913</v>
+      </c>
+      <c r="G24">
+        <v>5773.557101115136</v>
+      </c>
+      <c r="H24">
+        <v>0.9100614416283441</v>
+      </c>
+      <c r="I24">
+        <v>4.013984838218595</v>
+      </c>
+      <c r="J24">
+        <v>0.5648500427353274</v>
+      </c>
+      <c r="K24">
+        <v>1.820122883256688</v>
+      </c>
+      <c r="L24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24">
+        <v>1388.638749421376</v>
+      </c>
+      <c r="N24">
+        <v>4532.312960609892</v>
+      </c>
+      <c r="O24">
+        <v>1388.638799423876</v>
+      </c>
+      <c r="P24">
+        <v>8945.326016471266</v>
+      </c>
+      <c r="Q24">
+        <v>0.7612704339787051</v>
+      </c>
+      <c r="S24">
+        <v>4.647233893256541</v>
+      </c>
+      <c r="T24">
+        <v>0.5580418838884534</v>
+      </c>
+      <c r="U24">
+        <v>1.52254086795741</v>
+      </c>
+      <c r="V24" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24">
+        <v>1265.250872563888</v>
+      </c>
+      <c r="X24">
+        <v>637.6248723037037</v>
+      </c>
+      <c r="Y24">
+        <v>1.231328294454542</v>
+      </c>
+      <c r="Z24">
+        <v>1410.00165652319</v>
+      </c>
+      <c r="AA24">
+        <v>912.6142526802245</v>
+      </c>
+      <c r="AB24">
+        <v>1.023960567648665</v>
+      </c>
+      <c r="AC24">
+        <v>1370.35828042971</v>
+      </c>
+      <c r="AD24">
+        <v>110.1685945199594</v>
+      </c>
+      <c r="AE24">
+        <v>0.3800761016553837</v>
+      </c>
+      <c r="AF24">
+        <v>1381.58690000474</v>
+      </c>
+      <c r="AG24">
+        <v>259.2947280727416</v>
+      </c>
+      <c r="AH24">
+        <v>19.00380609484699</v>
+      </c>
+      <c r="AI24">
+        <v>1278.35885900325</v>
+      </c>
+      <c r="AJ24">
+        <v>398.087731226688</v>
+      </c>
+      <c r="AK24">
+        <v>22.67837903451167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>103.1901955756539</v>
+      </c>
+      <c r="D25">
+        <v>1285.554144749412</v>
+      </c>
+      <c r="E25">
+        <v>2256.787112899029</v>
+      </c>
+      <c r="F25">
+        <v>1285.554194751912</v>
+      </c>
+      <c r="G25">
+        <v>4968.592069262216</v>
+      </c>
+      <c r="H25">
+        <v>0.8452574539874749</v>
+      </c>
+      <c r="I25">
+        <v>3.404952099333615</v>
+      </c>
+      <c r="J25">
+        <v>0.5712800027733717</v>
+      </c>
+      <c r="K25">
+        <v>1.69051490797495</v>
+      </c>
+      <c r="L25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25">
+        <v>1388.744440330066</v>
+      </c>
+      <c r="N25">
+        <v>4068.794928739629</v>
+      </c>
+      <c r="O25">
+        <v>1388.744390327566</v>
+      </c>
+      <c r="P25">
+        <v>7657.062956227729</v>
+      </c>
+      <c r="Q25">
+        <v>0.735366576756854</v>
+      </c>
+      <c r="S25">
+        <v>3.710062090216915</v>
+      </c>
+      <c r="T25">
+        <v>0.5249050387531783</v>
+      </c>
+      <c r="U25">
+        <v>1.470733153513708</v>
+      </c>
+      <c r="V25" t="s">
+        <v>83</v>
+      </c>
+      <c r="W25">
+        <v>1265.41839385222</v>
+      </c>
+      <c r="X25">
+        <v>572.7721543369502</v>
+      </c>
+      <c r="Y25">
+        <v>1.138827000011911</v>
+      </c>
+      <c r="Z25">
+        <v>1410.07616653457</v>
+      </c>
+      <c r="AA25">
+        <v>732.1193724632689</v>
+      </c>
+      <c r="AB25">
+        <v>0.9488231065943424</v>
+      </c>
+      <c r="AC25">
+        <v>1370.668173317843</v>
+      </c>
+      <c r="AD25">
+        <v>110.4418016251913</v>
+      </c>
+      <c r="AE25">
+        <v>0.3669421877689101</v>
+      </c>
+      <c r="AF25">
+        <v>1395.586865130363</v>
+      </c>
+      <c r="AG25">
+        <v>242.9964164284765</v>
+      </c>
+      <c r="AH25">
+        <v>18.34711274990908</v>
+      </c>
+      <c r="AI25">
+        <v>1278.358860062032</v>
+      </c>
+      <c r="AJ25">
+        <v>202.7944595490027</v>
+      </c>
+      <c r="AK25">
+        <v>21.07078109699013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>104.8019054604054</v>
+      </c>
+      <c r="D26">
+        <v>1282.036831568662</v>
+      </c>
+      <c r="E26">
+        <v>29839.5266808913</v>
+      </c>
+      <c r="F26">
+        <v>1282.036781566162</v>
+      </c>
+      <c r="G26">
+        <v>87994.28447863807</v>
+      </c>
+      <c r="H26">
+        <v>1.073462042980099</v>
+      </c>
+      <c r="I26">
+        <v>33.33677826179554</v>
+      </c>
+      <c r="J26">
+        <v>0.7246475855256278</v>
+      </c>
+      <c r="K26">
+        <v>2.146924085960198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26">
+        <v>1386.838737029067</v>
+      </c>
+      <c r="N26">
+        <v>57198.53974900466</v>
+      </c>
+      <c r="O26">
+        <v>1386.838687026567</v>
+      </c>
+      <c r="P26">
+        <v>162169.9993594232</v>
+      </c>
+      <c r="Q26">
+        <v>1.021366073290886</v>
+      </c>
+      <c r="S26">
+        <v>47.72913944616394</v>
+      </c>
+      <c r="T26">
+        <v>0.7398017872372544</v>
+      </c>
+      <c r="U26">
+        <v>2.042732146581772</v>
+      </c>
+      <c r="V26" t="s">
+        <v>83</v>
+      </c>
+      <c r="W26">
+        <v>1261.972492592399</v>
+      </c>
+      <c r="X26">
+        <v>12483.75219502958</v>
+      </c>
+      <c r="Y26">
+        <v>3.218443235203603</v>
+      </c>
+      <c r="Z26">
+        <v>1408.170170811993</v>
+      </c>
+      <c r="AA26">
+        <v>15316.88296331378</v>
+      </c>
+      <c r="AB26">
+        <v>2.665052173089459</v>
+      </c>
+      <c r="AC26">
+        <v>1369.540395501917</v>
+      </c>
+      <c r="AD26">
+        <v>1805.035491437375</v>
+      </c>
+      <c r="AE26">
+        <v>0.5098607082862842</v>
+      </c>
+      <c r="AF26">
+        <v>1386.461408137787</v>
+      </c>
+      <c r="AG26">
+        <v>14624.77158568396</v>
+      </c>
+      <c r="AH26">
+        <v>15.4122825818959</v>
+      </c>
+      <c r="AI26">
+        <v>1284.706529051636</v>
+      </c>
+      <c r="AJ26">
+        <v>8747.10434421557</v>
+      </c>
+      <c r="AK26">
+        <v>11.37553968532925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>103.1251663585672</v>
+      </c>
+      <c r="D27">
+        <v>1285.70372893038</v>
+      </c>
+      <c r="E27">
+        <v>2055.803181710472</v>
+      </c>
+      <c r="F27">
+        <v>1285.70377893288</v>
+      </c>
+      <c r="G27">
+        <v>4353.169484879624</v>
+      </c>
+      <c r="H27">
+        <v>0.8213011241211483</v>
+      </c>
+      <c r="I27">
+        <v>3.482249150310507</v>
+      </c>
+      <c r="J27">
+        <v>0.5435975089860642</v>
+      </c>
+      <c r="K27">
+        <v>1.642602248242297</v>
+      </c>
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27">
+        <v>1388.828995293948</v>
+      </c>
+      <c r="N27">
+        <v>3708.345946116923</v>
+      </c>
+      <c r="O27">
+        <v>1388.828945291448</v>
+      </c>
+      <c r="P27">
+        <v>6740.402351963976</v>
+      </c>
+      <c r="Q27">
+        <v>0.7110423734272897</v>
+      </c>
+      <c r="S27">
+        <v>3.500243562785535</v>
+      </c>
+      <c r="T27">
+        <v>0.5196438577857985</v>
+      </c>
+      <c r="U27">
+        <v>1.422084746854579</v>
+      </c>
+      <c r="V27" t="s">
+        <v>83</v>
+      </c>
+      <c r="W27">
+        <v>1265.54852412804</v>
+      </c>
+      <c r="X27">
+        <v>494.0145690572602</v>
+      </c>
+      <c r="Y27">
+        <v>1.119627856999839</v>
+      </c>
+      <c r="Z27">
+        <v>1410.087835387896</v>
+      </c>
+      <c r="AA27">
+        <v>667.5130562370957</v>
+      </c>
+      <c r="AB27">
+        <v>0.8702575033363573</v>
+      </c>
+      <c r="AC27">
+        <v>1370.674188970812</v>
+      </c>
+      <c r="AD27">
+        <v>88.61274683186893</v>
+      </c>
+      <c r="AE27">
+        <v>0.3549380615827045</v>
+      </c>
+      <c r="AF27">
+        <v>1381.586900000001</v>
+      </c>
+      <c r="AG27">
+        <v>52.41348341607787</v>
+      </c>
+      <c r="AH27">
+        <v>17.74690307913588</v>
+      </c>
+      <c r="AI27">
+        <v>1278.901945251229</v>
+      </c>
+      <c r="AJ27">
+        <v>105.9022807595724</v>
+      </c>
+      <c r="AK27">
+        <v>20.48237959860339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>103.0190996814126</v>
+      </c>
+      <c r="D28">
+        <v>1285.956350776538</v>
+      </c>
+      <c r="E28">
+        <v>7071.217293881815</v>
+      </c>
+      <c r="F28">
+        <v>1285.956400779038</v>
+      </c>
+      <c r="G28">
+        <v>13616.95257843183</v>
+      </c>
+      <c r="H28">
+        <v>0.7655412057500361</v>
+      </c>
+      <c r="I28">
+        <v>9.284326767594026</v>
+      </c>
+      <c r="J28">
+        <v>0.4821353927573045</v>
+      </c>
+      <c r="K28">
+        <v>1.531082411500072</v>
+      </c>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28">
+        <v>1388.97555046295</v>
+      </c>
+      <c r="N28">
+        <v>12148.67319286784</v>
+      </c>
+      <c r="O28">
+        <v>1388.97550046045</v>
+      </c>
+      <c r="P28">
+        <v>20609.17920902799</v>
+      </c>
+      <c r="Q28">
+        <v>0.6796078749116252</v>
+      </c>
+      <c r="S28">
+        <v>10.44997965025857</v>
+      </c>
+      <c r="T28">
+        <v>0.4585421964724634</v>
+      </c>
+      <c r="U28">
+        <v>1.35921574982325</v>
+      </c>
+      <c r="V28" t="s">
+        <v>83</v>
+      </c>
+      <c r="W28">
+        <v>1265.749860801909</v>
+      </c>
+      <c r="X28">
+        <v>1488.486397646471</v>
+      </c>
+      <c r="Y28">
+        <v>0.932029033243323</v>
+      </c>
+      <c r="Z28">
+        <v>1410.266517396687</v>
+      </c>
+      <c r="AA28">
+        <v>2092.676075486484</v>
+      </c>
+      <c r="AB28">
+        <v>0.8310349890114064</v>
+      </c>
+      <c r="AC28">
+        <v>1370.713082046375</v>
+      </c>
+      <c r="AD28">
+        <v>320.2295816781936</v>
+      </c>
+      <c r="AE28">
+        <v>0.339307178277392</v>
+      </c>
+      <c r="AF28">
+        <v>1396.119076999991</v>
+      </c>
+      <c r="AG28">
+        <v>408.7748572636168</v>
+      </c>
+      <c r="AH28">
+        <v>16.96537569132399</v>
+      </c>
+      <c r="AI28">
+        <v>1278.901945000001</v>
+      </c>
+      <c r="AJ28">
+        <v>697.9940331968853</v>
+      </c>
+      <c r="AK28">
+        <v>19.1038694771374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29">
+        <v>102.977827080847</v>
+      </c>
+      <c r="D29">
+        <v>1286.056103141539</v>
+      </c>
+      <c r="E29">
+        <v>6188.068585514634</v>
+      </c>
+      <c r="F29">
+        <v>1286.056153144039</v>
+      </c>
+      <c r="G29">
+        <v>11429.81301237059</v>
+      </c>
+      <c r="H29">
+        <v>0.7371443943785054</v>
+      </c>
+      <c r="I29">
+        <v>7.684391418316815</v>
+      </c>
+      <c r="J29">
+        <v>0.470132700575662</v>
+      </c>
+      <c r="K29">
+        <v>1.474288788757011</v>
+      </c>
+      <c r="L29" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29">
+        <v>1389.034030227386</v>
+      </c>
+      <c r="N29">
+        <v>10278.40472294057</v>
+      </c>
+      <c r="O29">
+        <v>1389.033980224886</v>
+      </c>
+      <c r="P29">
+        <v>17081.64902620588</v>
+      </c>
+      <c r="Q29">
+        <v>0.672319384006677</v>
+      </c>
+      <c r="S29">
+        <v>8.970892710924938</v>
+      </c>
+      <c r="T29">
+        <v>0.4317248591278683</v>
+      </c>
+      <c r="U29">
+        <v>1.344638768013354</v>
+      </c>
+      <c r="V29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29">
+        <v>1265.842884740152</v>
+      </c>
+      <c r="X29">
+        <v>1246.893996421347</v>
+      </c>
+      <c r="Y29">
+        <v>0.9084681023948954</v>
+      </c>
+      <c r="Z29">
+        <v>1410.326017844189</v>
+      </c>
+      <c r="AA29">
+        <v>1736.6048394565</v>
+      </c>
+      <c r="AB29">
+        <v>0.7940656552586433</v>
+      </c>
+      <c r="AC29">
+        <v>1370.735586024788</v>
+      </c>
+      <c r="AD29">
+        <v>275.7475409290297</v>
+      </c>
+      <c r="AE29">
+        <v>0.3358382745067406</v>
+      </c>
+      <c r="AF29">
+        <v>1396.119077</v>
+      </c>
+      <c r="AG29">
+        <v>196.2199201388769</v>
+      </c>
+      <c r="AH29">
+        <v>16.79194460635872</v>
+      </c>
+      <c r="AI29">
+        <v>1278.901945000001</v>
+      </c>
+      <c r="AJ29">
+        <v>384.7466170792937</v>
+      </c>
+      <c r="AK29">
+        <v>18.39005003312502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>102.9517312301637</v>
+      </c>
+      <c r="D30">
+        <v>1286.13694113832</v>
+      </c>
+      <c r="E30">
+        <v>4880.864939377054</v>
+      </c>
+      <c r="F30">
+        <v>1286.136991140821</v>
+      </c>
+      <c r="G30">
+        <v>8754.298798978883</v>
+      </c>
+      <c r="H30">
+        <v>0.7119205724895017</v>
+      </c>
+      <c r="I30">
+        <v>7.620966590734818</v>
+      </c>
+      <c r="J30">
+        <v>0.481236594474541</v>
+      </c>
+      <c r="K30">
+        <v>1.423841144979003</v>
+      </c>
+      <c r="L30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30">
+        <v>1389.088772373484</v>
+      </c>
+      <c r="N30">
+        <v>7895.554677111938</v>
+      </c>
+      <c r="O30">
+        <v>1389.088722370984</v>
+      </c>
+      <c r="P30">
+        <v>12715.93364043298</v>
+      </c>
+      <c r="Q30">
+        <v>0.6573766383892972</v>
+      </c>
+      <c r="S30">
+        <v>7.154896370191851</v>
+      </c>
+      <c r="T30">
+        <v>0.4067887988075729</v>
+      </c>
+      <c r="U30">
+        <v>1.314753276778594</v>
+      </c>
+      <c r="V30" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30">
+        <v>1265.913360802585</v>
+      </c>
+      <c r="X30">
+        <v>1004.009818126135</v>
+      </c>
+      <c r="Y30">
+        <v>0.8997473559472864</v>
+      </c>
+      <c r="Z30">
+        <v>1410.376278109027</v>
+      </c>
+      <c r="AA30">
+        <v>1321.298921688136</v>
+      </c>
+      <c r="AB30">
+        <v>0.7787836199710569</v>
+      </c>
+      <c r="AC30">
+        <v>1370.727486503318</v>
+      </c>
+      <c r="AD30">
+        <v>194.9153488120421</v>
+      </c>
+      <c r="AE30">
+        <v>0.3284684203334991</v>
+      </c>
+      <c r="AF30">
+        <v>1382.121174590122</v>
+      </c>
+      <c r="AG30">
+        <v>20.28561274827608</v>
+      </c>
+      <c r="AH30">
+        <v>16.423420993503</v>
+      </c>
+      <c r="AI30">
+        <v>1292.901944999982</v>
+      </c>
+      <c r="AJ30">
+        <v>7.120004418272915</v>
+      </c>
+      <c r="AK30">
+        <v>17.77074719380226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>102.9201058322624</v>
+      </c>
+      <c r="D31">
+        <v>1286.225673026569</v>
+      </c>
+      <c r="E31">
+        <v>4276.063677608588</v>
+      </c>
+      <c r="F31">
+        <v>1286.225723029069</v>
+      </c>
+      <c r="G31">
+        <v>7352.665549202758</v>
+      </c>
+      <c r="H31">
+        <v>0.6900362904523285</v>
+      </c>
+      <c r="I31">
+        <v>6.796027890555336</v>
+      </c>
+      <c r="J31">
+        <v>0.4522643238313227</v>
+      </c>
+      <c r="K31">
+        <v>1.380072580904657</v>
+      </c>
+      <c r="L31" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31">
+        <v>1389.145878863831</v>
+      </c>
+      <c r="N31">
+        <v>6778.038312342091</v>
+      </c>
+      <c r="O31">
+        <v>1389.145828861331</v>
+      </c>
+      <c r="P31">
+        <v>10692.41353114571</v>
+      </c>
+      <c r="Q31">
+        <v>0.6507245377248818</v>
+      </c>
+      <c r="S31">
+        <v>6.318684667963276</v>
+      </c>
+      <c r="T31">
+        <v>0.3781720739340909</v>
+      </c>
+      <c r="U31">
+        <v>1.301449075449764</v>
+      </c>
+      <c r="V31" t="s">
+        <v>83</v>
+      </c>
+      <c r="W31">
+        <v>1266.012220685425</v>
+      </c>
+      <c r="X31">
+        <v>822.9437531175753</v>
+      </c>
+      <c r="Y31">
+        <v>0.8176790195646526</v>
+      </c>
+      <c r="Z31">
+        <v>1410.420052351176</v>
+      </c>
+      <c r="AA31">
+        <v>1112.995098369528</v>
+      </c>
+      <c r="AB31">
+        <v>0.7474967232060352</v>
+      </c>
+      <c r="AC31">
+        <v>1370.771565942439</v>
+      </c>
+      <c r="AD31">
+        <v>165.9718404391333</v>
+      </c>
+      <c r="AE31">
+        <v>0.3251527707529782</v>
+      </c>
+      <c r="AF31">
+        <v>1382.120902424984</v>
+      </c>
+      <c r="AG31">
+        <v>11.203334364604</v>
+      </c>
+      <c r="AH31">
+        <v>16.2566173684777</v>
+      </c>
+      <c r="AI31">
+        <v>1279.445090009945</v>
+      </c>
+      <c r="AJ31">
+        <v>6.253349356432737</v>
+      </c>
+      <c r="AK31">
+        <v>17.22720967467096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>102.8854299831903</v>
+      </c>
+      <c r="D32">
+        <v>1286.308006477239</v>
+      </c>
+      <c r="E32">
+        <v>3727.500910846343</v>
+      </c>
+      <c r="F32">
+        <v>1286.308056479739</v>
+      </c>
+      <c r="G32">
+        <v>6269.855989181294</v>
+      </c>
+      <c r="H32">
+        <v>0.6898690118132986</v>
+      </c>
+      <c r="I32">
+        <v>5.615981023572179</v>
+      </c>
+      <c r="J32">
+        <v>0.3938809530615164</v>
+      </c>
+      <c r="K32">
+        <v>1.379738023626597</v>
+      </c>
+      <c r="L32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32">
+        <v>1389.193536465429</v>
+      </c>
+      <c r="N32">
+        <v>5897.783130739629</v>
+      </c>
+      <c r="O32">
+        <v>1389.193486462929</v>
+      </c>
+      <c r="P32">
+        <v>9076.280646150264</v>
+      </c>
+      <c r="Q32">
+        <v>0.6348045836664632</v>
+      </c>
+      <c r="S32">
+        <v>5.933848843959689</v>
+      </c>
+      <c r="T32">
+        <v>0.3781923430795688</v>
+      </c>
+      <c r="U32">
+        <v>1.269609167332926</v>
+      </c>
+      <c r="V32" t="s">
+        <v>83</v>
+      </c>
+      <c r="W32">
+        <v>1266.050169943227</v>
+      </c>
+      <c r="X32">
+        <v>689.7737327275809</v>
+      </c>
+      <c r="Y32">
+        <v>0.7478215325954155</v>
+      </c>
+      <c r="Z32">
+        <v>1410.465771700942</v>
+      </c>
+      <c r="AA32">
+        <v>943.4212836385675</v>
+      </c>
+      <c r="AB32">
+        <v>0.6789487638878358</v>
+      </c>
+      <c r="AC32">
+        <v>1370.785602082724</v>
+      </c>
+      <c r="AD32">
+        <v>139.3133061312157</v>
+      </c>
+      <c r="AE32">
+        <v>0.3171822059831914</v>
+      </c>
+      <c r="AF32">
+        <v>1382.119077000005</v>
+      </c>
+      <c r="AG32">
+        <v>10.25333374000057</v>
+      </c>
+      <c r="AH32">
+        <v>15.85912914315168</v>
+      </c>
+      <c r="AI32">
+        <v>1279.44497985662</v>
+      </c>
+      <c r="AJ32">
+        <v>5.600022118479783</v>
+      </c>
+      <c r="AK32">
+        <v>17.22948526366977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>102.8590170419791</v>
+      </c>
+      <c r="D33">
+        <v>1286.380075624781</v>
+      </c>
+      <c r="E33">
+        <v>3191.837944355362</v>
+      </c>
+      <c r="F33">
+        <v>1286.380125627281</v>
+      </c>
+      <c r="G33">
+        <v>5161.486578388471</v>
+      </c>
+      <c r="H33">
+        <v>0.6689687264553462</v>
+      </c>
+      <c r="I33">
+        <v>5.578115627367116</v>
+      </c>
+      <c r="J33">
+        <v>0.3703896493526472</v>
+      </c>
+      <c r="K33">
+        <v>1.337937452910692</v>
+      </c>
+      <c r="L33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33">
+        <v>1389.23919267176</v>
+      </c>
+      <c r="N33">
+        <v>4929.039494385561</v>
+      </c>
+      <c r="O33">
+        <v>1389.23914266926</v>
+      </c>
+      <c r="P33">
+        <v>7400.29527310088</v>
+      </c>
+      <c r="Q33">
+        <v>0.6218595280494015</v>
+      </c>
+      <c r="S33">
+        <v>5.415742475391156</v>
+      </c>
+      <c r="T33">
+        <v>0.3669497731954237</v>
+      </c>
+      <c r="U33">
+        <v>1.243719056098803</v>
+      </c>
+      <c r="V33" t="s">
+        <v>83</v>
+      </c>
+      <c r="W33">
+        <v>1266.150433660718</v>
+      </c>
+      <c r="X33">
+        <v>553.2750442884827</v>
+      </c>
+      <c r="Y33">
+        <v>0.7689519046960385</v>
+      </c>
+      <c r="Z33">
+        <v>1410.505932154398</v>
+      </c>
+      <c r="AA33">
+        <v>756.3121678953495</v>
+      </c>
+      <c r="AB33">
+        <v>0.66522100977471</v>
+      </c>
+      <c r="AC33">
+        <v>1370.783112449868</v>
+      </c>
+      <c r="AD33">
+        <v>103.9005505417787</v>
+      </c>
+      <c r="AE33">
+        <v>0.3106845437777322</v>
+      </c>
+      <c r="AF33">
+        <v>1396.116962891107</v>
+      </c>
+      <c r="AG33">
+        <v>8.619998780000476</v>
+      </c>
+      <c r="AH33">
+        <v>15.53422757931473</v>
+      </c>
+      <c r="AI33">
+        <v>1279.445096068898</v>
+      </c>
+      <c r="AJ33">
+        <v>4.833332606993885</v>
+      </c>
+      <c r="AK33">
+        <v>16.71188380813327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>102.8338165893065</v>
+      </c>
+      <c r="D34">
+        <v>1286.448205665505</v>
+      </c>
+      <c r="E34">
+        <v>2445.849373265708</v>
+      </c>
+      <c r="F34">
+        <v>1286.448255668005</v>
+      </c>
+      <c r="G34">
+        <v>3865.921585662829</v>
+      </c>
+      <c r="H34">
+        <v>0.6591759055699453</v>
+      </c>
+      <c r="I34">
+        <v>4.559010700980821</v>
+      </c>
+      <c r="J34">
+        <v>0.3482363314495657</v>
+      </c>
+      <c r="K34">
+        <v>1.318351811139891</v>
+      </c>
+      <c r="L34" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34">
+        <v>1389.282122259811</v>
+      </c>
+      <c r="N34">
+        <v>3853.179047479916</v>
+      </c>
+      <c r="O34">
+        <v>1389.282072257311</v>
+      </c>
+      <c r="P34">
+        <v>5630.961063918982</v>
+      </c>
+      <c r="Q34">
+        <v>0.6106283387420011</v>
+      </c>
+      <c r="S34">
+        <v>4.764390425196085</v>
+      </c>
+      <c r="T34">
+        <v>0.3428492275747959</v>
+      </c>
+      <c r="U34">
+        <v>1.221256677484002</v>
+      </c>
+      <c r="V34" t="s">
+        <v>83</v>
+      </c>
+      <c r="W34">
+        <v>1266.172671364876</v>
+      </c>
+      <c r="X34">
+        <v>419.9677889438083</v>
+      </c>
+      <c r="Y34">
+        <v>0.777513495724005</v>
+      </c>
+      <c r="Z34">
+        <v>1410.546931055624</v>
+      </c>
+      <c r="AA34">
+        <v>576.4665824153245</v>
+      </c>
+      <c r="AB34">
+        <v>0.6679107421381298</v>
+      </c>
+      <c r="AC34">
+        <v>1371.159828375979</v>
+      </c>
+      <c r="AD34">
+        <v>70.90246736274494</v>
+      </c>
+      <c r="AE34">
+        <v>0.3050332142220565</v>
+      </c>
+      <c r="AF34">
+        <v>1382.120449340416</v>
+      </c>
+      <c r="AG34">
+        <v>6.196667480000345</v>
+      </c>
+      <c r="AH34">
+        <v>15.25166069809998</v>
+      </c>
+      <c r="AI34">
+        <v>1279.445858052896</v>
+      </c>
+      <c r="AJ34">
+        <v>3.67333379950467</v>
+      </c>
+      <c r="AK34">
+        <v>16.46849631843933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>102.8110841914222</v>
+      </c>
+      <c r="D35">
+        <v>1286.490977577995</v>
+      </c>
+      <c r="E35">
+        <v>2228.41576859143</v>
+      </c>
+      <c r="F35">
+        <v>1286.491027580495</v>
+      </c>
+      <c r="G35">
+        <v>3461.098311337068</v>
+      </c>
+      <c r="H35">
+        <v>0.6522441030148802</v>
+      </c>
+      <c r="I35">
+        <v>4.211602874116543</v>
+      </c>
+      <c r="J35">
+        <v>0.3290163860932134</v>
+      </c>
+      <c r="K35">
+        <v>1.30448820602976</v>
+      </c>
+      <c r="L35" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35">
+        <v>1389.302161774418</v>
+      </c>
+      <c r="N35">
+        <v>3451.364082280798</v>
+      </c>
+      <c r="O35">
+        <v>1389.302111771918</v>
+      </c>
+      <c r="P35">
+        <v>4982.040101507151</v>
+      </c>
+      <c r="Q35">
+        <v>0.6105904182745104</v>
+      </c>
+      <c r="S35">
+        <v>4.674761845100245</v>
+      </c>
+      <c r="T35">
+        <v>0.3088247181489878</v>
+      </c>
+      <c r="U35">
+        <v>1.221180836549021</v>
+      </c>
+      <c r="V35" t="s">
+        <v>83</v>
+      </c>
+      <c r="W35">
+        <v>1266.233391876545</v>
+      </c>
+      <c r="X35">
+        <v>357.7276378028539</v>
+      </c>
+      <c r="Y35">
+        <v>0.7681720024547188</v>
+      </c>
+      <c r="Z35">
+        <v>1410.568755898676</v>
+      </c>
+      <c r="AA35">
+        <v>506.5108426942785</v>
+      </c>
+      <c r="AB35">
+        <v>0.6160326169810547</v>
+      </c>
+      <c r="AC35">
+        <v>1371.128589357341</v>
+      </c>
+      <c r="AD35">
+        <v>67.32370852901298</v>
+      </c>
+      <c r="AE35">
+        <v>0.3049854306227022</v>
+      </c>
+      <c r="AF35">
+        <v>1396.11799758512</v>
+      </c>
+      <c r="AG35">
+        <v>6.12666626000034</v>
+      </c>
+      <c r="AH35">
+        <v>15.24919570715149</v>
+      </c>
+      <c r="AI35">
+        <v>1279.444981804551</v>
+      </c>
+      <c r="AJ35">
+        <v>3.333333816131361</v>
+      </c>
+      <c r="AK35">
+        <v>16.29407045902035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>102.8075042072476</v>
+      </c>
+      <c r="D36">
+        <v>1286.514197598258</v>
+      </c>
+      <c r="E36">
+        <v>2008.591986688632</v>
+      </c>
+      <c r="F36">
+        <v>1286.514247600758</v>
+      </c>
+      <c r="G36">
+        <v>3120.473594656498</v>
+      </c>
+      <c r="H36">
+        <v>0.6526990539941446</v>
+      </c>
+      <c r="I36">
+        <v>4.196669963587999</v>
+      </c>
+      <c r="J36">
+        <v>0.3277968897657226</v>
+      </c>
+      <c r="K36">
+        <v>1.305398107988289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36">
+        <v>1389.321801810505</v>
+      </c>
+      <c r="N36">
+        <v>3155.778911161713</v>
+      </c>
+      <c r="O36">
+        <v>1389.321751808005</v>
+      </c>
+      <c r="P36">
+        <v>4511.66046462818</v>
+      </c>
+      <c r="Q36">
+        <v>0.6017540082748903</v>
+      </c>
+      <c r="S36">
+        <v>4.438890621824635</v>
+      </c>
+      <c r="T36">
+        <v>0.3225779303567671</v>
+      </c>
+      <c r="U36">
+        <v>1.203508016549781</v>
+      </c>
+      <c r="V36" t="s">
+        <v>83</v>
+      </c>
+      <c r="W36">
+        <v>1266.227374380534</v>
+      </c>
+      <c r="X36">
+        <v>330.9096461285633</v>
+      </c>
+      <c r="Y36">
+        <v>0.7480923642856689</v>
+      </c>
+      <c r="Z36">
+        <v>1410.56746530443</v>
+      </c>
+      <c r="AA36">
+        <v>458.854970912398</v>
+      </c>
+      <c r="AB36">
+        <v>0.6470889352300813</v>
+      </c>
+      <c r="AC36">
+        <v>1370.782342391796</v>
+      </c>
+      <c r="AD36">
+        <v>65.88932700673864</v>
+      </c>
+      <c r="AE36">
+        <v>0.300549641238313</v>
+      </c>
+      <c r="AF36">
+        <v>1382.119622428399</v>
+      </c>
+      <c r="AG36">
+        <v>5.356666870000296</v>
+      </c>
+      <c r="AH36">
+        <v>15.02748205064961</v>
+      </c>
+      <c r="AI36">
+        <v>1279.444981039317</v>
+      </c>
+      <c r="AJ36">
+        <v>3.126666388497675</v>
+      </c>
+      <c r="AK36">
+        <v>16.30426526223649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>104.7004289180413</v>
+      </c>
+      <c r="D37">
+        <v>1282.221577346379</v>
+      </c>
+      <c r="E37">
+        <v>28888.88482259032</v>
+      </c>
+      <c r="F37">
+        <v>1282.221527343879</v>
+      </c>
+      <c r="G37">
+        <v>85184.42244959122</v>
+      </c>
+      <c r="H37">
+        <v>1.076144893163628</v>
+      </c>
+      <c r="I37">
+        <v>31.22277185578257</v>
+      </c>
+      <c r="J37">
+        <v>0.7155615577171208</v>
+      </c>
+      <c r="K37">
+        <v>2.152289786327256</v>
+      </c>
+      <c r="L37" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37">
+        <v>1386.92190625942</v>
+      </c>
+      <c r="N37">
+        <v>55484.20559463879</v>
+      </c>
+      <c r="O37">
+        <v>1386.92195626192</v>
+      </c>
+      <c r="P37">
+        <v>154776.6529314106</v>
+      </c>
+      <c r="Q37">
+        <v>1.010725350349976</v>
+      </c>
+      <c r="S37">
+        <v>50.03938711938206</v>
+      </c>
+      <c r="T37">
+        <v>0.7260950601728978</v>
+      </c>
+      <c r="U37">
+        <v>2.021450700699952</v>
+      </c>
+      <c r="V37" t="s">
+        <v>83</v>
+      </c>
+      <c r="W37">
+        <v>1262.142145111771</v>
+      </c>
+      <c r="X37">
+        <v>11934.28750450955</v>
+      </c>
+      <c r="Y37">
+        <v>3.118486946920876</v>
+      </c>
+      <c r="Z37">
+        <v>1408.253034963609</v>
+      </c>
+      <c r="AA37">
+        <v>15421.84308342249</v>
+      </c>
+      <c r="AB37">
+        <v>2.531309985642983</v>
+      </c>
+      <c r="AC37">
+        <v>1369.563853440941</v>
+      </c>
+      <c r="AD37">
+        <v>1760.743005897873</v>
+      </c>
+      <c r="AE37">
+        <v>0.5046521859018207</v>
+      </c>
+      <c r="AF37">
+        <v>1385.175223951751</v>
+      </c>
+      <c r="AG37">
+        <v>13496.0543720908</v>
+      </c>
+      <c r="AH37">
+        <v>14.68746555472989</v>
+      </c>
+      <c r="AI37">
+        <v>1285.107538345368</v>
+      </c>
+      <c r="AJ37">
+        <v>7979.797124018946</v>
+      </c>
+      <c r="AK37">
+        <v>12.15037708825382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>102.8041573898013</v>
+      </c>
+      <c r="D38">
+        <v>1286.536037239331</v>
+      </c>
+      <c r="E38">
+        <v>1864.21626221163</v>
+      </c>
+      <c r="F38">
+        <v>1286.535987236831</v>
+      </c>
+      <c r="G38">
+        <v>2805.80585536656</v>
+      </c>
+      <c r="H38">
+        <v>0.6443905701359554</v>
+      </c>
+      <c r="I38">
+        <v>4.572264110166127</v>
+      </c>
+      <c r="J38">
+        <v>0.2761298155741316</v>
+      </c>
+      <c r="K38">
+        <v>1.288781140271911</v>
+      </c>
+      <c r="L38" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38">
+        <v>1389.340194629132</v>
+      </c>
+      <c r="N38">
+        <v>2911.65341997928</v>
+      </c>
+      <c r="O38">
+        <v>1389.340144626632</v>
+      </c>
+      <c r="P38">
+        <v>4092.088087153763</v>
+      </c>
+      <c r="Q38">
+        <v>0.5958840537605428</v>
+      </c>
+      <c r="S38">
+        <v>3.652383889604005</v>
+      </c>
+      <c r="T38">
+        <v>0.3022150211222959</v>
+      </c>
+      <c r="U38">
+        <v>1.191768107521086</v>
+      </c>
+      <c r="V38" t="s">
+        <v>83</v>
+      </c>
+      <c r="W38">
+        <v>1266.274262793931</v>
+      </c>
+      <c r="X38">
+        <v>290.1826378859476</v>
+      </c>
+      <c r="Y38">
+        <v>0.6932131757338631</v>
+      </c>
+      <c r="Z38">
+        <v>1410.586550041261</v>
+      </c>
+      <c r="AA38">
+        <v>415.6779355957534</v>
+      </c>
+      <c r="AB38">
+        <v>0.6314739348313108</v>
+      </c>
+      <c r="AC38">
+        <v>1371.162376821077</v>
+      </c>
+      <c r="AD38">
+        <v>53.34811228622734</v>
+      </c>
+      <c r="AE38">
+        <v>0.2976166186988701</v>
+      </c>
+      <c r="AF38">
+        <v>1382.119077000002</v>
+      </c>
+      <c r="AG38">
+        <v>5.026667592838352</v>
+      </c>
+      <c r="AH38">
+        <v>14.88084709068712</v>
+      </c>
+      <c r="AI38">
+        <v>1293.444961899724</v>
+      </c>
+      <c r="AJ38">
+        <v>40.02861142676898</v>
+      </c>
+      <c r="AK38">
+        <v>16.09448492858293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>102.7772980277077</v>
+      </c>
+      <c r="D39">
+        <v>1286.565538741665</v>
+      </c>
+      <c r="E39">
+        <v>1581.734198363921</v>
+      </c>
+      <c r="F39">
+        <v>1286.565588744166</v>
+      </c>
+      <c r="G39">
+        <v>2340.474289678514</v>
+      </c>
+      <c r="H39">
+        <v>0.6313526448445822</v>
+      </c>
+      <c r="I39">
+        <v>3.403427528495969</v>
+      </c>
+      <c r="J39">
+        <v>0.2845275393582902</v>
+      </c>
+      <c r="K39">
+        <v>1.262705289689164</v>
+      </c>
+      <c r="L39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39">
+        <v>1389.342936774373</v>
+      </c>
+      <c r="N39">
+        <v>2494.602971911796</v>
+      </c>
+      <c r="O39">
+        <v>1389.342886771873</v>
+      </c>
+      <c r="P39">
+        <v>3471.079594839147</v>
+      </c>
+      <c r="Q39">
+        <v>0.5871298123345228</v>
+      </c>
+      <c r="S39">
+        <v>4.073670713623217</v>
+      </c>
+      <c r="T39">
+        <v>0.3156454534748287</v>
+      </c>
+      <c r="U39">
+        <v>1.174259624669046</v>
+      </c>
+      <c r="V39" t="s">
+        <v>83</v>
+      </c>
+      <c r="W39">
+        <v>1266.289376286768</v>
+      </c>
+      <c r="X39">
+        <v>246.3902675439768</v>
+      </c>
+      <c r="Y39">
+        <v>0.6813216698190496</v>
+      </c>
+      <c r="Z39">
+        <v>1410.61722488529</v>
+      </c>
+      <c r="AA39">
+        <v>356.0254536565564</v>
+      </c>
+      <c r="AB39">
+        <v>0.6224747478751782</v>
+      </c>
+      <c r="AC39">
+        <v>1370.817552786659</v>
+      </c>
+      <c r="AD39">
+        <v>42.72582970239899</v>
+      </c>
+      <c r="AE39">
+        <v>0.2932209698957793</v>
+      </c>
+      <c r="AF39">
+        <v>1396.113622160508</v>
+      </c>
+      <c r="AG39">
+        <v>3.946666260000218</v>
+      </c>
+      <c r="AH39">
+        <v>14.66104097581828</v>
+      </c>
+      <c r="AI39">
+        <v>1279.449471687941</v>
+      </c>
+      <c r="AJ39">
+        <v>2.653332520150231</v>
+      </c>
+      <c r="AK39">
+        <v>15.77115189747072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <v>102.7814299657118</v>
+      </c>
+      <c r="D40">
+        <v>1286.584313955587</v>
+      </c>
+      <c r="E40">
+        <v>1309.027618860953</v>
+      </c>
+      <c r="F40">
+        <v>1286.584363958087</v>
+      </c>
+      <c r="G40">
+        <v>1939.330901301068</v>
+      </c>
+      <c r="H40">
+        <v>0.6384207603827642</v>
+      </c>
+      <c r="I40">
+        <v>2.840921951064214</v>
+      </c>
+      <c r="J40">
+        <v>0.2563989713216122</v>
+      </c>
+      <c r="K40">
+        <v>1.276841520765528</v>
+      </c>
+      <c r="L40" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40">
+        <v>1389.365743921299</v>
+      </c>
+      <c r="N40">
+        <v>2062.215179054886</v>
+      </c>
+      <c r="O40">
+        <v>1389.365793923799</v>
+      </c>
+      <c r="P40">
+        <v>2831.537411567966</v>
+      </c>
+      <c r="Q40">
+        <v>0.591043601603349</v>
+      </c>
+      <c r="S40">
+        <v>3.074616863006815</v>
+      </c>
+      <c r="T40">
+        <v>0.2594705169431644</v>
+      </c>
+      <c r="U40">
+        <v>1.182087203206698</v>
+      </c>
+      <c r="V40" t="s">
+        <v>83</v>
+      </c>
+      <c r="W40">
+        <v>1266.315491507538</v>
+      </c>
+      <c r="X40">
+        <v>184.3684675424693</v>
+      </c>
+      <c r="Y40">
+        <v>0.7157102264069303</v>
+      </c>
+      <c r="Z40">
+        <v>1410.613962935655</v>
+      </c>
+      <c r="AA40">
+        <v>267.9041549672066</v>
+      </c>
+      <c r="AB40">
+        <v>0.6185559475955387</v>
+      </c>
+      <c r="AC40">
+        <v>1371.172102301153</v>
+      </c>
+      <c r="AD40">
+        <v>36.84204360649814</v>
+      </c>
+      <c r="AE40">
+        <v>0.2952039641616174</v>
+      </c>
+      <c r="AF40">
+        <v>1382.119079556352</v>
+      </c>
+      <c r="AG40">
+        <v>3.400000823292813</v>
+      </c>
+      <c r="AH40">
+        <v>14.76038638329571</v>
+      </c>
+      <c r="AI40">
+        <v>1279.453584866531</v>
+      </c>
+      <c r="AJ40">
+        <v>2.100000000127288</v>
+      </c>
+      <c r="AK40">
+        <v>15.94836704426885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>102.7713630128001</v>
+      </c>
+      <c r="D41">
+        <v>1286.598047061739</v>
+      </c>
+      <c r="E41">
+        <v>1088.29038940387</v>
+      </c>
+      <c r="F41">
+        <v>1286.598097064239</v>
+      </c>
+      <c r="G41">
+        <v>1595.695693122233</v>
+      </c>
+      <c r="H41">
+        <v>0.6327018585203881</v>
+      </c>
+      <c r="I41">
+        <v>2.7767349554246</v>
+      </c>
+      <c r="J41">
+        <v>0.2525518324699323</v>
+      </c>
+      <c r="K41">
+        <v>1.265403717040776</v>
+      </c>
+      <c r="L41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41">
+        <v>1389.369410074539</v>
+      </c>
+      <c r="N41">
+        <v>1731.064010375523</v>
+      </c>
+      <c r="O41">
+        <v>1389.36946007704</v>
+      </c>
+      <c r="P41">
+        <v>2380.998023309453</v>
+      </c>
+      <c r="Q41">
+        <v>0.5960576550540331</v>
+      </c>
+      <c r="S41">
+        <v>2.800307501932169</v>
+      </c>
+      <c r="T41">
+        <v>0.2403606769352382</v>
+      </c>
+      <c r="U41">
+        <v>1.192115310108066</v>
+      </c>
+      <c r="V41" t="s">
+        <v>83</v>
+      </c>
+      <c r="W41">
+        <v>1266.305741344682</v>
+      </c>
+      <c r="X41">
+        <v>159.1986387917409</v>
+      </c>
+      <c r="Y41">
+        <v>0.6917427346638879</v>
+      </c>
+      <c r="Z41">
+        <v>1410.597254417221</v>
+      </c>
+      <c r="AA41">
+        <v>229.067765893573</v>
+      </c>
+      <c r="AB41">
+        <v>0.609448961607238</v>
+      </c>
+      <c r="AC41">
+        <v>1371.193229171281</v>
+      </c>
+      <c r="AD41">
+        <v>34.81139961736299</v>
+      </c>
+      <c r="AE41">
+        <v>0.2977016225702679</v>
+      </c>
+      <c r="AF41">
+        <v>1382.120176321703</v>
+      </c>
+      <c r="AG41">
+        <v>2.927999278118991</v>
+      </c>
+      <c r="AH41">
+        <v>14.88530188569118</v>
+      </c>
+      <c r="AI41">
+        <v>1279.455160290193</v>
+      </c>
+      <c r="AJ41">
+        <v>1.812000778114376</v>
+      </c>
+      <c r="AK41">
+        <v>15.80374757812237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42">
+        <v>102.7691037500408</v>
+      </c>
+      <c r="D42">
+        <v>1286.609804851031</v>
+      </c>
+      <c r="E42">
+        <v>1026.906137252054</v>
+      </c>
+      <c r="F42">
+        <v>1286.609854853531</v>
+      </c>
+      <c r="G42">
+        <v>1488.015855810035</v>
+      </c>
+      <c r="H42">
+        <v>0.6246425480541482</v>
+      </c>
+      <c r="I42">
+        <v>2.530436912805568</v>
+      </c>
+      <c r="J42">
+        <v>0.2554523864913004</v>
+      </c>
+      <c r="K42">
+        <v>1.249285096108296</v>
+      </c>
+      <c r="L42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42">
+        <v>1389.379008606072</v>
+      </c>
+      <c r="N42">
+        <v>1589.970741305743</v>
+      </c>
+      <c r="O42">
+        <v>1389.378958603572</v>
+      </c>
+      <c r="P42">
+        <v>2172.384287652435</v>
+      </c>
+      <c r="Q42">
+        <v>0.59104226827923</v>
+      </c>
+      <c r="S42">
+        <v>2.523511586158062</v>
+      </c>
+      <c r="T42">
+        <v>0.2453919591285689</v>
+      </c>
+      <c r="U42">
+        <v>1.18208453655846</v>
+      </c>
+      <c r="V42" t="s">
+        <v>83</v>
+      </c>
+      <c r="W42">
+        <v>1266.332228406541</v>
+      </c>
+      <c r="X42">
+        <v>146.343121031107</v>
+      </c>
+      <c r="Y42">
+        <v>0.6112649509350156</v>
+      </c>
+      <c r="Z42">
+        <v>1410.623366061842</v>
+      </c>
+      <c r="AA42">
+        <v>191.9088666934915</v>
+      </c>
+      <c r="AB42">
+        <v>0.6390647573692622</v>
+      </c>
+      <c r="AC42">
+        <v>1370.815049772515</v>
+      </c>
+      <c r="AD42">
+        <v>27.99546336181761</v>
+      </c>
+      <c r="AE42">
+        <v>0.2952352294038657</v>
+      </c>
+      <c r="AF42">
+        <v>1396.114257480303</v>
+      </c>
+      <c r="AG42">
+        <v>2.484000244000137</v>
+      </c>
+      <c r="AH42">
+        <v>14.76176147020011</v>
+      </c>
+      <c r="AI42">
+        <v>1293.41261952403</v>
+      </c>
+      <c r="AJ42">
+        <v>1.780000018805835</v>
+      </c>
+      <c r="AK42">
+        <v>15.60079777889196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>102.7603468002628</v>
+      </c>
+      <c r="D43">
+        <v>1286.618214440795</v>
+      </c>
+      <c r="E43">
+        <v>867.8776966169337</v>
+      </c>
+      <c r="F43">
+        <v>1286.618264443295</v>
+      </c>
+      <c r="G43">
+        <v>1243.653159646877</v>
+      </c>
+      <c r="H43">
+        <v>0.6337835134103214</v>
+      </c>
+      <c r="I43">
+        <v>2.562044083820387</v>
+      </c>
+      <c r="J43">
+        <v>0.1813643155591684</v>
+      </c>
+      <c r="K43">
+        <v>1.267567026820643</v>
+      </c>
+      <c r="L43" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43">
+        <v>1389.378561241058</v>
+      </c>
+      <c r="N43">
+        <v>1387.313748741183</v>
+      </c>
+      <c r="O43">
+        <v>1389.378611243558</v>
+      </c>
+      <c r="P43">
+        <v>1879.664431720123</v>
+      </c>
+      <c r="Q43">
+        <v>0.5847392566625174</v>
+      </c>
+      <c r="S43">
+        <v>2.290796703427</v>
+      </c>
+      <c r="T43">
+        <v>0.2520693969695805</v>
+      </c>
+      <c r="U43">
+        <v>1.169478513325035</v>
+      </c>
+      <c r="V43" t="s">
+        <v>83</v>
+      </c>
+      <c r="W43">
+        <v>1266.318714357973</v>
+      </c>
+      <c r="X43">
+        <v>115.3607818847624</v>
+      </c>
+      <c r="Y43">
+        <v>0.6975639150180529</v>
+      </c>
+      <c r="Z43">
+        <v>1410.618844713036</v>
+      </c>
+      <c r="AA43">
+        <v>170.5944450039501</v>
+      </c>
+      <c r="AB43">
+        <v>0.6193840521061448</v>
+      </c>
+      <c r="AC43">
+        <v>1371.19264192944</v>
+      </c>
+      <c r="AD43">
+        <v>26.12281973353805</v>
+      </c>
+      <c r="AE43">
+        <v>0.2920678904420028</v>
+      </c>
+      <c r="AF43">
+        <v>1382.119086432363</v>
+      </c>
+      <c r="AG43">
+        <v>2.289999398690541</v>
+      </c>
+      <c r="AH43">
+        <v>14.60307130969113</v>
+      </c>
+      <c r="AI43">
+        <v>1279.460303014036</v>
+      </c>
+      <c r="AJ43">
+        <v>1.424000270449903</v>
+      </c>
+      <c r="AK43">
+        <v>15.83179943177889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44">
+        <v>104.649313952423</v>
+      </c>
+      <c r="D44">
+        <v>1282.314884876835</v>
+      </c>
+      <c r="E44">
+        <v>28671.25923045911</v>
+      </c>
+      <c r="F44">
+        <v>1282.314834874335</v>
+      </c>
+      <c r="G44">
+        <v>84679.16496488292</v>
+      </c>
+      <c r="H44">
+        <v>1.082498805499668</v>
+      </c>
+      <c r="I44">
+        <v>32.41833356673187</v>
+      </c>
+      <c r="J44">
+        <v>0.7049583474337183</v>
+      </c>
+      <c r="K44">
+        <v>2.164997610999337</v>
+      </c>
+      <c r="L44" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44">
+        <v>1386.964198829258</v>
+      </c>
+      <c r="N44">
+        <v>55425.16592769535</v>
+      </c>
+      <c r="O44">
+        <v>1386.964148826758</v>
+      </c>
+      <c r="P44">
+        <v>153518.3105814245</v>
+      </c>
+      <c r="Q44">
+        <v>1.003909644845877</v>
+      </c>
+      <c r="S44">
+        <v>45.62638552747634</v>
+      </c>
+      <c r="T44">
+        <v>0.7237992431593198</v>
+      </c>
+      <c r="U44">
+        <v>2.007819289691753</v>
+      </c>
+      <c r="V44" t="s">
+        <v>83</v>
+      </c>
+      <c r="W44">
+        <v>1262.242976136883</v>
+      </c>
+      <c r="X44">
+        <v>12069.3780587434</v>
+      </c>
+      <c r="Y44">
+        <v>3.114299196906612</v>
+      </c>
+      <c r="Z44">
+        <v>1408.30064072731</v>
+      </c>
+      <c r="AA44">
+        <v>15113.26090328343</v>
+      </c>
+      <c r="AB44">
+        <v>2.498853727015857</v>
+      </c>
+      <c r="AC44">
+        <v>1369.584029514186</v>
+      </c>
+      <c r="AD44">
+        <v>1792.680105512674</v>
+      </c>
+      <c r="AE44">
+        <v>0.5012234923492658</v>
+      </c>
+      <c r="AF44">
+        <v>1385.642293003239</v>
+      </c>
+      <c r="AG44">
+        <v>12844.76036184198</v>
+      </c>
+      <c r="AH44">
+        <v>15.46626659070263</v>
+      </c>
+      <c r="AI44">
+        <v>1285.672349626729</v>
+      </c>
+      <c r="AJ44">
+        <v>7531.498444925394</v>
+      </c>
+      <c r="AK44">
+        <v>11.63153932958174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45">
+        <v>104.5928311316138</v>
+      </c>
+      <c r="D45">
+        <v>1282.422510370325</v>
+      </c>
+      <c r="E45">
+        <v>27808.76431780963</v>
+      </c>
+      <c r="F45">
+        <v>1282.422460367824</v>
+      </c>
+      <c r="G45">
+        <v>82328.18980149827</v>
+      </c>
+      <c r="H45">
+        <v>1.086695373336185</v>
+      </c>
+      <c r="I45">
+        <v>31.60859682068331</v>
+      </c>
+      <c r="J45">
+        <v>0.6998413217655596</v>
+      </c>
+      <c r="K45">
+        <v>2.173390746672371</v>
+      </c>
+      <c r="L45" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45">
+        <v>1387.015341501938</v>
+      </c>
+      <c r="N45">
+        <v>53952.85822584042</v>
+      </c>
+      <c r="O45">
+        <v>1387.015291499438</v>
+      </c>
+      <c r="P45">
+        <v>148463.8774707601</v>
+      </c>
+      <c r="Q45">
+        <v>0.9979392604902131</v>
+      </c>
+      <c r="S45">
+        <v>45.46358877352301</v>
+      </c>
+      <c r="T45">
+        <v>0.7217955370198619</v>
+      </c>
+      <c r="U45">
+        <v>1.995878520980426</v>
+      </c>
+      <c r="V45" t="s">
+        <v>83</v>
+      </c>
+      <c r="W45">
+        <v>1262.400393497706</v>
+      </c>
+      <c r="X45">
+        <v>11755.59090613106</v>
+      </c>
+      <c r="Y45">
+        <v>3.108414787526173</v>
+      </c>
+      <c r="Z45">
+        <v>1408.363503772115</v>
+      </c>
+      <c r="AA45">
+        <v>14744.65625546827</v>
+      </c>
+      <c r="AB45">
+        <v>2.400701123986383</v>
+      </c>
+      <c r="AC45">
+        <v>1369.58567269783</v>
+      </c>
+      <c r="AD45">
+        <v>1742.326263963965</v>
+      </c>
+      <c r="AE45">
+        <v>0.4981186046293333</v>
+      </c>
+      <c r="AF45">
+        <v>1385.695019341206</v>
+      </c>
+      <c r="AG45">
+        <v>12453.36740593223</v>
+      </c>
+      <c r="AH45">
+        <v>16.10166424081279</v>
+      </c>
+      <c r="AI45">
+        <v>1286.36922570174</v>
+      </c>
+      <c r="AJ45">
+        <v>6887.526993663569</v>
+      </c>
+      <c r="AK45">
+        <v>11.68050060777153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <v>104.5283520909768</v>
+      </c>
+      <c r="D46">
+        <v>1282.556609775275</v>
+      </c>
+      <c r="E46">
+        <v>26093.1435332755</v>
+      </c>
+      <c r="F46">
+        <v>1282.556559772775</v>
+      </c>
+      <c r="G46">
+        <v>77623.5949868121</v>
+      </c>
+      <c r="H46">
+        <v>1.096656209738861</v>
+      </c>
+      <c r="I46">
+        <v>34.6078992904113</v>
+      </c>
+      <c r="J46">
+        <v>0.6880824599013386</v>
+      </c>
+      <c r="K46">
+        <v>2.193312419477723</v>
+      </c>
+      <c r="L46" t="s">
+        <v>83</v>
+      </c>
+      <c r="M46">
+        <v>1387.084861861252</v>
+      </c>
+      <c r="N46">
+        <v>50878.41441832387</v>
+      </c>
+      <c r="O46">
+        <v>1387.084911863752</v>
+      </c>
+      <c r="P46">
+        <v>138755.1826927481</v>
+      </c>
+      <c r="Q46">
+        <v>0.9919711437264389</v>
+      </c>
+      <c r="S46">
+        <v>39.14109160369875</v>
+      </c>
+      <c r="T46">
+        <v>0.7136134915802437</v>
+      </c>
+      <c r="U46">
+        <v>1.983942287452878</v>
+      </c>
+      <c r="V46" t="s">
+        <v>83</v>
+      </c>
+      <c r="W46">
+        <v>1262.488639421658</v>
+      </c>
+      <c r="X46">
+        <v>10914.88490719551</v>
+      </c>
+      <c r="Y46">
+        <v>2.988656165057321</v>
+      </c>
+      <c r="Z46">
+        <v>1408.43341105215</v>
+      </c>
+      <c r="AA46">
+        <v>14033.17607278747</v>
+      </c>
+      <c r="AB46">
+        <v>2.358888066021291</v>
+      </c>
+      <c r="AC46">
+        <v>1369.602956409716</v>
+      </c>
+      <c r="AD46">
+        <v>1619.00679197611</v>
+      </c>
+      <c r="AE46">
+        <v>0.4949939656366933</v>
+      </c>
+      <c r="AF46">
+        <v>1384.670181288888</v>
+      </c>
+      <c r="AG46">
+        <v>10676.19949557991</v>
+      </c>
+      <c r="AH46">
+        <v>15.79892753782295</v>
+      </c>
+      <c r="AI46">
+        <v>1287.499095484867</v>
+      </c>
+      <c r="AJ46">
+        <v>6594.863360528797</v>
+      </c>
+      <c r="AK46">
+        <v>12.51459659980611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47">
+        <v>104.4418695861104</v>
+      </c>
+      <c r="D47">
+        <v>1282.731033105166</v>
+      </c>
+      <c r="E47">
+        <v>14917.98325148862</v>
+      </c>
+      <c r="F47">
+        <v>1282.730983102666</v>
+      </c>
+      <c r="G47">
+        <v>44962.48016417976</v>
+      </c>
+      <c r="H47">
+        <v>1.107161732595628</v>
+      </c>
+      <c r="I47">
+        <v>17.60970682856766</v>
+      </c>
+      <c r="J47">
+        <v>0.6929905533838306</v>
+      </c>
+      <c r="K47">
+        <v>2.214323465191256</v>
+      </c>
+      <c r="L47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M47">
+        <v>1387.172802686276</v>
+      </c>
+      <c r="N47">
+        <v>29356.06404255778</v>
+      </c>
+      <c r="O47">
+        <v>1387.172852688776</v>
+      </c>
+      <c r="P47">
+        <v>79205.52806888743</v>
+      </c>
+      <c r="Q47">
+        <v>0.9800146050095677</v>
+      </c>
+      <c r="S47">
+        <v>22.40946368918977</v>
+      </c>
+      <c r="T47">
+        <v>0.7158424220593378</v>
+      </c>
+      <c r="U47">
+        <v>1.960029210019135</v>
+      </c>
+      <c r="V47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W47">
+        <v>1262.655856206982</v>
+      </c>
+      <c r="X47">
+        <v>6272.980319976278</v>
+      </c>
+      <c r="Y47">
+        <v>2.920718934370794</v>
+      </c>
+      <c r="Z47">
+        <v>1408.5097026434</v>
+      </c>
+      <c r="AA47">
+        <v>8351.58237380006</v>
+      </c>
+      <c r="AB47">
+        <v>2.272978647667755</v>
+      </c>
+      <c r="AC47">
+        <v>1369.626874047809</v>
+      </c>
+      <c r="AD47">
+        <v>918.719214958339</v>
+      </c>
+      <c r="AE47">
+        <v>0.4887696795282236</v>
+      </c>
+      <c r="AF47">
+        <v>1383.42814567389</v>
+      </c>
+      <c r="AG47">
+        <v>5755.988200912783</v>
+      </c>
+      <c r="AH47">
+        <v>16.01497385410755</v>
+      </c>
+      <c r="AI47">
+        <v>1288.021185735538</v>
+      </c>
+      <c r="AJ47">
+        <v>3067.450120195093</v>
+      </c>
+      <c r="AK47">
+        <v>12.53209081289401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48">
+        <v>104.3844665475945</v>
+      </c>
+      <c r="D48">
+        <v>1282.850172822846</v>
+      </c>
+      <c r="E48">
+        <v>3950.411319427447</v>
+      </c>
+      <c r="F48">
+        <v>1282.850022815345</v>
+      </c>
+      <c r="G48">
+        <v>11924.95760467191</v>
+      </c>
+      <c r="H48">
+        <v>1.107727089193711</v>
+      </c>
+      <c r="I48">
+        <v>5.285691882552901</v>
+      </c>
+      <c r="J48">
+        <v>0.6933712166957438</v>
+      </c>
+      <c r="K48">
+        <v>2.215454178387423</v>
+      </c>
+      <c r="L48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48">
+        <v>1387.23443936044</v>
+      </c>
+      <c r="N48">
+        <v>7749.16830618126</v>
+      </c>
+      <c r="O48">
+        <v>1387.23448936294</v>
+      </c>
+      <c r="P48">
+        <v>20837.69036793865</v>
+      </c>
+      <c r="Q48">
+        <v>0.9798791481803977</v>
+      </c>
+      <c r="S48">
+        <v>6.139558620459122</v>
+      </c>
+      <c r="T48">
+        <v>0.7070820723394624</v>
+      </c>
+      <c r="U48">
+        <v>1.959758296360795</v>
+      </c>
+      <c r="V48" t="s">
+        <v>83</v>
+      </c>
+      <c r="W48">
+        <v>1262.792338073348</v>
+      </c>
+      <c r="X48">
+        <v>1711.029810678825</v>
+      </c>
+      <c r="Y48">
+        <v>2.913749846429565</v>
+      </c>
+      <c r="Z48">
+        <v>1408.583406710786</v>
+      </c>
+      <c r="AA48">
+        <v>2177.629521253979</v>
+      </c>
+      <c r="AB48">
+        <v>2.262241201568784</v>
+      </c>
+      <c r="AC48">
+        <v>1369.643331804389</v>
+      </c>
+      <c r="AD48">
+        <v>236.8481858043302</v>
+      </c>
+      <c r="AE48">
+        <v>0.4885975612641505</v>
+      </c>
+      <c r="AF48">
+        <v>1382.702778353958</v>
+      </c>
+      <c r="AG48">
+        <v>1388.653047152878</v>
+      </c>
+      <c r="AH48">
+        <v>15.79326267332815</v>
+      </c>
+      <c r="AI48">
+        <v>1289.641045856939</v>
+      </c>
+      <c r="AJ48">
+        <v>697.3490949859839</v>
+      </c>
+      <c r="AK48">
+        <v>11.71674711440079</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
   <si>
     <t>filename</t>
   </si>
@@ -124,6 +124,45 @@
     <t>Diad1_Gauss_Sigma</t>
   </si>
   <si>
+    <t>Cap19-05X1</t>
+  </si>
+  <si>
+    <t>Cap19-05X2</t>
+  </si>
+  <si>
+    <t>Cap19-06X1</t>
+  </si>
+  <si>
+    <t>Cap19-06X2</t>
+  </si>
+  <si>
+    <t>Cap19-07X2</t>
+  </si>
+  <si>
+    <t>Cap19-08X1</t>
+  </si>
+  <si>
+    <t>Cap19-08X2</t>
+  </si>
+  <si>
+    <t>Cap19-12X1</t>
+  </si>
+  <si>
+    <t>Cap19-12X2</t>
+  </si>
+  <si>
+    <t>Cap19-17X1</t>
+  </si>
+  <si>
+    <t>Cap19-17X2</t>
+  </si>
+  <si>
+    <t>Cap19-18X1</t>
+  </si>
+  <si>
+    <t>Cap19-18X2</t>
+  </si>
+  <si>
     <t>FG04_31_MI3 (1)</t>
   </si>
   <si>
@@ -133,6 +172,9 @@
     <t>FG04_31_MI4 (1)</t>
   </si>
   <si>
+    <t>FG04_31_MI4</t>
+  </si>
+  <si>
     <t>POC1</t>
   </si>
   <si>
@@ -184,6 +226,9 @@
     <t>POC24</t>
   </si>
   <si>
+    <t>POC25</t>
+  </si>
+  <si>
     <t>POC26</t>
   </si>
   <si>
@@ -250,7 +295,43 @@
     <t>POC45</t>
   </si>
   <si>
+    <t>POC46</t>
+  </si>
+  <si>
+    <t>POC47</t>
+  </si>
+  <si>
+    <t>POC48</t>
+  </si>
+  <si>
+    <t>POC49</t>
+  </si>
+  <si>
     <t>POC5</t>
+  </si>
+  <si>
+    <t>POC50</t>
+  </si>
+  <si>
+    <t>POC51</t>
+  </si>
+  <si>
+    <t>POC53</t>
+  </si>
+  <si>
+    <t>POC54</t>
+  </si>
+  <si>
+    <t>POC55</t>
+  </si>
+  <si>
+    <t>POC56</t>
+  </si>
+  <si>
+    <t>POC57-0.04</t>
+  </si>
+  <si>
+    <t>POC58</t>
   </si>
   <si>
     <t>POC6</t>
@@ -623,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK48"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,106 +828,97 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>103.5024739359617</v>
+        <v>102.8055564647557</v>
       </c>
       <c r="D2">
-        <v>1284.78218862115</v>
+        <v>1286.621144944631</v>
       </c>
       <c r="E2">
-        <v>2016.836131581833</v>
+        <v>224.1740668610928</v>
       </c>
       <c r="F2">
-        <v>1284.78233862865</v>
+        <v>1286.621194947131</v>
       </c>
       <c r="G2">
-        <v>5982.489525059562</v>
+        <v>334.4631214585058</v>
       </c>
       <c r="H2">
-        <v>1.184255709058669</v>
+        <v>0.6343672164192318</v>
       </c>
       <c r="I2">
-        <v>3.980544407315822</v>
+        <v>1.801769656208037</v>
       </c>
       <c r="J2">
-        <v>0.4815225197372087</v>
+        <v>0.2943914637401009</v>
       </c>
       <c r="K2">
-        <v>2.368511418117339</v>
+        <v>1.268734432838464</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M2">
-        <v>1388.284862567112</v>
+        <v>1389.426701409387</v>
       </c>
       <c r="N2">
-        <v>4086.213787503306</v>
+        <v>333.2650520911739</v>
       </c>
       <c r="O2">
-        <v>1388.284812564612</v>
+        <v>1389.426751411887</v>
       </c>
       <c r="P2">
-        <v>9767.741621780309</v>
+        <v>455.4697307485313</v>
       </c>
       <c r="Q2">
-        <v>0.9182566546060267</v>
+        <v>0.6092997376845474</v>
       </c>
       <c r="S2">
-        <v>5.203577261129728</v>
+        <v>1.910729318842564</v>
       </c>
       <c r="T2">
-        <v>0.5728631631679982</v>
+        <v>0.1580699723558627</v>
       </c>
       <c r="U2">
-        <v>1.836513309212053</v>
+        <v>1.218599475369095</v>
       </c>
       <c r="V2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W2">
-        <v>1264.77028413111</v>
+        <v>1266.280755873902</v>
       </c>
       <c r="X2">
-        <v>882.8954352386572</v>
+        <v>29.94962760798893</v>
       </c>
       <c r="Y2">
-        <v>1.654448183305139</v>
+        <v>0.5840119330029441</v>
       </c>
       <c r="Z2">
-        <v>1409.684437746694</v>
+        <v>1410.605417027718</v>
       </c>
       <c r="AA2">
-        <v>1298.541140919999</v>
+        <v>25.39612450604428</v>
       </c>
       <c r="AB2">
-        <v>1.309342710627673</v>
-      </c>
-      <c r="AC2">
-        <v>1370.210185449962</v>
-      </c>
-      <c r="AD2">
-        <v>129.6122269697012</v>
-      </c>
-      <c r="AE2">
-        <v>0.4574501968441614</v>
+        <v>0.5846077614865771</v>
       </c>
       <c r="AF2">
-        <v>1388.735687903949</v>
+        <v>1389.342962360373</v>
       </c>
       <c r="AG2">
-        <v>646.7058448820653</v>
+        <v>0.4140633608243189</v>
       </c>
       <c r="AH2">
-        <v>22.87250984220865</v>
+        <v>6.089928379963025</v>
       </c>
       <c r="AI2">
-        <v>1277.815715000622</v>
+        <v>1279.55564548206</v>
       </c>
       <c r="AJ2">
-        <v>699.7177842539941</v>
+        <v>0.3723469353302151</v>
       </c>
       <c r="AK2">
-        <v>23.86647577183846</v>
+        <v>12.9873090749339</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -857,106 +929,97 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>103.2411514030518</v>
+        <v>102.7595623994398</v>
       </c>
       <c r="D3">
-        <v>1285.256201252776</v>
+        <v>1286.620738330435</v>
       </c>
       <c r="E3">
-        <v>1311.60658745383</v>
+        <v>207.7082505599342</v>
       </c>
       <c r="F3">
-        <v>1285.256251255277</v>
+        <v>1286.620788332935</v>
       </c>
       <c r="G3">
-        <v>3553.365537968923</v>
+        <v>294.2853112809759</v>
       </c>
       <c r="H3">
-        <v>1.071777375312809</v>
+        <v>0.6431327276762819</v>
       </c>
       <c r="I3">
-        <v>4.069544436642986</v>
+        <v>2.036101330090062</v>
       </c>
       <c r="J3">
-        <v>0.4967263984462785</v>
+        <v>0.1044730183859142</v>
       </c>
       <c r="K3">
-        <v>2.143554750625618</v>
+        <v>1.286265455352564</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>1388.497352655828</v>
+        <v>1389.380300729875</v>
       </c>
       <c r="N3">
-        <v>2606.136990676723</v>
+        <v>320.5620958454077</v>
       </c>
       <c r="O3">
-        <v>1388.497402658328</v>
+        <v>1389.380350732375</v>
       </c>
       <c r="P3">
-        <v>5608.903174563684</v>
+        <v>420.5859209751753</v>
       </c>
       <c r="Q3">
-        <v>0.8356604972671242</v>
+        <v>0.5988478955079488</v>
       </c>
       <c r="S3">
-        <v>4.308379340794746</v>
+        <v>2.720390619254671</v>
       </c>
       <c r="T3">
-        <v>0.5419084991178834</v>
+        <v>0.08788596098722534</v>
       </c>
       <c r="U3">
-        <v>1.671320994534248</v>
+        <v>1.197695791015898</v>
       </c>
       <c r="V3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W3">
-        <v>1265.226825781344</v>
+        <v>1266.36776740898</v>
       </c>
       <c r="X3">
-        <v>518.0344600834214</v>
+        <v>34.06179487942544</v>
       </c>
       <c r="Y3">
-        <v>1.219160770868686</v>
+        <v>1.001320951945928</v>
       </c>
       <c r="Z3">
-        <v>1409.878986248839</v>
+        <v>1410.657392584569</v>
       </c>
       <c r="AA3">
-        <v>751.8917459877631</v>
+        <v>31.26143061934806</v>
       </c>
       <c r="AB3">
-        <v>1.015010234756613</v>
-      </c>
-      <c r="AC3">
-        <v>1370.311438033277</v>
-      </c>
-      <c r="AD3">
-        <v>72.51542737560783</v>
-      </c>
-      <c r="AE3">
-        <v>0.4168536716900627</v>
+        <v>0.591832240624639</v>
       </c>
       <c r="AF3">
-        <v>1381.588106752429</v>
+        <v>1382.369531755623</v>
       </c>
       <c r="AG3">
-        <v>201.7125745116236</v>
+        <v>0.5231021750036892</v>
       </c>
       <c r="AH3">
-        <v>20.84274548438298</v>
+        <v>14.91358581758398</v>
       </c>
       <c r="AI3">
-        <v>1278.358859017164</v>
+        <v>1279.566643396521</v>
       </c>
       <c r="AJ3">
-        <v>217.8568655993365</v>
+        <v>0.3611933455127213</v>
       </c>
       <c r="AK3">
-        <v>26.6751181448709</v>
+        <v>16.03820668931032</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -967,106 +1030,106 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>103.7099220408293</v>
+        <v>102.9773826562118</v>
       </c>
       <c r="D4">
-        <v>1284.338718476173</v>
+        <v>1286.142256022316</v>
       </c>
       <c r="E4">
-        <v>921.5743360379774</v>
+        <v>919.5149047195047</v>
       </c>
       <c r="F4">
-        <v>1284.338768478673</v>
+        <v>1286.142306024816</v>
       </c>
       <c r="G4">
-        <v>2757.625518154756</v>
+        <v>1686.786635460903</v>
       </c>
       <c r="H4">
-        <v>1.149531748144084</v>
+        <v>0.7219980111937183</v>
       </c>
       <c r="I4">
-        <v>1.972799405366395</v>
+        <v>2.099588793052872</v>
       </c>
       <c r="J4">
-        <v>0.5742091807225681</v>
+        <v>0.5049334294163602</v>
       </c>
       <c r="K4">
-        <v>2.299063496288167</v>
+        <v>1.443996022387437</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>1388.048640517002</v>
+        <v>1389.119638678528</v>
       </c>
       <c r="N4">
-        <v>1854.610832143663</v>
+        <v>1507.829378433698</v>
       </c>
       <c r="O4">
-        <v>1388.048690519502</v>
+        <v>1389.119688681028</v>
       </c>
       <c r="P4">
-        <v>4503.428176736394</v>
+        <v>2432.481853418145</v>
       </c>
       <c r="Q4">
-        <v>0.9147365234116489</v>
+        <v>0.6616947157646575</v>
       </c>
       <c r="S4">
-        <v>2.683411421012937</v>
+        <v>2.141340681143013</v>
       </c>
       <c r="T4">
-        <v>0.62250208813199</v>
+        <v>0.3953495959801795</v>
       </c>
       <c r="U4">
-        <v>1.829473046823298</v>
+        <v>1.323389431529315</v>
       </c>
       <c r="V4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W4">
-        <v>1264.203642666055</v>
+        <v>1265.963665900912</v>
       </c>
       <c r="X4">
-        <v>355.5596743953699</v>
+        <v>167.7890229084754</v>
       </c>
       <c r="Y4">
-        <v>1.848347290337601</v>
+        <v>0.8640819310551705</v>
       </c>
       <c r="Z4">
-        <v>1409.431100871639</v>
+        <v>1410.404266163966</v>
       </c>
       <c r="AA4">
-        <v>510.3031736128368</v>
+        <v>210.2399134777911</v>
       </c>
       <c r="AB4">
-        <v>1.492792805515609</v>
+        <v>0.8576667821103134</v>
       </c>
       <c r="AC4">
-        <v>1370.21477405011</v>
+        <v>1370.776066567305</v>
       </c>
       <c r="AD4">
-        <v>59.21211748766839</v>
+        <v>38.1976993763889</v>
       </c>
       <c r="AE4">
-        <v>0.4562908145026895</v>
+        <v>0.3306046037853641</v>
       </c>
       <c r="AF4">
-        <v>1381.05466762105</v>
+        <v>1382.11658001102</v>
       </c>
       <c r="AG4">
-        <v>244.2268460071</v>
+        <v>47.47602951109064</v>
       </c>
       <c r="AH4">
-        <v>15.89740990661249</v>
+        <v>16.53023018927138</v>
       </c>
       <c r="AI4">
-        <v>1277.272514001279</v>
+        <v>1279.121228352104</v>
       </c>
       <c r="AJ4">
-        <v>160.266464038795</v>
+        <v>30.26541634344499</v>
       </c>
       <c r="AK4">
-        <v>21.55459998380041</v>
+        <v>18.01146074458695</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1077,106 +1140,106 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>104.9478663916716</v>
+        <v>102.941186447576</v>
       </c>
       <c r="D5">
-        <v>1281.782853051227</v>
+        <v>1286.176060258038</v>
       </c>
       <c r="E5">
-        <v>19925.59182502848</v>
+        <v>1182.526559796042</v>
       </c>
       <c r="F5">
-        <v>1281.782803048727</v>
+        <v>1286.176110260538</v>
       </c>
       <c r="G5">
-        <v>59223.82689371194</v>
+        <v>2067.734413952046</v>
       </c>
       <c r="H5">
-        <v>1.072207805159362</v>
+        <v>0.7022344254980146</v>
       </c>
       <c r="I5">
-        <v>22.2596015018759</v>
+        <v>2.667467314238337</v>
       </c>
       <c r="J5">
-        <v>0.7478998208190026</v>
+        <v>0.4503138631324796</v>
       </c>
       <c r="K5">
-        <v>2.144415610318724</v>
+        <v>1.404468850996029</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>1386.730719442899</v>
+        <v>1389.117346710614</v>
       </c>
       <c r="N5">
-        <v>38316.47654528952</v>
+        <v>1892.996878547332</v>
       </c>
       <c r="O5">
-        <v>1386.730669440399</v>
+        <v>1389.117296708114</v>
       </c>
       <c r="P5">
-        <v>110726.0443635604</v>
+        <v>2989.684186260416</v>
       </c>
       <c r="Q5">
-        <v>1.031880257447189</v>
+        <v>0.644102347172417</v>
       </c>
       <c r="S5">
-        <v>30.35438509294123</v>
+        <v>3.023942000408681</v>
       </c>
       <c r="T5">
-        <v>0.7621627196740799</v>
+        <v>0.4089537418536267</v>
       </c>
       <c r="U5">
-        <v>2.063760514894379</v>
+        <v>1.288204694344834</v>
       </c>
       <c r="V5" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W5">
-        <v>1261.675028322757</v>
+        <v>1265.899782445044</v>
       </c>
       <c r="X5">
-        <v>8071.346888512908</v>
+        <v>241.4916794148814</v>
       </c>
       <c r="Y5">
-        <v>3.214323281114495</v>
+        <v>0.8482592695663504</v>
       </c>
       <c r="Z5">
-        <v>1408.044365920259</v>
+        <v>1410.407134285814</v>
       </c>
       <c r="AA5">
-        <v>10008.51664731564</v>
+        <v>272.8935256470455</v>
       </c>
       <c r="AB5">
-        <v>2.883646792691631</v>
+        <v>0.7427220448609884</v>
       </c>
       <c r="AC5">
-        <v>1369.523672042738</v>
+        <v>1370.694403821397</v>
       </c>
       <c r="AD5">
-        <v>1257.673493487952</v>
+        <v>39.2623883635321</v>
       </c>
       <c r="AE5">
-        <v>0.5152019260216009</v>
+        <v>0.3218740087412185</v>
       </c>
       <c r="AF5">
-        <v>1386.954043682071</v>
+        <v>1396.08431391155</v>
       </c>
       <c r="AG5">
-        <v>10676.64804036343</v>
+        <v>3.075574237118362</v>
       </c>
       <c r="AH5">
-        <v>15.18171884169033</v>
+        <v>16.09369414455723</v>
       </c>
       <c r="AI5">
-        <v>1283.449720743308</v>
+        <v>1279.176244744496</v>
       </c>
       <c r="AJ5">
-        <v>6552.356610187506</v>
+        <v>1.859390930443493</v>
       </c>
       <c r="AK5">
-        <v>12.02190248084736</v>
+        <v>17.52910713269399</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1187,106 +1250,97 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>104.3060859906013</v>
+        <v>102.6856232675013</v>
       </c>
       <c r="D6">
-        <v>1283.014020840471</v>
+        <v>1286.704029215502</v>
       </c>
       <c r="E6">
-        <v>3839.584991179304</v>
+        <v>62.50589817222368</v>
       </c>
       <c r="F6">
-        <v>1283.014070842971</v>
+        <v>1286.704079218002</v>
       </c>
       <c r="G6">
-        <v>11734.97479233316</v>
+        <v>85.17112530632549</v>
       </c>
       <c r="H6">
-        <v>1.134802438079989</v>
+        <v>0.640137286797227</v>
       </c>
       <c r="I6">
-        <v>4.870762878134244</v>
+        <v>2.001183326276316</v>
       </c>
       <c r="J6">
-        <v>0.665596145720896</v>
+        <v>3.980570416173279E-06</v>
       </c>
       <c r="K6">
-        <v>2.269604876159979</v>
+        <v>1.280274573594454</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>1387.320106831073</v>
+        <v>1389.389652483003</v>
       </c>
       <c r="N6">
-        <v>7636.700300145299</v>
+        <v>96.1854866171017</v>
       </c>
       <c r="O6">
-        <v>1387.320156833573</v>
+        <v>1389.389702485503</v>
       </c>
       <c r="P6">
-        <v>20274.30477300307</v>
+        <v>124.5779626711208</v>
       </c>
       <c r="Q6">
-        <v>0.9749830565108013</v>
+        <v>0.6083931740379244</v>
       </c>
       <c r="S6">
-        <v>6.52467831141878</v>
+        <v>3.029051213556543</v>
       </c>
       <c r="T6">
-        <v>0.6880515826781426</v>
+        <v>1.674380439853351E-08</v>
       </c>
       <c r="U6">
-        <v>1.949966113021603</v>
+        <v>1.216786348075849</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W6">
-        <v>1262.917062534297</v>
+        <v>1266.029549847551</v>
       </c>
       <c r="X6">
-        <v>1408.492257466634</v>
+        <v>14.38075493728491</v>
       </c>
       <c r="Y6">
-        <v>2.454479947756828</v>
+        <v>0.4311237108240552</v>
       </c>
       <c r="Z6">
-        <v>1408.687231648653</v>
+        <v>1410.655296590814</v>
       </c>
       <c r="AA6">
-        <v>2101.894215276549</v>
+        <v>5.27047027539012</v>
       </c>
       <c r="AB6">
-        <v>2.117084112123615</v>
-      </c>
-      <c r="AC6">
-        <v>1369.671103080343</v>
-      </c>
-      <c r="AD6">
-        <v>226.5909927456841</v>
-      </c>
-      <c r="AE6">
-        <v>0.4861237349940479</v>
+        <v>0.2287650888510231</v>
       </c>
       <c r="AF6">
-        <v>1383.607969056248</v>
+        <v>1382.375030706803</v>
       </c>
       <c r="AG6">
-        <v>1392.402158373761</v>
+        <v>0.1395876901892168</v>
       </c>
       <c r="AH6">
-        <v>16.72613696736671</v>
+        <v>15.20788905730705</v>
       </c>
       <c r="AI6">
-        <v>1283.126494639667</v>
+        <v>1279.662726669002</v>
       </c>
       <c r="AJ6">
-        <v>983.34927962027</v>
+        <v>0.206003692606397</v>
       </c>
       <c r="AK6">
-        <v>18.09348516198005</v>
+        <v>15.97584964465507</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1297,106 +1351,97 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>104.2506647216896</v>
+        <v>102.7981137541894</v>
       </c>
       <c r="D7">
-        <v>1283.138754877788</v>
+        <v>1286.534919839629</v>
       </c>
       <c r="E7">
-        <v>3180.584330403543</v>
+        <v>219.0471599458454</v>
       </c>
       <c r="F7">
-        <v>1283.138804880288</v>
+        <v>1286.534969842129</v>
       </c>
       <c r="G7">
-        <v>9823.971976539269</v>
+        <v>332.0584912353775</v>
       </c>
       <c r="H7">
-        <v>1.167960201955865</v>
+        <v>0.6564476690213341</v>
       </c>
       <c r="I7">
-        <v>4.486729839605801</v>
+        <v>1.3955983615717</v>
       </c>
       <c r="J7">
-        <v>0.621376561883289</v>
+        <v>0.242491201029694</v>
       </c>
       <c r="K7">
-        <v>2.335920403911729</v>
+        <v>1.312895338042668</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>1387.389419599478</v>
+        <v>1389.333233603819</v>
       </c>
       <c r="N7">
-        <v>6469.97202226457</v>
+        <v>317.3812075144556</v>
       </c>
       <c r="O7">
-        <v>1387.389469601978</v>
+        <v>1389.333083596318</v>
       </c>
       <c r="P7">
-        <v>17129.68351909966</v>
+        <v>416.3882718747039</v>
       </c>
       <c r="Q7">
-        <v>0.9640919567959296</v>
+        <v>0.6244238544824081</v>
       </c>
       <c r="S7">
-        <v>5.255771434638009</v>
+        <v>3.253003602771541</v>
       </c>
       <c r="T7">
-        <v>0.7068214317368068</v>
+        <v>0.003504424034891929</v>
       </c>
       <c r="U7">
-        <v>1.928183913591859</v>
+        <v>1.248847708964816</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W7">
-        <v>1263.067793250146</v>
+        <v>1266.276967361428</v>
       </c>
       <c r="X7">
-        <v>1171.13855048081</v>
+        <v>26.53291646213353</v>
       </c>
       <c r="Y7">
-        <v>2.391827090104907</v>
+        <v>0.9978724341081993</v>
       </c>
       <c r="Z7">
-        <v>1408.756296201366</v>
+        <v>1410.630127586703</v>
       </c>
       <c r="AA7">
-        <v>1840.643664828222</v>
+        <v>30.3946439382452</v>
       </c>
       <c r="AB7">
-        <v>2.065669060388978</v>
-      </c>
-      <c r="AC7">
-        <v>1369.72581932929</v>
-      </c>
-      <c r="AD7">
-        <v>211.2312978492071</v>
-      </c>
-      <c r="AE7">
-        <v>0.4808273660020314</v>
+        <v>0.4657462272338917</v>
       </c>
       <c r="AF7">
-        <v>1381.191262299348</v>
+        <v>1396.303544326164</v>
       </c>
       <c r="AG7">
-        <v>993.9758368767299</v>
+        <v>163.9265171066775</v>
       </c>
       <c r="AH7">
-        <v>16.06925903719148</v>
+        <v>12.39012879266855</v>
       </c>
       <c r="AI7">
-        <v>1283.197223461654</v>
+        <v>1284.184342149219</v>
       </c>
       <c r="AJ7">
-        <v>836.610458008436</v>
+        <v>0.2406896115472728</v>
       </c>
       <c r="AK7">
-        <v>17.71749998230974</v>
+        <v>6.56097131075804</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1407,106 +1452,97 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>104.1635007077141</v>
+        <v>102.7824849069386</v>
       </c>
       <c r="D8">
-        <v>1283.32130728113</v>
+        <v>1286.576783928921</v>
       </c>
       <c r="E8">
-        <v>4282.982759143219</v>
+        <v>212.2354055758414</v>
       </c>
       <c r="F8">
-        <v>1283.321457288631</v>
+        <v>1286.576833931421</v>
       </c>
       <c r="G8">
-        <v>13347.6495823874</v>
+        <v>318.2147897665507</v>
       </c>
       <c r="H8">
-        <v>1.18850104016051</v>
+        <v>0.6466301431339465</v>
       </c>
       <c r="I8">
-        <v>6.387246837594915</v>
+        <v>1.88106333995957</v>
       </c>
       <c r="J8">
-        <v>0.5996897349955985</v>
+        <v>0.2543261460490751</v>
       </c>
       <c r="K8">
-        <v>2.377002080321019</v>
+        <v>1.293260286267893</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M8">
-        <v>1387.484907993845</v>
+        <v>1389.35926883586</v>
       </c>
       <c r="N8">
-        <v>8737.181537445529</v>
+        <v>321.305945214072</v>
       </c>
       <c r="O8">
-        <v>1387.484957996345</v>
+        <v>1389.35931883836</v>
       </c>
       <c r="P8">
-        <v>22925.16175798122</v>
+        <v>416.0946611371448</v>
       </c>
       <c r="Q8">
-        <v>0.9678067794489189</v>
+        <v>0.6040504404990914</v>
       </c>
       <c r="S8">
-        <v>7.330709116599201</v>
+        <v>2.320006342927071</v>
       </c>
       <c r="T8">
-        <v>0.6761581856932876</v>
+        <v>0.02201702700730002</v>
       </c>
       <c r="U8">
-        <v>1.935613558897838</v>
+        <v>1.208100880998183</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W8">
-        <v>1263.250328377786</v>
+        <v>1266.26937314221</v>
       </c>
       <c r="X8">
-        <v>1449.69663833253</v>
+        <v>34.99325294954948</v>
       </c>
       <c r="Y8">
-        <v>2.192832341037456</v>
+        <v>0.637711163551908</v>
       </c>
       <c r="Z8">
-        <v>1408.861325976493</v>
+        <v>1410.580228856606</v>
       </c>
       <c r="AA8">
-        <v>2418.624359627424</v>
+        <v>36.59012186497096</v>
       </c>
       <c r="AB8">
-        <v>1.966793460003623</v>
-      </c>
-      <c r="AC8">
-        <v>1369.727980712515</v>
-      </c>
-      <c r="AD8">
-        <v>279.7420190658992</v>
-      </c>
-      <c r="AE8">
-        <v>0.4826823407541843</v>
+        <v>0.5733698680454649</v>
       </c>
       <c r="AF8">
-        <v>1382.597798234655</v>
+        <v>1388.34747624165</v>
       </c>
       <c r="AG8">
-        <v>1404.506784708711</v>
+        <v>0.6264562897671273</v>
       </c>
       <c r="AH8">
-        <v>16.64139076170225</v>
+        <v>6.036046285502584</v>
       </c>
       <c r="AI8">
-        <v>1277.422804659887</v>
+        <v>1280.125596799273</v>
       </c>
       <c r="AJ8">
-        <v>1401.376556172038</v>
+        <v>0.363997666678183</v>
       </c>
       <c r="AK8">
-        <v>21.56281224008837</v>
+        <v>6.461164489114062</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1517,106 +1553,106 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>104.1340581734091</v>
+        <v>102.9755018089006</v>
       </c>
       <c r="D9">
-        <v>1283.384609766869</v>
+        <v>1286.103283243311</v>
       </c>
       <c r="E9">
-        <v>4011.283439121358</v>
+        <v>895.5807469730499</v>
       </c>
       <c r="F9">
-        <v>1283.384659769369</v>
+        <v>1286.103333245811</v>
       </c>
       <c r="G9">
-        <v>12619.83177928013</v>
+        <v>1633.041487966782</v>
       </c>
       <c r="H9">
-        <v>1.197456212856704</v>
+        <v>0.7333119780509647</v>
       </c>
       <c r="I9">
-        <v>4.509574757347719</v>
+        <v>1.978141525626168</v>
       </c>
       <c r="J9">
-        <v>0.6035636173738341</v>
+        <v>0.4475617331133604</v>
       </c>
       <c r="K9">
-        <v>2.394912425713408</v>
+        <v>1.466623956101929</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M9">
-        <v>1387.518667940278</v>
+        <v>1389.078785052212</v>
       </c>
       <c r="N9">
-        <v>8263.016202073013</v>
+        <v>1459.025306944383</v>
       </c>
       <c r="O9">
-        <v>1387.518717942778</v>
+        <v>1389.078835054712</v>
       </c>
       <c r="P9">
-        <v>21694.9861952464</v>
+        <v>2383.70194626575</v>
       </c>
       <c r="Q9">
-        <v>0.9701191618526606</v>
+        <v>0.6627664891270328</v>
       </c>
       <c r="S9">
-        <v>7.08941512238215</v>
+        <v>2.037448180462976</v>
       </c>
       <c r="T9">
-        <v>0.6717708423957544</v>
+        <v>0.4255189995779664</v>
       </c>
       <c r="U9">
-        <v>1.940238323705321</v>
+        <v>1.325532978254066</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W9">
-        <v>1263.382070613962</v>
+        <v>1265.877213183291</v>
       </c>
       <c r="X9">
-        <v>1483.162587695962</v>
+        <v>166.0955673939623</v>
       </c>
       <c r="Y9">
-        <v>2.268105299841534</v>
+        <v>0.9026084080308435</v>
       </c>
       <c r="Z9">
-        <v>1408.877609792666</v>
+        <v>1410.363887340882</v>
       </c>
       <c r="AA9">
-        <v>2295.217922877988</v>
+        <v>208.6234191116409</v>
       </c>
       <c r="AB9">
-        <v>1.956974101462321</v>
+        <v>0.7876222065825845</v>
       </c>
       <c r="AC9">
-        <v>1369.754896520914</v>
+        <v>1370.791150998866</v>
       </c>
       <c r="AD9">
-        <v>270.8833933374038</v>
+        <v>28.77856154865895</v>
       </c>
       <c r="AE9">
-        <v>0.4838010603323536</v>
+        <v>0.3310931692568571</v>
       </c>
       <c r="AF9">
-        <v>1382.144718499078</v>
+        <v>1382.089085256173</v>
       </c>
       <c r="AG9">
-        <v>1285.327303276218</v>
+        <v>57.81902177317515</v>
       </c>
       <c r="AH9">
-        <v>16.15901248852559</v>
+        <v>16.55465846832026</v>
       </c>
       <c r="AI9">
-        <v>1281.758230488909</v>
+        <v>1279.093733597316</v>
       </c>
       <c r="AJ9">
-        <v>1088.68157323824</v>
+        <v>16.65461769274653</v>
       </c>
       <c r="AK9">
-        <v>20.20018444762267</v>
+        <v>18.30411934996447</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1627,106 +1663,106 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>104.1083876165378</v>
+        <v>102.9470997815004</v>
       </c>
       <c r="D10">
-        <v>1283.44276185328</v>
+        <v>1286.145907920423</v>
       </c>
       <c r="E10">
-        <v>3719.985945740878</v>
+        <v>532.7744029258159</v>
       </c>
       <c r="F10">
-        <v>1283.44281185578</v>
+        <v>1286.145957922923</v>
       </c>
       <c r="G10">
-        <v>11830.46758595298</v>
+        <v>949.691112897862</v>
       </c>
       <c r="H10">
-        <v>1.211481268712264</v>
+        <v>0.7300007528559929</v>
       </c>
       <c r="I10">
-        <v>4.361933892757024</v>
+        <v>1.976642988511296</v>
       </c>
       <c r="J10">
-        <v>0.6012266478176302</v>
+        <v>0.3979432367054545</v>
       </c>
       <c r="K10">
-        <v>2.422962537424529</v>
+        <v>1.460001505711986</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M10">
-        <v>1387.551149469818</v>
+        <v>1389.093007701923</v>
       </c>
       <c r="N10">
-        <v>7698.632950271317</v>
+        <v>879.1943694515754</v>
       </c>
       <c r="O10">
-        <v>1387.551199472318</v>
+        <v>1389.093057704423</v>
       </c>
       <c r="P10">
-        <v>20137.19586834805</v>
+        <v>1391.124420135478</v>
       </c>
       <c r="Q10">
-        <v>0.9669083046118983</v>
+        <v>0.6449055809992985</v>
       </c>
       <c r="S10">
-        <v>6.898106996751451</v>
+        <v>2.116042324818544</v>
       </c>
       <c r="T10">
-        <v>0.6704618723723896</v>
+        <v>0.4105171386301071</v>
       </c>
       <c r="U10">
-        <v>1.933816609223797</v>
+        <v>1.289811161998597</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W10">
-        <v>1263.402231852323</v>
+        <v>1265.890728863918</v>
       </c>
       <c r="X10">
-        <v>1372.36047791513</v>
+        <v>94.35173536523746</v>
       </c>
       <c r="Y10">
-        <v>2.208615832191354</v>
+        <v>0.7181678390915541</v>
       </c>
       <c r="Z10">
-        <v>1408.908054279417</v>
+        <v>1410.415901510858</v>
       </c>
       <c r="AA10">
-        <v>2187.731824239903</v>
+        <v>104.8445570519434</v>
       </c>
       <c r="AB10">
-        <v>1.97285574259697</v>
+        <v>0.7495706712772175</v>
       </c>
       <c r="AC10">
-        <v>1369.751171651247</v>
+        <v>1370.802575645855</v>
       </c>
       <c r="AD10">
-        <v>240.5780937360153</v>
+        <v>21.3404042560634</v>
       </c>
       <c r="AE10">
-        <v>0.4822529994306347</v>
+        <v>0.3222990429191079</v>
       </c>
       <c r="AF10">
-        <v>1381.534046919628</v>
+        <v>1382.094618399643</v>
       </c>
       <c r="AG10">
-        <v>1177.734328484374</v>
+        <v>1.349871718361707</v>
       </c>
       <c r="AH10">
-        <v>16.13288185985488</v>
+        <v>16.11223163093837</v>
       </c>
       <c r="AI10">
-        <v>1281.58051375691</v>
+        <v>1293.137273893063</v>
       </c>
       <c r="AJ10">
-        <v>1027.431416183005</v>
+        <v>0.8680368230425138</v>
       </c>
       <c r="AK10">
-        <v>20.8107659337481</v>
+        <v>9.13919909957362</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1737,106 +1773,97 @@
         <v>45</v>
       </c>
       <c r="C11">
-        <v>104.0683619541562</v>
+        <v>102.8160158092221</v>
       </c>
       <c r="D11">
-        <v>1283.528756399358</v>
+        <v>1286.343286585262</v>
       </c>
       <c r="E11">
-        <v>3486.271262932503</v>
+        <v>242.2653734083688</v>
       </c>
       <c r="F11">
-        <v>1283.528806401858</v>
+        <v>1286.343336587762</v>
       </c>
       <c r="G11">
-        <v>11077.08478270041</v>
+        <v>376.3723308689033</v>
       </c>
       <c r="H11">
-        <v>1.212767981471817</v>
+        <v>0.6846448925279198</v>
       </c>
       <c r="I11">
-        <v>3.822075443543804</v>
+        <v>1.83335378662932</v>
       </c>
       <c r="J11">
-        <v>0.5962883965764657</v>
+        <v>0.1919471902367589</v>
       </c>
       <c r="K11">
-        <v>2.425535962943635</v>
+        <v>1.36928978505584</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M11">
-        <v>1387.597118353515</v>
+        <v>1389.159302394484</v>
       </c>
       <c r="N11">
-        <v>7159.721667306154</v>
+        <v>366.7770834505004</v>
       </c>
       <c r="O11">
-        <v>1387.597168356015</v>
+        <v>1389.159352396985</v>
       </c>
       <c r="P11">
-        <v>18583.42998779963</v>
+        <v>517.6483455184037</v>
       </c>
       <c r="Q11">
-        <v>0.9672858655737397</v>
+        <v>0.6186313104291626</v>
       </c>
       <c r="S11">
-        <v>6.453260869843809</v>
+        <v>2.24028334980755</v>
       </c>
       <c r="T11">
-        <v>0.6514387746257295</v>
+        <v>0.2074511954343757</v>
       </c>
       <c r="U11">
-        <v>1.934571731147479</v>
+        <v>1.237262620858325</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W11">
-        <v>1263.465979290928</v>
+        <v>1266.093934640742</v>
       </c>
       <c r="X11">
-        <v>1293.003511474288</v>
+        <v>35.12036874731398</v>
       </c>
       <c r="Y11">
-        <v>2.224672055542879</v>
+        <v>0.6652941450230563</v>
       </c>
       <c r="Z11">
-        <v>1408.986043211605</v>
+        <v>1410.387238890854</v>
       </c>
       <c r="AA11">
-        <v>2007.641652095217</v>
+        <v>32.07772085604696</v>
       </c>
       <c r="AB11">
-        <v>1.900349708464428</v>
-      </c>
-      <c r="AC11">
-        <v>1369.76703319167</v>
-      </c>
-      <c r="AD11">
-        <v>237.6813017674903</v>
-      </c>
-      <c r="AE11">
-        <v>0.4823747517784205</v>
+        <v>0.6432464697786783</v>
       </c>
       <c r="AF11">
-        <v>1381.573810740775</v>
+        <v>1382.146211612369</v>
       </c>
       <c r="AG11">
-        <v>1204.856851473462</v>
+        <v>0.4776728655883813</v>
       </c>
       <c r="AH11">
-        <v>16.1849372005484</v>
+        <v>8.086199532292403</v>
       </c>
       <c r="AI11">
-        <v>1281.768850222384</v>
+        <v>1279.346685341854</v>
       </c>
       <c r="AJ11">
-        <v>921.9086786022054</v>
+        <v>0.3700225180858305</v>
       </c>
       <c r="AK11">
-        <v>19.94625279415712</v>
+        <v>17.09991608999703</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1847,106 +1874,106 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>104.0260138138331</v>
+        <v>102.8253976076405</v>
       </c>
       <c r="D12">
-        <v>1283.620047924136</v>
+        <v>1286.497253544193</v>
       </c>
       <c r="E12">
-        <v>3195.985792706285</v>
+        <v>444.944424286527</v>
       </c>
       <c r="F12">
-        <v>1283.620097926636</v>
+        <v>1286.497303546693</v>
       </c>
       <c r="G12">
-        <v>10144.3164741135</v>
+        <v>689.4268245084812</v>
       </c>
       <c r="H12">
-        <v>1.22772040226166</v>
+        <v>0.6640170120325561</v>
       </c>
       <c r="I12">
-        <v>3.584994550200475</v>
+        <v>2.547790125412435</v>
       </c>
       <c r="J12">
-        <v>0.5640082619450063</v>
+        <v>0.2722521622905117</v>
       </c>
       <c r="K12">
-        <v>2.455440804523319</v>
+        <v>1.328034024065112</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>1387.646061737969</v>
+        <v>1389.322651151833</v>
       </c>
       <c r="N12">
-        <v>6590.499705249374</v>
+        <v>680.5857122917582</v>
       </c>
       <c r="O12">
-        <v>1387.646111740469</v>
+        <v>1389.322701154333</v>
       </c>
       <c r="P12">
-        <v>17065.050919253</v>
+        <v>974.2378269796468</v>
       </c>
       <c r="Q12">
-        <v>0.9696089345037884</v>
+        <v>0.6176341985972543</v>
       </c>
       <c r="S12">
-        <v>6.159727349114655</v>
+        <v>2.667676548290929</v>
       </c>
       <c r="T12">
-        <v>0.6389844368255111</v>
+        <v>0.2527537937127974</v>
       </c>
       <c r="U12">
-        <v>1.939217869007577</v>
+        <v>1.235268397194509</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W12">
-        <v>1263.553268248417</v>
+        <v>1266.258583938761</v>
       </c>
       <c r="X12">
-        <v>1139.501307154908</v>
+        <v>76.2755325757044</v>
       </c>
       <c r="Y12">
-        <v>2.108657245566192</v>
+        <v>0.7248228237703099</v>
       </c>
       <c r="Z12">
-        <v>1409.056762588777</v>
+        <v>1410.524970906662</v>
       </c>
       <c r="AA12">
-        <v>1797.58524134883</v>
+        <v>74.29702987015393</v>
       </c>
       <c r="AB12">
-        <v>1.817147259459093</v>
+        <v>0.6252019822427904</v>
       </c>
       <c r="AC12">
-        <v>1369.812618859524</v>
+        <v>1371.350742525817</v>
       </c>
       <c r="AD12">
-        <v>205.92571884271</v>
+        <v>10.06587521177334</v>
       </c>
       <c r="AE12">
-        <v>0.4834924695117471</v>
+        <v>0.3084896706115831</v>
       </c>
       <c r="AF12">
-        <v>1381.346928839888</v>
+        <v>1382.298047601026</v>
       </c>
       <c r="AG12">
-        <v>1002.213049973979</v>
+        <v>1.15965458680021</v>
       </c>
       <c r="AH12">
-        <v>15.39342899947335</v>
+        <v>15.42744424294303</v>
       </c>
       <c r="AI12">
-        <v>1279.964998487436</v>
+        <v>1279.473161214331</v>
       </c>
       <c r="AJ12">
-        <v>980.9747110995833</v>
+        <v>0.7726182066919379</v>
       </c>
       <c r="AK12">
-        <v>20.76965670064662</v>
+        <v>16.58194274059136</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1957,106 +1984,106 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>103.9609521559412</v>
+        <v>102.8838640017384</v>
       </c>
       <c r="D13">
-        <v>1283.770159576746</v>
+        <v>1286.211994339492</v>
       </c>
       <c r="E13">
-        <v>2937.201907172055</v>
+        <v>669.0481786703075</v>
       </c>
       <c r="F13">
-        <v>1283.770309584247</v>
+        <v>1286.212044341992</v>
       </c>
       <c r="G13">
-        <v>9334.048562629318</v>
+        <v>1103.353698900168</v>
       </c>
       <c r="H13">
-        <v>1.237341381848532</v>
+        <v>0.6728058386654303</v>
       </c>
       <c r="I13">
-        <v>2.848956548277986</v>
+        <v>2.097564083719423</v>
       </c>
       <c r="J13">
-        <v>0.5460942397597613</v>
+        <v>0.4081315388661677</v>
       </c>
       <c r="K13">
-        <v>2.474682763697063</v>
+        <v>1.345611677330861</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>1387.731211737688</v>
+        <v>1389.095958346231</v>
       </c>
       <c r="N13">
-        <v>6072.556422667467</v>
+        <v>1052.620797618658</v>
       </c>
       <c r="O13">
-        <v>1387.731261740188</v>
+        <v>1389.095908343731</v>
       </c>
       <c r="P13">
-        <v>15630.09917372226</v>
+        <v>1591.578909514733</v>
       </c>
       <c r="Q13">
-        <v>0.9677465608817621</v>
+        <v>0.6297186835325927</v>
       </c>
       <c r="S13">
-        <v>5.950921800386506</v>
+        <v>2.327102643891509</v>
       </c>
       <c r="T13">
-        <v>0.6294412244716328</v>
+        <v>0.3518142848348237</v>
       </c>
       <c r="U13">
-        <v>1.935493121763524</v>
+        <v>1.259437367065185</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W13">
-        <v>1263.718796587699</v>
+        <v>1265.998502284765</v>
       </c>
       <c r="X13">
-        <v>1045.09919552723</v>
+        <v>107.7451914820931</v>
       </c>
       <c r="Y13">
-        <v>2.075926138071219</v>
+        <v>0.8126084396014797</v>
       </c>
       <c r="Z13">
-        <v>1409.158207699486</v>
+        <v>1410.374921510356</v>
       </c>
       <c r="AA13">
-        <v>1647.768689854564</v>
+        <v>128.5156886255326</v>
       </c>
       <c r="AB13">
-        <v>1.720376998309904</v>
+        <v>0.7087556145424027</v>
       </c>
       <c r="AC13">
-        <v>1369.81822391998</v>
+        <v>1369.725202424351</v>
       </c>
       <c r="AD13">
-        <v>185.0954459125456</v>
+        <v>7.993988962548871</v>
       </c>
       <c r="AE13">
-        <v>0.4822759485718058</v>
+        <v>0.3147355168397368</v>
       </c>
       <c r="AF13">
-        <v>1382.195777496195</v>
+        <v>1395.790477808763</v>
       </c>
       <c r="AG13">
-        <v>1034.034478444795</v>
+        <v>1.424987073955569</v>
       </c>
       <c r="AH13">
-        <v>16.75162622405286</v>
+        <v>15.73677449539758</v>
       </c>
       <c r="AI13">
-        <v>1279.208440637156</v>
+        <v>1279.203937232227</v>
       </c>
       <c r="AJ13">
-        <v>879.1247399880057</v>
+        <v>0.8792451985511351</v>
       </c>
       <c r="AK13">
-        <v>21.63942846774881</v>
+        <v>16.80001544970723</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2067,106 +2094,106 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>103.8722224383064</v>
+        <v>102.8794689886836</v>
       </c>
       <c r="D14">
-        <v>1283.955808297864</v>
+        <v>1286.385024973708</v>
       </c>
       <c r="E14">
-        <v>2387.793480771882</v>
+        <v>696.265149933897</v>
       </c>
       <c r="F14">
-        <v>1283.955958305365</v>
+        <v>1286.385074976208</v>
       </c>
       <c r="G14">
-        <v>7618.819082272598</v>
+        <v>1116.041011524342</v>
       </c>
       <c r="H14">
-        <v>1.245498005257999</v>
+        <v>0.6743433665936516</v>
       </c>
       <c r="I14">
-        <v>2.784160995935535</v>
+        <v>3.25109809033176</v>
       </c>
       <c r="J14">
-        <v>0.5388010971918287</v>
+        <v>0.3240226239684814</v>
       </c>
       <c r="K14">
-        <v>2.490996010515998</v>
+        <v>1.348686733187303</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>1387.828130741171</v>
+        <v>1389.264493962392</v>
       </c>
       <c r="N14">
-        <v>4950.992660889963</v>
+        <v>1084.401432952071</v>
       </c>
       <c r="O14">
-        <v>1387.828180743671</v>
+        <v>1389.264543964892</v>
       </c>
       <c r="P14">
-        <v>12640.24173636766</v>
+        <v>1603.102071081217</v>
       </c>
       <c r="Q14">
-        <v>0.9625220231003411</v>
+        <v>0.6243533490885668</v>
       </c>
       <c r="S14">
-        <v>5.008285579146468</v>
+        <v>3.398377089955829</v>
       </c>
       <c r="T14">
-        <v>0.6222416277999353</v>
+        <v>0.3130569500000284</v>
       </c>
       <c r="U14">
-        <v>1.925044046200682</v>
+        <v>1.248706698177134</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W14">
-        <v>1263.952207126354</v>
+        <v>1266.159584877388</v>
       </c>
       <c r="X14">
-        <v>836.6186211053679</v>
+        <v>119.9130687001337</v>
       </c>
       <c r="Y14">
-        <v>2.001837726045298</v>
+        <v>0.8037899721301012</v>
       </c>
       <c r="Z14">
-        <v>1409.224091308339</v>
+        <v>1410.542298502251</v>
       </c>
       <c r="AA14">
-        <v>1315.613539847399</v>
+        <v>126.7962106909158</v>
       </c>
       <c r="AB14">
-        <v>1.617655073279475</v>
+        <v>0.7069937553097873</v>
       </c>
       <c r="AC14">
-        <v>1370.048852687916</v>
+        <v>1370.841854988193</v>
       </c>
       <c r="AD14">
-        <v>150.7165438529987</v>
+        <v>20.09199393596082</v>
       </c>
       <c r="AE14">
-        <v>0.4796577808857595</v>
+        <v>0.3119689314371494</v>
       </c>
       <c r="AF14">
-        <v>1382.336836104548</v>
+        <v>1382.232064763927</v>
       </c>
       <c r="AG14">
-        <v>861.1679442325462</v>
+        <v>1.761661831052588</v>
       </c>
       <c r="AH14">
-        <v>18.07590135056758</v>
+        <v>15.59746583052438</v>
       </c>
       <c r="AI14">
-        <v>1278.051297715088</v>
+        <v>1279.385178343879</v>
       </c>
       <c r="AJ14">
-        <v>684.6279559457525</v>
+        <v>1.11940313688157</v>
       </c>
       <c r="AK14">
-        <v>21.57917142845566</v>
+        <v>16.84459992511214</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2177,106 +2204,106 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>103.7654220939814</v>
+        <v>103.5024887021666</v>
       </c>
       <c r="D15">
-        <v>1284.202599975575</v>
+        <v>1284.782188966865</v>
       </c>
       <c r="E15">
-        <v>2091.484888549283</v>
+        <v>2016.833895305114</v>
       </c>
       <c r="F15">
-        <v>1284.202749983075</v>
+        <v>1284.782338974365</v>
       </c>
       <c r="G15">
-        <v>6544.096865143298</v>
+        <v>5982.429063654296</v>
       </c>
       <c r="H15">
-        <v>1.232452527148765</v>
+        <v>1.184256476951989</v>
       </c>
       <c r="I15">
-        <v>3.07114706765079</v>
+        <v>3.979744866005044</v>
       </c>
       <c r="J15">
-        <v>0.5158010617823806</v>
+        <v>0.4815018647800124</v>
       </c>
       <c r="K15">
-        <v>2.46490505429753</v>
+        <v>2.368512953903979</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>1387.968122074557</v>
+        <v>1388.284877679032</v>
       </c>
       <c r="N15">
-        <v>4288.912432991327</v>
+        <v>4085.844186802701</v>
       </c>
       <c r="O15">
-        <v>1387.968172077057</v>
+        <v>1388.284827676532</v>
       </c>
       <c r="P15">
-        <v>10733.50436312005</v>
+        <v>9759.214556604878</v>
       </c>
       <c r="Q15">
-        <v>0.9486102519625856</v>
+        <v>0.9182980226553747</v>
       </c>
       <c r="S15">
-        <v>5.063606215747041</v>
+        <v>5.34854572618773</v>
       </c>
       <c r="T15">
-        <v>0.6077181376076184</v>
+        <v>0.5711690072434401</v>
       </c>
       <c r="U15">
-        <v>1.897220503925171</v>
+        <v>1.836596045310749</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W15">
-        <v>1264.169789950901</v>
+        <v>1264.770282410027</v>
       </c>
       <c r="X15">
-        <v>688.5154852224455</v>
+        <v>882.761831204574</v>
       </c>
       <c r="Y15">
-        <v>1.795422948535029</v>
+        <v>1.654389007790075</v>
       </c>
       <c r="Z15">
-        <v>1409.400054534116</v>
+        <v>1409.684753132941</v>
       </c>
       <c r="AA15">
-        <v>1141.318592653614</v>
+        <v>1299.841553070159</v>
       </c>
       <c r="AB15">
-        <v>1.542375681174862</v>
+        <v>1.309439515721174</v>
       </c>
       <c r="AC15">
-        <v>1370.134979939821</v>
+        <v>1370.214956505736</v>
       </c>
       <c r="AD15">
-        <v>143.1345461130617</v>
+        <v>101.0483156457064</v>
       </c>
       <c r="AE15">
-        <v>0.4729112347124294</v>
+        <v>0.4574497462150681</v>
       </c>
       <c r="AF15">
-        <v>1381.054667120021</v>
+        <v>1387.113771053171</v>
       </c>
       <c r="AG15">
-        <v>650.0439807635206</v>
+        <v>685.5880274966704</v>
       </c>
       <c r="AH15">
-        <v>17.19657009631433</v>
+        <v>22.87248652632668</v>
       </c>
       <c r="AI15">
-        <v>1277.272514007443</v>
+        <v>1277.806979070685</v>
       </c>
       <c r="AJ15">
-        <v>650.4169960742305</v>
+        <v>699.9149306090892</v>
       </c>
       <c r="AK15">
-        <v>22.19492050742906</v>
+        <v>23.86188924631296</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -2287,106 +2314,106 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>104.886838593435</v>
+        <v>103.2411524435433</v>
       </c>
       <c r="D16">
-        <v>1281.888983970542</v>
+        <v>1285.256201469152</v>
       </c>
       <c r="E16">
-        <v>30344.97038773379</v>
+        <v>1311.604308582961</v>
       </c>
       <c r="F16">
-        <v>1281.888933968042</v>
+        <v>1285.256251471652</v>
       </c>
       <c r="G16">
-        <v>89788.65901923015</v>
+        <v>3553.310852611233</v>
       </c>
       <c r="H16">
-        <v>1.071560082720978</v>
+        <v>1.071778828038869</v>
       </c>
       <c r="I16">
-        <v>33.7286914206019</v>
+        <v>4.0688439686286</v>
       </c>
       <c r="J16">
-        <v>0.7380824529713077</v>
+        <v>0.4966937669257823</v>
       </c>
       <c r="K16">
-        <v>2.143120165441957</v>
+        <v>2.143557656077739</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>1386.775822563977</v>
+        <v>1388.497353912695</v>
       </c>
       <c r="N16">
-        <v>58207.63394074432</v>
+        <v>2606.104642556474</v>
       </c>
       <c r="O16">
-        <v>1386.775772561477</v>
+        <v>1388.497403915195</v>
       </c>
       <c r="P16">
-        <v>166861.5371111309</v>
+        <v>5608.209961147058</v>
       </c>
       <c r="Q16">
-        <v>1.026376097860981</v>
+        <v>0.8356658448800562</v>
       </c>
       <c r="S16">
-        <v>47.78052759929902</v>
+        <v>4.304659101464111</v>
       </c>
       <c r="T16">
-        <v>0.7551182431468331</v>
+        <v>0.5416626747365884</v>
       </c>
       <c r="U16">
-        <v>2.052752195721961</v>
+        <v>1.671331689760112</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W16">
-        <v>1261.789678941551</v>
+        <v>1265.226849649024</v>
       </c>
       <c r="X16">
-        <v>12373.01060165884</v>
+        <v>517.9461488197393</v>
       </c>
       <c r="Y16">
-        <v>3.211840589161495</v>
+        <v>1.218964238813439</v>
       </c>
       <c r="Z16">
-        <v>1408.079020254509</v>
+        <v>1409.879006069775</v>
       </c>
       <c r="AA16">
-        <v>15519.37491723711</v>
+        <v>751.5914709095001</v>
       </c>
       <c r="AB16">
-        <v>2.801964519759545</v>
+        <v>1.015003179052163</v>
       </c>
       <c r="AC16">
-        <v>1369.533437706368</v>
+        <v>1370.316077803848</v>
       </c>
       <c r="AD16">
-        <v>1827.647856712837</v>
+        <v>70.51223472194808</v>
       </c>
       <c r="AE16">
-        <v>0.5123848290841826</v>
+        <v>0.4168544651920629</v>
       </c>
       <c r="AF16">
-        <v>1386.589716334343</v>
+        <v>1381.528719868904</v>
       </c>
       <c r="AG16">
-        <v>15628.76252451105</v>
+        <v>205.0762158104336</v>
       </c>
       <c r="AH16">
-        <v>15.33543185339175</v>
+        <v>20.84272321960204</v>
       </c>
       <c r="AI16">
-        <v>1283.975958673962</v>
+        <v>1278.318381529591</v>
       </c>
       <c r="AJ16">
-        <v>9617.166843712623</v>
+        <v>218.1782025485791</v>
       </c>
       <c r="AK16">
-        <v>11.82114446139374</v>
+        <v>26.67509573670466</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2397,106 +2424,106 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>103.6686621646008</v>
+        <v>103.7099428899082</v>
       </c>
       <c r="D17">
-        <v>1284.419211591377</v>
+        <v>1284.338716789381</v>
       </c>
       <c r="E17">
-        <v>1863.787972224211</v>
+        <v>921.5808453674358</v>
       </c>
       <c r="F17">
-        <v>1284.419361598878</v>
+        <v>1284.338766791881</v>
       </c>
       <c r="G17">
-        <v>5683.761661383309</v>
+        <v>2757.763380098739</v>
       </c>
       <c r="H17">
-        <v>1.207401502619214</v>
+        <v>1.149524198259232</v>
       </c>
       <c r="I17">
-        <v>3.085972669532289</v>
+        <v>1.97355951537123</v>
       </c>
       <c r="J17">
-        <v>0.5022512781918466</v>
+        <v>0.5743149169434262</v>
       </c>
       <c r="K17">
-        <v>2.414803005238428</v>
+        <v>2.299048396518465</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>1388.087973760979</v>
+        <v>1388.048659679289</v>
       </c>
       <c r="N17">
-        <v>3825.760178018796</v>
+        <v>1854.400728589526</v>
       </c>
       <c r="O17">
-        <v>1388.088023763479</v>
+        <v>1388.048709681789</v>
       </c>
       <c r="P17">
-        <v>9286.344877129788</v>
+        <v>4497.82305272854</v>
       </c>
       <c r="Q17">
-        <v>0.9275410014452978</v>
+        <v>0.9147609017607126</v>
       </c>
       <c r="S17">
-        <v>4.710094059168595</v>
+        <v>2.736125002810607</v>
       </c>
       <c r="T17">
-        <v>0.5880211608755563</v>
+        <v>0.620204811367445</v>
       </c>
       <c r="U17">
-        <v>1.855082002890596</v>
+        <v>1.829521803521425</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W17">
-        <v>1264.352190998355</v>
+        <v>1264.203586230627</v>
       </c>
       <c r="X17">
-        <v>626.4930058261943</v>
+        <v>355.8404898916118</v>
       </c>
       <c r="Y17">
-        <v>1.670396304812301</v>
+        <v>1.849718883101993</v>
       </c>
       <c r="Z17">
-        <v>1409.474764770113</v>
+        <v>1409.431780689834</v>
       </c>
       <c r="AA17">
-        <v>994.1329453865243</v>
+        <v>508.5046358410374</v>
       </c>
       <c r="AB17">
-        <v>1.485358058266265</v>
+        <v>1.491900943102832</v>
       </c>
       <c r="AC17">
-        <v>1370.16559507091</v>
+        <v>1370.218850804936</v>
       </c>
       <c r="AD17">
-        <v>113.5286645111226</v>
+        <v>47.94932248666078</v>
       </c>
       <c r="AE17">
-        <v>0.4625592606977762</v>
+        <v>0.4562906022917221</v>
       </c>
       <c r="AF17">
-        <v>1381.054667009769</v>
+        <v>1381.049783522935</v>
       </c>
       <c r="AG17">
-        <v>601.3914369699231</v>
+        <v>262.6096644343231</v>
       </c>
       <c r="AH17">
-        <v>16.38504832673751</v>
+        <v>15.81116318145684</v>
       </c>
       <c r="AI17">
-        <v>1277.272514113919</v>
+        <v>1277.345067197252</v>
       </c>
       <c r="AJ17">
-        <v>567.1359888966771</v>
+        <v>159.7498897864579</v>
       </c>
       <c r="AK17">
-        <v>21.95068096115681</v>
+        <v>21.57017798780872</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2507,106 +2534,106 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>103.6002085023629</v>
+        <v>103.4178226100398</v>
       </c>
       <c r="D18">
-        <v>1284.568845406591</v>
+        <v>1284.884062216286</v>
       </c>
       <c r="E18">
-        <v>2587.34810543873</v>
+        <v>547.8705204002448</v>
       </c>
       <c r="F18">
-        <v>1284.568895409091</v>
+        <v>1284.884112218786</v>
       </c>
       <c r="G18">
-        <v>7713.933537295449</v>
+        <v>1535.788465459651</v>
       </c>
       <c r="H18">
-        <v>1.159982850288063</v>
+        <v>1.081773257673081</v>
       </c>
       <c r="I18">
-        <v>4.825453203470301</v>
+        <v>2.122588091597776</v>
       </c>
       <c r="J18">
-        <v>0.5440497955479833</v>
+        <v>0.5655250685585105</v>
       </c>
       <c r="K18">
-        <v>2.319965700576126</v>
+        <v>2.163546515346161</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>1388.169053908954</v>
+        <v>1388.301884826325</v>
       </c>
       <c r="N18">
-        <v>5245.629310466617</v>
+        <v>1105.491754530971</v>
       </c>
       <c r="O18">
-        <v>1388.169103911454</v>
+        <v>1388.301934828826</v>
       </c>
       <c r="P18">
-        <v>12506.58654041228</v>
+        <v>2436.681660932889</v>
       </c>
       <c r="Q18">
-        <v>0.9062843298186745</v>
+        <v>0.8476559614541307</v>
       </c>
       <c r="S18">
-        <v>6.763427629161385</v>
+        <v>2.124809700064698</v>
       </c>
       <c r="T18">
-        <v>0.598974772708342</v>
+        <v>0.571119649145984</v>
       </c>
       <c r="U18">
-        <v>1.812568659637349</v>
+        <v>1.695311922908261</v>
       </c>
       <c r="V18" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W18">
-        <v>1264.475848203154</v>
+        <v>1264.792675035499</v>
       </c>
       <c r="X18">
-        <v>874.30529447666</v>
+        <v>172.8113072824403</v>
       </c>
       <c r="Y18">
-        <v>1.726789555868807</v>
+        <v>1.49245473145397</v>
       </c>
       <c r="Z18">
-        <v>1409.567869428325</v>
+        <v>1409.719990195931</v>
       </c>
       <c r="AA18">
-        <v>1304.924878945406</v>
+        <v>233.6274129966093</v>
       </c>
       <c r="AB18">
-        <v>1.348568909499323</v>
+        <v>1.181391509511458</v>
       </c>
       <c r="AC18">
-        <v>1370.170003617969</v>
+        <v>1370.289305171496</v>
       </c>
       <c r="AD18">
-        <v>171.994654495006</v>
+        <v>29.49850777822417</v>
       </c>
       <c r="AE18">
-        <v>0.4518967968350162</v>
+        <v>0.422330593498335</v>
       </c>
       <c r="AF18">
-        <v>1381.054667000005</v>
+        <v>1381.324731230891</v>
       </c>
       <c r="AG18">
-        <v>680.719775562565</v>
+        <v>178.3637299381569</v>
       </c>
       <c r="AH18">
-        <v>18.24159722136199</v>
+        <v>18.26112401367201</v>
       </c>
       <c r="AI18">
-        <v>1277.815715225375</v>
+        <v>1277.911459138812</v>
       </c>
       <c r="AJ18">
-        <v>645.4610167893687</v>
+        <v>165.6826191688108</v>
       </c>
       <c r="AK18">
-        <v>24.01180938700072</v>
+        <v>26.9110109019959</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -2617,106 +2644,106 @@
         <v>53</v>
       </c>
       <c r="C19">
-        <v>103.5464821602807</v>
+        <v>104.9479449444123</v>
       </c>
       <c r="D19">
-        <v>1284.689884359881</v>
+        <v>1281.782853047927</v>
       </c>
       <c r="E19">
-        <v>2484.134463262671</v>
+        <v>19925.59178840469</v>
       </c>
       <c r="F19">
-        <v>1284.689934362381</v>
+        <v>1281.782803045427</v>
       </c>
       <c r="G19">
-        <v>7246.377432891838</v>
+        <v>59223.82522168307</v>
       </c>
       <c r="H19">
-        <v>1.124015064740619</v>
+        <v>1.072207802091343</v>
       </c>
       <c r="I19">
-        <v>4.918527771696338</v>
+        <v>22.25959617400912</v>
       </c>
       <c r="J19">
-        <v>0.5660518019892369</v>
+        <v>0.7478997822525077</v>
       </c>
       <c r="K19">
-        <v>2.248030129481238</v>
+        <v>2.144415604182686</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>1388.236366520161</v>
+        <v>1386.730797992339</v>
       </c>
       <c r="N19">
-        <v>4937.161750726062</v>
+        <v>38314.11431315008</v>
       </c>
       <c r="O19">
-        <v>1388.236416522661</v>
+        <v>1386.730747989839</v>
       </c>
       <c r="P19">
-        <v>11480.16972495907</v>
+        <v>110649.8361195281</v>
       </c>
       <c r="Q19">
-        <v>0.887106588766063</v>
+        <v>1.031885049566683</v>
       </c>
       <c r="S19">
-        <v>6.539228312755977</v>
+        <v>32.79746782906604</v>
       </c>
       <c r="T19">
-        <v>0.5905460773954792</v>
+        <v>0.7610045574128428</v>
       </c>
       <c r="U19">
-        <v>1.774213177532126</v>
+        <v>2.063770099133367</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W19">
-        <v>1264.589224863644</v>
+        <v>1261.675029207197</v>
       </c>
       <c r="X19">
-        <v>800.8670622350008</v>
+        <v>8071.364500236681</v>
       </c>
       <c r="Y19">
-        <v>1.653576166790159</v>
+        <v>3.214330493842331</v>
       </c>
       <c r="Z19">
-        <v>1409.625052989742</v>
+        <v>1408.041002344302</v>
       </c>
       <c r="AA19">
-        <v>1167.491529047604</v>
+        <v>10113.65682085757</v>
       </c>
       <c r="AB19">
-        <v>1.337580177502121</v>
+        <v>2.888372353461895</v>
       </c>
       <c r="AC19">
-        <v>1370.218515739696</v>
+        <v>1369.485157736874</v>
       </c>
       <c r="AD19">
-        <v>149.1952587176633</v>
+        <v>936.9373587284193</v>
       </c>
       <c r="AE19">
-        <v>0.4421302340829136</v>
+        <v>0.515201452122882</v>
       </c>
       <c r="AF19">
-        <v>1381.054667000004</v>
+        <v>1386.109520699833</v>
       </c>
       <c r="AG19">
-        <v>779.3831255704376</v>
+        <v>11025.52636704161</v>
       </c>
       <c r="AH19">
-        <v>20.10440195956528</v>
+        <v>15.38342088924161</v>
       </c>
       <c r="AI19">
-        <v>1277.815715012735</v>
+        <v>1283.449746733795</v>
       </c>
       <c r="AJ19">
-        <v>472.3394824725718</v>
+        <v>6552.343360297724</v>
       </c>
       <c r="AK19">
-        <v>24.42983910678593</v>
+        <v>12.02187102085112</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -2727,106 +2754,106 @@
         <v>54</v>
       </c>
       <c r="C20">
-        <v>103.5036299014864</v>
+        <v>104.3061174472653</v>
       </c>
       <c r="D20">
-        <v>1284.813736134267</v>
+        <v>1283.014020195492</v>
       </c>
       <c r="E20">
-        <v>2387.179267050295</v>
+        <v>3839.585301347252</v>
       </c>
       <c r="F20">
-        <v>1284.813786136767</v>
+        <v>1283.014070197992</v>
       </c>
       <c r="G20">
-        <v>6757.375618462681</v>
+        <v>11734.97740196683</v>
       </c>
       <c r="H20">
-        <v>1.106078426265614</v>
+        <v>1.134802216810936</v>
       </c>
       <c r="I20">
-        <v>4.691492973167313</v>
+        <v>4.871270726565528</v>
       </c>
       <c r="J20">
-        <v>0.5327076282476266</v>
+        <v>0.6655970439299486</v>
       </c>
       <c r="K20">
-        <v>2.212156852531227</v>
+        <v>2.269604433621871</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>1388.317366035753</v>
+        <v>1387.320137642757</v>
       </c>
       <c r="N20">
-        <v>4773.182531536167</v>
+        <v>7636.474317088007</v>
       </c>
       <c r="O20">
-        <v>1388.317416038253</v>
+        <v>1387.320187645257</v>
       </c>
       <c r="P20">
-        <v>10842.71222781269</v>
+        <v>20267.8876093785</v>
       </c>
       <c r="Q20">
-        <v>0.8646619781898159</v>
+        <v>0.9749885287868392</v>
       </c>
       <c r="S20">
-        <v>6.380516607129747</v>
+        <v>6.703756813938003</v>
       </c>
       <c r="T20">
-        <v>0.5950686498959127</v>
+        <v>0.6874950323415141</v>
       </c>
       <c r="U20">
-        <v>1.729323956379632</v>
+        <v>1.949977057573678</v>
       </c>
       <c r="V20" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W20">
-        <v>1264.738615834104</v>
+        <v>1262.91703731655</v>
       </c>
       <c r="X20">
-        <v>748.2508502318707</v>
+        <v>1408.909674801016</v>
       </c>
       <c r="Y20">
-        <v>1.538125203262521</v>
+        <v>2.455143076959129</v>
       </c>
       <c r="Z20">
-        <v>1409.692860125551</v>
+        <v>1408.686469050428</v>
       </c>
       <c r="AA20">
-        <v>1119.34661883538</v>
+        <v>2118.956583424883</v>
       </c>
       <c r="AB20">
-        <v>1.243383937288542</v>
+        <v>2.120760345693383</v>
       </c>
       <c r="AC20">
-        <v>1370.221345177277</v>
+        <v>1369.6725425594</v>
       </c>
       <c r="AD20">
-        <v>154.7881375584865</v>
+        <v>199.7442809679551</v>
       </c>
       <c r="AE20">
-        <v>0.4308810857797704</v>
+        <v>0.4861235821451473</v>
       </c>
       <c r="AF20">
-        <v>1381.5869</v>
+        <v>1382.949635283477</v>
       </c>
       <c r="AG20">
-        <v>653.0949212951954</v>
+        <v>1409.813101912881</v>
       </c>
       <c r="AH20">
-        <v>21.00854426794083</v>
+        <v>16.53354343100133</v>
       </c>
       <c r="AI20">
-        <v>1277.815715018867</v>
+        <v>1283.138983318712</v>
       </c>
       <c r="AJ20">
-        <v>590.516143690258</v>
+        <v>982.8080855985515</v>
       </c>
       <c r="AK20">
-        <v>24.07249674717679</v>
+        <v>18.08458701585716</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2837,106 +2864,106 @@
         <v>55</v>
       </c>
       <c r="C21">
-        <v>103.4548960795164</v>
+        <v>104.2507198214062</v>
       </c>
       <c r="D21">
-        <v>1284.906053758065</v>
+        <v>1283.138753201633</v>
       </c>
       <c r="E21">
-        <v>2317.012673678346</v>
+        <v>3180.585122037618</v>
       </c>
       <c r="F21">
-        <v>1284.906103760565</v>
+        <v>1283.138803204133</v>
       </c>
       <c r="G21">
-        <v>6406.947425768652</v>
+        <v>9823.98655628509</v>
       </c>
       <c r="H21">
-        <v>1.069242040675729</v>
+        <v>1.167959707480448</v>
       </c>
       <c r="I21">
-        <v>4.408482073229845</v>
+        <v>4.487397836966273</v>
       </c>
       <c r="J21">
-        <v>0.5564863901702928</v>
+        <v>0.6213803732768335</v>
       </c>
       <c r="K21">
-        <v>2.138484081351457</v>
+        <v>2.335919414960896</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M21">
-        <v>1388.361049842581</v>
+        <v>1387.389473023039</v>
       </c>
       <c r="N21">
-        <v>4556.269687783561</v>
+        <v>6469.417936279371</v>
       </c>
       <c r="O21">
-        <v>1388.360999840081</v>
+        <v>1387.389523025539</v>
       </c>
       <c r="P21">
-        <v>10107.95575223912</v>
+        <v>17113.91747587061</v>
       </c>
       <c r="Q21">
-        <v>0.8484335444090758</v>
+        <v>0.9641074294056284</v>
       </c>
       <c r="S21">
-        <v>5.70086674929518</v>
+        <v>5.495896927976551</v>
       </c>
       <c r="T21">
-        <v>0.5831132228879072</v>
+        <v>0.7052125954919027</v>
       </c>
       <c r="U21">
-        <v>1.696867088818152</v>
+        <v>1.928214858811257</v>
       </c>
       <c r="V21" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W21">
-        <v>1264.771964143968</v>
+        <v>1263.067707738021</v>
       </c>
       <c r="X21">
-        <v>693.0378715907848</v>
+        <v>1171.978895943273</v>
       </c>
       <c r="Y21">
-        <v>1.515975211156105</v>
+        <v>2.393440542363654</v>
       </c>
       <c r="Z21">
-        <v>1409.748330660872</v>
+        <v>1408.755630327516</v>
       </c>
       <c r="AA21">
-        <v>975.3389313390452</v>
+        <v>1849.309686756192</v>
       </c>
       <c r="AB21">
-        <v>1.219041369896444</v>
+        <v>2.073437307176733</v>
       </c>
       <c r="AC21">
-        <v>1370.258264785752</v>
+        <v>1369.741338301975</v>
       </c>
       <c r="AD21">
-        <v>138.9639708729071</v>
+        <v>164.8962219275429</v>
       </c>
       <c r="AE21">
-        <v>0.4228938519395676</v>
+        <v>0.4808274405115477</v>
       </c>
       <c r="AF21">
-        <v>1388.223638187281</v>
+        <v>1380.411905379624</v>
       </c>
       <c r="AG21">
-        <v>596.2312621341022</v>
+        <v>1046.955387652144</v>
       </c>
       <c r="AH21">
-        <v>21.14470239480171</v>
+        <v>15.71338477249076</v>
       </c>
       <c r="AI21">
-        <v>1277.815715000378</v>
+        <v>1283.225472105945</v>
       </c>
       <c r="AJ21">
-        <v>444.8150690859935</v>
+        <v>835.5485661106057</v>
       </c>
       <c r="AK21">
-        <v>26.34746692990624</v>
+        <v>17.69805316847314</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -2947,106 +2974,106 @@
         <v>56</v>
       </c>
       <c r="C22">
-        <v>103.393475879918</v>
+        <v>104.1635621482201</v>
       </c>
       <c r="D22">
-        <v>1285.059604986085</v>
+        <v>1283.321307232075</v>
       </c>
       <c r="E22">
-        <v>2320.00119706261</v>
+        <v>4282.98303866551</v>
       </c>
       <c r="F22">
-        <v>1285.059654988585</v>
+        <v>1283.321457239575</v>
       </c>
       <c r="G22">
-        <v>6079.641623872882</v>
+        <v>13347.66467391018</v>
       </c>
       <c r="H22">
-        <v>1.000958594324253</v>
+        <v>1.188501070756549</v>
       </c>
       <c r="I22">
-        <v>4.414541524557901</v>
+        <v>6.387395577880073</v>
       </c>
       <c r="J22">
-        <v>0.5872637328953789</v>
+        <v>0.5996916049040271</v>
       </c>
       <c r="K22">
-        <v>2.001917188648506</v>
+        <v>2.377002141513098</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M22">
-        <v>1388.453080866003</v>
+        <v>1387.484969385295</v>
       </c>
       <c r="N22">
-        <v>4438.070640254792</v>
+        <v>8736.676416184711</v>
       </c>
       <c r="O22">
-        <v>1388.453130868503</v>
+        <v>1387.485019387795</v>
       </c>
       <c r="P22">
-        <v>9453.16891382591</v>
+        <v>22910.45481354042</v>
       </c>
       <c r="Q22">
-        <v>0.8127630617490551</v>
+        <v>0.9678136402634664</v>
       </c>
       <c r="S22">
-        <v>5.233292712419007</v>
+        <v>7.585511065647312</v>
       </c>
       <c r="T22">
-        <v>0.587914519686245</v>
+        <v>0.6750290638150626</v>
       </c>
       <c r="U22">
-        <v>1.62552612349811</v>
+        <v>1.935627280526933</v>
       </c>
       <c r="V22" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W22">
-        <v>1264.970645551504</v>
+        <v>1263.250331059233</v>
       </c>
       <c r="X22">
-        <v>662.7980921480103</v>
+        <v>1449.709969370357</v>
       </c>
       <c r="Y22">
-        <v>1.4368040519703</v>
+        <v>2.19285127874256</v>
       </c>
       <c r="Z22">
-        <v>1409.844952753268</v>
+        <v>1408.85955448091</v>
       </c>
       <c r="AA22">
-        <v>971.8724466550032</v>
+        <v>2442.941149597552</v>
       </c>
       <c r="AB22">
-        <v>1.160271655779295</v>
+        <v>1.982694361071528</v>
       </c>
       <c r="AC22">
-        <v>1370.291755092986</v>
+        <v>1369.742289235423</v>
       </c>
       <c r="AD22">
-        <v>124.0697439377241</v>
+        <v>220.4745612370103</v>
       </c>
       <c r="AE22">
-        <v>0.4053832819907968</v>
+        <v>0.482682365937401</v>
       </c>
       <c r="AF22">
-        <v>1383.17089452997</v>
+        <v>1381.371184241763</v>
       </c>
       <c r="AG22">
-        <v>492.9751587069529</v>
+        <v>1452.282480603595</v>
       </c>
       <c r="AH22">
-        <v>20.26917222874144</v>
+        <v>16.17987949089261</v>
       </c>
       <c r="AI22">
-        <v>1277.81571500102</v>
+        <v>1277.422839520796</v>
       </c>
       <c r="AJ22">
-        <v>413.8371424680843</v>
+        <v>1401.383762198109</v>
       </c>
       <c r="AK22">
-        <v>24.92444879704419</v>
+        <v>21.56414371061377</v>
       </c>
     </row>
     <row r="23" spans="1:37">
@@ -3057,106 +3084,106 @@
         <v>57</v>
       </c>
       <c r="C23">
-        <v>103.3653431122361</v>
+        <v>104.1341435420763</v>
       </c>
       <c r="D23">
-        <v>1285.121604946713</v>
+        <v>1283.384609658521</v>
       </c>
       <c r="E23">
-        <v>2577.315850772363</v>
+        <v>4011.284382568073</v>
       </c>
       <c r="F23">
-        <v>1285.121654949213</v>
+        <v>1283.384659661021</v>
       </c>
       <c r="G23">
-        <v>6611.245636161327</v>
+        <v>12619.85439584082</v>
       </c>
       <c r="H23">
-        <v>0.9886395952973848</v>
+        <v>1.197455989465614</v>
       </c>
       <c r="I23">
-        <v>5.014418849532643</v>
+        <v>4.509632245942218</v>
       </c>
       <c r="J23">
-        <v>0.5657708608820153</v>
+        <v>0.6035672595310261</v>
       </c>
       <c r="K23">
-        <v>1.97727919059477</v>
+        <v>2.394911978931228</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M23">
-        <v>1388.487048063949</v>
+        <v>1387.518753200598</v>
       </c>
       <c r="N23">
-        <v>4875.097822985286</v>
+        <v>8262.724272503901</v>
       </c>
       <c r="O23">
-        <v>1388.486998061449</v>
+        <v>1387.518803203098</v>
       </c>
       <c r="P23">
-        <v>10241.05407199865</v>
+        <v>21686.56407736566</v>
       </c>
       <c r="Q23">
-        <v>0.8114569578790329</v>
+        <v>0.9701243910351356</v>
       </c>
       <c r="S23">
-        <v>8.342198630495355</v>
+        <v>7.396277671281138</v>
       </c>
       <c r="T23">
-        <v>0.5625056164770214</v>
+        <v>0.6710830790138174</v>
       </c>
       <c r="U23">
-        <v>1.622913915758066</v>
+        <v>1.940248782070271</v>
       </c>
       <c r="V23" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W23">
-        <v>1265.008354921539</v>
+        <v>1263.382055411873</v>
       </c>
       <c r="X23">
-        <v>714.4918595173954</v>
+        <v>1483.256216833312</v>
       </c>
       <c r="Y23">
-        <v>1.355173510885511</v>
+        <v>2.268259065401618</v>
       </c>
       <c r="Z23">
-        <v>1409.840399633496</v>
+        <v>1408.874555347674</v>
       </c>
       <c r="AA23">
-        <v>874.5023898645047</v>
+        <v>2341.375240355307</v>
       </c>
       <c r="AB23">
-        <v>1.123455507114407</v>
+        <v>1.967975203172554</v>
       </c>
       <c r="AC23">
-        <v>1370.304882118499</v>
+        <v>1369.77729275127</v>
       </c>
       <c r="AD23">
-        <v>132.0759911055576</v>
+        <v>212.8643766353668</v>
       </c>
       <c r="AE23">
-        <v>0.4044259022966274</v>
+        <v>0.4838008174358052</v>
       </c>
       <c r="AF23">
-        <v>1395.586899999909</v>
+        <v>1380.548161264877</v>
       </c>
       <c r="AG23">
-        <v>1107.346690509592</v>
+        <v>1305.420657228266</v>
       </c>
       <c r="AH23">
-        <v>19.36249343103514</v>
+        <v>15.37622213560267</v>
       </c>
       <c r="AI23">
-        <v>1278.35885900233</v>
+        <v>1281.760589633037</v>
       </c>
       <c r="AJ23">
-        <v>531.2368134657092</v>
+        <v>1088.546718626859</v>
       </c>
       <c r="AK23">
-        <v>24.61024605733697</v>
+        <v>20.19925320567246</v>
       </c>
     </row>
     <row r="24" spans="1:37">
@@ -3167,106 +3194,106 @@
         <v>58</v>
       </c>
       <c r="C24">
-        <v>103.2706859629629</v>
+        <v>104.1084457207767</v>
       </c>
       <c r="D24">
-        <v>1285.368063458413</v>
+        <v>1283.442761877811</v>
       </c>
       <c r="E24">
-        <v>2444.680842800774</v>
+        <v>3719.985856786994</v>
       </c>
       <c r="F24">
-        <v>1285.368113460913</v>
+        <v>1283.442811880311</v>
       </c>
       <c r="G24">
-        <v>5773.557101115136</v>
+        <v>11830.46380818472</v>
       </c>
       <c r="H24">
-        <v>0.9100614416283441</v>
+        <v>1.211481269259072</v>
       </c>
       <c r="I24">
-        <v>4.013984838218595</v>
+        <v>4.361919756235476</v>
       </c>
       <c r="J24">
-        <v>0.5648500427353274</v>
+        <v>0.6012260987408633</v>
       </c>
       <c r="K24">
-        <v>1.820122883256688</v>
+        <v>2.422962538518143</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M24">
-        <v>1388.638749421376</v>
+        <v>1387.551207598588</v>
       </c>
       <c r="N24">
-        <v>4532.312960609892</v>
+        <v>7698.17342602191</v>
       </c>
       <c r="O24">
-        <v>1388.638799423876</v>
+        <v>1387.551257601088</v>
       </c>
       <c r="P24">
-        <v>8945.326016471266</v>
+        <v>20123.85816286873</v>
       </c>
       <c r="Q24">
-        <v>0.7612704339787051</v>
+        <v>0.9669167370713702</v>
       </c>
       <c r="S24">
-        <v>4.647233893256541</v>
+        <v>7.265838021622375</v>
       </c>
       <c r="T24">
-        <v>0.5580418838884534</v>
+        <v>0.6692860540857047</v>
       </c>
       <c r="U24">
-        <v>1.52254086795741</v>
+        <v>1.93383347414274</v>
       </c>
       <c r="V24" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W24">
-        <v>1265.250872563888</v>
+        <v>1263.402235750199</v>
       </c>
       <c r="X24">
-        <v>637.6248723037037</v>
+        <v>1372.341057508003</v>
       </c>
       <c r="Y24">
-        <v>1.231328294454542</v>
+        <v>2.208580958567105</v>
       </c>
       <c r="Z24">
-        <v>1410.00165652319</v>
+        <v>1408.906461078913</v>
       </c>
       <c r="AA24">
-        <v>912.6142526802245</v>
+        <v>2206.211165657241</v>
       </c>
       <c r="AB24">
-        <v>1.023960567648665</v>
+        <v>1.983346302377012</v>
       </c>
       <c r="AC24">
-        <v>1370.35828042971</v>
+        <v>1369.772090805436</v>
       </c>
       <c r="AD24">
-        <v>110.1685945199594</v>
+        <v>190.6561883493445</v>
       </c>
       <c r="AE24">
-        <v>0.3800761016553837</v>
+        <v>0.4822531140334442</v>
       </c>
       <c r="AF24">
-        <v>1381.58690000474</v>
+        <v>1380.543880033741</v>
       </c>
       <c r="AG24">
-        <v>259.2947280727416</v>
+        <v>1220.842602526094</v>
       </c>
       <c r="AH24">
-        <v>19.00380609484699</v>
+        <v>15.65436159893408</v>
       </c>
       <c r="AI24">
-        <v>1278.35885900325</v>
+        <v>1281.579864335757</v>
       </c>
       <c r="AJ24">
-        <v>398.087731226688</v>
+        <v>1027.454355402669</v>
       </c>
       <c r="AK24">
-        <v>22.67837903451167</v>
+        <v>20.8108003626486</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -3277,106 +3304,106 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>103.1901955756539</v>
+        <v>104.0684233211286</v>
       </c>
       <c r="D25">
-        <v>1285.554144749412</v>
+        <v>1283.52875639929</v>
       </c>
       <c r="E25">
-        <v>2256.787112899029</v>
+        <v>3486.271307950581</v>
       </c>
       <c r="F25">
-        <v>1285.554194751912</v>
+        <v>1283.52880640179</v>
       </c>
       <c r="G25">
-        <v>4968.592069262216</v>
+        <v>11077.08612518775</v>
       </c>
       <c r="H25">
-        <v>0.8452574539874749</v>
+        <v>1.212767974618096</v>
       </c>
       <c r="I25">
-        <v>3.404952099333615</v>
+        <v>3.822078593250211</v>
       </c>
       <c r="J25">
-        <v>0.5712800027733717</v>
+        <v>0.5962886253799115</v>
       </c>
       <c r="K25">
-        <v>1.69051490797495</v>
+        <v>2.425535949236192</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M25">
-        <v>1388.744440330066</v>
+        <v>1387.597179720419</v>
       </c>
       <c r="N25">
-        <v>4068.794928739629</v>
+        <v>7159.272947400431</v>
       </c>
       <c r="O25">
-        <v>1388.744390327566</v>
+        <v>1387.597229722919</v>
       </c>
       <c r="P25">
-        <v>7657.062956227729</v>
+        <v>18570.41799214486</v>
       </c>
       <c r="Q25">
-        <v>0.735366576756854</v>
+        <v>0.9672943311053985</v>
       </c>
       <c r="S25">
-        <v>3.710062090216915</v>
+        <v>6.673060777946443</v>
       </c>
       <c r="T25">
-        <v>0.5249050387531783</v>
+        <v>0.6501848218659084</v>
       </c>
       <c r="U25">
-        <v>1.470733153513708</v>
+        <v>1.934588662210797</v>
       </c>
       <c r="V25" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W25">
-        <v>1265.41839385222</v>
+        <v>1263.465980969572</v>
       </c>
       <c r="X25">
-        <v>572.7721543369502</v>
+        <v>1293.005681984536</v>
       </c>
       <c r="Y25">
-        <v>1.138827000011911</v>
+        <v>2.224675509086372</v>
       </c>
       <c r="Z25">
-        <v>1410.07616653457</v>
+        <v>1408.984273418465</v>
       </c>
       <c r="AA25">
-        <v>732.1193724632689</v>
+        <v>2024.89598031752</v>
       </c>
       <c r="AB25">
-        <v>0.9488231065943424</v>
+        <v>1.914423375518896</v>
       </c>
       <c r="AC25">
-        <v>1370.668173317843</v>
+        <v>1369.794503887281</v>
       </c>
       <c r="AD25">
-        <v>110.4418016251913</v>
+        <v>188.3826117703186</v>
       </c>
       <c r="AE25">
-        <v>0.3669421877689101</v>
+        <v>0.4823747421456631</v>
       </c>
       <c r="AF25">
-        <v>1395.586865130363</v>
+        <v>1380.587877800324</v>
       </c>
       <c r="AG25">
-        <v>242.9964164284765</v>
+        <v>1246.83245897933</v>
       </c>
       <c r="AH25">
-        <v>18.34711274990908</v>
+        <v>15.69973809021008</v>
       </c>
       <c r="AI25">
-        <v>1278.358860062032</v>
+        <v>1281.76885775058</v>
       </c>
       <c r="AJ25">
-        <v>202.7944595490027</v>
+        <v>921.9047412927335</v>
       </c>
       <c r="AK25">
-        <v>21.07078109699013</v>
+        <v>19.94626141947353</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -3387,106 +3414,106 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>104.8019054604054</v>
+        <v>104.0260582279809</v>
       </c>
       <c r="D26">
-        <v>1282.036831568662</v>
+        <v>1283.620047927118</v>
       </c>
       <c r="E26">
-        <v>29839.5266808913</v>
+        <v>3195.985867487148</v>
       </c>
       <c r="F26">
-        <v>1282.036781566162</v>
+        <v>1283.620097929618</v>
       </c>
       <c r="G26">
-        <v>87994.28447863807</v>
+        <v>10144.31613468845</v>
       </c>
       <c r="H26">
-        <v>1.073462042980099</v>
+        <v>1.227720334696489</v>
       </c>
       <c r="I26">
-        <v>33.33677826179554</v>
+        <v>3.584988091485269</v>
       </c>
       <c r="J26">
-        <v>0.7246475855256278</v>
+        <v>0.5640083446901563</v>
       </c>
       <c r="K26">
-        <v>2.146924085960198</v>
+        <v>2.455440669392977</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M26">
-        <v>1386.838737029067</v>
+        <v>1387.646106155099</v>
       </c>
       <c r="N26">
-        <v>57198.53974900466</v>
+        <v>6590.126248173224</v>
       </c>
       <c r="O26">
-        <v>1386.838687026567</v>
+        <v>1387.646156157599</v>
       </c>
       <c r="P26">
-        <v>162169.9993594232</v>
+        <v>17054.65683151187</v>
       </c>
       <c r="Q26">
-        <v>1.021366073290886</v>
+        <v>0.9696224361160676</v>
       </c>
       <c r="S26">
-        <v>47.72913944616394</v>
+        <v>6.335167211935866</v>
       </c>
       <c r="T26">
-        <v>0.7398017872372544</v>
+        <v>0.6378726252382838</v>
       </c>
       <c r="U26">
-        <v>2.042732146581772</v>
+        <v>1.939244872232135</v>
       </c>
       <c r="V26" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W26">
-        <v>1261.972492592399</v>
+        <v>1263.553267274384</v>
       </c>
       <c r="X26">
-        <v>12483.75219502958</v>
+        <v>1139.504167736275</v>
       </c>
       <c r="Y26">
-        <v>3.218443235203603</v>
+        <v>2.108664189604041</v>
       </c>
       <c r="Z26">
-        <v>1408.170170811993</v>
+        <v>1409.055738317099</v>
       </c>
       <c r="AA26">
-        <v>15316.88296331378</v>
+        <v>1805.766765487396</v>
       </c>
       <c r="AB26">
-        <v>2.665052173089459</v>
+        <v>1.824287610880783</v>
       </c>
       <c r="AC26">
-        <v>1369.540395501917</v>
+        <v>1369.844920209515</v>
       </c>
       <c r="AD26">
-        <v>1805.035491437375</v>
+        <v>168.8923084776585</v>
       </c>
       <c r="AE26">
-        <v>0.5098607082862842</v>
+        <v>0.4834928645772463</v>
       </c>
       <c r="AF26">
-        <v>1386.461408137787</v>
+        <v>1380.637362273096</v>
       </c>
       <c r="AG26">
-        <v>14624.77158568396</v>
+        <v>1040.852842696022</v>
       </c>
       <c r="AH26">
-        <v>15.4122825818959</v>
+        <v>15.12542973765465</v>
       </c>
       <c r="AI26">
-        <v>1284.706529051636</v>
+        <v>1279.965010194593</v>
       </c>
       <c r="AJ26">
-        <v>8747.10434421557</v>
+        <v>980.9647154388557</v>
       </c>
       <c r="AK26">
-        <v>11.37553968532925</v>
+        <v>20.76932582177202</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -3497,106 +3524,106 @@
         <v>61</v>
       </c>
       <c r="C27">
-        <v>103.1251663585672</v>
+        <v>103.9610178333196</v>
       </c>
       <c r="D27">
-        <v>1285.70372893038</v>
+        <v>1283.770159526415</v>
       </c>
       <c r="E27">
-        <v>2055.803181710472</v>
+        <v>2937.202700822817</v>
       </c>
       <c r="F27">
-        <v>1285.70377893288</v>
+        <v>1283.770309533916</v>
       </c>
       <c r="G27">
-        <v>4353.169484879624</v>
+        <v>9334.063882530492</v>
       </c>
       <c r="H27">
-        <v>0.8213011241211483</v>
+        <v>1.237340993415707</v>
       </c>
       <c r="I27">
-        <v>3.482249150310507</v>
+        <v>2.848966876387343</v>
       </c>
       <c r="J27">
-        <v>0.5435975089860642</v>
+        <v>0.5460979493381262</v>
       </c>
       <c r="K27">
-        <v>1.642602248242297</v>
+        <v>2.474681986831413</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M27">
-        <v>1388.828995293948</v>
+        <v>1387.731277364735</v>
       </c>
       <c r="N27">
-        <v>3708.345946116923</v>
+        <v>6072.243401379181</v>
       </c>
       <c r="O27">
-        <v>1388.828945291448</v>
+        <v>1387.731327367235</v>
       </c>
       <c r="P27">
-        <v>6740.402351963976</v>
+        <v>15621.60290169476</v>
       </c>
       <c r="Q27">
-        <v>0.7110423734272897</v>
+        <v>0.9677586404908551</v>
       </c>
       <c r="S27">
-        <v>3.500243562785535</v>
+        <v>6.207868239580679</v>
       </c>
       <c r="T27">
-        <v>0.5196438577857985</v>
+        <v>0.6284534898270198</v>
       </c>
       <c r="U27">
-        <v>1.422084746854579</v>
+        <v>1.93551728098171</v>
       </c>
       <c r="V27" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W27">
-        <v>1265.54852412804</v>
+        <v>1263.718796042551</v>
       </c>
       <c r="X27">
-        <v>494.0145690572602</v>
+        <v>1045.122074293749</v>
       </c>
       <c r="Y27">
-        <v>1.119627856999839</v>
+        <v>2.075975912228447</v>
       </c>
       <c r="Z27">
-        <v>1410.087835387896</v>
+        <v>1409.156141133003</v>
       </c>
       <c r="AA27">
-        <v>667.5130562370957</v>
+        <v>1666.66447651408</v>
       </c>
       <c r="AB27">
-        <v>0.8702575033363573</v>
+        <v>1.7379013116147</v>
       </c>
       <c r="AC27">
-        <v>1370.674188970812</v>
+        <v>1369.880026583531</v>
       </c>
       <c r="AD27">
-        <v>88.61274683186893</v>
+        <v>146.9463966976892</v>
       </c>
       <c r="AE27">
-        <v>0.3549380615827045</v>
+        <v>0.4822758955498891</v>
       </c>
       <c r="AF27">
-        <v>1381.586900000001</v>
+        <v>1380.985059923039</v>
       </c>
       <c r="AG27">
-        <v>52.41348341607787</v>
+        <v>1056.403590461314</v>
       </c>
       <c r="AH27">
-        <v>17.74690307913588</v>
+        <v>16.12310173289449</v>
       </c>
       <c r="AI27">
-        <v>1278.901945251229</v>
+        <v>1279.208948056422</v>
       </c>
       <c r="AJ27">
-        <v>105.9022807595724</v>
+        <v>879.0877722429383</v>
       </c>
       <c r="AK27">
-        <v>20.48237959860339</v>
+        <v>21.6396666611443</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -3607,106 +3634,106 @@
         <v>62</v>
       </c>
       <c r="C28">
-        <v>103.0190996814126</v>
+        <v>103.872298599339</v>
       </c>
       <c r="D28">
-        <v>1285.956350776538</v>
+        <v>1283.955808318962</v>
       </c>
       <c r="E28">
-        <v>7071.217293881815</v>
+        <v>2387.793524497562</v>
       </c>
       <c r="F28">
-        <v>1285.956400779038</v>
+        <v>1283.955958326462</v>
       </c>
       <c r="G28">
-        <v>13616.95257843183</v>
+        <v>7618.816833891763</v>
       </c>
       <c r="H28">
-        <v>0.7655412057500361</v>
+        <v>1.245497902862478</v>
       </c>
       <c r="I28">
-        <v>9.284326767594026</v>
+        <v>2.784153306487012</v>
       </c>
       <c r="J28">
-        <v>0.4821353927573045</v>
+        <v>0.5388007794490594</v>
       </c>
       <c r="K28">
-        <v>1.531082411500072</v>
+        <v>2.490995805724956</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M28">
-        <v>1388.97555046295</v>
+        <v>1387.828206923301</v>
       </c>
       <c r="N28">
-        <v>12148.67319286784</v>
+        <v>4950.617793791645</v>
       </c>
       <c r="O28">
-        <v>1388.97550046045</v>
+        <v>1387.828256925801</v>
       </c>
       <c r="P28">
-        <v>20609.17920902799</v>
+        <v>12630.04638648975</v>
       </c>
       <c r="Q28">
-        <v>0.6796078749116252</v>
+        <v>0.9625368311059689</v>
       </c>
       <c r="S28">
-        <v>10.44997965025857</v>
+        <v>5.17219272319685</v>
       </c>
       <c r="T28">
-        <v>0.4585421964724634</v>
+        <v>0.620781624569116</v>
       </c>
       <c r="U28">
-        <v>1.35921574982325</v>
+        <v>1.925073662211938</v>
       </c>
       <c r="V28" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W28">
-        <v>1265.749860801909</v>
+        <v>1263.952205093477</v>
       </c>
       <c r="X28">
-        <v>1488.486397646471</v>
+        <v>836.6173909629941</v>
       </c>
       <c r="Y28">
-        <v>0.932029033243323</v>
+        <v>2.001836326416487</v>
       </c>
       <c r="Z28">
-        <v>1410.266517396687</v>
+        <v>1409.222084340254</v>
       </c>
       <c r="AA28">
-        <v>2092.676075486484</v>
+        <v>1336.206296448927</v>
       </c>
       <c r="AB28">
-        <v>0.8310349890114064</v>
+        <v>1.640427116301877</v>
       </c>
       <c r="AC28">
-        <v>1370.713082046375</v>
+        <v>1369.995633479427</v>
       </c>
       <c r="AD28">
-        <v>320.2295816781936</v>
+        <v>115.612260910068</v>
       </c>
       <c r="AE28">
-        <v>0.339307178277392</v>
+        <v>0.4796576368492757</v>
       </c>
       <c r="AF28">
-        <v>1396.119076999991</v>
+        <v>1380.840828181691</v>
       </c>
       <c r="AG28">
-        <v>408.7748572636168</v>
+        <v>875.289091547065</v>
       </c>
       <c r="AH28">
-        <v>16.96537569132399</v>
+        <v>16.95566341853577</v>
       </c>
       <c r="AI28">
-        <v>1278.901945000001</v>
+        <v>1278.051234653711</v>
       </c>
       <c r="AJ28">
-        <v>697.9940331968853</v>
+        <v>684.6202501720046</v>
       </c>
       <c r="AK28">
-        <v>19.1038694771374</v>
+        <v>21.5783965717771</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -3717,106 +3744,106 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>102.977827080847</v>
+        <v>103.7654492186903</v>
       </c>
       <c r="D29">
-        <v>1286.056103141539</v>
+        <v>1284.202601879638</v>
       </c>
       <c r="E29">
-        <v>6188.068585514634</v>
+        <v>2091.486107611981</v>
       </c>
       <c r="F29">
-        <v>1286.056153144039</v>
+        <v>1284.202751887138</v>
       </c>
       <c r="G29">
-        <v>11429.81301237059</v>
+        <v>6544.108823410917</v>
       </c>
       <c r="H29">
-        <v>0.7371443943785054</v>
+        <v>1.232451038235846</v>
       </c>
       <c r="I29">
-        <v>7.684391418316815</v>
+        <v>3.070903580511311</v>
       </c>
       <c r="J29">
-        <v>0.470132700575662</v>
+        <v>0.5158076794585972</v>
       </c>
       <c r="K29">
-        <v>1.474288788757011</v>
+        <v>2.464902076471692</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M29">
-        <v>1389.034030227386</v>
+        <v>1387.968151103328</v>
       </c>
       <c r="N29">
-        <v>10278.40472294057</v>
+        <v>4288.24041295102</v>
       </c>
       <c r="O29">
-        <v>1389.033980224886</v>
+        <v>1387.968201105828</v>
       </c>
       <c r="P29">
-        <v>17081.64902620588</v>
+        <v>10716.08898252449</v>
       </c>
       <c r="Q29">
-        <v>0.672319384006677</v>
+        <v>0.9486611454920683</v>
       </c>
       <c r="S29">
-        <v>8.970892710924938</v>
+        <v>5.224160489977261</v>
       </c>
       <c r="T29">
-        <v>0.4317248591278683</v>
+        <v>0.6046800429263728</v>
       </c>
       <c r="U29">
-        <v>1.344638768013354</v>
+        <v>1.897322290984137</v>
       </c>
       <c r="V29" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W29">
-        <v>1265.842884740152</v>
+        <v>1264.169825794848</v>
       </c>
       <c r="X29">
-        <v>1246.893996421347</v>
+        <v>688.0113623068596</v>
       </c>
       <c r="Y29">
-        <v>0.9084681023948954</v>
+        <v>1.795176201942702</v>
       </c>
       <c r="Z29">
-        <v>1410.326017844189</v>
+        <v>1409.401171573775</v>
       </c>
       <c r="AA29">
-        <v>1736.6048394565</v>
+        <v>1139.594175079548</v>
       </c>
       <c r="AB29">
-        <v>0.7940656552586433</v>
+        <v>1.539690337970563</v>
       </c>
       <c r="AC29">
-        <v>1370.735586024788</v>
+        <v>1370.117923801778</v>
       </c>
       <c r="AD29">
-        <v>275.7475409290297</v>
+        <v>110.2715841652379</v>
       </c>
       <c r="AE29">
-        <v>0.3358382745067406</v>
+        <v>0.4729114615839782</v>
       </c>
       <c r="AF29">
-        <v>1396.119077</v>
+        <v>1380.989295062785</v>
       </c>
       <c r="AG29">
-        <v>196.2199201388769</v>
+        <v>699.2347256520003</v>
       </c>
       <c r="AH29">
-        <v>16.79194460635872</v>
+        <v>16.78918953842297</v>
       </c>
       <c r="AI29">
-        <v>1278.901945000001</v>
+        <v>1277.224090306363</v>
       </c>
       <c r="AJ29">
-        <v>384.7466170792937</v>
+        <v>650.9233457981817</v>
       </c>
       <c r="AK29">
-        <v>18.39005003312502</v>
+        <v>22.19306128240339</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -3827,106 +3854,106 @@
         <v>64</v>
       </c>
       <c r="C30">
-        <v>102.9517312301637</v>
+        <v>104.8869039965366</v>
       </c>
       <c r="D30">
-        <v>1286.13694113832</v>
+        <v>1281.88898396768</v>
       </c>
       <c r="E30">
-        <v>4880.864939377054</v>
+        <v>30344.97036919736</v>
       </c>
       <c r="F30">
-        <v>1286.136991140821</v>
+        <v>1281.88893396518</v>
       </c>
       <c r="G30">
-        <v>8754.298798978883</v>
+        <v>89788.6574010637</v>
       </c>
       <c r="H30">
-        <v>0.7119205724895017</v>
+        <v>1.071560079680832</v>
       </c>
       <c r="I30">
-        <v>7.620966590734818</v>
+        <v>33.72870334064178</v>
       </c>
       <c r="J30">
-        <v>0.481236594474541</v>
+        <v>0.7380824308119787</v>
       </c>
       <c r="K30">
-        <v>1.423841144979003</v>
+        <v>2.143120159361664</v>
       </c>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M30">
-        <v>1389.088772373484</v>
+        <v>1386.775887964216</v>
       </c>
       <c r="N30">
-        <v>7895.554677111938</v>
+        <v>58204.49788822077</v>
       </c>
       <c r="O30">
-        <v>1389.088722370984</v>
+        <v>1386.775837961716</v>
       </c>
       <c r="P30">
-        <v>12715.93364043298</v>
+        <v>166760.4907190064</v>
       </c>
       <c r="Q30">
-        <v>0.6573766383892972</v>
+        <v>1.026379057519221</v>
       </c>
       <c r="S30">
-        <v>7.154896370191851</v>
+        <v>51.3165363647616</v>
       </c>
       <c r="T30">
-        <v>0.4067887988075729</v>
+        <v>0.7540990173063014</v>
       </c>
       <c r="U30">
-        <v>1.314753276778594</v>
+        <v>2.052758115038442</v>
       </c>
       <c r="V30" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W30">
-        <v>1265.913360802585</v>
+        <v>1261.789678525455</v>
       </c>
       <c r="X30">
-        <v>1004.009818126135</v>
+        <v>12373.03644799131</v>
       </c>
       <c r="Y30">
-        <v>0.8997473559472864</v>
+        <v>3.211848080449464</v>
       </c>
       <c r="Z30">
-        <v>1410.376278109027</v>
+        <v>1408.076529131255</v>
       </c>
       <c r="AA30">
-        <v>1321.298921688136</v>
+        <v>15668.63248275287</v>
       </c>
       <c r="AB30">
-        <v>0.7787836199710569</v>
+        <v>2.806281843469624</v>
       </c>
       <c r="AC30">
-        <v>1370.727486503318</v>
+        <v>1369.50154052463</v>
       </c>
       <c r="AD30">
-        <v>194.9153488120421</v>
+        <v>1406.849546857803</v>
       </c>
       <c r="AE30">
-        <v>0.3284684203334991</v>
+        <v>0.5123851862794118</v>
       </c>
       <c r="AF30">
-        <v>1382.121174590122</v>
+        <v>1385.824622057351</v>
       </c>
       <c r="AG30">
-        <v>20.28561274827608</v>
+        <v>16070.28108560348</v>
       </c>
       <c r="AH30">
-        <v>16.423420993503</v>
+        <v>15.47672596323223</v>
       </c>
       <c r="AI30">
-        <v>1292.901944999982</v>
+        <v>1283.975981615937</v>
       </c>
       <c r="AJ30">
-        <v>7.120004418272915</v>
+        <v>9617.14748195631</v>
       </c>
       <c r="AK30">
-        <v>17.77074719380226</v>
+        <v>11.82111473924176</v>
       </c>
     </row>
     <row r="31" spans="1:37">
@@ -3937,106 +3964,106 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>102.9201058322624</v>
+        <v>103.6686787992519</v>
       </c>
       <c r="D31">
-        <v>1286.225673026569</v>
+        <v>1284.419204221237</v>
       </c>
       <c r="E31">
-        <v>4276.063677608588</v>
+        <v>1863.78406376655</v>
       </c>
       <c r="F31">
-        <v>1286.225723029069</v>
+        <v>1284.419354228737</v>
       </c>
       <c r="G31">
-        <v>7352.665549202758</v>
+        <v>5683.659871329101</v>
       </c>
       <c r="H31">
-        <v>0.6900362904523285</v>
+        <v>1.20740417788755</v>
       </c>
       <c r="I31">
-        <v>6.796027890555336</v>
+        <v>3.085027558982585</v>
       </c>
       <c r="J31">
-        <v>0.4522643238313227</v>
+        <v>0.5022114838636096</v>
       </c>
       <c r="K31">
-        <v>1.380072580904657</v>
+        <v>2.414808355775101</v>
       </c>
       <c r="L31" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M31">
-        <v>1389.145878863831</v>
+        <v>1388.087983025489</v>
       </c>
       <c r="N31">
-        <v>6778.038312342091</v>
+        <v>3825.385058064409</v>
       </c>
       <c r="O31">
-        <v>1389.145828861331</v>
+        <v>1388.088033027989</v>
       </c>
       <c r="P31">
-        <v>10692.41353114571</v>
+        <v>9276.502857707475</v>
       </c>
       <c r="Q31">
-        <v>0.6507245377248818</v>
+        <v>0.9275671679860862</v>
       </c>
       <c r="S31">
-        <v>6.318684667963276</v>
+        <v>4.793840535429679</v>
       </c>
       <c r="T31">
-        <v>0.3781720739340909</v>
+        <v>0.5860221792069443</v>
       </c>
       <c r="U31">
-        <v>1.301449075449764</v>
+        <v>1.855134335972172</v>
       </c>
       <c r="V31" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W31">
-        <v>1266.012220685425</v>
+        <v>1264.351993097544</v>
       </c>
       <c r="X31">
-        <v>822.9437531175753</v>
+        <v>627.4920599160208</v>
       </c>
       <c r="Y31">
-        <v>0.8176790195646526</v>
+        <v>1.672794030590786</v>
       </c>
       <c r="Z31">
-        <v>1410.420052351176</v>
+        <v>1409.475365449026</v>
       </c>
       <c r="AA31">
-        <v>1112.995098369528</v>
+        <v>990.8925474586458</v>
       </c>
       <c r="AB31">
-        <v>0.7474967232060352</v>
+        <v>1.484494472555807</v>
       </c>
       <c r="AC31">
-        <v>1370.771565942439</v>
+        <v>1370.160381427655</v>
       </c>
       <c r="AD31">
-        <v>165.9718404391333</v>
+        <v>94.64203843752587</v>
       </c>
       <c r="AE31">
-        <v>0.3251527707529782</v>
+        <v>0.4625589205126273</v>
       </c>
       <c r="AF31">
-        <v>1382.120902424984</v>
+        <v>1381.093775130697</v>
       </c>
       <c r="AG31">
-        <v>11.203334364604</v>
+        <v>632.6325677506876</v>
       </c>
       <c r="AH31">
-        <v>16.2566173684777</v>
+        <v>16.29633108845969</v>
       </c>
       <c r="AI31">
-        <v>1279.445090009945</v>
+        <v>1277.444048314661</v>
       </c>
       <c r="AJ31">
-        <v>6.253349356432737</v>
+        <v>566.4176697320299</v>
       </c>
       <c r="AK31">
-        <v>17.22720967467096</v>
+        <v>21.97472477861527</v>
       </c>
     </row>
     <row r="32" spans="1:37">
@@ -4047,106 +4074,106 @@
         <v>66</v>
       </c>
       <c r="C32">
-        <v>102.8854299831903</v>
+        <v>103.6002095405497</v>
       </c>
       <c r="D32">
-        <v>1286.308006477239</v>
+        <v>1284.568850664178</v>
       </c>
       <c r="E32">
-        <v>3727.500910846343</v>
+        <v>2587.344592675719</v>
       </c>
       <c r="F32">
-        <v>1286.308056479739</v>
+        <v>1284.568900666678</v>
       </c>
       <c r="G32">
-        <v>6269.855989181294</v>
+        <v>7713.755945996163</v>
       </c>
       <c r="H32">
-        <v>0.6898690118132986</v>
+        <v>1.159981098997106</v>
       </c>
       <c r="I32">
-        <v>5.615981023572179</v>
+        <v>4.823697068805468</v>
       </c>
       <c r="J32">
-        <v>0.3938809530615164</v>
+        <v>0.5440112039977816</v>
       </c>
       <c r="K32">
-        <v>1.379738023626597</v>
+        <v>2.319962197994213</v>
       </c>
       <c r="L32" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M32">
-        <v>1389.193536465429</v>
+        <v>1388.169060204728</v>
       </c>
       <c r="N32">
-        <v>5897.783130739629</v>
+        <v>5244.855304071498</v>
       </c>
       <c r="O32">
-        <v>1389.193486462929</v>
+        <v>1388.169110207228</v>
       </c>
       <c r="P32">
-        <v>9076.280646150264</v>
+        <v>12488.02871090451</v>
       </c>
       <c r="Q32">
-        <v>0.6348045836664632</v>
+        <v>0.9063407559973753</v>
       </c>
       <c r="S32">
-        <v>5.933848843959689</v>
+        <v>6.872886185462067</v>
       </c>
       <c r="T32">
-        <v>0.3781923430795688</v>
+        <v>0.5961516812040966</v>
       </c>
       <c r="U32">
-        <v>1.269609167332926</v>
+        <v>1.812681511994751</v>
       </c>
       <c r="V32" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W32">
-        <v>1266.050169943227</v>
+        <v>1264.476061281091</v>
       </c>
       <c r="X32">
-        <v>689.7737327275809</v>
+        <v>872.9757824774965</v>
       </c>
       <c r="Y32">
-        <v>0.7478215325954155</v>
+        <v>1.724401656011446</v>
       </c>
       <c r="Z32">
-        <v>1410.465771700942</v>
+        <v>1409.568798980655</v>
       </c>
       <c r="AA32">
-        <v>943.4212836385675</v>
+        <v>1301.296988053558</v>
       </c>
       <c r="AB32">
-        <v>0.6789487638878358</v>
+        <v>1.344714827422448</v>
       </c>
       <c r="AC32">
-        <v>1370.785602082724</v>
+        <v>1370.164635765925</v>
       </c>
       <c r="AD32">
-        <v>139.3133061312157</v>
+        <v>136.3851572450569</v>
       </c>
       <c r="AE32">
-        <v>0.3171822059831914</v>
+        <v>0.451896627127527</v>
       </c>
       <c r="AF32">
-        <v>1382.119077000005</v>
+        <v>1381.170762442945</v>
       </c>
       <c r="AG32">
-        <v>10.25333374000057</v>
+        <v>735.9632755189069</v>
       </c>
       <c r="AH32">
-        <v>15.85912914315168</v>
+        <v>17.81701364939132</v>
       </c>
       <c r="AI32">
-        <v>1279.44497985662</v>
+        <v>1277.620015496916</v>
       </c>
       <c r="AJ32">
-        <v>5.600022118479783</v>
+        <v>646.8556401802144</v>
       </c>
       <c r="AK32">
-        <v>17.22948526366977</v>
+        <v>23.96573784981107</v>
       </c>
     </row>
     <row r="33" spans="1:37">
@@ -4157,106 +4184,106 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>102.8590170419791</v>
+        <v>103.5464850966277</v>
       </c>
       <c r="D33">
-        <v>1286.380075624781</v>
+        <v>1284.689885140539</v>
       </c>
       <c r="E33">
-        <v>3191.837944355362</v>
+        <v>2484.121411251549</v>
       </c>
       <c r="F33">
-        <v>1286.380125627281</v>
+        <v>1284.68993514304</v>
       </c>
       <c r="G33">
-        <v>5161.486578388471</v>
+        <v>7246.119582790743</v>
       </c>
       <c r="H33">
-        <v>0.6689687264553462</v>
+        <v>1.124020945123535</v>
       </c>
       <c r="I33">
-        <v>5.578115627367116</v>
+        <v>4.916827846798595</v>
       </c>
       <c r="J33">
-        <v>0.3703896493526472</v>
+        <v>0.5659753910538213</v>
       </c>
       <c r="K33">
-        <v>1.337937452910692</v>
+        <v>2.248041890247071</v>
       </c>
       <c r="L33" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M33">
-        <v>1389.23919267176</v>
+        <v>1388.236370237167</v>
       </c>
       <c r="N33">
-        <v>4929.039494385561</v>
+        <v>4936.609545258702</v>
       </c>
       <c r="O33">
-        <v>1389.23914266926</v>
+        <v>1388.236420239667</v>
       </c>
       <c r="P33">
-        <v>7400.29527310088</v>
+        <v>11468.06506391746</v>
       </c>
       <c r="Q33">
-        <v>0.6218595280494015</v>
+        <v>0.8871608760084485</v>
       </c>
       <c r="S33">
-        <v>5.415742475391156</v>
+        <v>6.566839477060362</v>
       </c>
       <c r="T33">
-        <v>0.3669497731954237</v>
+        <v>0.5885017669673103</v>
       </c>
       <c r="U33">
-        <v>1.243719056098803</v>
+        <v>1.774321752016897</v>
       </c>
       <c r="V33" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W33">
-        <v>1266.150433660718</v>
+        <v>1264.589265668498</v>
       </c>
       <c r="X33">
-        <v>553.2750442884827</v>
+        <v>800.3944085318059</v>
       </c>
       <c r="Y33">
-        <v>0.7689519046960385</v>
+        <v>1.652638584078672</v>
       </c>
       <c r="Z33">
-        <v>1410.505932154398</v>
+        <v>1409.625549787995</v>
       </c>
       <c r="AA33">
-        <v>756.3121678953495</v>
+        <v>1161.898950245855</v>
       </c>
       <c r="AB33">
-        <v>0.66522100977471</v>
+        <v>1.336712568174963</v>
       </c>
       <c r="AC33">
-        <v>1370.783112449868</v>
+        <v>1370.22308194137</v>
       </c>
       <c r="AD33">
-        <v>103.9005505417787</v>
+        <v>125.5735411319723</v>
       </c>
       <c r="AE33">
-        <v>0.3106845437777322</v>
+        <v>0.4421302032462742</v>
       </c>
       <c r="AF33">
-        <v>1396.116962891107</v>
+        <v>1381.225749958197</v>
       </c>
       <c r="AG33">
-        <v>8.619998780000476</v>
+        <v>819.4106590861859</v>
       </c>
       <c r="AH33">
-        <v>15.53422757931473</v>
+        <v>19.84622969708363</v>
       </c>
       <c r="AI33">
-        <v>1279.445096068898</v>
+        <v>1277.751989570106</v>
       </c>
       <c r="AJ33">
-        <v>4.833332606993885</v>
+        <v>473.1153813598737</v>
       </c>
       <c r="AK33">
-        <v>16.71188380813327</v>
+        <v>24.40160415849331</v>
       </c>
     </row>
     <row r="34" spans="1:37">
@@ -4267,106 +4294,106 @@
         <v>68</v>
       </c>
       <c r="C34">
-        <v>102.8338165893065</v>
+        <v>103.5036430117357</v>
       </c>
       <c r="D34">
-        <v>1286.448205665505</v>
+        <v>1284.813735486029</v>
       </c>
       <c r="E34">
-        <v>2445.849373265708</v>
+        <v>2387.18566879993</v>
       </c>
       <c r="F34">
-        <v>1286.448255668005</v>
+        <v>1284.813785488529</v>
       </c>
       <c r="G34">
-        <v>3865.921585662829</v>
+        <v>6757.558951075349</v>
       </c>
       <c r="H34">
-        <v>0.6591759055699453</v>
+        <v>1.106077286251551</v>
       </c>
       <c r="I34">
-        <v>4.559010700980821</v>
+        <v>4.693074692115034</v>
       </c>
       <c r="J34">
-        <v>0.3482363314495657</v>
+        <v>0.5327604077072412</v>
       </c>
       <c r="K34">
-        <v>1.318351811139891</v>
+        <v>2.212154572503102</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M34">
-        <v>1389.282122259811</v>
+        <v>1388.317378497765</v>
       </c>
       <c r="N34">
-        <v>3853.179047479916</v>
+        <v>4772.513702266256</v>
       </c>
       <c r="O34">
-        <v>1389.282072257311</v>
+        <v>1388.317428500265</v>
       </c>
       <c r="P34">
-        <v>5630.961063918982</v>
+        <v>10829.2072182956</v>
       </c>
       <c r="Q34">
-        <v>0.6106283387420011</v>
+        <v>0.8647386188322956</v>
       </c>
       <c r="S34">
-        <v>4.764390425196085</v>
+        <v>6.409255013916015</v>
       </c>
       <c r="T34">
-        <v>0.3428492275747959</v>
+        <v>0.5926355724981466</v>
       </c>
       <c r="U34">
-        <v>1.221256677484002</v>
+        <v>1.729477237664591</v>
       </c>
       <c r="V34" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W34">
-        <v>1266.172671364876</v>
+        <v>1264.73862389215</v>
       </c>
       <c r="X34">
-        <v>419.9677889438083</v>
+        <v>748.8205112125271</v>
       </c>
       <c r="Y34">
-        <v>0.777513495724005</v>
+        <v>1.537981331972126</v>
       </c>
       <c r="Z34">
-        <v>1410.546931055624</v>
+        <v>1409.69342464153</v>
       </c>
       <c r="AA34">
-        <v>576.4665824153245</v>
+        <v>1119.946060209338</v>
       </c>
       <c r="AB34">
-        <v>0.6679107421381298</v>
+        <v>1.243741839602711</v>
       </c>
       <c r="AC34">
-        <v>1371.159828375979</v>
+        <v>1370.227128223714</v>
       </c>
       <c r="AD34">
-        <v>70.90246736274494</v>
+        <v>126.4507134763251</v>
       </c>
       <c r="AE34">
-        <v>0.3050332142220565</v>
+        <v>0.4308815649794522</v>
       </c>
       <c r="AF34">
-        <v>1382.120449340416</v>
+        <v>1381.34122792445</v>
       </c>
       <c r="AG34">
-        <v>6.196667480000345</v>
+        <v>686.3988061242685</v>
       </c>
       <c r="AH34">
-        <v>15.25166069809998</v>
+        <v>20.02303507166572</v>
       </c>
       <c r="AI34">
-        <v>1279.445858052896</v>
+        <v>1277.850970688454</v>
       </c>
       <c r="AJ34">
-        <v>3.67333379950467</v>
+        <v>589.7649148926747</v>
       </c>
       <c r="AK34">
-        <v>16.46849631843933</v>
+        <v>24.08815641256744</v>
       </c>
     </row>
     <row r="35" spans="1:37">
@@ -4377,106 +4404,106 @@
         <v>69</v>
       </c>
       <c r="C35">
-        <v>102.8110841914222</v>
+        <v>103.4549138047933</v>
       </c>
       <c r="D35">
-        <v>1286.490977577995</v>
+        <v>1284.906052347641</v>
       </c>
       <c r="E35">
-        <v>2228.41576859143</v>
+        <v>2317.022468697301</v>
       </c>
       <c r="F35">
-        <v>1286.491027580495</v>
+        <v>1284.906102350142</v>
       </c>
       <c r="G35">
-        <v>3461.098311337068</v>
+        <v>6407.220917510692</v>
       </c>
       <c r="H35">
-        <v>0.6522441030148802</v>
+        <v>1.069240187591114</v>
       </c>
       <c r="I35">
-        <v>4.211602874116543</v>
+        <v>4.411185219571361</v>
       </c>
       <c r="J35">
-        <v>0.3290163860932134</v>
+        <v>0.5565687640926278</v>
       </c>
       <c r="K35">
-        <v>1.30448820602976</v>
+        <v>2.138480375182227</v>
       </c>
       <c r="L35" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M35">
-        <v>1389.302161774418</v>
+        <v>1388.361066157435</v>
       </c>
       <c r="N35">
-        <v>3451.364082280798</v>
+        <v>4555.945994539681</v>
       </c>
       <c r="O35">
-        <v>1389.302111771918</v>
+        <v>1388.361016154935</v>
       </c>
       <c r="P35">
-        <v>4982.040101507151</v>
+        <v>10101.52524298864</v>
       </c>
       <c r="Q35">
-        <v>0.6105904182745104</v>
+        <v>0.8484714951804135</v>
       </c>
       <c r="S35">
-        <v>4.674761845100245</v>
+        <v>5.818563938973529</v>
       </c>
       <c r="T35">
-        <v>0.3088247181489878</v>
+        <v>0.5818622499289088</v>
       </c>
       <c r="U35">
-        <v>1.221180836549021</v>
+        <v>1.696942990360827</v>
       </c>
       <c r="V35" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W35">
-        <v>1266.233391876545</v>
+        <v>1264.771934937419</v>
       </c>
       <c r="X35">
-        <v>357.7276378028539</v>
+        <v>693.8170562828824</v>
       </c>
       <c r="Y35">
-        <v>0.7681720024547188</v>
+        <v>1.51649389688001</v>
       </c>
       <c r="Z35">
-        <v>1410.568755898676</v>
+        <v>1409.748541293328</v>
       </c>
       <c r="AA35">
-        <v>506.5108426942785</v>
+        <v>979.1532352745446</v>
       </c>
       <c r="AB35">
-        <v>0.6160326169810547</v>
+        <v>1.219471960794525</v>
       </c>
       <c r="AC35">
-        <v>1371.128589357341</v>
+        <v>1370.27212942836</v>
       </c>
       <c r="AD35">
-        <v>67.32370852901298</v>
+        <v>113.7480292353035</v>
       </c>
       <c r="AE35">
-        <v>0.3049854306227022</v>
+        <v>0.4228940205269316</v>
       </c>
       <c r="AF35">
-        <v>1396.11799758512</v>
+        <v>1386.570946935889</v>
       </c>
       <c r="AG35">
-        <v>6.12666626000034</v>
+        <v>626.2844477769193</v>
       </c>
       <c r="AH35">
-        <v>15.24919570715149</v>
+        <v>21.14470102632609</v>
       </c>
       <c r="AI35">
-        <v>1279.444981804551</v>
+        <v>1277.938953902277</v>
       </c>
       <c r="AJ35">
-        <v>3.333333816131361</v>
+        <v>443.7977524381774</v>
       </c>
       <c r="AK35">
-        <v>16.29407045902035</v>
+        <v>26.40635342873286</v>
       </c>
     </row>
     <row r="36" spans="1:37">
@@ -4487,106 +4514,106 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>102.8075042072476</v>
+        <v>103.4264136553779</v>
       </c>
       <c r="D36">
-        <v>1286.514197598258</v>
+        <v>1284.979647685658</v>
       </c>
       <c r="E36">
-        <v>2008.591986688632</v>
+        <v>2301.218984789965</v>
       </c>
       <c r="F36">
-        <v>1286.514247600758</v>
+        <v>1284.979697688158</v>
       </c>
       <c r="G36">
-        <v>3120.473594656498</v>
+        <v>6257.271369822258</v>
       </c>
       <c r="H36">
-        <v>0.6526990539941446</v>
+        <v>1.035971544916757</v>
       </c>
       <c r="I36">
-        <v>4.196669963587999</v>
+        <v>4.747575397690785</v>
       </c>
       <c r="J36">
-        <v>0.3277968897657226</v>
+        <v>0.5923143883383505</v>
       </c>
       <c r="K36">
-        <v>1.305398107988289</v>
+        <v>2.071943089833514</v>
       </c>
       <c r="L36" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M36">
-        <v>1389.321801810505</v>
+        <v>1388.406061341036</v>
       </c>
       <c r="N36">
-        <v>3155.778911161713</v>
+        <v>4436.632004900474</v>
       </c>
       <c r="O36">
-        <v>1389.321751808005</v>
+        <v>1388.406111343536</v>
       </c>
       <c r="P36">
-        <v>4511.66046462818</v>
+        <v>9758.547819725121</v>
       </c>
       <c r="Q36">
-        <v>0.6017540082748903</v>
+        <v>0.8376493030111238</v>
       </c>
       <c r="S36">
-        <v>4.438890621824635</v>
+        <v>5.37304030883413</v>
       </c>
       <c r="T36">
-        <v>0.3225779303567671</v>
+        <v>0.5915667311475359</v>
       </c>
       <c r="U36">
-        <v>1.203508016549781</v>
+        <v>1.675298606022248</v>
       </c>
       <c r="V36" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W36">
-        <v>1266.227374380534</v>
+        <v>1264.824124484157</v>
       </c>
       <c r="X36">
-        <v>330.9096461285633</v>
+        <v>701.1215007377195</v>
       </c>
       <c r="Y36">
-        <v>0.7480923642856689</v>
+        <v>1.518641956230207</v>
       </c>
       <c r="Z36">
-        <v>1410.56746530443</v>
+        <v>1409.78992642674</v>
       </c>
       <c r="AA36">
-        <v>458.854970912398</v>
+        <v>1023.152416249419</v>
       </c>
       <c r="AB36">
-        <v>0.6470889352300813</v>
+        <v>1.196829067746888</v>
       </c>
       <c r="AC36">
-        <v>1370.782342391796</v>
+        <v>1370.279422467228</v>
       </c>
       <c r="AD36">
-        <v>65.88932700673864</v>
+        <v>117.191301580968</v>
       </c>
       <c r="AE36">
-        <v>0.300549641238313</v>
+        <v>0.4177887096057282</v>
       </c>
       <c r="AF36">
-        <v>1382.119622428399</v>
+        <v>1381.434710117814</v>
       </c>
       <c r="AG36">
-        <v>5.356666870000296</v>
+        <v>334.380093219423</v>
       </c>
       <c r="AH36">
-        <v>15.02748205064961</v>
+        <v>17.57350785891067</v>
       </c>
       <c r="AI36">
-        <v>1279.444981039317</v>
+        <v>1278.032436336984</v>
       </c>
       <c r="AJ36">
-        <v>3.126666388497675</v>
+        <v>332.961564371319</v>
       </c>
       <c r="AK36">
-        <v>16.30426526223649</v>
+        <v>25.80460029687352</v>
       </c>
     </row>
     <row r="37" spans="1:37">
@@ -4597,106 +4624,106 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>104.7004289180413</v>
+        <v>103.3934871415552</v>
       </c>
       <c r="D37">
-        <v>1282.221577346379</v>
+        <v>1285.059602359529</v>
       </c>
       <c r="E37">
-        <v>28888.88482259032</v>
+        <v>2320.016709570364</v>
       </c>
       <c r="F37">
-        <v>1282.221527343879</v>
+        <v>1285.059652362029</v>
       </c>
       <c r="G37">
-        <v>85184.42244959122</v>
+        <v>6079.994036340913</v>
       </c>
       <c r="H37">
-        <v>1.076144893163628</v>
+        <v>1.00095383806171</v>
       </c>
       <c r="I37">
-        <v>31.22277185578257</v>
+        <v>4.42137511029693</v>
       </c>
       <c r="J37">
-        <v>0.7155615577171208</v>
+        <v>0.5873791004930404</v>
       </c>
       <c r="K37">
-        <v>2.152289786327256</v>
+        <v>2.001907676123419</v>
       </c>
       <c r="L37" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M37">
-        <v>1386.92190625942</v>
+        <v>1388.453089501084</v>
       </c>
       <c r="N37">
-        <v>55484.20559463879</v>
+        <v>4437.965503937607</v>
       </c>
       <c r="O37">
-        <v>1386.92195626192</v>
+        <v>1388.453139503584</v>
       </c>
       <c r="P37">
-        <v>154776.6529314106</v>
+        <v>9451.059565062935</v>
       </c>
       <c r="Q37">
-        <v>1.010725350349976</v>
+        <v>0.8127741832685066</v>
       </c>
       <c r="S37">
-        <v>50.03938711938206</v>
+        <v>5.25439317567578</v>
       </c>
       <c r="T37">
-        <v>0.7260950601728978</v>
+        <v>0.5874775982220963</v>
       </c>
       <c r="U37">
-        <v>2.021450700699952</v>
+        <v>1.625548366537013</v>
       </c>
       <c r="V37" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W37">
-        <v>1262.142145111771</v>
+        <v>1264.970545608727</v>
       </c>
       <c r="X37">
-        <v>11934.28750450955</v>
+        <v>664.3466803086822</v>
       </c>
       <c r="Y37">
-        <v>3.118486946920876</v>
+        <v>1.437417514469588</v>
       </c>
       <c r="Z37">
-        <v>1408.253034963609</v>
+        <v>1409.844973153462</v>
       </c>
       <c r="AA37">
-        <v>15421.84308342249</v>
+        <v>973.1050792901095</v>
       </c>
       <c r="AB37">
-        <v>2.531309985642983</v>
+        <v>1.160486543171273</v>
       </c>
       <c r="AC37">
-        <v>1369.563853440941</v>
+        <v>1370.30715631886</v>
       </c>
       <c r="AD37">
-        <v>1760.743005897873</v>
+        <v>112.9843929629609</v>
       </c>
       <c r="AE37">
-        <v>0.5046521859018207</v>
+        <v>0.4053832916543232</v>
       </c>
       <c r="AF37">
-        <v>1385.175223951751</v>
+        <v>1382.456536895659</v>
       </c>
       <c r="AG37">
-        <v>13496.0543720908</v>
+        <v>507.1831674030868</v>
       </c>
       <c r="AH37">
-        <v>14.68746555472989</v>
+        <v>20.26917763127235</v>
       </c>
       <c r="AI37">
-        <v>1285.107538345368</v>
+        <v>1278.065429940767</v>
       </c>
       <c r="AJ37">
-        <v>7979.797124018946</v>
+        <v>410.8540534100853</v>
       </c>
       <c r="AK37">
-        <v>12.15037708825382</v>
+        <v>24.92442985284027</v>
       </c>
     </row>
     <row r="38" spans="1:37">
@@ -4707,106 +4734,106 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>102.8041573898013</v>
+        <v>103.3653450308127</v>
       </c>
       <c r="D38">
-        <v>1286.536037239331</v>
+        <v>1285.121607778928</v>
       </c>
       <c r="E38">
-        <v>1864.21626221163</v>
+        <v>2577.309433460181</v>
       </c>
       <c r="F38">
-        <v>1286.535987236831</v>
+        <v>1285.121657781428</v>
       </c>
       <c r="G38">
-        <v>2805.80585536656</v>
+        <v>6611.029543788128</v>
       </c>
       <c r="H38">
-        <v>0.6443905701359554</v>
+        <v>0.9886398032740831</v>
       </c>
       <c r="I38">
-        <v>4.572264110166127</v>
+        <v>5.009437803892438</v>
       </c>
       <c r="J38">
-        <v>0.2761298155741316</v>
+        <v>0.5657096431932002</v>
       </c>
       <c r="K38">
-        <v>1.288781140271911</v>
+        <v>1.977279606548166</v>
       </c>
       <c r="L38" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M38">
-        <v>1389.340194629132</v>
+        <v>1388.487052814741</v>
       </c>
       <c r="N38">
-        <v>2911.65341997928</v>
+        <v>4875.050726480654</v>
       </c>
       <c r="O38">
-        <v>1389.340144626632</v>
+        <v>1388.48700281224</v>
       </c>
       <c r="P38">
-        <v>4092.088087153763</v>
+        <v>10240.09448545346</v>
       </c>
       <c r="Q38">
-        <v>0.5958840537605428</v>
+        <v>0.811461160791167</v>
       </c>
       <c r="S38">
-        <v>3.652383889604005</v>
+        <v>8.359325290361502</v>
       </c>
       <c r="T38">
-        <v>0.3022150211222959</v>
+        <v>0.5623211121181472</v>
       </c>
       <c r="U38">
-        <v>1.191768107521086</v>
+        <v>1.622922321582334</v>
       </c>
       <c r="V38" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W38">
-        <v>1266.274262793931</v>
+        <v>1265.008457672229</v>
       </c>
       <c r="X38">
-        <v>290.1826378859476</v>
+        <v>713.4793366511796</v>
       </c>
       <c r="Y38">
-        <v>0.6932131757338631</v>
+        <v>1.353350201568779</v>
       </c>
       <c r="Z38">
-        <v>1410.586550041261</v>
+        <v>1409.840282045629</v>
       </c>
       <c r="AA38">
-        <v>415.6779355957534</v>
+        <v>873.1235825683733</v>
       </c>
       <c r="AB38">
-        <v>0.6314739348313108</v>
+        <v>1.123667559617284</v>
       </c>
       <c r="AC38">
-        <v>1371.162376821077</v>
+        <v>1370.317563097189</v>
       </c>
       <c r="AD38">
-        <v>53.34811228622734</v>
+        <v>123.199924293134</v>
       </c>
       <c r="AE38">
-        <v>0.2976166186988701</v>
+        <v>0.4044258447923172</v>
       </c>
       <c r="AF38">
-        <v>1382.119077000002</v>
+        <v>1395.511693405365</v>
       </c>
       <c r="AG38">
-        <v>5.026667592838352</v>
+        <v>1121.148769576718</v>
       </c>
       <c r="AH38">
-        <v>14.88084709068712</v>
+        <v>19.58096258070296</v>
       </c>
       <c r="AI38">
-        <v>1293.444961899724</v>
+        <v>1278.153413107706</v>
       </c>
       <c r="AJ38">
-        <v>40.02861142676898</v>
+        <v>533.6421921191768</v>
       </c>
       <c r="AK38">
-        <v>16.09448492858293</v>
+        <v>24.61026968639148</v>
       </c>
     </row>
     <row r="39" spans="1:37">
@@ -4817,106 +4844,106 @@
         <v>73</v>
       </c>
       <c r="C39">
-        <v>102.7772980277077</v>
+        <v>103.2706858764866</v>
       </c>
       <c r="D39">
-        <v>1286.565538741665</v>
+        <v>1285.368063316012</v>
       </c>
       <c r="E39">
-        <v>1581.734198363921</v>
+        <v>2444.68440544826</v>
       </c>
       <c r="F39">
-        <v>1286.565588744166</v>
+        <v>1285.368113318512</v>
       </c>
       <c r="G39">
-        <v>2340.474289678514</v>
+        <v>5773.603324942576</v>
       </c>
       <c r="H39">
-        <v>0.6313526448445822</v>
+        <v>0.9100597352447799</v>
       </c>
       <c r="I39">
-        <v>3.403427528495969</v>
+        <v>4.014740506574428</v>
       </c>
       <c r="J39">
-        <v>0.2845275393582902</v>
+        <v>0.564868899689175</v>
       </c>
       <c r="K39">
-        <v>1.262705289689164</v>
+        <v>1.82011947048956</v>
       </c>
       <c r="L39" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M39">
-        <v>1389.342936774373</v>
+        <v>1388.638749192499</v>
       </c>
       <c r="N39">
-        <v>2494.602971911796</v>
+        <v>4532.33209970401</v>
       </c>
       <c r="O39">
-        <v>1389.342886771873</v>
+        <v>1388.638799194999</v>
       </c>
       <c r="P39">
-        <v>3471.079594839147</v>
+        <v>8945.794068828476</v>
       </c>
       <c r="Q39">
-        <v>0.5871298123345228</v>
+        <v>0.7612706967903952</v>
       </c>
       <c r="S39">
-        <v>4.073670713623217</v>
+        <v>4.557791734217941</v>
       </c>
       <c r="T39">
-        <v>0.3156454534748287</v>
+        <v>0.5581372715066968</v>
       </c>
       <c r="U39">
-        <v>1.174259624669046</v>
+        <v>1.52254139358079</v>
       </c>
       <c r="V39" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W39">
-        <v>1266.289376286768</v>
+        <v>1265.250863419445</v>
       </c>
       <c r="X39">
-        <v>246.3902675439768</v>
+        <v>637.7046619496618</v>
       </c>
       <c r="Y39">
-        <v>0.6813216698190496</v>
+        <v>1.231477254633284</v>
       </c>
       <c r="Z39">
-        <v>1410.61722488529</v>
+        <v>1410.001642367023</v>
       </c>
       <c r="AA39">
-        <v>356.0254536565564</v>
+        <v>912.8154504653705</v>
       </c>
       <c r="AB39">
-        <v>0.6224747478751782</v>
+        <v>1.023978765875475</v>
       </c>
       <c r="AC39">
-        <v>1370.817552786659</v>
+        <v>1370.608447491772</v>
       </c>
       <c r="AD39">
-        <v>42.72582970239899</v>
+        <v>112.5074865910169</v>
       </c>
       <c r="AE39">
-        <v>0.2932209698957793</v>
+        <v>0.3800761854158665</v>
       </c>
       <c r="AF39">
-        <v>1396.113622160508</v>
+        <v>1381.627173379276</v>
       </c>
       <c r="AG39">
-        <v>3.946666260000218</v>
+        <v>256.6045818404871</v>
       </c>
       <c r="AH39">
-        <v>14.66104097581828</v>
+        <v>19.00380927124982</v>
       </c>
       <c r="AI39">
-        <v>1279.449471687941</v>
+        <v>1278.373371136764</v>
       </c>
       <c r="AJ39">
-        <v>2.653332520150231</v>
+        <v>397.8567534142143</v>
       </c>
       <c r="AK39">
-        <v>15.77115189747072</v>
+        <v>22.67839292154276</v>
       </c>
     </row>
     <row r="40" spans="1:37">
@@ -4927,106 +4954,106 @@
         <v>74</v>
       </c>
       <c r="C40">
-        <v>102.7814299657118</v>
+        <v>103.190267035498</v>
       </c>
       <c r="D40">
-        <v>1286.584313955587</v>
+        <v>1285.554143470918</v>
       </c>
       <c r="E40">
-        <v>1309.027618860953</v>
+        <v>2256.799332447186</v>
       </c>
       <c r="F40">
-        <v>1286.584363958087</v>
+        <v>1285.554193473418</v>
       </c>
       <c r="G40">
-        <v>1939.330901301068</v>
+        <v>4968.814693974725</v>
       </c>
       <c r="H40">
-        <v>0.6384207603827642</v>
+        <v>0.8452534925794426</v>
       </c>
       <c r="I40">
-        <v>2.840921951064214</v>
+        <v>3.407822082812298</v>
       </c>
       <c r="J40">
-        <v>0.2563989713216122</v>
+        <v>0.5713729867302924</v>
       </c>
       <c r="K40">
-        <v>1.276841520765528</v>
+        <v>1.690506985158885</v>
       </c>
       <c r="L40" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M40">
-        <v>1389.365743921299</v>
+        <v>1388.744410506416</v>
       </c>
       <c r="N40">
-        <v>2062.215179054886</v>
+        <v>4068.874044090699</v>
       </c>
       <c r="O40">
-        <v>1389.365793923799</v>
+        <v>1388.744460508916</v>
       </c>
       <c r="P40">
-        <v>2831.537411567966</v>
+        <v>7658.369554243225</v>
       </c>
       <c r="Q40">
-        <v>0.591043601603349</v>
+        <v>0.7353593491980106</v>
       </c>
       <c r="S40">
-        <v>3.074616863006815</v>
+        <v>3.758732623878435</v>
       </c>
       <c r="T40">
-        <v>0.2594705169431644</v>
+        <v>0.5252358665319007</v>
       </c>
       <c r="U40">
-        <v>1.182087203206698</v>
+        <v>1.470718698396021</v>
       </c>
       <c r="V40" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W40">
-        <v>1266.315491507538</v>
+        <v>1265.418364143182</v>
       </c>
       <c r="X40">
-        <v>184.3684675424693</v>
+        <v>573.2917037777053</v>
       </c>
       <c r="Y40">
-        <v>0.7157102264069303</v>
+        <v>1.139806637561621</v>
       </c>
       <c r="Z40">
-        <v>1410.613962935655</v>
+        <v>1410.075319307973</v>
       </c>
       <c r="AA40">
-        <v>267.9041549672066</v>
+        <v>764.8602887651674</v>
       </c>
       <c r="AB40">
-        <v>0.6185559475955387</v>
+        <v>0.9505628081246144</v>
       </c>
       <c r="AC40">
-        <v>1371.172102301153</v>
+        <v>1370.657163345793</v>
       </c>
       <c r="AD40">
-        <v>36.84204360649814</v>
+        <v>97.71619116996071</v>
       </c>
       <c r="AE40">
-        <v>0.2952039641616174</v>
+        <v>0.3669422766826553</v>
       </c>
       <c r="AF40">
-        <v>1382.119079556352</v>
+        <v>1381.715156590246</v>
       </c>
       <c r="AG40">
-        <v>3.400000823292813</v>
+        <v>234.9730647529624</v>
       </c>
       <c r="AH40">
-        <v>14.76038638329571</v>
+        <v>18.3471138341335</v>
       </c>
       <c r="AI40">
-        <v>1279.453584866531</v>
+        <v>1278.538339549335</v>
       </c>
       <c r="AJ40">
-        <v>2.100000000127288</v>
+        <v>201.2409151540676</v>
       </c>
       <c r="AK40">
-        <v>15.94836704426885</v>
+        <v>21.07078351720997</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5037,106 +5064,106 @@
         <v>75</v>
       </c>
       <c r="C41">
-        <v>102.7713630128001</v>
+        <v>104.8019646477333</v>
       </c>
       <c r="D41">
-        <v>1286.598047061739</v>
+        <v>1282.036831582717</v>
       </c>
       <c r="E41">
-        <v>1088.29038940387</v>
+        <v>29839.52666552997</v>
       </c>
       <c r="F41">
-        <v>1286.598097064239</v>
+        <v>1282.036781580217</v>
       </c>
       <c r="G41">
-        <v>1595.695693122233</v>
+        <v>87994.28362758414</v>
       </c>
       <c r="H41">
-        <v>0.6327018585203881</v>
+        <v>1.073462042652062</v>
       </c>
       <c r="I41">
-        <v>2.7767349554246</v>
+        <v>33.33675247290157</v>
       </c>
       <c r="J41">
-        <v>0.2525518324699323</v>
+        <v>0.7246475677496548</v>
       </c>
       <c r="K41">
-        <v>1.265403717040776</v>
+        <v>2.146924085304124</v>
       </c>
       <c r="L41" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M41">
-        <v>1389.369410074539</v>
+        <v>1386.838796230451</v>
       </c>
       <c r="N41">
-        <v>1731.064010375523</v>
+        <v>57195.73517083893</v>
       </c>
       <c r="O41">
-        <v>1389.36946007704</v>
+        <v>1386.838746227951</v>
       </c>
       <c r="P41">
-        <v>2380.998023309453</v>
+        <v>162080.4153447335</v>
       </c>
       <c r="Q41">
-        <v>0.5960576550540331</v>
+        <v>1.021369611475177</v>
       </c>
       <c r="S41">
-        <v>2.800307501932169</v>
+        <v>50.85913613438368</v>
       </c>
       <c r="T41">
-        <v>0.2403606769352382</v>
+        <v>0.7388612630793863</v>
       </c>
       <c r="U41">
-        <v>1.192115310108066</v>
+        <v>2.042739222950354</v>
       </c>
       <c r="V41" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W41">
-        <v>1266.305741344682</v>
+        <v>1261.972486661804</v>
       </c>
       <c r="X41">
-        <v>159.1986387917409</v>
+        <v>12483.71445374294</v>
       </c>
       <c r="Y41">
-        <v>0.6917427346638879</v>
+        <v>3.218432048897224</v>
       </c>
       <c r="Z41">
-        <v>1410.597254417221</v>
+        <v>1408.168189401973</v>
       </c>
       <c r="AA41">
-        <v>229.067765893573</v>
+        <v>15442.34773452063</v>
       </c>
       <c r="AB41">
-        <v>0.609448961607238</v>
+        <v>2.668594053917504</v>
       </c>
       <c r="AC41">
-        <v>1371.193229171281</v>
+        <v>1369.512593367514</v>
       </c>
       <c r="AD41">
-        <v>34.81139961736299</v>
+        <v>1427.546502396114</v>
       </c>
       <c r="AE41">
-        <v>0.2977016225702679</v>
+        <v>0.5098599125551596</v>
       </c>
       <c r="AF41">
-        <v>1382.120176321703</v>
+        <v>1385.730277783611</v>
       </c>
       <c r="AG41">
-        <v>2.927999278118991</v>
+        <v>15028.45273021941</v>
       </c>
       <c r="AH41">
-        <v>14.88530188569118</v>
+        <v>15.54843975484095</v>
       </c>
       <c r="AI41">
-        <v>1279.455160290193</v>
+        <v>1284.706489251985</v>
       </c>
       <c r="AJ41">
-        <v>1.812000778114376</v>
+        <v>8747.136491618701</v>
       </c>
       <c r="AK41">
-        <v>15.80374757812237</v>
+        <v>11.37558356920859</v>
       </c>
     </row>
     <row r="42" spans="1:37">
@@ -5147,106 +5174,106 @@
         <v>76</v>
       </c>
       <c r="C42">
-        <v>102.7691037500408</v>
+        <v>103.1251660989062</v>
       </c>
       <c r="D42">
-        <v>1286.609804851031</v>
+        <v>1285.703730871225</v>
       </c>
       <c r="E42">
-        <v>1026.906137252054</v>
+        <v>2055.781716329672</v>
       </c>
       <c r="F42">
-        <v>1286.609854853531</v>
+        <v>1285.703780873725</v>
       </c>
       <c r="G42">
-        <v>1488.015855810035</v>
+        <v>4352.818233490173</v>
       </c>
       <c r="H42">
-        <v>0.6246425480541482</v>
+        <v>0.8213093004937184</v>
       </c>
       <c r="I42">
-        <v>2.530436912805568</v>
+        <v>3.479891566756262</v>
       </c>
       <c r="J42">
-        <v>0.2554523864913004</v>
+        <v>0.5434252902821561</v>
       </c>
       <c r="K42">
-        <v>1.249285096108296</v>
+        <v>1.642618600987437</v>
       </c>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M42">
-        <v>1389.379008606072</v>
+        <v>1388.828896970132</v>
       </c>
       <c r="N42">
-        <v>1589.970741305743</v>
+        <v>3708.140202077215</v>
       </c>
       <c r="O42">
-        <v>1389.378958603572</v>
+        <v>1388.828946972632</v>
       </c>
       <c r="P42">
-        <v>2172.384287652435</v>
+        <v>6737.752330889564</v>
       </c>
       <c r="Q42">
-        <v>0.59104226827923</v>
+        <v>0.7110805521300805</v>
       </c>
       <c r="S42">
-        <v>2.523511586158062</v>
+        <v>3.486923818221589</v>
       </c>
       <c r="T42">
-        <v>0.2453919591285689</v>
+        <v>0.5187993508446761</v>
       </c>
       <c r="U42">
-        <v>1.18208453655846</v>
+        <v>1.422161104260161</v>
       </c>
       <c r="V42" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W42">
-        <v>1266.332228406541</v>
+        <v>1265.548554350362</v>
       </c>
       <c r="X42">
-        <v>146.343121031107</v>
+        <v>493.5230993049665</v>
       </c>
       <c r="Y42">
-        <v>0.6112649509350156</v>
+        <v>1.118561095754606</v>
       </c>
       <c r="Z42">
-        <v>1410.623366061842</v>
+        <v>1410.087901379334</v>
       </c>
       <c r="AA42">
-        <v>191.9088666934915</v>
+        <v>666.436873473808</v>
       </c>
       <c r="AB42">
-        <v>0.6390647573692622</v>
+        <v>0.8703193607309238</v>
       </c>
       <c r="AC42">
-        <v>1370.815049772515</v>
+        <v>1370.665739739674</v>
       </c>
       <c r="AD42">
-        <v>27.99546336181761</v>
+        <v>81.07160089299447</v>
       </c>
       <c r="AE42">
-        <v>0.2952352294038657</v>
+        <v>0.3549380664576393</v>
       </c>
       <c r="AF42">
-        <v>1396.114257480303</v>
+        <v>1381.814138092432</v>
       </c>
       <c r="AG42">
-        <v>2.484000244000137</v>
+        <v>63.84712040855865</v>
       </c>
       <c r="AH42">
-        <v>14.76176147020011</v>
+        <v>17.74681930978721</v>
       </c>
       <c r="AI42">
-        <v>1293.41261952403</v>
+        <v>1278.708807561778</v>
       </c>
       <c r="AJ42">
-        <v>1.780000018805835</v>
+        <v>107.7252096877267</v>
       </c>
       <c r="AK42">
-        <v>15.60079777889196</v>
+        <v>20.48238639558708</v>
       </c>
     </row>
     <row r="43" spans="1:37">
@@ -5257,106 +5284,106 @@
         <v>77</v>
       </c>
       <c r="C43">
-        <v>102.7603468002628</v>
+        <v>103.019142518699</v>
       </c>
       <c r="D43">
-        <v>1286.618214440795</v>
+        <v>1285.956350485438</v>
       </c>
       <c r="E43">
-        <v>867.8776966169337</v>
+        <v>7071.225175019378</v>
       </c>
       <c r="F43">
-        <v>1286.618264443295</v>
+        <v>1285.956400487938</v>
       </c>
       <c r="G43">
-        <v>1243.653159646877</v>
+        <v>13617.0986793184</v>
       </c>
       <c r="H43">
-        <v>0.6337835134103214</v>
+        <v>0.7655405890521152</v>
       </c>
       <c r="I43">
-        <v>2.562044083820387</v>
+        <v>9.286788806106401</v>
       </c>
       <c r="J43">
-        <v>0.1813643155591684</v>
+        <v>0.4821583295419435</v>
       </c>
       <c r="K43">
-        <v>1.267567026820643</v>
+        <v>1.53108117810423</v>
       </c>
       <c r="L43" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M43">
-        <v>1389.378561241058</v>
+        <v>1388.975493004137</v>
       </c>
       <c r="N43">
-        <v>1387.313748741183</v>
+        <v>12148.56988870865</v>
       </c>
       <c r="O43">
-        <v>1389.378611243558</v>
+        <v>1388.975543006637</v>
       </c>
       <c r="P43">
-        <v>1879.664431720123</v>
+        <v>20608.61760624969</v>
       </c>
       <c r="Q43">
-        <v>0.5847392566625174</v>
+        <v>0.6796183185790891</v>
       </c>
       <c r="S43">
-        <v>2.290796703427</v>
+        <v>10.43934785256507</v>
       </c>
       <c r="T43">
-        <v>0.2520693969695805</v>
+        <v>0.458456166402455</v>
       </c>
       <c r="U43">
-        <v>1.169478513325035</v>
+        <v>1.359236637158178</v>
       </c>
       <c r="V43" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W43">
-        <v>1266.318714357973</v>
+        <v>1265.749853744018</v>
       </c>
       <c r="X43">
-        <v>115.3607818847624</v>
+        <v>1488.960307950402</v>
       </c>
       <c r="Y43">
-        <v>0.6975639150180529</v>
+        <v>0.9320993475101201</v>
       </c>
       <c r="Z43">
-        <v>1410.618844713036</v>
+        <v>1410.265978596189</v>
       </c>
       <c r="AA43">
-        <v>170.5944450039501</v>
+        <v>2147.729293378917</v>
       </c>
       <c r="AB43">
-        <v>0.6193840521061448</v>
+        <v>0.8315082740295111</v>
       </c>
       <c r="AC43">
-        <v>1371.19264192944</v>
+        <v>1370.711015912982</v>
       </c>
       <c r="AD43">
-        <v>26.12281973353805</v>
+        <v>291.2493605954754</v>
       </c>
       <c r="AE43">
-        <v>0.2920678904420028</v>
+        <v>0.3393074404774262</v>
       </c>
       <c r="AF43">
-        <v>1382.119086432363</v>
+        <v>1381.995616423939</v>
       </c>
       <c r="AG43">
-        <v>2.289999398690541</v>
+        <v>404.8013048315569</v>
       </c>
       <c r="AH43">
-        <v>14.60307130969113</v>
+        <v>16.96537202387148</v>
       </c>
       <c r="AI43">
-        <v>1279.460303014036</v>
+        <v>1278.93976297011</v>
       </c>
       <c r="AJ43">
-        <v>1.424000270449903</v>
+        <v>696.8419286459912</v>
       </c>
       <c r="AK43">
-        <v>15.83179943177889</v>
+        <v>19.10387328065531</v>
       </c>
     </row>
     <row r="44" spans="1:37">
@@ -5367,106 +5394,106 @@
         <v>78</v>
       </c>
       <c r="C44">
-        <v>104.649313952423</v>
+        <v>102.9779276006516</v>
       </c>
       <c r="D44">
-        <v>1282.314884876835</v>
+        <v>1286.056102700176</v>
       </c>
       <c r="E44">
-        <v>28671.25923045911</v>
+        <v>6188.095922377825</v>
       </c>
       <c r="F44">
-        <v>1282.314834874335</v>
+        <v>1286.056152702676</v>
       </c>
       <c r="G44">
-        <v>84679.16496488292</v>
+        <v>11430.26655045533</v>
       </c>
       <c r="H44">
-        <v>1.082498805499668</v>
+        <v>0.7371418256204967</v>
       </c>
       <c r="I44">
-        <v>32.41833356673187</v>
+        <v>7.689312069678859</v>
       </c>
       <c r="J44">
-        <v>0.7049583474337183</v>
+        <v>0.4702178162387141</v>
       </c>
       <c r="K44">
-        <v>2.164997610999337</v>
+        <v>1.474283651240993</v>
       </c>
       <c r="L44" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M44">
-        <v>1386.964198829258</v>
+        <v>1389.034030300827</v>
       </c>
       <c r="N44">
-        <v>55425.16592769535</v>
+        <v>10274.49062361252</v>
       </c>
       <c r="O44">
-        <v>1386.964148826758</v>
+        <v>1389.034080303328</v>
       </c>
       <c r="P44">
-        <v>153518.3105814245</v>
+        <v>17011.67960312362</v>
       </c>
       <c r="Q44">
-        <v>1.003909644845877</v>
+        <v>0.672458110396722</v>
       </c>
       <c r="S44">
-        <v>45.62638552747634</v>
+        <v>11.52569070482586</v>
       </c>
       <c r="T44">
-        <v>0.7237992431593198</v>
+        <v>0.4230064954978762</v>
       </c>
       <c r="U44">
-        <v>2.007819289691753</v>
+        <v>1.344916220793444</v>
       </c>
       <c r="V44" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W44">
-        <v>1262.242976136883</v>
+        <v>1265.842868843057</v>
       </c>
       <c r="X44">
-        <v>12069.3780587434</v>
+        <v>1248.032161971058</v>
       </c>
       <c r="Y44">
-        <v>3.114299196906612</v>
+        <v>0.9085581404135451</v>
       </c>
       <c r="Z44">
-        <v>1408.30064072731</v>
+        <v>1410.326330703522</v>
       </c>
       <c r="AA44">
-        <v>15113.26090328343</v>
+        <v>1738.804509809074</v>
       </c>
       <c r="AB44">
-        <v>2.498853727015857</v>
+        <v>0.7944865344932948</v>
       </c>
       <c r="AC44">
-        <v>1369.584029514186</v>
+        <v>1372.207164183332</v>
       </c>
       <c r="AD44">
-        <v>1792.680105512674</v>
+        <v>41.33335999572093</v>
       </c>
       <c r="AE44">
-        <v>0.5012234923492658</v>
+        <v>0.3358388819022688</v>
       </c>
       <c r="AF44">
-        <v>1385.642293003239</v>
+        <v>1382.050592599389</v>
       </c>
       <c r="AG44">
-        <v>12844.76036184198</v>
+        <v>514.8995312570427</v>
       </c>
       <c r="AH44">
-        <v>15.46626659070263</v>
+        <v>16.79194409511371</v>
       </c>
       <c r="AI44">
-        <v>1285.672349626729</v>
+        <v>1279.027746185678</v>
       </c>
       <c r="AJ44">
-        <v>7531.498444925394</v>
+        <v>381.6733347825845</v>
       </c>
       <c r="AK44">
-        <v>11.63153932958174</v>
+        <v>18.39004991604524</v>
       </c>
     </row>
     <row r="45" spans="1:37">
@@ -5477,106 +5504,106 @@
         <v>79</v>
       </c>
       <c r="C45">
-        <v>104.5928311316138</v>
+        <v>102.9517229443891</v>
       </c>
       <c r="D45">
-        <v>1282.422510370325</v>
+        <v>1286.136953973581</v>
       </c>
       <c r="E45">
-        <v>27808.76431780963</v>
+        <v>4879.160886673742</v>
       </c>
       <c r="F45">
-        <v>1282.422460367824</v>
+        <v>1286.137003976081</v>
       </c>
       <c r="G45">
-        <v>82328.18980149827</v>
+        <v>8734.086090149578</v>
       </c>
       <c r="H45">
-        <v>1.086695373336185</v>
+        <v>0.7121931249651592</v>
       </c>
       <c r="I45">
-        <v>31.60859682068331</v>
+        <v>7.546140047025137</v>
       </c>
       <c r="J45">
-        <v>0.6998413217655596</v>
+        <v>0.4760075602549028</v>
       </c>
       <c r="K45">
-        <v>2.173390746672371</v>
+        <v>1.424386249930318</v>
       </c>
       <c r="L45" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M45">
-        <v>1387.015341501938</v>
+        <v>1389.08877692297</v>
       </c>
       <c r="N45">
-        <v>53952.85822584042</v>
+        <v>7895.29570120051</v>
       </c>
       <c r="O45">
-        <v>1387.015291499438</v>
+        <v>1389.08872692047</v>
       </c>
       <c r="P45">
-        <v>148463.8774707601</v>
+        <v>12710.58490484247</v>
       </c>
       <c r="Q45">
-        <v>0.9979392604902131</v>
+        <v>0.6573836729495982</v>
       </c>
       <c r="S45">
-        <v>45.46358877352301</v>
+        <v>7.173466079213697</v>
       </c>
       <c r="T45">
-        <v>0.7217955370198619</v>
+        <v>0.405900188456304</v>
       </c>
       <c r="U45">
-        <v>1.995878520980426</v>
+        <v>1.314767345899196</v>
       </c>
       <c r="V45" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W45">
-        <v>1262.400393497706</v>
+        <v>1265.913007171715</v>
       </c>
       <c r="X45">
-        <v>11755.59090613106</v>
+        <v>982.8893831376653</v>
       </c>
       <c r="Y45">
-        <v>3.108414787526173</v>
+        <v>0.8958366235300693</v>
       </c>
       <c r="Z45">
-        <v>1408.363503772115</v>
+        <v>1410.376309890595</v>
       </c>
       <c r="AA45">
-        <v>14744.65625546827</v>
+        <v>1319.586896313435</v>
       </c>
       <c r="AB45">
-        <v>2.400701123986383</v>
+        <v>0.7788016095608004</v>
       </c>
       <c r="AC45">
-        <v>1369.58567269783</v>
+        <v>1370.727644940535</v>
       </c>
       <c r="AD45">
-        <v>1742.326263963965</v>
+        <v>178.2446097064422</v>
       </c>
       <c r="AE45">
-        <v>0.4981186046293333</v>
+        <v>0.3284684188592227</v>
       </c>
       <c r="AF45">
-        <v>1385.695019341206</v>
+        <v>1382.0945842085</v>
       </c>
       <c r="AG45">
-        <v>12453.36740593223</v>
+        <v>45.19612158527339</v>
       </c>
       <c r="AH45">
-        <v>16.10166424081279</v>
+        <v>16.42342093642084</v>
       </c>
       <c r="AI45">
-        <v>1286.36922570174</v>
+        <v>1279.110230453265</v>
       </c>
       <c r="AJ45">
-        <v>6887.526993663569</v>
+        <v>91.61822865163941</v>
       </c>
       <c r="AK45">
-        <v>11.68050060777153</v>
+        <v>17.77074906771073</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -5587,106 +5614,106 @@
         <v>80</v>
       </c>
       <c r="C46">
-        <v>104.5283520909768</v>
+        <v>102.9201056382701</v>
       </c>
       <c r="D46">
-        <v>1282.556609775275</v>
+        <v>1286.225673203791</v>
       </c>
       <c r="E46">
-        <v>26093.1435332755</v>
+        <v>4276.058954776167</v>
       </c>
       <c r="F46">
-        <v>1282.556559772775</v>
+        <v>1286.225723206291</v>
       </c>
       <c r="G46">
-        <v>77623.5949868121</v>
+        <v>7352.611857966846</v>
       </c>
       <c r="H46">
-        <v>1.096656209738861</v>
+        <v>0.6900371289865255</v>
       </c>
       <c r="I46">
-        <v>34.6078992904113</v>
+        <v>6.795775561716524</v>
       </c>
       <c r="J46">
-        <v>0.6880824599013386</v>
+        <v>0.4522475614329719</v>
       </c>
       <c r="K46">
-        <v>2.193312419477723</v>
+        <v>1.380074257973051</v>
       </c>
       <c r="L46" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M46">
-        <v>1387.084861861252</v>
+        <v>1389.145878847061</v>
       </c>
       <c r="N46">
-        <v>50878.41441832387</v>
+        <v>6778.048597047762</v>
       </c>
       <c r="O46">
-        <v>1387.084911863752</v>
+        <v>1389.145828844561</v>
       </c>
       <c r="P46">
-        <v>138755.1826927481</v>
+        <v>10692.46220003207</v>
       </c>
       <c r="Q46">
-        <v>0.9919711437264389</v>
+        <v>0.6507216632421278</v>
       </c>
       <c r="S46">
-        <v>39.14109160369875</v>
+        <v>6.320705146299174</v>
       </c>
       <c r="T46">
-        <v>0.7136134915802437</v>
+        <v>0.3781958739037404</v>
       </c>
       <c r="U46">
-        <v>1.983942287452878</v>
+        <v>1.301443326484256</v>
       </c>
       <c r="V46" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W46">
-        <v>1262.488639421658</v>
+        <v>1266.01222160291</v>
       </c>
       <c r="X46">
-        <v>10914.88490719551</v>
+        <v>822.8738416028946</v>
       </c>
       <c r="Y46">
-        <v>2.988656165057321</v>
+        <v>0.817670768239971</v>
       </c>
       <c r="Z46">
-        <v>1408.43341105215</v>
+        <v>1410.420053253166</v>
       </c>
       <c r="AA46">
-        <v>14033.17607278747</v>
+        <v>1112.999410190839</v>
       </c>
       <c r="AB46">
-        <v>2.358888066021291</v>
+        <v>0.7474893178535701</v>
       </c>
       <c r="AC46">
-        <v>1369.602956409716</v>
+        <v>1370.775922068497</v>
       </c>
       <c r="AD46">
-        <v>1619.00679197611</v>
+        <v>157.679289459803</v>
       </c>
       <c r="AE46">
-        <v>0.4949939656366933</v>
+        <v>0.3251527778123838</v>
       </c>
       <c r="AF46">
-        <v>1384.670181288888</v>
+        <v>1382.13307686393</v>
       </c>
       <c r="AG46">
-        <v>10676.19949557991</v>
+        <v>11.70159428066732</v>
       </c>
       <c r="AH46">
-        <v>15.79892753782295</v>
+        <v>16.25763889062058</v>
       </c>
       <c r="AI46">
-        <v>1287.499095484867</v>
+        <v>1279.220212883756</v>
       </c>
       <c r="AJ46">
-        <v>6594.863360528797</v>
+        <v>6.509334890429722</v>
       </c>
       <c r="AK46">
-        <v>12.51459659980611</v>
+        <v>17.22719032085723</v>
       </c>
     </row>
     <row r="47" spans="1:37">
@@ -5697,106 +5724,106 @@
         <v>81</v>
       </c>
       <c r="C47">
-        <v>104.4418695861104</v>
+        <v>102.8854273971122</v>
       </c>
       <c r="D47">
-        <v>1282.731033105166</v>
+        <v>1286.308006831342</v>
       </c>
       <c r="E47">
-        <v>14917.98325148862</v>
+        <v>3727.494381387381</v>
       </c>
       <c r="F47">
-        <v>1282.730983102666</v>
+        <v>1286.308056833842</v>
       </c>
       <c r="G47">
-        <v>44962.48016417976</v>
+        <v>6269.760022613058</v>
       </c>
       <c r="H47">
-        <v>1.107161732595628</v>
+        <v>0.689870068621929</v>
       </c>
       <c r="I47">
-        <v>17.60970682856766</v>
+        <v>5.616000316959514</v>
       </c>
       <c r="J47">
-        <v>0.6929905533838306</v>
+        <v>0.393846413392106</v>
       </c>
       <c r="K47">
-        <v>2.214323465191256</v>
+        <v>1.379740137243858</v>
       </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M47">
-        <v>1387.172802686276</v>
+        <v>1389.193534233454</v>
       </c>
       <c r="N47">
-        <v>29356.06404255778</v>
+        <v>5897.783388574784</v>
       </c>
       <c r="O47">
-        <v>1387.172852688776</v>
+        <v>1389.193484230954</v>
       </c>
       <c r="P47">
-        <v>79205.52806888743</v>
+        <v>9076.280019388832</v>
       </c>
       <c r="Q47">
-        <v>0.9800146050095677</v>
+        <v>0.6348043895793539</v>
       </c>
       <c r="S47">
-        <v>22.40946368918977</v>
+        <v>5.941700319033073</v>
       </c>
       <c r="T47">
-        <v>0.7158424220593378</v>
+        <v>0.378193382734074</v>
       </c>
       <c r="U47">
-        <v>1.960029210019135</v>
+        <v>1.269608779158708</v>
       </c>
       <c r="V47" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="W47">
-        <v>1262.655856206982</v>
+        <v>1266.050176417726</v>
       </c>
       <c r="X47">
-        <v>6272.980319976278</v>
+        <v>689.6809444987952</v>
       </c>
       <c r="Y47">
-        <v>2.920718934370794</v>
+        <v>0.7478209729496265</v>
       </c>
       <c r="Z47">
-        <v>1408.5097026434</v>
+        <v>1410.465762492806</v>
       </c>
       <c r="AA47">
-        <v>8351.58237380006</v>
+        <v>942.164209201393</v>
       </c>
       <c r="AB47">
-        <v>2.272978647667755</v>
+        <v>0.6789628789066844</v>
       </c>
       <c r="AC47">
-        <v>1369.626874047809</v>
+        <v>1370.785459949565</v>
       </c>
       <c r="AD47">
-        <v>918.719214958339</v>
+        <v>139.6208989377742</v>
       </c>
       <c r="AE47">
-        <v>0.4887696795282236</v>
+        <v>0.3171825878431245</v>
       </c>
       <c r="AF47">
-        <v>1383.42814567389</v>
+        <v>1396.162393435163</v>
       </c>
       <c r="AG47">
-        <v>5755.988200912783</v>
+        <v>10.3333950234046</v>
       </c>
       <c r="AH47">
-        <v>16.01497385410755</v>
+        <v>15.85912938941453</v>
       </c>
       <c r="AI47">
-        <v>1288.021185735538</v>
+        <v>1279.319199672576</v>
       </c>
       <c r="AJ47">
-        <v>3067.450120195093</v>
+        <v>6.0305747753338</v>
       </c>
       <c r="AK47">
-        <v>12.53209081289401</v>
+        <v>17.22948676398683</v>
       </c>
     </row>
     <row r="48" spans="1:37">
@@ -5807,106 +5834,2995 @@
         <v>82</v>
       </c>
       <c r="C48">
-        <v>104.3844665475945</v>
+        <v>102.8590213715486</v>
       </c>
       <c r="D48">
-        <v>1282.850172822846</v>
+        <v>1286.380073906066</v>
       </c>
       <c r="E48">
-        <v>3950.411319427447</v>
+        <v>3191.835207175516</v>
       </c>
       <c r="F48">
-        <v>1282.850022815345</v>
+        <v>1286.380123908566</v>
       </c>
       <c r="G48">
-        <v>11924.95760467191</v>
+        <v>5161.439794815126</v>
       </c>
       <c r="H48">
-        <v>1.107727089193711</v>
+        <v>0.6689693106984116</v>
       </c>
       <c r="I48">
-        <v>5.285691882552901</v>
+        <v>5.585883972590702</v>
       </c>
       <c r="J48">
-        <v>0.6933712166957438</v>
+        <v>0.3703678834036926</v>
       </c>
       <c r="K48">
-        <v>2.215454178387423</v>
+        <v>1.337938621396823</v>
       </c>
       <c r="L48" t="s">
+        <v>110</v>
+      </c>
+      <c r="M48">
+        <v>1389.239195282614</v>
+      </c>
+      <c r="N48">
+        <v>4929.060405633729</v>
+      </c>
+      <c r="O48">
+        <v>1389.239145280114</v>
+      </c>
+      <c r="P48">
+        <v>7400.432645425671</v>
+      </c>
+      <c r="Q48">
+        <v>0.6218541502116737</v>
+      </c>
+      <c r="S48">
+        <v>5.560944782043516</v>
+      </c>
+      <c r="T48">
+        <v>0.3670125875797735</v>
+      </c>
+      <c r="U48">
+        <v>1.243708300423347</v>
+      </c>
+      <c r="V48" t="s">
+        <v>110</v>
+      </c>
+      <c r="W48">
+        <v>1266.150406457641</v>
+      </c>
+      <c r="X48">
+        <v>553.8882864979367</v>
+      </c>
+      <c r="Y48">
+        <v>0.7690018587165857</v>
+      </c>
+      <c r="Z48">
+        <v>1410.505933657962</v>
+      </c>
+      <c r="AA48">
+        <v>757.4164597092622</v>
+      </c>
+      <c r="AB48">
+        <v>0.665101716828988</v>
+      </c>
+      <c r="AC48">
+        <v>1371.119885199841</v>
+      </c>
+      <c r="AD48">
+        <v>87.78862240911337</v>
+      </c>
+      <c r="AE48">
+        <v>0.3106846089422353</v>
+      </c>
+      <c r="AF48">
+        <v>1382.210249521224</v>
+      </c>
+      <c r="AG48">
+        <v>8.759133062794405</v>
+      </c>
+      <c r="AH48">
+        <v>15.53422929649254</v>
+      </c>
+      <c r="AI48">
+        <v>1293.352880738471</v>
+      </c>
+      <c r="AJ48">
+        <v>4.959266265049727</v>
+      </c>
+      <c r="AK48">
+        <v>16.71203777850697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
         <v>83</v>
       </c>
-      <c r="M48">
-        <v>1387.23443936044</v>
-      </c>
-      <c r="N48">
-        <v>7749.16830618126</v>
-      </c>
-      <c r="O48">
-        <v>1387.23448936294</v>
-      </c>
-      <c r="P48">
-        <v>20837.69036793865</v>
-      </c>
-      <c r="Q48">
-        <v>0.9798791481803977</v>
-      </c>
-      <c r="S48">
-        <v>6.139558620459122</v>
-      </c>
-      <c r="T48">
-        <v>0.7070820723394624</v>
-      </c>
-      <c r="U48">
-        <v>1.959758296360795</v>
-      </c>
-      <c r="V48" t="s">
-        <v>83</v>
-      </c>
-      <c r="W48">
-        <v>1262.792338073348</v>
-      </c>
-      <c r="X48">
-        <v>1711.029810678825</v>
-      </c>
-      <c r="Y48">
-        <v>2.913749846429565</v>
-      </c>
-      <c r="Z48">
-        <v>1408.583406710786</v>
-      </c>
-      <c r="AA48">
-        <v>2177.629521253979</v>
-      </c>
-      <c r="AB48">
-        <v>2.262241201568784</v>
-      </c>
-      <c r="AC48">
-        <v>1369.643331804389</v>
-      </c>
-      <c r="AD48">
-        <v>236.8481858043302</v>
-      </c>
-      <c r="AE48">
-        <v>0.4885975612641505</v>
-      </c>
-      <c r="AF48">
-        <v>1382.702778353958</v>
-      </c>
-      <c r="AG48">
-        <v>1388.653047152878</v>
-      </c>
-      <c r="AH48">
-        <v>15.79326267332815</v>
-      </c>
-      <c r="AI48">
-        <v>1289.641045856939</v>
-      </c>
-      <c r="AJ48">
-        <v>697.3490949859839</v>
-      </c>
-      <c r="AK48">
-        <v>11.71674711440079</v>
+      <c r="C49">
+        <v>102.8338163700366</v>
+      </c>
+      <c r="D49">
+        <v>1286.448205719495</v>
+      </c>
+      <c r="E49">
+        <v>2445.848081550182</v>
+      </c>
+      <c r="F49">
+        <v>1286.448255721995</v>
+      </c>
+      <c r="G49">
+        <v>3865.896577524389</v>
+      </c>
+      <c r="H49">
+        <v>0.6591760967110556</v>
+      </c>
+      <c r="I49">
+        <v>4.559198161727294</v>
+      </c>
+      <c r="J49">
+        <v>0.3482219203427289</v>
+      </c>
+      <c r="K49">
+        <v>1.318352193422111</v>
+      </c>
+      <c r="L49" t="s">
+        <v>110</v>
+      </c>
+      <c r="M49">
+        <v>1389.282122094532</v>
+      </c>
+      <c r="N49">
+        <v>3853.17314013812</v>
+      </c>
+      <c r="O49">
+        <v>1389.282072092032</v>
+      </c>
+      <c r="P49">
+        <v>5630.897794495294</v>
+      </c>
+      <c r="Q49">
+        <v>0.6106292689701198</v>
+      </c>
+      <c r="S49">
+        <v>4.764187648594897</v>
+      </c>
+      <c r="T49">
+        <v>0.3428228795047299</v>
+      </c>
+      <c r="U49">
+        <v>1.22125853794024</v>
+      </c>
+      <c r="V49" t="s">
+        <v>110</v>
+      </c>
+      <c r="W49">
+        <v>1266.172672588273</v>
+      </c>
+      <c r="X49">
+        <v>419.9435481793109</v>
+      </c>
+      <c r="Y49">
+        <v>0.777512749903437</v>
+      </c>
+      <c r="Z49">
+        <v>1410.546930994002</v>
+      </c>
+      <c r="AA49">
+        <v>576.4482264938422</v>
+      </c>
+      <c r="AB49">
+        <v>0.6679136278739003</v>
+      </c>
+      <c r="AC49">
+        <v>1371.159439981735</v>
+      </c>
+      <c r="AD49">
+        <v>70.75378647768702</v>
+      </c>
+      <c r="AE49">
+        <v>0.3050333602212685</v>
+      </c>
+      <c r="AF49">
+        <v>1382.243055885651</v>
+      </c>
+      <c r="AG49">
+        <v>6.451345076208125</v>
+      </c>
+      <c r="AH49">
+        <v>15.25166800985315</v>
+      </c>
+      <c r="AI49">
+        <v>1279.440411660654</v>
+      </c>
+      <c r="AJ49">
+        <v>3.785799792257903</v>
+      </c>
+      <c r="AK49">
+        <v>16.46849563829227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50">
+        <v>102.8110860545471</v>
+      </c>
+      <c r="D50">
+        <v>1286.490977569585</v>
+      </c>
+      <c r="E50">
+        <v>2228.415312871193</v>
+      </c>
+      <c r="F50">
+        <v>1286.491027572085</v>
+      </c>
+      <c r="G50">
+        <v>3461.09002114968</v>
+      </c>
+      <c r="H50">
+        <v>0.652244185436166</v>
+      </c>
+      <c r="I50">
+        <v>4.211697690608663</v>
+      </c>
+      <c r="J50">
+        <v>0.3290109754701085</v>
+      </c>
+      <c r="K50">
+        <v>1.304488370872332</v>
+      </c>
+      <c r="L50" t="s">
+        <v>110</v>
+      </c>
+      <c r="M50">
+        <v>1389.302163629133</v>
+      </c>
+      <c r="N50">
+        <v>3451.344275619659</v>
+      </c>
+      <c r="O50">
+        <v>1389.302113626632</v>
+      </c>
+      <c r="P50">
+        <v>4981.899987894235</v>
+      </c>
+      <c r="Q50">
+        <v>0.6105959309448095</v>
+      </c>
+      <c r="S50">
+        <v>4.649175828941885</v>
+      </c>
+      <c r="T50">
+        <v>0.3087435852629363</v>
+      </c>
+      <c r="U50">
+        <v>1.221191861889619</v>
+      </c>
+      <c r="V50" t="s">
+        <v>110</v>
+      </c>
+      <c r="W50">
+        <v>1266.233392346085</v>
+      </c>
+      <c r="X50">
+        <v>357.7210350223708</v>
+      </c>
+      <c r="Y50">
+        <v>0.7681712929375136</v>
+      </c>
+      <c r="Z50">
+        <v>1410.568763645929</v>
+      </c>
+      <c r="AA50">
+        <v>507.2273081984551</v>
+      </c>
+      <c r="AB50">
+        <v>0.6158653978193115</v>
+      </c>
+      <c r="AC50">
+        <v>1370.811124260765</v>
+      </c>
+      <c r="AD50">
+        <v>73.9434474138222</v>
+      </c>
+      <c r="AE50">
+        <v>0.3049850638666128</v>
+      </c>
+      <c r="AF50">
+        <v>1382.265806240875</v>
+      </c>
+      <c r="AG50">
+        <v>6.428633139573357</v>
+      </c>
+      <c r="AH50">
+        <v>15.24926613924315</v>
+      </c>
+      <c r="AI50">
+        <v>1279.467903666664</v>
+      </c>
+      <c r="AJ50">
+        <v>3.368573749763426</v>
+      </c>
+      <c r="AK50">
+        <v>16.29564497280378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51">
+        <v>102.8075044601371</v>
+      </c>
+      <c r="D51">
+        <v>1286.51419757659</v>
+      </c>
+      <c r="E51">
+        <v>2008.591243959166</v>
+      </c>
+      <c r="F51">
+        <v>1286.51424757909</v>
+      </c>
+      <c r="G51">
+        <v>3120.461714022301</v>
+      </c>
+      <c r="H51">
+        <v>0.6526992418289934</v>
+      </c>
+      <c r="I51">
+        <v>4.196793873116087</v>
+      </c>
+      <c r="J51">
+        <v>0.3277881523412869</v>
+      </c>
+      <c r="K51">
+        <v>1.305398483657987</v>
+      </c>
+      <c r="L51" t="s">
+        <v>110</v>
+      </c>
+      <c r="M51">
+        <v>1389.321802041727</v>
+      </c>
+      <c r="N51">
+        <v>3156.006404084143</v>
+      </c>
+      <c r="O51">
+        <v>1389.321752039227</v>
+      </c>
+      <c r="P51">
+        <v>4512.774457535108</v>
+      </c>
+      <c r="Q51">
+        <v>0.6016732637266018</v>
+      </c>
+      <c r="S51">
+        <v>4.941167654398088</v>
+      </c>
+      <c r="T51">
+        <v>0.3234271429626453</v>
+      </c>
+      <c r="U51">
+        <v>1.203346527453204</v>
+      </c>
+      <c r="V51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W51">
+        <v>1266.227374697219</v>
+      </c>
+      <c r="X51">
+        <v>330.9007244792644</v>
+      </c>
+      <c r="Y51">
+        <v>0.7480909552558175</v>
+      </c>
+      <c r="Z51">
+        <v>1410.56746630318</v>
+      </c>
+      <c r="AA51">
+        <v>458.342542220595</v>
+      </c>
+      <c r="AB51">
+        <v>0.6470845693558929</v>
+      </c>
+      <c r="AC51">
+        <v>1369.716211423042</v>
+      </c>
+      <c r="AD51">
+        <v>46.85581640692118</v>
+      </c>
+      <c r="AE51">
+        <v>0.03005497038373572</v>
+      </c>
+      <c r="AF51">
+        <v>1396.276377990411</v>
+      </c>
+      <c r="AG51">
+        <v>5.602445113760958</v>
+      </c>
+      <c r="AH51">
+        <v>15.02748519183742</v>
+      </c>
+      <c r="AI51">
+        <v>1279.484399001909</v>
+      </c>
+      <c r="AJ51">
+        <v>3.176033546449966</v>
+      </c>
+      <c r="AK51">
+        <v>16.30531768699291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52">
+        <v>104.7004891596198</v>
+      </c>
+      <c r="D52">
+        <v>1282.22157719272</v>
+      </c>
+      <c r="E52">
+        <v>28888.88545647696</v>
+      </c>
+      <c r="F52">
+        <v>1282.22152719022</v>
+      </c>
+      <c r="G52">
+        <v>85184.43642484467</v>
+      </c>
+      <c r="H52">
+        <v>1.076144865422716</v>
+      </c>
+      <c r="I52">
+        <v>31.22349728091649</v>
+      </c>
+      <c r="J52">
+        <v>0.7155619083401055</v>
+      </c>
+      <c r="K52">
+        <v>2.152289730845432</v>
+      </c>
+      <c r="L52" t="s">
+        <v>110</v>
+      </c>
+      <c r="M52">
+        <v>1386.92196634734</v>
+      </c>
+      <c r="N52">
+        <v>55481.6330993255</v>
+      </c>
+      <c r="O52">
+        <v>1386.92201634984</v>
+      </c>
+      <c r="P52">
+        <v>154694.5540246696</v>
+      </c>
+      <c r="Q52">
+        <v>1.01072890764187</v>
+      </c>
+      <c r="S52">
+        <v>52.77394269392035</v>
+      </c>
+      <c r="T52">
+        <v>0.7251795266357187</v>
+      </c>
+      <c r="U52">
+        <v>2.02145781528374</v>
+      </c>
+      <c r="V52" t="s">
+        <v>110</v>
+      </c>
+      <c r="W52">
+        <v>1262.14216826806</v>
+      </c>
+      <c r="X52">
+        <v>11934.85355634353</v>
+      </c>
+      <c r="Y52">
+        <v>3.118663246342779</v>
+      </c>
+      <c r="Z52">
+        <v>1408.25101962051</v>
+      </c>
+      <c r="AA52">
+        <v>15526.5918540921</v>
+      </c>
+      <c r="AB52">
+        <v>2.534469290548522</v>
+      </c>
+      <c r="AC52">
+        <v>1369.541440702781</v>
+      </c>
+      <c r="AD52">
+        <v>1382.329357203532</v>
+      </c>
+      <c r="AE52">
+        <v>0.5046517963893979</v>
+      </c>
+      <c r="AF52">
+        <v>1384.475419149882</v>
+      </c>
+      <c r="AG52">
+        <v>13905.55761285007</v>
+      </c>
+      <c r="AH52">
+        <v>14.80179335439893</v>
+      </c>
+      <c r="AI52">
+        <v>1285.108203890435</v>
+      </c>
+      <c r="AJ52">
+        <v>7979.333284313564</v>
+      </c>
+      <c r="AK52">
+        <v>12.14964124768878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>102.8043838151966</v>
+      </c>
+      <c r="D53">
+        <v>1286.535810636407</v>
+      </c>
+      <c r="E53">
+        <v>1863.367163643452</v>
+      </c>
+      <c r="F53">
+        <v>1286.535760633907</v>
+      </c>
+      <c r="G53">
+        <v>2792.977006620312</v>
+      </c>
+      <c r="H53">
+        <v>0.6446300546170642</v>
+      </c>
+      <c r="I53">
+        <v>4.702800495877994</v>
+      </c>
+      <c r="J53">
+        <v>0.2652687933887427</v>
+      </c>
+      <c r="K53">
+        <v>1.289260109234128</v>
+      </c>
+      <c r="L53" t="s">
+        <v>110</v>
+      </c>
+      <c r="M53">
+        <v>1389.340194451604</v>
+      </c>
+      <c r="N53">
+        <v>2911.643742252773</v>
+      </c>
+      <c r="O53">
+        <v>1389.340144449104</v>
+      </c>
+      <c r="P53">
+        <v>4092.011948348706</v>
+      </c>
+      <c r="Q53">
+        <v>0.5958864099916001</v>
+      </c>
+      <c r="S53">
+        <v>3.652668972678548</v>
+      </c>
+      <c r="T53">
+        <v>0.3021682319718595</v>
+      </c>
+      <c r="U53">
+        <v>1.1917728199832</v>
+      </c>
+      <c r="V53" t="s">
+        <v>110</v>
+      </c>
+      <c r="W53">
+        <v>1266.2743413477</v>
+      </c>
+      <c r="X53">
+        <v>292.8962048518407</v>
+      </c>
+      <c r="Y53">
+        <v>0.6934833260012593</v>
+      </c>
+      <c r="Z53">
+        <v>1410.586551001231</v>
+      </c>
+      <c r="AA53">
+        <v>415.6574010054362</v>
+      </c>
+      <c r="AB53">
+        <v>0.6314810092215455</v>
+      </c>
+      <c r="AC53">
+        <v>1371.162349678146</v>
+      </c>
+      <c r="AD53">
+        <v>53.33694596662288</v>
+      </c>
+      <c r="AE53">
+        <v>0.2976170595745932</v>
+      </c>
+      <c r="AF53">
+        <v>1382.320959285553</v>
+      </c>
+      <c r="AG53">
+        <v>5.301835910548673</v>
+      </c>
+      <c r="AH53">
+        <v>14.87999959608429</v>
+      </c>
+      <c r="AI53">
+        <v>1293.500655965985</v>
+      </c>
+      <c r="AJ53">
+        <v>61.86653653168344</v>
+      </c>
+      <c r="AK53">
+        <v>6.437822962132412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54">
+        <v>102.7772996367951</v>
+      </c>
+      <c r="D54">
+        <v>1286.565538723135</v>
+      </c>
+      <c r="E54">
+        <v>1581.73405576879</v>
+      </c>
+      <c r="F54">
+        <v>1286.565588725636</v>
+      </c>
+      <c r="G54">
+        <v>2340.472401750068</v>
+      </c>
+      <c r="H54">
+        <v>0.6313526941903338</v>
+      </c>
+      <c r="I54">
+        <v>3.403470713231455</v>
+      </c>
+      <c r="J54">
+        <v>0.2845256421000708</v>
+      </c>
+      <c r="K54">
+        <v>1.262705388380668</v>
+      </c>
+      <c r="L54" t="s">
+        <v>110</v>
+      </c>
+      <c r="M54">
+        <v>1389.342938364931</v>
+      </c>
+      <c r="N54">
+        <v>2494.667143923721</v>
+      </c>
+      <c r="O54">
+        <v>1389.342888362431</v>
+      </c>
+      <c r="P54">
+        <v>3471.328722137112</v>
+      </c>
+      <c r="Q54">
+        <v>0.5871008677770131</v>
+      </c>
+      <c r="S54">
+        <v>4.247745459846354</v>
+      </c>
+      <c r="T54">
+        <v>0.3159151768765937</v>
+      </c>
+      <c r="U54">
+        <v>1.174201735554026</v>
+      </c>
+      <c r="V54" t="s">
+        <v>110</v>
+      </c>
+      <c r="W54">
+        <v>1266.289375829099</v>
+      </c>
+      <c r="X54">
+        <v>246.3915604844615</v>
+      </c>
+      <c r="Y54">
+        <v>0.6813219543680412</v>
+      </c>
+      <c r="Z54">
+        <v>1410.617211270397</v>
+      </c>
+      <c r="AA54">
+        <v>356.5798243928634</v>
+      </c>
+      <c r="AB54">
+        <v>0.6222383737286985</v>
+      </c>
+      <c r="AC54">
+        <v>1370.309705718224</v>
+      </c>
+      <c r="AD54">
+        <v>26.7915834949838</v>
+      </c>
+      <c r="AE54">
+        <v>0.293221399414124</v>
+      </c>
+      <c r="AF54">
+        <v>1382.309660395654</v>
+      </c>
+      <c r="AG54">
+        <v>4.296315850720775</v>
+      </c>
+      <c r="AH54">
+        <v>14.66062711999042</v>
+      </c>
+      <c r="AI54">
+        <v>1279.5230946324</v>
+      </c>
+      <c r="AJ54">
+        <v>2.656089421917889</v>
+      </c>
+      <c r="AK54">
+        <v>15.77115074655881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55">
+        <v>102.7814318691896</v>
+      </c>
+      <c r="D55">
+        <v>1286.58431200335</v>
+      </c>
+      <c r="E55">
+        <v>1309.026401795705</v>
+      </c>
+      <c r="F55">
+        <v>1286.58436200585</v>
+      </c>
+      <c r="G55">
+        <v>1939.32017493453</v>
+      </c>
+      <c r="H55">
+        <v>0.6384216623658632</v>
+      </c>
+      <c r="I55">
+        <v>2.842800729959994</v>
+      </c>
+      <c r="J55">
+        <v>0.2563831759753861</v>
+      </c>
+      <c r="K55">
+        <v>1.276843324731726</v>
+      </c>
+      <c r="L55" t="s">
+        <v>110</v>
+      </c>
+      <c r="M55">
+        <v>1389.36574387254</v>
+      </c>
+      <c r="N55">
+        <v>2062.216220307816</v>
+      </c>
+      <c r="O55">
+        <v>1389.36579387504</v>
+      </c>
+      <c r="P55">
+        <v>2831.511603828798</v>
+      </c>
+      <c r="Q55">
+        <v>0.5910412789356121</v>
+      </c>
+      <c r="S55">
+        <v>3.067766802329867</v>
+      </c>
+      <c r="T55">
+        <v>0.2594638113275256</v>
+      </c>
+      <c r="U55">
+        <v>1.182082557871224</v>
+      </c>
+      <c r="V55" t="s">
+        <v>110</v>
+      </c>
+      <c r="W55">
+        <v>1266.315490218557</v>
+      </c>
+      <c r="X55">
+        <v>184.6379314932436</v>
+      </c>
+      <c r="Y55">
+        <v>0.7156907508399192</v>
+      </c>
+      <c r="Z55">
+        <v>1410.613963990023</v>
+      </c>
+      <c r="AA55">
+        <v>267.8918789844084</v>
+      </c>
+      <c r="AB55">
+        <v>0.6185583237567048</v>
+      </c>
+      <c r="AC55">
+        <v>1370.83833832146</v>
+      </c>
+      <c r="AD55">
+        <v>34.93637794776225</v>
+      </c>
+      <c r="AE55">
+        <v>0.2952079274865836</v>
+      </c>
+      <c r="AF55">
+        <v>1382.339099583049</v>
+      </c>
+      <c r="AG55">
+        <v>3.69781422352814</v>
+      </c>
+      <c r="AH55">
+        <v>14.76039637430931</v>
+      </c>
+      <c r="AI55">
+        <v>1293.541859148098</v>
+      </c>
+      <c r="AJ55">
+        <v>2.100269866255194</v>
+      </c>
+      <c r="AK55">
+        <v>15.94836955023912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56">
+        <v>102.7713627279877</v>
+      </c>
+      <c r="D56">
+        <v>1286.598047042582</v>
+      </c>
+      <c r="E56">
+        <v>1088.290268703352</v>
+      </c>
+      <c r="F56">
+        <v>1286.598097045082</v>
+      </c>
+      <c r="G56">
+        <v>1595.694335300614</v>
+      </c>
+      <c r="H56">
+        <v>0.6327019284226663</v>
+      </c>
+      <c r="I56">
+        <v>2.776759731173947</v>
+      </c>
+      <c r="J56">
+        <v>0.2525497628246837</v>
+      </c>
+      <c r="K56">
+        <v>1.265403856845333</v>
+      </c>
+      <c r="L56" t="s">
+        <v>110</v>
+      </c>
+      <c r="M56">
+        <v>1389.36940977057</v>
+      </c>
+      <c r="N56">
+        <v>1731.076665468296</v>
+      </c>
+      <c r="O56">
+        <v>1389.36945977307</v>
+      </c>
+      <c r="P56">
+        <v>2381.036677440776</v>
+      </c>
+      <c r="Q56">
+        <v>0.5960484588707005</v>
+      </c>
+      <c r="S56">
+        <v>2.822105747963957</v>
+      </c>
+      <c r="T56">
+        <v>0.2404364184499863</v>
+      </c>
+      <c r="U56">
+        <v>1.192096917741401</v>
+      </c>
+      <c r="V56" t="s">
+        <v>110</v>
+      </c>
+      <c r="W56">
+        <v>1266.305742272755</v>
+      </c>
+      <c r="X56">
+        <v>159.2011371967546</v>
+      </c>
+      <c r="Y56">
+        <v>0.6917406675874779</v>
+      </c>
+      <c r="Z56">
+        <v>1410.597254732643</v>
+      </c>
+      <c r="AA56">
+        <v>229.0681883548169</v>
+      </c>
+      <c r="AB56">
+        <v>0.6094377722935134</v>
+      </c>
+      <c r="AC56">
+        <v>1370.851905998885</v>
+      </c>
+      <c r="AD56">
+        <v>30.60998484373412</v>
+      </c>
+      <c r="AE56">
+        <v>0.2977061737120842</v>
+      </c>
+      <c r="AF56">
+        <v>1382.351296254318</v>
+      </c>
+      <c r="AG56">
+        <v>3.122232074862453</v>
+      </c>
+      <c r="AH56">
+        <v>14.8853086855974</v>
+      </c>
+      <c r="AI56">
+        <v>1279.5556456038</v>
+      </c>
+      <c r="AJ56">
+        <v>1.812566376670178</v>
+      </c>
+      <c r="AK56">
+        <v>15.80355313310861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57">
+        <v>102.7691037656884</v>
+      </c>
+      <c r="D57">
+        <v>1286.609806950097</v>
+      </c>
+      <c r="E57">
+        <v>1026.907212782033</v>
+      </c>
+      <c r="F57">
+        <v>1286.609856952597</v>
+      </c>
+      <c r="G57">
+        <v>1488.024352175655</v>
+      </c>
+      <c r="H57">
+        <v>0.6246415745149501</v>
+      </c>
+      <c r="I57">
+        <v>2.529341416184118</v>
+      </c>
+      <c r="J57">
+        <v>0.2554686696400019</v>
+      </c>
+      <c r="K57">
+        <v>1.2492831490299</v>
+      </c>
+      <c r="L57" t="s">
+        <v>110</v>
+      </c>
+      <c r="M57">
+        <v>1389.378910715785</v>
+      </c>
+      <c r="N57">
+        <v>1589.961493183578</v>
+      </c>
+      <c r="O57">
+        <v>1389.378960718285</v>
+      </c>
+      <c r="P57">
+        <v>2172.32144924803</v>
+      </c>
+      <c r="Q57">
+        <v>0.5910467540451626</v>
+      </c>
+      <c r="S57">
+        <v>2.523570713216107</v>
+      </c>
+      <c r="T57">
+        <v>0.245314230051662</v>
+      </c>
+      <c r="U57">
+        <v>1.182093508090325</v>
+      </c>
+      <c r="V57" t="s">
+        <v>110</v>
+      </c>
+      <c r="W57">
+        <v>1266.332212116842</v>
+      </c>
+      <c r="X57">
+        <v>146.1430293282973</v>
+      </c>
+      <c r="Y57">
+        <v>0.6112504492014769</v>
+      </c>
+      <c r="Z57">
+        <v>1410.623352390518</v>
+      </c>
+      <c r="AA57">
+        <v>192.2245914722895</v>
+      </c>
+      <c r="AB57">
+        <v>0.6389136423422999</v>
+      </c>
+      <c r="AC57">
+        <v>1370.815400222011</v>
+      </c>
+      <c r="AD57">
+        <v>27.90137003376573</v>
+      </c>
+      <c r="AE57">
+        <v>0.2952353423383079</v>
+      </c>
+      <c r="AF57">
+        <v>1382.361339009499</v>
+      </c>
+      <c r="AG57">
+        <v>2.721173581420506</v>
+      </c>
+      <c r="AH57">
+        <v>14.76053394538587</v>
+      </c>
+      <c r="AI57">
+        <v>1279.563489591949</v>
+      </c>
+      <c r="AJ57">
+        <v>1.780431804544116</v>
+      </c>
+      <c r="AK57">
+        <v>15.6021879001227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58">
+        <v>102.7603470042345</v>
+      </c>
+      <c r="D58">
+        <v>1286.618214420585</v>
+      </c>
+      <c r="E58">
+        <v>867.877590780993</v>
+      </c>
+      <c r="F58">
+        <v>1286.618264423085</v>
+      </c>
+      <c r="G58">
+        <v>1243.652027043388</v>
+      </c>
+      <c r="H58">
+        <v>0.6337835915867442</v>
+      </c>
+      <c r="I58">
+        <v>2.562068340212551</v>
+      </c>
+      <c r="J58">
+        <v>0.1813620290955969</v>
+      </c>
+      <c r="K58">
+        <v>1.267567183173488</v>
+      </c>
+      <c r="L58" t="s">
+        <v>110</v>
+      </c>
+      <c r="M58">
+        <v>1389.37856142482</v>
+      </c>
+      <c r="N58">
+        <v>1387.306105279912</v>
+      </c>
+      <c r="O58">
+        <v>1389.37861142732</v>
+      </c>
+      <c r="P58">
+        <v>1879.611310567594</v>
+      </c>
+      <c r="Q58">
+        <v>0.5847432291486073</v>
+      </c>
+      <c r="S58">
+        <v>2.29153832390757</v>
+      </c>
+      <c r="T58">
+        <v>0.2519956734474532</v>
+      </c>
+      <c r="U58">
+        <v>1.169486458297215</v>
+      </c>
+      <c r="V58" t="s">
+        <v>110</v>
+      </c>
+      <c r="W58">
+        <v>1266.318714097443</v>
+      </c>
+      <c r="X58">
+        <v>115.3624058004424</v>
+      </c>
+      <c r="Y58">
+        <v>0.6975634370651405</v>
+      </c>
+      <c r="Z58">
+        <v>1410.61884654369</v>
+      </c>
+      <c r="AA58">
+        <v>170.5814020458493</v>
+      </c>
+      <c r="AB58">
+        <v>0.6193948064892076</v>
+      </c>
+      <c r="AC58">
+        <v>1371.192638010292</v>
+      </c>
+      <c r="AD58">
+        <v>26.114100912584</v>
+      </c>
+      <c r="AE58">
+        <v>0.2919852414510031</v>
+      </c>
+      <c r="AF58">
+        <v>1382.364032804654</v>
+      </c>
+      <c r="AG58">
+        <v>2.481919317614753</v>
+      </c>
+      <c r="AH58">
+        <v>14.60340299559327</v>
+      </c>
+      <c r="AI58">
+        <v>1279.577856385642</v>
+      </c>
+      <c r="AJ58">
+        <v>1.423997187668838</v>
+      </c>
+      <c r="AK58">
+        <v>15.83055876294434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59">
+        <v>102.7519039697788</v>
+      </c>
+      <c r="D59">
+        <v>1286.640253997909</v>
+      </c>
+      <c r="E59">
+        <v>751.1816756796792</v>
+      </c>
+      <c r="F59">
+        <v>1286.640304000409</v>
+      </c>
+      <c r="G59">
+        <v>1063.733381448853</v>
+      </c>
+      <c r="H59">
+        <v>0.6156555219919007</v>
+      </c>
+      <c r="I59">
+        <v>2.408535897672658</v>
+      </c>
+      <c r="J59">
+        <v>0.2310494397669473</v>
+      </c>
+      <c r="K59">
+        <v>1.231311043983801</v>
+      </c>
+      <c r="L59" t="s">
+        <v>110</v>
+      </c>
+      <c r="M59">
+        <v>1389.392157967688</v>
+      </c>
+      <c r="N59">
+        <v>1182.989932329896</v>
+      </c>
+      <c r="O59">
+        <v>1389.392207970188</v>
+      </c>
+      <c r="P59">
+        <v>1595.200733702659</v>
+      </c>
+      <c r="Q59">
+        <v>0.5881710960857391</v>
+      </c>
+      <c r="S59">
+        <v>2.119898309327334</v>
+      </c>
+      <c r="T59">
+        <v>0.2216501270130682</v>
+      </c>
+      <c r="U59">
+        <v>1.176342192171478</v>
+      </c>
+      <c r="V59" t="s">
+        <v>110</v>
+      </c>
+      <c r="W59">
+        <v>1266.295828806715</v>
+      </c>
+      <c r="X59">
+        <v>96.38571593714404</v>
+      </c>
+      <c r="Y59">
+        <v>0.6552254988601992</v>
+      </c>
+      <c r="Z59">
+        <v>1410.640031337457</v>
+      </c>
+      <c r="AA59">
+        <v>146.4659714565632</v>
+      </c>
+      <c r="AB59">
+        <v>0.6181318469923991</v>
+      </c>
+      <c r="AC59">
+        <v>1370.842138821678</v>
+      </c>
+      <c r="AD59">
+        <v>21.46449954652773</v>
+      </c>
+      <c r="AE59">
+        <v>0.2937917442274982</v>
+      </c>
+      <c r="AF59">
+        <v>1382.384242602481</v>
+      </c>
+      <c r="AG59">
+        <v>2.078527493988888</v>
+      </c>
+      <c r="AH59">
+        <v>14.68955406210834</v>
+      </c>
+      <c r="AI59">
+        <v>1279.595308644408</v>
+      </c>
+      <c r="AJ59">
+        <v>1.241154763128143</v>
+      </c>
+      <c r="AK59">
+        <v>15.37752979713573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60">
+        <v>102.753913260123</v>
+      </c>
+      <c r="D60">
+        <v>1286.643879846167</v>
+      </c>
+      <c r="E60">
+        <v>644.6768387616319</v>
+      </c>
+      <c r="F60">
+        <v>1286.643929848667</v>
+      </c>
+      <c r="G60">
+        <v>902.811048057409</v>
+      </c>
+      <c r="H60">
+        <v>0.6166508776379401</v>
+      </c>
+      <c r="I60">
+        <v>2.086896802652288</v>
+      </c>
+      <c r="J60">
+        <v>0.1941749788740325</v>
+      </c>
+      <c r="K60">
+        <v>1.23330175527588</v>
+      </c>
+      <c r="L60" t="s">
+        <v>110</v>
+      </c>
+      <c r="M60">
+        <v>1389.39789311129</v>
+      </c>
+      <c r="N60">
+        <v>1012.200943511173</v>
+      </c>
+      <c r="O60">
+        <v>1389.39784310879</v>
+      </c>
+      <c r="P60">
+        <v>1352.009222398073</v>
+      </c>
+      <c r="Q60">
+        <v>0.5864797511923386</v>
+      </c>
+      <c r="S60">
+        <v>2.106173749019201</v>
+      </c>
+      <c r="T60">
+        <v>0.202560077994637</v>
+      </c>
+      <c r="U60">
+        <v>1.172959502384677</v>
+      </c>
+      <c r="V60" t="s">
+        <v>110</v>
+      </c>
+      <c r="W60">
+        <v>1266.358515299708</v>
+      </c>
+      <c r="X60">
+        <v>75.60366398053237</v>
+      </c>
+      <c r="Y60">
+        <v>0.6948983222622003</v>
+      </c>
+      <c r="Z60">
+        <v>1410.613742475168</v>
+      </c>
+      <c r="AA60">
+        <v>130.4116278568378</v>
+      </c>
+      <c r="AB60">
+        <v>0.6043914001728978</v>
+      </c>
+      <c r="AF60">
+        <v>1382.386028925855</v>
+      </c>
+      <c r="AG60">
+        <v>1.733201107230132</v>
+      </c>
+      <c r="AH60">
+        <v>14.64894208543166</v>
+      </c>
+      <c r="AI60">
+        <v>1279.601188595374</v>
+      </c>
+      <c r="AJ60">
+        <v>0.9682250487503272</v>
+      </c>
+      <c r="AK60">
+        <v>15.40409609184394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61">
+        <v>102.758965476728</v>
+      </c>
+      <c r="D61">
+        <v>1286.652477372915</v>
+      </c>
+      <c r="E61">
+        <v>514.386403898047</v>
+      </c>
+      <c r="F61">
+        <v>1286.652527375416</v>
+      </c>
+      <c r="G61">
+        <v>698.2724068906613</v>
+      </c>
+      <c r="H61">
+        <v>0.6040467417169365</v>
+      </c>
+      <c r="I61">
+        <v>2.099035651452082</v>
+      </c>
+      <c r="J61">
+        <v>0.1635201057059681</v>
+      </c>
+      <c r="K61">
+        <v>1.208093483433873</v>
+      </c>
+      <c r="L61" t="s">
+        <v>110</v>
+      </c>
+      <c r="M61">
+        <v>1389.411442849643</v>
+      </c>
+      <c r="N61">
+        <v>791.6678579511587</v>
+      </c>
+      <c r="O61">
+        <v>1389.411492852144</v>
+      </c>
+      <c r="P61">
+        <v>1046.214522705233</v>
+      </c>
+      <c r="Q61">
+        <v>0.587592705445104</v>
+      </c>
+      <c r="S61">
+        <v>1.873467738338126</v>
+      </c>
+      <c r="T61">
+        <v>0.1658720452143872</v>
+      </c>
+      <c r="U61">
+        <v>1.175185410890208</v>
+      </c>
+      <c r="V61" t="s">
+        <v>110</v>
+      </c>
+      <c r="W61">
+        <v>1266.369046496319</v>
+      </c>
+      <c r="X61">
+        <v>50.15648158751409</v>
+      </c>
+      <c r="Y61">
+        <v>0.6498670610623589</v>
+      </c>
+      <c r="Z61">
+        <v>1410.642560904564</v>
+      </c>
+      <c r="AA61">
+        <v>95.77302488196214</v>
+      </c>
+      <c r="AB61">
+        <v>0.5883357541638626</v>
+      </c>
+      <c r="AC61">
+        <v>1371.208934888674</v>
+      </c>
+      <c r="AD61">
+        <v>17.6299063723815</v>
+      </c>
+      <c r="AE61">
+        <v>0.2935107555525707</v>
+      </c>
+      <c r="AF61">
+        <v>1382.408042738399</v>
+      </c>
+      <c r="AG61">
+        <v>1.401776731307808</v>
+      </c>
+      <c r="AH61">
+        <v>14.67495677304261</v>
+      </c>
+      <c r="AI61">
+        <v>1279.613922168679</v>
+      </c>
+      <c r="AJ61">
+        <v>0.6952705137495981</v>
+      </c>
+      <c r="AK61">
+        <v>15.09077191971964</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62">
+        <v>102.7470137546209</v>
+      </c>
+      <c r="D62">
+        <v>1286.663971348686</v>
+      </c>
+      <c r="E62">
+        <v>370.1657502912089</v>
+      </c>
+      <c r="F62">
+        <v>1286.664021351186</v>
+      </c>
+      <c r="G62">
+        <v>493.2921010358752</v>
+      </c>
+      <c r="H62">
+        <v>0.6108955001236295</v>
+      </c>
+      <c r="I62">
+        <v>1.938230252803645</v>
+      </c>
+      <c r="J62">
+        <v>0.07475287038869077</v>
+      </c>
+      <c r="K62">
+        <v>1.221791000247259</v>
+      </c>
+      <c r="L62" t="s">
+        <v>110</v>
+      </c>
+      <c r="M62">
+        <v>1389.410985103307</v>
+      </c>
+      <c r="N62">
+        <v>579.3236172424495</v>
+      </c>
+      <c r="O62">
+        <v>1389.411035105807</v>
+      </c>
+      <c r="P62">
+        <v>763.70429938296</v>
+      </c>
+      <c r="Q62">
+        <v>0.5816703386750328</v>
+      </c>
+      <c r="S62">
+        <v>1.926068924839147</v>
+      </c>
+      <c r="T62">
+        <v>0.1882728656198512</v>
+      </c>
+      <c r="U62">
+        <v>1.163340677350066</v>
+      </c>
+      <c r="V62" t="s">
+        <v>110</v>
+      </c>
+      <c r="W62">
+        <v>1266.349681598292</v>
+      </c>
+      <c r="X62">
+        <v>33.11476246134205</v>
+      </c>
+      <c r="Y62">
+        <v>0.5807242006807987</v>
+      </c>
+      <c r="Z62">
+        <v>1410.635204315442</v>
+      </c>
+      <c r="AA62">
+        <v>72.93770506133077</v>
+      </c>
+      <c r="AB62">
+        <v>0.58570567679443</v>
+      </c>
+      <c r="AF62">
+        <v>1382.397026510465</v>
+      </c>
+      <c r="AG62">
+        <v>1.037205082565298</v>
+      </c>
+      <c r="AH62">
+        <v>14.52914306213068</v>
+      </c>
+      <c r="AI62">
+        <v>1279.62533771169</v>
+      </c>
+      <c r="AJ62">
+        <v>0.5081281870944</v>
+      </c>
+      <c r="AK62">
+        <v>15.26171429971138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63">
+        <v>104.6493726798988</v>
+      </c>
+      <c r="D63">
+        <v>1282.314884566689</v>
+      </c>
+      <c r="E63">
+        <v>28671.26095765025</v>
+      </c>
+      <c r="F63">
+        <v>1282.314834564189</v>
+      </c>
+      <c r="G63">
+        <v>84679.20801139748</v>
+      </c>
+      <c r="H63">
+        <v>1.082498754059872</v>
+      </c>
+      <c r="I63">
+        <v>32.41971207468075</v>
+      </c>
+      <c r="J63">
+        <v>0.7049593333015158</v>
+      </c>
+      <c r="K63">
+        <v>2.164997508119743</v>
+      </c>
+      <c r="L63" t="s">
+        <v>110</v>
+      </c>
+      <c r="M63">
+        <v>1386.964157241587</v>
+      </c>
+      <c r="N63">
+        <v>55422.41811500883</v>
+      </c>
+      <c r="O63">
+        <v>1386.964207244087</v>
+      </c>
+      <c r="P63">
+        <v>153428.2734311862</v>
+      </c>
+      <c r="Q63">
+        <v>1.003908444843391</v>
+      </c>
+      <c r="S63">
+        <v>48.67365671261955</v>
+      </c>
+      <c r="T63">
+        <v>0.7227984322894675</v>
+      </c>
+      <c r="U63">
+        <v>2.007816889686782</v>
+      </c>
+      <c r="V63" t="s">
+        <v>110</v>
+      </c>
+      <c r="W63">
+        <v>1262.243022533421</v>
+      </c>
+      <c r="X63">
+        <v>12070.38438344615</v>
+      </c>
+      <c r="Y63">
+        <v>3.114625426225459</v>
+      </c>
+      <c r="Z63">
+        <v>1408.298895631183</v>
+      </c>
+      <c r="AA63">
+        <v>15250.87266913746</v>
+      </c>
+      <c r="AB63">
+        <v>2.502835359012788</v>
+      </c>
+      <c r="AC63">
+        <v>1369.56593282059</v>
+      </c>
+      <c r="AD63">
+        <v>1409.147488901328</v>
+      </c>
+      <c r="AE63">
+        <v>0.5012226113586805</v>
+      </c>
+      <c r="AF63">
+        <v>1384.806251373705</v>
+      </c>
+      <c r="AG63">
+        <v>13235.6859323504</v>
+      </c>
+      <c r="AH63">
+        <v>15.54550366115746</v>
+      </c>
+      <c r="AI63">
+        <v>1285.67346723272</v>
+      </c>
+      <c r="AJ63">
+        <v>7530.685381759354</v>
+      </c>
+      <c r="AK63">
+        <v>11.63021804970356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64">
+        <v>102.7261393834767</v>
+      </c>
+      <c r="D64">
+        <v>1286.690976425816</v>
+      </c>
+      <c r="E64">
+        <v>255.466244160205</v>
+      </c>
+      <c r="F64">
+        <v>1286.691026428316</v>
+      </c>
+      <c r="G64">
+        <v>334.1535990815094</v>
+      </c>
+      <c r="H64">
+        <v>0.6046822689110343</v>
+      </c>
+      <c r="I64">
+        <v>1.862139264343875</v>
+      </c>
+      <c r="J64">
+        <v>0.04917230072598239</v>
+      </c>
+      <c r="K64">
+        <v>1.209364537822069</v>
+      </c>
+      <c r="L64" t="s">
+        <v>110</v>
+      </c>
+      <c r="M64">
+        <v>1389.417115809293</v>
+      </c>
+      <c r="N64">
+        <v>403.1036556853724</v>
+      </c>
+      <c r="O64">
+        <v>1389.417165811793</v>
+      </c>
+      <c r="P64">
+        <v>520.0684156542018</v>
+      </c>
+      <c r="Q64">
+        <v>0.5801994804938293</v>
+      </c>
+      <c r="S64">
+        <v>1.704953857768318</v>
+      </c>
+      <c r="T64">
+        <v>0.132287146984772</v>
+      </c>
+      <c r="U64">
+        <v>1.160398960987659</v>
+      </c>
+      <c r="V64" t="s">
+        <v>110</v>
+      </c>
+      <c r="W64">
+        <v>1266.358324638226</v>
+      </c>
+      <c r="X64">
+        <v>28.87623662163447</v>
+      </c>
+      <c r="Y64">
+        <v>0.6709698088899121</v>
+      </c>
+      <c r="Z64">
+        <v>1410.681878782433</v>
+      </c>
+      <c r="AA64">
+        <v>48.51922725301981</v>
+      </c>
+      <c r="AB64">
+        <v>0.5947683259207242</v>
+      </c>
+      <c r="AF64">
+        <v>1382.412278340427</v>
+      </c>
+      <c r="AG64">
+        <v>0.7725495357511698</v>
+      </c>
+      <c r="AH64">
+        <v>14.49374453527936</v>
+      </c>
+      <c r="AI64">
+        <v>1279.685850381792</v>
+      </c>
+      <c r="AJ64">
+        <v>0.3867926220059198</v>
+      </c>
+      <c r="AK64">
+        <v>15.10456983390082</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>102.7401560719375</v>
+      </c>
+      <c r="D65">
+        <v>1286.697302311496</v>
+      </c>
+      <c r="E65">
+        <v>180.0333924708374</v>
+      </c>
+      <c r="F65">
+        <v>1286.697352313996</v>
+      </c>
+      <c r="G65">
+        <v>236.301919161943</v>
+      </c>
+      <c r="H65">
+        <v>0.6163843963851894</v>
+      </c>
+      <c r="I65">
+        <v>2.56684780545623</v>
+      </c>
+      <c r="J65">
+        <v>0.0009146297693508609</v>
+      </c>
+      <c r="K65">
+        <v>1.232768792770379</v>
+      </c>
+      <c r="L65" t="s">
+        <v>110</v>
+      </c>
+      <c r="M65">
+        <v>1389.437458383433</v>
+      </c>
+      <c r="N65">
+        <v>289.758025525029</v>
+      </c>
+      <c r="O65">
+        <v>1389.437508385933</v>
+      </c>
+      <c r="P65">
+        <v>376.77167025924</v>
+      </c>
+      <c r="Q65">
+        <v>0.5827958632892963</v>
+      </c>
+      <c r="S65">
+        <v>2.365037796144986</v>
+      </c>
+      <c r="T65">
+        <v>0.1423448553383797</v>
+      </c>
+      <c r="U65">
+        <v>1.165591726578593</v>
+      </c>
+      <c r="V65" t="s">
+        <v>110</v>
+      </c>
+      <c r="W65">
+        <v>1266.356083082325</v>
+      </c>
+      <c r="X65">
+        <v>16.76189311335139</v>
+      </c>
+      <c r="Y65">
+        <v>0.504415498074105</v>
+      </c>
+      <c r="Z65">
+        <v>1410.662268240182</v>
+      </c>
+      <c r="AA65">
+        <v>27.82641324342463</v>
+      </c>
+      <c r="AB65">
+        <v>0.5243138289570273</v>
+      </c>
+      <c r="AF65">
+        <v>1384.480524716818</v>
+      </c>
+      <c r="AG65">
+        <v>0.4815700414678357</v>
+      </c>
+      <c r="AH65">
+        <v>5.824186658315407</v>
+      </c>
+      <c r="AI65">
+        <v>1281.686433183236</v>
+      </c>
+      <c r="AJ65">
+        <v>0.2470405802660102</v>
+      </c>
+      <c r="AK65">
+        <v>6.163672453484641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>102.7611268736223</v>
+      </c>
+      <c r="D66">
+        <v>1286.675299500571</v>
+      </c>
+      <c r="E66">
+        <v>218.6339998999948</v>
+      </c>
+      <c r="F66">
+        <v>1286.675249498071</v>
+      </c>
+      <c r="G66">
+        <v>278.9363147497604</v>
+      </c>
+      <c r="H66">
+        <v>0.5992557839786228</v>
+      </c>
+      <c r="I66">
+        <v>6.033024230149303</v>
+      </c>
+      <c r="J66">
+        <v>0.0001746353664319744</v>
+      </c>
+      <c r="K66">
+        <v>1.198511567957246</v>
+      </c>
+      <c r="L66" t="s">
+        <v>110</v>
+      </c>
+      <c r="M66">
+        <v>1389.436326369193</v>
+      </c>
+      <c r="N66">
+        <v>346.6735804890266</v>
+      </c>
+      <c r="O66">
+        <v>1389.436376371693</v>
+      </c>
+      <c r="P66">
+        <v>432.2162267046907</v>
+      </c>
+      <c r="Q66">
+        <v>0.5856816196871734</v>
+      </c>
+      <c r="S66">
+        <v>2.891279339717297</v>
+      </c>
+      <c r="T66">
+        <v>1.8122751424543E-05</v>
+      </c>
+      <c r="U66">
+        <v>1.171363239374347</v>
+      </c>
+      <c r="V66" t="s">
+        <v>110</v>
+      </c>
+      <c r="W66">
+        <v>1266.567576092587</v>
+      </c>
+      <c r="X66">
+        <v>16.70144632570312</v>
+      </c>
+      <c r="Y66">
+        <v>0.2471951557638484</v>
+      </c>
+      <c r="Z66">
+        <v>1410.544648954996</v>
+      </c>
+      <c r="AA66">
+        <v>33.8112334688783</v>
+      </c>
+      <c r="AB66">
+        <v>0.4816512237488597</v>
+      </c>
+      <c r="AF66">
+        <v>1386.016904657809</v>
+      </c>
+      <c r="AG66">
+        <v>0.6395268876360065</v>
+      </c>
+      <c r="AH66">
+        <v>5.857752038366437</v>
+      </c>
+      <c r="AI66">
+        <v>1293.083054176291</v>
+      </c>
+      <c r="AJ66">
+        <v>0.2388990206903965</v>
+      </c>
+      <c r="AK66">
+        <v>14.98233947974307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67">
+        <v>102.7596320358</v>
+      </c>
+      <c r="D67">
+        <v>1286.683518285997</v>
+      </c>
+      <c r="E67">
+        <v>182.3066353829213</v>
+      </c>
+      <c r="F67">
+        <v>1286.683568288497</v>
+      </c>
+      <c r="G67">
+        <v>235.3112850120677</v>
+      </c>
+      <c r="H67">
+        <v>0.6063010597634096</v>
+      </c>
+      <c r="I67">
+        <v>3.748908927183292</v>
+      </c>
+      <c r="J67">
+        <v>1.734554722077064E-10</v>
+      </c>
+      <c r="K67">
+        <v>1.212602119526819</v>
+      </c>
+      <c r="L67" t="s">
+        <v>110</v>
+      </c>
+      <c r="M67">
+        <v>1389.443150321797</v>
+      </c>
+      <c r="N67">
+        <v>302.5272286490675</v>
+      </c>
+      <c r="O67">
+        <v>1389.443200324297</v>
+      </c>
+      <c r="P67">
+        <v>375.5448818184105</v>
+      </c>
+      <c r="Q67">
+        <v>0.5831623488535373</v>
+      </c>
+      <c r="S67">
+        <v>2.744492308060276</v>
+      </c>
+      <c r="T67">
+        <v>2.315559354887364E-05</v>
+      </c>
+      <c r="U67">
+        <v>1.166324697707075</v>
+      </c>
+      <c r="V67" t="s">
+        <v>110</v>
+      </c>
+      <c r="W67">
+        <v>1266.396402848988</v>
+      </c>
+      <c r="X67">
+        <v>14.63509233511374</v>
+      </c>
+      <c r="Y67">
+        <v>0.4786497934690147</v>
+      </c>
+      <c r="Z67">
+        <v>1410.651715997208</v>
+      </c>
+      <c r="AA67">
+        <v>35.40429638285772</v>
+      </c>
+      <c r="AB67">
+        <v>0.5803768418393033</v>
+      </c>
+      <c r="AC67">
+        <v>1370.753505772422</v>
+      </c>
+      <c r="AD67">
+        <v>11.57007889391071</v>
+      </c>
+      <c r="AE67">
+        <v>0.2916388635100572</v>
+      </c>
+      <c r="AF67">
+        <v>1389.695009189753</v>
+      </c>
+      <c r="AG67">
+        <v>0.5416215334140529</v>
+      </c>
+      <c r="AH67">
+        <v>5.83277727021616</v>
+      </c>
+      <c r="AI67">
+        <v>1280.008079545416</v>
+      </c>
+      <c r="AJ67">
+        <v>0.1802252199931657</v>
+      </c>
+      <c r="AK67">
+        <v>15.15771918387003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68">
+        <v>102.727302647254</v>
+      </c>
+      <c r="D68">
+        <v>1286.708152273254</v>
+      </c>
+      <c r="E68">
+        <v>156.0547005788032</v>
+      </c>
+      <c r="F68">
+        <v>1286.708102270754</v>
+      </c>
+      <c r="G68">
+        <v>205.0777957351319</v>
+      </c>
+      <c r="H68">
+        <v>0.6172843347602213</v>
+      </c>
+      <c r="I68">
+        <v>3.172584485158358</v>
+      </c>
+      <c r="J68">
+        <v>2.01711973163432E-06</v>
+      </c>
+      <c r="K68">
+        <v>1.234568669520443</v>
+      </c>
+      <c r="L68" t="s">
+        <v>110</v>
+      </c>
+      <c r="M68">
+        <v>1389.435354915508</v>
+      </c>
+      <c r="N68">
+        <v>264.1208823903979</v>
+      </c>
+      <c r="O68">
+        <v>1389.435404918008</v>
+      </c>
+      <c r="P68">
+        <v>321.328606915959</v>
+      </c>
+      <c r="Q68">
+        <v>0.5714751153196131</v>
+      </c>
+      <c r="S68">
+        <v>2.651144733682536</v>
+      </c>
+      <c r="T68">
+        <v>1.653192212180965E-06</v>
+      </c>
+      <c r="U68">
+        <v>1.142950230639226</v>
+      </c>
+      <c r="V68" t="s">
+        <v>110</v>
+      </c>
+      <c r="W68">
+        <v>1266.550229665549</v>
+      </c>
+      <c r="X68">
+        <v>11.0479818834412</v>
+      </c>
+      <c r="Y68">
+        <v>0.5299720387147083</v>
+      </c>
+      <c r="Z68">
+        <v>1410.7005298931</v>
+      </c>
+      <c r="AA68">
+        <v>22.42153226215612</v>
+      </c>
+      <c r="AB68">
+        <v>0.6064750009837113</v>
+      </c>
+      <c r="AF68">
+        <v>1382.441084168401</v>
+      </c>
+      <c r="AG68">
+        <v>0.3219287415296432</v>
+      </c>
+      <c r="AH68">
+        <v>14.28749327813551</v>
+      </c>
+      <c r="AI68">
+        <v>1293.753153013783</v>
+      </c>
+      <c r="AJ68">
+        <v>0.09193707977224455</v>
+      </c>
+      <c r="AK68">
+        <v>15.43198659650989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69">
+        <v>102.7305796629255</v>
+      </c>
+      <c r="D69">
+        <v>1286.713743458466</v>
+      </c>
+      <c r="E69">
+        <v>129.9633490679018</v>
+      </c>
+      <c r="F69">
+        <v>1286.713793460966</v>
+      </c>
+      <c r="G69">
+        <v>167.3617986854485</v>
+      </c>
+      <c r="H69">
+        <v>0.604897945495229</v>
+      </c>
+      <c r="I69">
+        <v>3.632006805418689</v>
+      </c>
+      <c r="J69">
+        <v>2.153832667772804E-14</v>
+      </c>
+      <c r="K69">
+        <v>1.209795890990458</v>
+      </c>
+      <c r="L69" t="s">
+        <v>110</v>
+      </c>
+      <c r="M69">
+        <v>1389.444323121392</v>
+      </c>
+      <c r="N69">
+        <v>233.2771126173394</v>
+      </c>
+      <c r="O69">
+        <v>1389.444373123892</v>
+      </c>
+      <c r="P69">
+        <v>283.8916552034606</v>
+      </c>
+      <c r="Q69">
+        <v>0.520225329341611</v>
+      </c>
+      <c r="S69">
+        <v>2.807854483440611</v>
+      </c>
+      <c r="T69">
+        <v>0.2793553039833958</v>
+      </c>
+      <c r="U69">
+        <v>1.040450658683222</v>
+      </c>
+      <c r="V69" t="s">
+        <v>110</v>
+      </c>
+      <c r="W69">
+        <v>1266.483771751163</v>
+      </c>
+      <c r="X69">
+        <v>9.627282623822827</v>
+      </c>
+      <c r="Y69">
+        <v>0.3635446394412148</v>
+      </c>
+      <c r="Z69">
+        <v>1410.668572278288</v>
+      </c>
+      <c r="AA69">
+        <v>22.04840877784105</v>
+      </c>
+      <c r="AB69">
+        <v>0.525258704685319</v>
+      </c>
+      <c r="AF69">
+        <v>1388.643042602007</v>
+      </c>
+      <c r="AG69">
+        <v>0.3847413088254465</v>
+      </c>
+      <c r="AH69">
+        <v>5.197674784831177</v>
+      </c>
+      <c r="AI69">
+        <v>1279.701818235021</v>
+      </c>
+      <c r="AJ69">
+        <v>0.1120808432495033</v>
+      </c>
+      <c r="AK69">
+        <v>15.11530055691536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70">
+        <v>102.7586006531017</v>
+      </c>
+      <c r="D70">
+        <v>1286.687001480054</v>
+      </c>
+      <c r="E70">
+        <v>125.8584305989912</v>
+      </c>
+      <c r="F70">
+        <v>1286.687051482554</v>
+      </c>
+      <c r="G70">
+        <v>155.7403190979661</v>
+      </c>
+      <c r="H70">
+        <v>0.5812479375922017</v>
+      </c>
+      <c r="I70">
+        <v>3.008834021553926</v>
+      </c>
+      <c r="J70">
+        <v>9.715798083287375E-07</v>
+      </c>
+      <c r="K70">
+        <v>1.162495875184403</v>
+      </c>
+      <c r="L70" t="s">
+        <v>110</v>
+      </c>
+      <c r="M70">
+        <v>1389.445602133155</v>
+      </c>
+      <c r="N70">
+        <v>212.2956066851379</v>
+      </c>
+      <c r="O70">
+        <v>1389.445652135655</v>
+      </c>
+      <c r="P70">
+        <v>267.4010349907432</v>
+      </c>
+      <c r="Q70">
+        <v>0.567199383785391</v>
+      </c>
+      <c r="S70">
+        <v>2.302345914924882</v>
+      </c>
+      <c r="T70">
+        <v>0.1325414572804577</v>
+      </c>
+      <c r="U70">
+        <v>1.134398767570782</v>
+      </c>
+      <c r="V70" t="s">
+        <v>110</v>
+      </c>
+      <c r="W70">
+        <v>1266.490913315835</v>
+      </c>
+      <c r="X70">
+        <v>9.031627760164453</v>
+      </c>
+      <c r="Y70">
+        <v>0.5034946029578365</v>
+      </c>
+      <c r="Z70">
+        <v>1409.448725523736</v>
+      </c>
+      <c r="AA70">
+        <v>255.7390349415573</v>
+      </c>
+      <c r="AB70">
+        <v>0.2260403805599503</v>
+      </c>
+      <c r="AF70">
+        <v>1386.845962999538</v>
+      </c>
+      <c r="AG70">
+        <v>8.234000657586012</v>
+      </c>
+      <c r="AH70">
+        <v>10.39779746403055</v>
+      </c>
+      <c r="AI70">
+        <v>1279.64913029185</v>
+      </c>
+      <c r="AJ70">
+        <v>0.05959362724177346</v>
+      </c>
+      <c r="AK70">
+        <v>14.53144249325757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71">
+        <v>102.7281739609562</v>
+      </c>
+      <c r="D71">
+        <v>1286.718113612858</v>
+      </c>
+      <c r="E71">
+        <v>117.90226048515</v>
+      </c>
+      <c r="F71">
+        <v>1286.718063610358</v>
+      </c>
+      <c r="G71">
+        <v>147.7800054047059</v>
+      </c>
+      <c r="H71">
+        <v>0.5887545158309639</v>
+      </c>
+      <c r="I71">
+        <v>2.951176087250606</v>
+      </c>
+      <c r="J71">
+        <v>2.32387962023628E-06</v>
+      </c>
+      <c r="K71">
+        <v>1.177509031661928</v>
+      </c>
+      <c r="L71" t="s">
+        <v>110</v>
+      </c>
+      <c r="M71">
+        <v>1389.446187568814</v>
+      </c>
+      <c r="N71">
+        <v>193.6392255786458</v>
+      </c>
+      <c r="O71">
+        <v>1389.446237571314</v>
+      </c>
+      <c r="P71">
+        <v>234.7986736642778</v>
+      </c>
+      <c r="Q71">
+        <v>0.5695842297276186</v>
+      </c>
+      <c r="S71">
+        <v>2.049498798370402</v>
+      </c>
+      <c r="T71">
+        <v>8.907852213135836E-06</v>
+      </c>
+      <c r="U71">
+        <v>1.139168459455237</v>
+      </c>
+      <c r="V71" t="s">
+        <v>110</v>
+      </c>
+      <c r="W71">
+        <v>1266.519450249228</v>
+      </c>
+      <c r="X71">
+        <v>6.306855387410941</v>
+      </c>
+      <c r="Y71">
+        <v>0.3584315476846121</v>
+      </c>
+      <c r="Z71">
+        <v>1410.626400590718</v>
+      </c>
+      <c r="AA71">
+        <v>16.62687145584473</v>
+      </c>
+      <c r="AB71">
+        <v>0.4059265659281719</v>
+      </c>
+      <c r="AF71">
+        <v>1382.455359052431</v>
+      </c>
+      <c r="AG71">
+        <v>0.3430728131504506</v>
+      </c>
+      <c r="AH71">
+        <v>14.24034863971626</v>
+      </c>
+      <c r="AI71">
+        <v>1293.72034415036</v>
+      </c>
+      <c r="AJ71">
+        <v>0.03632006272941562</v>
+      </c>
+      <c r="AK71">
+        <v>14.71898590761969</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72">
+        <v>104.5928864241284</v>
+      </c>
+      <c r="D72">
+        <v>1282.422510047813</v>
+      </c>
+      <c r="E72">
+        <v>27808.76690344792</v>
+      </c>
+      <c r="F72">
+        <v>1282.422460045313</v>
+      </c>
+      <c r="G72">
+        <v>82328.26753019469</v>
+      </c>
+      <c r="H72">
+        <v>1.086695344253517</v>
+      </c>
+      <c r="I72">
+        <v>31.60970708749547</v>
+      </c>
+      <c r="J72">
+        <v>0.699842990762309</v>
+      </c>
+      <c r="K72">
+        <v>2.173390688507035</v>
+      </c>
+      <c r="L72" t="s">
+        <v>110</v>
+      </c>
+      <c r="M72">
+        <v>1387.015296466941</v>
+      </c>
+      <c r="N72">
+        <v>53950.03186468631</v>
+      </c>
+      <c r="O72">
+        <v>1387.015346469441</v>
+      </c>
+      <c r="P72">
+        <v>148372.1930990681</v>
+      </c>
+      <c r="Q72">
+        <v>0.9979377669662125</v>
+      </c>
+      <c r="S72">
+        <v>48.11231526528545</v>
+      </c>
+      <c r="T72">
+        <v>0.7207439258258966</v>
+      </c>
+      <c r="U72">
+        <v>1.995875533932425</v>
+      </c>
+      <c r="V72" t="s">
+        <v>110</v>
+      </c>
+      <c r="W72">
+        <v>1262.400452342902</v>
+      </c>
+      <c r="X72">
+        <v>11756.57569753127</v>
+      </c>
+      <c r="Y72">
+        <v>3.108744964878027</v>
+      </c>
+      <c r="Z72">
+        <v>1408.362048933801</v>
+      </c>
+      <c r="AA72">
+        <v>14899.67536025685</v>
+      </c>
+      <c r="AB72">
+        <v>2.406095699113915</v>
+      </c>
+      <c r="AC72">
+        <v>1369.569403899829</v>
+      </c>
+      <c r="AD72">
+        <v>1373.573780611585</v>
+      </c>
+      <c r="AE72">
+        <v>0.4981186203142453</v>
+      </c>
+      <c r="AF72">
+        <v>1384.793423910178</v>
+      </c>
+      <c r="AG72">
+        <v>12807.86673240513</v>
+      </c>
+      <c r="AH72">
+        <v>16.1220787330215</v>
+      </c>
+      <c r="AI72">
+        <v>1286.370443939183</v>
+      </c>
+      <c r="AJ72">
+        <v>6886.687871287344</v>
+      </c>
+      <c r="AK72">
+        <v>11.67904814961166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73">
+        <v>104.528405768476</v>
+      </c>
+      <c r="D73">
+        <v>1282.556609584032</v>
+      </c>
+      <c r="E73">
+        <v>26093.14637685213</v>
+      </c>
+      <c r="F73">
+        <v>1282.556559581532</v>
+      </c>
+      <c r="G73">
+        <v>77623.69770407608</v>
+      </c>
+      <c r="H73">
+        <v>1.096656233503218</v>
+      </c>
+      <c r="I73">
+        <v>34.60836272732593</v>
+      </c>
+      <c r="J73">
+        <v>0.6880846607770316</v>
+      </c>
+      <c r="K73">
+        <v>2.193312467006437</v>
+      </c>
+      <c r="L73" t="s">
+        <v>110</v>
+      </c>
+      <c r="M73">
+        <v>1387.084915347508</v>
+      </c>
+      <c r="N73">
+        <v>50875.84576036589</v>
+      </c>
+      <c r="O73">
+        <v>1387.084965350008</v>
+      </c>
+      <c r="P73">
+        <v>138674.4460621554</v>
+      </c>
+      <c r="Q73">
+        <v>0.9919728683200052</v>
+      </c>
+      <c r="S73">
+        <v>41.88677501012187</v>
+      </c>
+      <c r="T73">
+        <v>0.7126123784800824</v>
+      </c>
+      <c r="U73">
+        <v>1.98394573664001</v>
+      </c>
+      <c r="V73" t="s">
+        <v>110</v>
+      </c>
+      <c r="W73">
+        <v>1262.488665022603</v>
+      </c>
+      <c r="X73">
+        <v>10915.45863754248</v>
+      </c>
+      <c r="Y73">
+        <v>2.98885272633875</v>
+      </c>
+      <c r="Z73">
+        <v>1408.431921434045</v>
+      </c>
+      <c r="AA73">
+        <v>14175.86571566346</v>
+      </c>
+      <c r="AB73">
+        <v>2.363619620682873</v>
+      </c>
+      <c r="AC73">
+        <v>1369.591225748685</v>
+      </c>
+      <c r="AD73">
+        <v>1283.189071878661</v>
+      </c>
+      <c r="AE73">
+        <v>0.4949943779474907</v>
+      </c>
+      <c r="AF73">
+        <v>1383.7633703272</v>
+      </c>
+      <c r="AG73">
+        <v>10991.54212153635</v>
+      </c>
+      <c r="AH73">
+        <v>15.76086416441911</v>
+      </c>
+      <c r="AI73">
+        <v>1287.500082298086</v>
+      </c>
+      <c r="AJ73">
+        <v>6594.321977515361</v>
+      </c>
+      <c r="AK73">
+        <v>12.51369692208689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74">
+        <v>104.4420374075157</v>
+      </c>
+      <c r="D74">
+        <v>1282.731032923791</v>
+      </c>
+      <c r="E74">
+        <v>14917.98473952035</v>
+      </c>
+      <c r="F74">
+        <v>1282.730982921291</v>
+      </c>
+      <c r="G74">
+        <v>44962.53073992316</v>
+      </c>
+      <c r="H74">
+        <v>1.107161727708324</v>
+      </c>
+      <c r="I74">
+        <v>17.61004608871712</v>
+      </c>
+      <c r="J74">
+        <v>0.692992475706614</v>
+      </c>
+      <c r="K74">
+        <v>2.214323455416649</v>
+      </c>
+      <c r="L74" t="s">
+        <v>110</v>
+      </c>
+      <c r="M74">
+        <v>1387.172970326307</v>
+      </c>
+      <c r="N74">
+        <v>29360.83223055757</v>
+      </c>
+      <c r="O74">
+        <v>1387.173020328807</v>
+      </c>
+      <c r="P74">
+        <v>79345.5285816914</v>
+      </c>
+      <c r="Q74">
+        <v>0.9799910049298104</v>
+      </c>
+      <c r="S74">
+        <v>24.62354686848481</v>
+      </c>
+      <c r="T74">
+        <v>0.7188886415671378</v>
+      </c>
+      <c r="U74">
+        <v>1.959982009859621</v>
+      </c>
+      <c r="V74" t="s">
+        <v>110</v>
+      </c>
+      <c r="W74">
+        <v>1262.655876614365</v>
+      </c>
+      <c r="X74">
+        <v>6273.229305432566</v>
+      </c>
+      <c r="Y74">
+        <v>2.920853919803759</v>
+      </c>
+      <c r="Z74">
+        <v>1408.491265713392</v>
+      </c>
+      <c r="AA74">
+        <v>8783.880908874469</v>
+      </c>
+      <c r="AB74">
+        <v>2.341979037859286</v>
+      </c>
+      <c r="AC74">
+        <v>1369.620702830591</v>
+      </c>
+      <c r="AD74">
+        <v>747.1248577719127</v>
+      </c>
+      <c r="AE74">
+        <v>0.488769527747517</v>
+      </c>
+      <c r="AF74">
+        <v>1380.158953465879</v>
+      </c>
+      <c r="AG74">
+        <v>5411.840067531737</v>
+      </c>
+      <c r="AH74">
+        <v>15.14087547807556</v>
+      </c>
+      <c r="AI74">
+        <v>1288.022189585315</v>
+      </c>
+      <c r="AJ74">
+        <v>3067.185951909618</v>
+      </c>
+      <c r="AK74">
+        <v>12.53105381389381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75">
+        <v>104.3845121377592</v>
+      </c>
+      <c r="D75">
+        <v>1282.850166213235</v>
+      </c>
+      <c r="E75">
+        <v>3950.447710517604</v>
+      </c>
+      <c r="F75">
+        <v>1282.850016205734</v>
+      </c>
+      <c r="G75">
+        <v>11926.24218028189</v>
+      </c>
+      <c r="H75">
+        <v>1.107728401695254</v>
+      </c>
+      <c r="I75">
+        <v>5.287529446519645</v>
+      </c>
+      <c r="J75">
+        <v>0.6935503226160401</v>
+      </c>
+      <c r="K75">
+        <v>2.215456803390509</v>
+      </c>
+      <c r="L75" t="s">
+        <v>110</v>
+      </c>
+      <c r="M75">
+        <v>1387.234478340994</v>
+      </c>
+      <c r="N75">
+        <v>7748.928389810698</v>
+      </c>
+      <c r="O75">
+        <v>1387.234528343494</v>
+      </c>
+      <c r="P75">
+        <v>20830.87089155054</v>
+      </c>
+      <c r="Q75">
+        <v>0.9798856952899322</v>
+      </c>
+      <c r="S75">
+        <v>6.35296565853621</v>
+      </c>
+      <c r="T75">
+        <v>0.7065093773772559</v>
+      </c>
+      <c r="U75">
+        <v>1.959771390579864</v>
+      </c>
+      <c r="V75" t="s">
+        <v>110</v>
+      </c>
+      <c r="W75">
+        <v>1262.793044684621</v>
+      </c>
+      <c r="X75">
+        <v>1712.340923886038</v>
+      </c>
+      <c r="Y75">
+        <v>2.915934659232783</v>
+      </c>
+      <c r="Z75">
+        <v>1408.58204193163</v>
+      </c>
+      <c r="AA75">
+        <v>2196.114125862139</v>
+      </c>
+      <c r="AB75">
+        <v>2.266388779806806</v>
+      </c>
+      <c r="AC75">
+        <v>1369.639313262115</v>
+      </c>
+      <c r="AD75">
+        <v>204.9669358407</v>
+      </c>
+      <c r="AE75">
+        <v>0.4885974599165544</v>
+      </c>
+      <c r="AF75">
+        <v>1382.019634636146</v>
+      </c>
+      <c r="AG75">
+        <v>1411.496617290681</v>
+      </c>
+      <c r="AH75">
+        <v>15.60281967239349</v>
+      </c>
+      <c r="AI75">
+        <v>1289.697618482641</v>
+      </c>
+      <c r="AJ75">
+        <v>694.9368564874504</v>
+      </c>
+      <c r="AK75">
+        <v>11.69035234766061</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>filename</t>
   </si>
@@ -22,9 +22,18 @@
     <t>Splitting</t>
   </si>
   <si>
+    <t>Split_err_abs</t>
+  </si>
+  <si>
+    <t>Split_err_quadrature</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Cent</t>
   </si>
   <si>
+    <t>Diad1_cent_err</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Height</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
   </si>
   <si>
     <t>Diad2_Combofit_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_cent_err</t>
   </si>
   <si>
     <t>Diad2_Combofit_Height</t>
@@ -602,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,4405 +729,4654 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>103.5024723429995</v>
+        <v>103.5024724559789</v>
       </c>
       <c r="D2">
-        <v>1284.782189094757</v>
+        <v>0.00348</v>
       </c>
       <c r="E2">
-        <v>2016.840740648319</v>
+        <v>0.002510019920239678</v>
       </c>
       <c r="F2">
-        <v>1284.782339102257</v>
+        <v>1284.782188987517</v>
       </c>
       <c r="G2">
-        <v>5982.550611456607</v>
+        <v>0.00209</v>
       </c>
       <c r="H2">
-        <v>1.184252033705662</v>
+        <v>2016.834592112437</v>
       </c>
       <c r="I2">
-        <v>3.979755558821806</v>
+        <v>1284.782338995017</v>
       </c>
       <c r="J2">
-        <v>0.4815495081266715</v>
+        <v>5982.437801141054</v>
       </c>
       <c r="K2">
-        <v>2.368504067411324</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
+        <v>1.184255918958358</v>
+      </c>
+      <c r="L2">
+        <v>3.979753363844447</v>
       </c>
       <c r="M2">
-        <v>1388.284861447757</v>
+        <v>0.4815056747551243</v>
       </c>
       <c r="N2">
-        <v>4086.248410634516</v>
-      </c>
-      <c r="O2">
-        <v>1388.284811445257</v>
+        <v>2.368511837916717</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
       </c>
       <c r="P2">
-        <v>9768.472066204726</v>
+        <v>1388.284861453496</v>
       </c>
       <c r="Q2">
-        <v>0.918251615962126</v>
+        <v>0.00139</v>
+      </c>
+      <c r="R2">
+        <v>4086.247150728164</v>
       </c>
       <c r="S2">
-        <v>5.20893488646428</v>
+        <v>1388.284811450996</v>
       </c>
       <c r="T2">
-        <v>0.5730118362537673</v>
+        <v>9768.464113388725</v>
       </c>
       <c r="U2">
-        <v>1.836503231924252</v>
-      </c>
-      <c r="V2" t="s">
-        <v>76</v>
+        <v>0.9182521180292579</v>
       </c>
       <c r="W2">
-        <v>1264.770298166171</v>
+        <v>5.208946570158932</v>
       </c>
       <c r="X2">
-        <v>882.8924497398112</v>
+        <v>0.5730091851086817</v>
       </c>
       <c r="Y2">
-        <v>1.654394228492442</v>
-      </c>
-      <c r="Z2">
-        <v>1409.684413736984</v>
+        <v>1.836504236058516</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
       </c>
       <c r="AA2">
-        <v>1298.488727634314</v>
+        <v>1264.770282977203</v>
       </c>
       <c r="AB2">
-        <v>1.309319774156497</v>
+        <v>882.7662669833077</v>
       </c>
       <c r="AC2">
-        <v>1370.209843392017</v>
+        <v>1.65438472903467</v>
       </c>
       <c r="AD2">
-        <v>131.7004328290397</v>
+        <v>1409.68441452121</v>
       </c>
       <c r="AE2">
-        <v>0.457450002918805</v>
+        <v>1298.508240403581</v>
       </c>
       <c r="AF2">
-        <v>1388.865326588705</v>
+        <v>1.30931396376837</v>
       </c>
       <c r="AG2">
-        <v>643.7049355165595</v>
+        <v>1370.209843209656</v>
       </c>
       <c r="AH2">
-        <v>22.87249635699384</v>
+        <v>131.6979612188892</v>
       </c>
       <c r="AI2">
-        <v>1277.806979070392</v>
+        <v>0.4574500034967394</v>
       </c>
       <c r="AJ2">
-        <v>699.6611475634131</v>
+        <v>1388.863381682544</v>
       </c>
       <c r="AK2">
-        <v>23.86499689858098</v>
+        <v>643.7011233460532</v>
+      </c>
+      <c r="AL2">
+        <v>22.87247814896636</v>
+      </c>
+      <c r="AM2">
+        <v>1277.806979070597</v>
+      </c>
+      <c r="AN2">
+        <v>699.9026455354871</v>
+      </c>
+      <c r="AO2">
+        <v>23.86207873863176</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>103.7099208675152</v>
+        <v>103.7099208132877</v>
       </c>
       <c r="D3">
-        <v>1284.33871674474</v>
+        <v>0.00379</v>
       </c>
       <c r="E3">
-        <v>921.5788562395422</v>
+        <v>0.00274963633959111</v>
       </c>
       <c r="F3">
-        <v>1284.33876674724</v>
+        <v>1284.338716741917</v>
       </c>
       <c r="G3">
-        <v>2757.724362068197</v>
+        <v>0.00233</v>
       </c>
       <c r="H3">
-        <v>1.149526511784565</v>
+        <v>921.5786023429456</v>
       </c>
       <c r="I3">
-        <v>1.973473129753105</v>
+        <v>1284.338766744417</v>
       </c>
       <c r="J3">
-        <v>0.5742844773362583</v>
+        <v>2757.72270887916</v>
       </c>
       <c r="K3">
-        <v>2.29905302356913</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
+        <v>1.149527126665627</v>
+      </c>
+      <c r="L3">
+        <v>1.973470898823709</v>
       </c>
       <c r="M3">
-        <v>1388.048637612255</v>
+        <v>0.5742822872389666</v>
       </c>
       <c r="N3">
-        <v>1854.643291177943</v>
-      </c>
-      <c r="O3">
-        <v>1388.048687614755</v>
+        <v>2.299054253331255</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
       </c>
       <c r="P3">
-        <v>4504.293237042815</v>
+        <v>1388.048637555205</v>
       </c>
       <c r="Q3">
-        <v>0.9147326517336365</v>
+        <v>0.00146</v>
+      </c>
+      <c r="R3">
+        <v>1854.643272858644</v>
       </c>
       <c r="S3">
-        <v>2.68806516155153</v>
+        <v>1388.048687557705</v>
       </c>
       <c r="T3">
-        <v>0.6228566552787409</v>
+        <v>4504.293096917347</v>
       </c>
       <c r="U3">
-        <v>1.829465303467273</v>
-      </c>
-      <c r="V3" t="s">
-        <v>76</v>
+        <v>0.9147326428194799</v>
       </c>
       <c r="W3">
-        <v>1264.203596715735</v>
+        <v>2.688088739992634</v>
       </c>
       <c r="X3">
-        <v>355.79121566719</v>
+        <v>0.6228566219101682</v>
       </c>
       <c r="Y3">
-        <v>1.849423200616508</v>
-      </c>
-      <c r="Z3">
-        <v>1409.430984972963</v>
+        <v>1.82946528563896</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>80</v>
       </c>
       <c r="AA3">
-        <v>510.5612414048991</v>
+        <v>1264.203595165415</v>
       </c>
       <c r="AB3">
-        <v>1.493058169600525</v>
+        <v>355.7939540882215</v>
       </c>
       <c r="AC3">
-        <v>1370.214082957299</v>
+        <v>1.849443818181747</v>
       </c>
       <c r="AD3">
-        <v>60.83283057331457</v>
+        <v>1409.430980600172</v>
       </c>
       <c r="AE3">
-        <v>0.4562908128438742</v>
+        <v>510.5363008740238</v>
       </c>
       <c r="AF3">
-        <v>1381.050102516675</v>
+        <v>1.493122609303005</v>
       </c>
       <c r="AG3">
-        <v>241.4948449520882</v>
+        <v>1370.21408401932</v>
       </c>
       <c r="AH3">
-        <v>15.91374112981194</v>
+        <v>60.83273632567399</v>
       </c>
       <c r="AI3">
-        <v>1277.345067657342</v>
+        <v>0.4562908125913365</v>
       </c>
       <c r="AJ3">
-        <v>159.8463762805611</v>
+        <v>1381.0506726907</v>
       </c>
       <c r="AK3">
-        <v>21.56801158254619</v>
+        <v>241.5189951808775</v>
+      </c>
+      <c r="AL3">
+        <v>15.91574580343088</v>
+      </c>
+      <c r="AM3">
+        <v>1277.345067423432</v>
+      </c>
+      <c r="AN3">
+        <v>159.8449147817232</v>
+      </c>
+      <c r="AO3">
+        <v>21.56793929513955</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>104.9478789445857</v>
-      </c>
-      <c r="D4">
-        <v>1281.782823711573</v>
-      </c>
-      <c r="E4">
-        <v>19925.45641417596</v>
+        <v>104.9478789447965</v>
       </c>
       <c r="F4">
-        <v>1281.782773709072</v>
+        <v>1281.782823714014</v>
       </c>
       <c r="G4">
-        <v>59214.90747482199</v>
+        <v>0.00141</v>
       </c>
       <c r="H4">
-        <v>1.072184254738131</v>
+        <v>19925.456420123</v>
       </c>
       <c r="I4">
-        <v>21.87488373109653</v>
+        <v>1281.782773711514</v>
       </c>
       <c r="J4">
-        <v>0.7477095620834292</v>
+        <v>59214.90805111329</v>
       </c>
       <c r="K4">
-        <v>2.144368509476263</v>
-      </c>
-      <c r="L4" t="s">
-        <v>76</v>
+        <v>1.072184255947148</v>
+      </c>
+      <c r="L4">
+        <v>21.87488830835131</v>
       </c>
       <c r="M4">
-        <v>1386.730702656158</v>
+        <v>0.747709575692952</v>
       </c>
       <c r="N4">
-        <v>38316.94856341022</v>
-      </c>
-      <c r="O4">
-        <v>1386.730652653658</v>
+        <v>2.144368511894296</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
       </c>
       <c r="P4">
-        <v>110740.7937365883</v>
-      </c>
-      <c r="Q4">
-        <v>1.031877865292556</v>
+        <v>1386.73070265881</v>
+      </c>
+      <c r="R4">
+        <v>38316.94885445029</v>
       </c>
       <c r="S4">
-        <v>30.09097897193289</v>
+        <v>1386.73065265631</v>
       </c>
       <c r="T4">
-        <v>0.7623907316957659</v>
+        <v>110740.8000444433</v>
       </c>
       <c r="U4">
-        <v>2.063755730585111</v>
-      </c>
-      <c r="V4" t="s">
-        <v>76</v>
+        <v>1.03187785913345</v>
       </c>
       <c r="W4">
-        <v>1261.710846628528</v>
+        <v>30.09095574667838</v>
       </c>
       <c r="X4">
-        <v>8057.379642871666</v>
+        <v>0.7623908420616399</v>
       </c>
       <c r="Y4">
-        <v>3.214417566042097</v>
-      </c>
-      <c r="Z4">
-        <v>1408.045211458461</v>
+        <v>2.063755718266901</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>80</v>
       </c>
       <c r="AA4">
-        <v>9990.082672436671</v>
+        <v>1261.710849815157</v>
       </c>
       <c r="AB4">
-        <v>2.882155327744886</v>
+        <v>8057.380936556069</v>
       </c>
       <c r="AC4">
-        <v>1369.530276092618</v>
+        <v>3.214417864505271</v>
       </c>
       <c r="AD4">
-        <v>1318.789019311669</v>
+        <v>1408.045205009551</v>
       </c>
       <c r="AE4">
-        <v>0.5152017112262949</v>
+        <v>9990.07999729961</v>
       </c>
       <c r="AF4">
-        <v>1387.124451792129</v>
+        <v>2.88219519146369</v>
       </c>
       <c r="AG4">
-        <v>10605.83667554703</v>
+        <v>1369.530275931312</v>
       </c>
       <c r="AH4">
-        <v>15.1280073352732</v>
+        <v>1318.788547911153</v>
       </c>
       <c r="AI4">
-        <v>1283.530666432989</v>
+        <v>0.5152017112045162</v>
       </c>
       <c r="AJ4">
-        <v>6516.598810035007</v>
+        <v>1387.124419632125</v>
       </c>
       <c r="AK4">
-        <v>11.899639725587</v>
+        <v>10605.82327642472</v>
+      </c>
+      <c r="AL4">
+        <v>15.12799529889548</v>
+      </c>
+      <c r="AM4">
+        <v>1283.530671552785</v>
+      </c>
+      <c r="AN4">
+        <v>6516.596393836178</v>
+      </c>
+      <c r="AO4">
+        <v>11.89963786493251</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>104.3060478529671</v>
-      </c>
-      <c r="D5">
-        <v>1283.014020800128</v>
-      </c>
-      <c r="E5">
-        <v>3839.584989698304</v>
+        <v>104.3060476735204</v>
       </c>
       <c r="F5">
-        <v>1283.014070802629</v>
+        <v>1283.014020808155</v>
       </c>
       <c r="G5">
-        <v>11734.97398134749</v>
+        <v>0.00154</v>
       </c>
       <c r="H5">
-        <v>1.134802420881847</v>
+        <v>3839.584981005509</v>
       </c>
       <c r="I5">
-        <v>4.870779900975498</v>
+        <v>1283.014070810655</v>
       </c>
       <c r="J5">
-        <v>0.6655960627128121</v>
+        <v>11734.97372088</v>
       </c>
       <c r="K5">
-        <v>2.269604841763693</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
+        <v>1.13480242189875</v>
+      </c>
+      <c r="L5">
+        <v>4.87077765873376</v>
       </c>
       <c r="M5">
-        <v>1387.320068653096</v>
+        <v>0.6655960228000772</v>
       </c>
       <c r="N5">
-        <v>7637.020988210687</v>
-      </c>
-      <c r="O5">
-        <v>1387.320118655596</v>
+        <v>2.2696048437975</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
       </c>
       <c r="P5">
-        <v>20283.3016487945</v>
-      </c>
-      <c r="Q5">
-        <v>0.9749736387357097</v>
+        <v>1387.320068481675</v>
+      </c>
+      <c r="R5">
+        <v>7637.020021706574</v>
       </c>
       <c r="S5">
-        <v>6.404156939384203</v>
+        <v>1387.320118484176</v>
       </c>
       <c r="T5">
-        <v>0.6888364401480436</v>
+        <v>20283.29068124172</v>
       </c>
       <c r="U5">
-        <v>1.949947277471419</v>
-      </c>
-      <c r="V5" t="s">
-        <v>76</v>
+        <v>0.9749738410817634</v>
       </c>
       <c r="W5">
-        <v>1262.917060707418</v>
+        <v>6.403646003785783</v>
       </c>
       <c r="X5">
-        <v>1408.507613058431</v>
+        <v>0.6888349957642318</v>
       </c>
       <c r="Y5">
-        <v>2.454501878747068</v>
-      </c>
-      <c r="Z5">
-        <v>1408.687970062464</v>
+        <v>1.949947682163527</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>80</v>
       </c>
       <c r="AA5">
-        <v>2081.457239068995</v>
+        <v>1262.917060890538</v>
       </c>
       <c r="AB5">
-        <v>2.112740318359677</v>
+        <v>1408.506242042862</v>
       </c>
       <c r="AC5">
-        <v>1369.669619492915</v>
+        <v>2.45449945336446</v>
       </c>
       <c r="AD5">
-        <v>260.2757524014361</v>
+        <v>1408.687975179317</v>
       </c>
       <c r="AE5">
-        <v>0.4861235286243665</v>
+        <v>2081.128812109255</v>
       </c>
       <c r="AF5">
-        <v>1384.487841500354</v>
+        <v>2.112761392540097</v>
       </c>
       <c r="AG5">
-        <v>1367.623200944641</v>
+        <v>1369.672288919967</v>
       </c>
       <c r="AH5">
-        <v>16.92314631375073</v>
+        <v>260.2472131979926</v>
       </c>
       <c r="AI5">
-        <v>1283.127039623897</v>
+        <v>0.4861233592346944</v>
       </c>
       <c r="AJ5">
-        <v>983.3284758940466</v>
+        <v>1384.491905435042</v>
       </c>
       <c r="AK5">
-        <v>18.09308041929856</v>
+        <v>1367.981358952464</v>
+      </c>
+      <c r="AL5">
+        <v>16.92766852777837</v>
+      </c>
+      <c r="AM5">
+        <v>1283.127003449197</v>
+      </c>
+      <c r="AN5">
+        <v>983.3300967622192</v>
+      </c>
+      <c r="AO5">
+        <v>18.0930920624546</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>104.2506655613543</v>
-      </c>
-      <c r="D6">
-        <v>1283.138753990149</v>
-      </c>
-      <c r="E6">
-        <v>3180.584905243736</v>
+        <v>104.2506654426647</v>
       </c>
       <c r="F6">
-        <v>1283.138803992649</v>
+        <v>1283.138754103544</v>
       </c>
       <c r="G6">
-        <v>9823.987496395814</v>
+        <v>0.00185</v>
       </c>
       <c r="H6">
-        <v>1.167959993815833</v>
+        <v>3180.584993323345</v>
       </c>
       <c r="I6">
-        <v>4.487110807902655</v>
+        <v>1283.138804106044</v>
       </c>
       <c r="J6">
-        <v>0.6213798638504751</v>
+        <v>9823.989541166338</v>
       </c>
       <c r="K6">
-        <v>2.335919987631666</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
+        <v>1.167959994087487</v>
+      </c>
+      <c r="L6">
+        <v>4.487069090925929</v>
       </c>
       <c r="M6">
-        <v>1387.389419551504</v>
+        <v>0.62138023357804</v>
       </c>
       <c r="N6">
-        <v>6469.972350373419</v>
-      </c>
-      <c r="O6">
-        <v>1387.389469554004</v>
+        <v>2.335919988174973</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
       </c>
       <c r="P6">
-        <v>17129.69172666296</v>
-      </c>
-      <c r="Q6">
-        <v>0.9640919360333363</v>
+        <v>1387.389419546209</v>
+      </c>
+      <c r="R6">
+        <v>6469.972266085163</v>
       </c>
       <c r="S6">
-        <v>5.255781905394075</v>
+        <v>1387.389469548709</v>
       </c>
       <c r="T6">
-        <v>0.7068222973579888</v>
+        <v>17129.68981915411</v>
       </c>
       <c r="U6">
-        <v>1.928183872066673</v>
-      </c>
-      <c r="V6" t="s">
-        <v>76</v>
+        <v>0.9640919434217986</v>
       </c>
       <c r="W6">
-        <v>1263.067749520717</v>
+        <v>5.255776487606227</v>
       </c>
       <c r="X6">
-        <v>1171.585931183504</v>
+        <v>0.7068220908511889</v>
       </c>
       <c r="Y6">
-        <v>2.392696976069251</v>
-      </c>
-      <c r="Z6">
-        <v>1408.756297556442</v>
+        <v>1.928183886843597</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
       </c>
       <c r="AA6">
-        <v>1840.630371171258</v>
+        <v>1263.067754941356</v>
       </c>
       <c r="AB6">
-        <v>2.065656589397133</v>
+        <v>1171.533281590561</v>
       </c>
       <c r="AC6">
-        <v>1369.725808679544</v>
+        <v>2.392599896098675</v>
       </c>
       <c r="AD6">
-        <v>211.2614378848953</v>
+        <v>1408.756298670119</v>
       </c>
       <c r="AE6">
-        <v>0.4808275227138893</v>
+        <v>1840.624809610279</v>
       </c>
       <c r="AF6">
-        <v>1381.192143116494</v>
+        <v>2.065652051352378</v>
       </c>
       <c r="AG6">
-        <v>993.9500860963069</v>
+        <v>1369.725808522623</v>
       </c>
       <c r="AH6">
-        <v>16.06962110645789</v>
+        <v>211.2616650094812</v>
       </c>
       <c r="AI6">
-        <v>1283.212257064919</v>
+        <v>0.4808275235403203</v>
       </c>
       <c r="AJ6">
-        <v>836.0514775657322</v>
+        <v>1381.192307416938</v>
       </c>
       <c r="AK6">
-        <v>17.70783448800243</v>
+        <v>993.9571979275605</v>
+      </c>
+      <c r="AL6">
+        <v>16.06971143742709</v>
+      </c>
+      <c r="AM6">
+        <v>1283.210361058223</v>
+      </c>
+      <c r="AN6">
+        <v>836.1168386951666</v>
+      </c>
+      <c r="AO6">
+        <v>17.70914656979727</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>104.1637127815222</v>
-      </c>
-      <c r="D7">
-        <v>1283.321184433083</v>
-      </c>
-      <c r="E7">
-        <v>4283.716319554323</v>
+        <v>104.1637127314646</v>
       </c>
       <c r="F7">
-        <v>1283.321234435583</v>
+        <v>1283.321184439018</v>
       </c>
       <c r="G7">
-        <v>13369.15164962627</v>
+        <v>0.00155</v>
       </c>
       <c r="H7">
-        <v>1.188373581750565</v>
+        <v>4283.71633267618</v>
       </c>
       <c r="I7">
-        <v>5.019336776619753</v>
+        <v>1283.321234441518</v>
       </c>
       <c r="J7">
-        <v>0.6028681001122661</v>
+        <v>13369.15144980223</v>
       </c>
       <c r="K7">
-        <v>2.37674716350113</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
+        <v>1.18837357153316</v>
+      </c>
+      <c r="L7">
+        <v>5.019335323663458</v>
       </c>
       <c r="M7">
-        <v>1387.484897214606</v>
+        <v>0.6028680970054651</v>
       </c>
       <c r="N7">
-        <v>8737.260746557513</v>
-      </c>
-      <c r="O7">
-        <v>1387.484947217106</v>
+        <v>2.376747143066319</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
       </c>
       <c r="P7">
-        <v>22927.43822733631</v>
-      </c>
-      <c r="Q7">
-        <v>0.967805298130278</v>
+        <v>1387.484897170483</v>
+      </c>
+      <c r="R7">
+        <v>8737.260385171216</v>
       </c>
       <c r="S7">
-        <v>7.29861011379544</v>
+        <v>1387.484947172983</v>
       </c>
       <c r="T7">
-        <v>0.6763340901774444</v>
+        <v>22927.42811943628</v>
       </c>
       <c r="U7">
-        <v>1.935610596260556</v>
-      </c>
-      <c r="V7" t="s">
-        <v>76</v>
+        <v>0.9678053067127633</v>
       </c>
       <c r="W7">
-        <v>1263.25339848349</v>
+        <v>7.298633610153262</v>
       </c>
       <c r="X7">
-        <v>1551.826905111355</v>
+        <v>0.676333304696646</v>
       </c>
       <c r="Y7">
-        <v>2.288583672524025</v>
-      </c>
-      <c r="Z7">
-        <v>1408.86158572033</v>
+        <v>1.935610613425527</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>80</v>
       </c>
       <c r="AA7">
-        <v>2412.365514501925</v>
+        <v>1263.253397551448</v>
       </c>
       <c r="AB7">
-        <v>1.965245395397398</v>
+        <v>1551.827260319134</v>
       </c>
       <c r="AC7">
-        <v>1369.725571090943</v>
+        <v>2.2885846472745</v>
       </c>
       <c r="AD7">
-        <v>288.9068894222955</v>
+        <v>1408.861587608885</v>
       </c>
       <c r="AE7">
-        <v>0.4826823398448462</v>
+        <v>2412.291005877237</v>
       </c>
       <c r="AF7">
-        <v>1382.841145951833</v>
+        <v>1.965267458346765</v>
       </c>
       <c r="AG7">
-        <v>1399.141377796367</v>
+        <v>1369.725585123534</v>
       </c>
       <c r="AH7">
-        <v>16.73373749198733</v>
+        <v>288.9072905839437</v>
       </c>
       <c r="AI7">
-        <v>1282.537368079397</v>
+        <v>0.4826823401192628</v>
       </c>
       <c r="AJ7">
-        <v>1141.746164268935</v>
+        <v>1382.842229212261</v>
       </c>
       <c r="AK7">
-        <v>19.34915658197738</v>
+        <v>1399.220216639246</v>
+      </c>
+      <c r="AL7">
+        <v>16.73451450211542</v>
+      </c>
+      <c r="AM7">
+        <v>1282.537319987049</v>
+      </c>
+      <c r="AN7">
+        <v>1141.744347708889</v>
+      </c>
+      <c r="AO7">
+        <v>19.34909633055553</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>104.1340455594514</v>
-      </c>
-      <c r="D8">
-        <v>1283.384609735689</v>
-      </c>
-      <c r="E8">
-        <v>4011.283832016767</v>
+        <v>104.1340454859983</v>
       </c>
       <c r="F8">
-        <v>1283.384659738189</v>
+        <v>1283.384609818952</v>
       </c>
       <c r="G8">
-        <v>12619.8410508777</v>
+        <v>0.00148</v>
       </c>
       <c r="H8">
-        <v>1.197456117348906</v>
+        <v>4011.283141127039</v>
       </c>
       <c r="I8">
-        <v>4.509594977394652</v>
+        <v>1283.384659821452</v>
       </c>
       <c r="J8">
-        <v>0.6035651171125651</v>
+        <v>12619.8230913576</v>
       </c>
       <c r="K8">
-        <v>2.394912234697813</v>
-      </c>
-      <c r="L8" t="s">
-        <v>76</v>
+        <v>1.19745625634652</v>
+      </c>
+      <c r="L8">
+        <v>4.50954894689775</v>
       </c>
       <c r="M8">
-        <v>1387.51865529514</v>
+        <v>0.6035623034409807</v>
       </c>
       <c r="N8">
-        <v>8263.072697417254</v>
-      </c>
-      <c r="O8">
-        <v>1387.51870529764</v>
+        <v>2.394912512693039</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
       </c>
       <c r="P8">
-        <v>21696.61115558348</v>
-      </c>
-      <c r="Q8">
-        <v>0.9701180772481018</v>
+        <v>1387.51865530495</v>
+      </c>
+      <c r="R8">
+        <v>8263.072692926167</v>
       </c>
       <c r="S8">
-        <v>7.067713218835978</v>
+        <v>1387.51870530745</v>
       </c>
       <c r="T8">
-        <v>0.6719035909072953</v>
+        <v>21696.61123053132</v>
       </c>
       <c r="U8">
-        <v>1.940236154496204</v>
-      </c>
-      <c r="V8" t="s">
-        <v>76</v>
+        <v>0.9701180803205918</v>
       </c>
       <c r="W8">
-        <v>1263.382066597718</v>
+        <v>7.067936690248462</v>
       </c>
       <c r="X8">
-        <v>1483.19358832994</v>
+        <v>0.6719035874973762</v>
       </c>
       <c r="Y8">
-        <v>2.268155788280972</v>
-      </c>
-      <c r="Z8">
-        <v>1408.877985220546</v>
+        <v>1.940236160641184</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>80</v>
       </c>
       <c r="AA8">
-        <v>2287.482401453576</v>
+        <v>1263.382076952495</v>
       </c>
       <c r="AB8">
-        <v>1.95545825928248</v>
+        <v>1483.117379325092</v>
       </c>
       <c r="AC8">
-        <v>1369.751933234248</v>
+        <v>2.268034082664441</v>
       </c>
       <c r="AD8">
-        <v>279.2002189084389</v>
+        <v>1408.877984855489</v>
       </c>
       <c r="AE8">
-        <v>0.4838010602899556</v>
+        <v>2287.485727471073</v>
       </c>
       <c r="AF8">
-        <v>1382.411308929031</v>
+        <v>1.955458897020313</v>
       </c>
       <c r="AG8">
-        <v>1283.077741636344</v>
+        <v>1369.752050722122</v>
       </c>
       <c r="AH8">
-        <v>16.28360111432083</v>
+        <v>279.1908094958159</v>
       </c>
       <c r="AI8">
-        <v>1281.7589650117</v>
+        <v>0.4838010602858815</v>
       </c>
       <c r="AJ8">
-        <v>1088.635056860583</v>
+        <v>1382.411109974789</v>
       </c>
       <c r="AK8">
-        <v>20.19991871510495</v>
+        <v>1283.082254782186</v>
+      </c>
+      <c r="AL8">
+        <v>16.28361122483659</v>
+      </c>
+      <c r="AM8">
+        <v>1281.756859472008</v>
+      </c>
+      <c r="AN8">
+        <v>1088.743686415434</v>
+      </c>
+      <c r="AO8">
+        <v>20.20061198690357</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>104.1083714181204</v>
-      </c>
-      <c r="D9">
-        <v>1283.442761854464</v>
-      </c>
-      <c r="E9">
-        <v>3719.985966005674</v>
+        <v>104.1083713287462</v>
       </c>
       <c r="F9">
-        <v>1283.442811856964</v>
+        <v>1283.442761857083</v>
       </c>
       <c r="G9">
-        <v>11830.46731478548</v>
+        <v>0.00144</v>
       </c>
       <c r="H9">
-        <v>1.211481252911992</v>
+        <v>3719.98602693839</v>
       </c>
       <c r="I9">
-        <v>4.361930446797389</v>
+        <v>1283.442811859583</v>
       </c>
       <c r="J9">
-        <v>0.6012266456766959</v>
+        <v>11830.46923756787</v>
       </c>
       <c r="K9">
-        <v>2.422962505823983</v>
-      </c>
-      <c r="L9" t="s">
-        <v>76</v>
+        <v>1.211481246562934</v>
+      </c>
+      <c r="L9">
+        <v>4.361936503739071</v>
       </c>
       <c r="M9">
-        <v>1387.551133272584</v>
+        <v>0.6012269475545969</v>
       </c>
       <c r="N9">
-        <v>7698.691588248897</v>
-      </c>
-      <c r="O9">
-        <v>1387.551183275084</v>
+        <v>2.422962493125867</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
       </c>
       <c r="P9">
-        <v>20138.9033797286</v>
-      </c>
-      <c r="Q9">
-        <v>0.9669072479876524</v>
+        <v>1387.551133185829</v>
+      </c>
+      <c r="R9">
+        <v>7698.690813096621</v>
       </c>
       <c r="S9">
-        <v>6.854118742668782</v>
+        <v>1387.551183188329</v>
       </c>
       <c r="T9">
-        <v>0.6706124300780794</v>
+        <v>20138.88236193896</v>
       </c>
       <c r="U9">
-        <v>1.933814495975305</v>
-      </c>
-      <c r="V9" t="s">
-        <v>76</v>
+        <v>0.9669072742225996</v>
       </c>
       <c r="W9">
-        <v>1263.402231791732</v>
+        <v>6.854043070999499</v>
       </c>
       <c r="X9">
-        <v>1372.363413258252</v>
+        <v>0.6706105504285226</v>
       </c>
       <c r="Y9">
-        <v>2.208621475928434</v>
-      </c>
-      <c r="Z9">
-        <v>1408.908588543005</v>
+        <v>1.933814548445199</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>80</v>
       </c>
       <c r="AA9">
-        <v>2178.706475866125</v>
+        <v>1263.402232318555</v>
       </c>
       <c r="AB9">
-        <v>1.970640325255422</v>
+        <v>1372.3630042796</v>
       </c>
       <c r="AC9">
-        <v>1369.747023296037</v>
+        <v>2.208620964499961</v>
       </c>
       <c r="AD9">
-        <v>250.4362740259399</v>
+        <v>1408.90859221141</v>
       </c>
       <c r="AE9">
-        <v>0.4822529981746869</v>
+        <v>2178.579655075743</v>
       </c>
       <c r="AF9">
-        <v>1381.872090984017</v>
+        <v>1.97065833652622</v>
       </c>
       <c r="AG9">
-        <v>1175.192807041001</v>
+        <v>1369.747022600971</v>
       </c>
       <c r="AH9">
-        <v>16.30270184946584</v>
+        <v>250.4392574197141</v>
       </c>
       <c r="AI9">
-        <v>1281.580534662108</v>
+        <v>0.4822529975639628</v>
       </c>
       <c r="AJ9">
-        <v>1027.424927284452</v>
+        <v>1381.874386358614</v>
       </c>
       <c r="AK9">
-        <v>20.81058971448349</v>
+        <v>1175.330978595614</v>
+      </c>
+      <c r="AL9">
+        <v>16.30444786856607</v>
+      </c>
+      <c r="AM9">
+        <v>1281.580501778708</v>
+      </c>
+      <c r="AN9">
+        <v>1027.426680063129</v>
+      </c>
+      <c r="AO9">
+        <v>20.81074232394053</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:41">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>104.0683619523561</v>
+        <v>104.06836196822</v>
       </c>
       <c r="D10">
-        <v>1283.528756365697</v>
+        <v>0.002204</v>
       </c>
       <c r="E10">
-        <v>3486.271340700885</v>
+        <v>0.001588664848229481</v>
       </c>
       <c r="F10">
-        <v>1283.528806368197</v>
+        <v>1283.528756378173</v>
       </c>
       <c r="G10">
-        <v>11077.0871167177</v>
+        <v>0.00132</v>
       </c>
       <c r="H10">
-        <v>1.212767969154991</v>
+        <v>3486.271335897016</v>
       </c>
       <c r="I10">
-        <v>3.822086794067648</v>
+        <v>1283.528806380673</v>
       </c>
       <c r="J10">
-        <v>0.5962887916520224</v>
+        <v>11077.08688475363</v>
       </c>
       <c r="K10">
-        <v>2.425535938309983</v>
-      </c>
-      <c r="L10" t="s">
-        <v>76</v>
+        <v>1.212767967077436</v>
+      </c>
+      <c r="L10">
+        <v>3.822086711398031</v>
       </c>
       <c r="M10">
-        <v>1387.597118318053</v>
+        <v>0.5962887588271918</v>
       </c>
       <c r="N10">
-        <v>7159.721097282183</v>
-      </c>
-      <c r="O10">
-        <v>1387.597168320553</v>
+        <v>2.425535934154873</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
       </c>
       <c r="P10">
-        <v>18583.4193482122</v>
+        <v>1387.597118346393</v>
       </c>
       <c r="Q10">
-        <v>0.9672859338075158</v>
+        <v>0.000884</v>
+      </c>
+      <c r="R10">
+        <v>7159.721587738281</v>
       </c>
       <c r="S10">
-        <v>6.453232814433332</v>
+        <v>1387.597168348893</v>
       </c>
       <c r="T10">
-        <v>0.6514376064261644</v>
+        <v>18583.42848278147</v>
       </c>
       <c r="U10">
-        <v>1.934571867615032</v>
-      </c>
-      <c r="V10" t="s">
-        <v>76</v>
+        <v>0.9672858752288475</v>
       </c>
       <c r="W10">
-        <v>1263.465978415349</v>
+        <v>6.453260952724122</v>
       </c>
       <c r="X10">
-        <v>1293.011624751505</v>
+        <v>0.6514386092144659</v>
       </c>
       <c r="Y10">
-        <v>2.224686621688666</v>
-      </c>
-      <c r="Z10">
-        <v>1408.986048262874</v>
+        <v>1.934571750457695</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>80</v>
       </c>
       <c r="AA10">
-        <v>2007.609194251199</v>
+        <v>1263.465976709351</v>
       </c>
       <c r="AB10">
-        <v>1.900317308324379</v>
+        <v>1293.011400524903</v>
       </c>
       <c r="AC10">
-        <v>1369.767040620814</v>
+        <v>2.224686124556515</v>
       </c>
       <c r="AD10">
-        <v>237.681316197702</v>
+        <v>1408.986043776416</v>
       </c>
       <c r="AE10">
-        <v>0.482374850375257</v>
+        <v>2007.636609587748</v>
       </c>
       <c r="AF10">
-        <v>1381.574539510365</v>
+        <v>1.900345005437707</v>
       </c>
       <c r="AG10">
-        <v>1204.904836443356</v>
+        <v>1369.767036567041</v>
       </c>
       <c r="AH10">
-        <v>16.18552232180147</v>
+        <v>237.6811827472102</v>
       </c>
       <c r="AI10">
-        <v>1281.769137792555</v>
+        <v>0.4823748504428175</v>
       </c>
       <c r="AJ10">
-        <v>921.8983337096514</v>
+        <v>1381.573917429004</v>
       </c>
       <c r="AK10">
-        <v>19.94623838818977</v>
+        <v>1204.864200080791</v>
+      </c>
+      <c r="AL10">
+        <v>16.18502887424621</v>
+      </c>
+      <c r="AM10">
+        <v>1281.76914073529</v>
+      </c>
+      <c r="AN10">
+        <v>921.898709340647</v>
+      </c>
+      <c r="AO10">
+        <v>19.94622746848059</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:41">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>104.0260138362955</v>
+        <v>104.0260138890121</v>
       </c>
       <c r="D11">
-        <v>1283.620047925548</v>
+        <v>0.002294</v>
       </c>
       <c r="E11">
-        <v>3195.98585555423</v>
+        <v>0.001644906076346002</v>
       </c>
       <c r="F11">
-        <v>1283.620097928048</v>
+        <v>1283.62004793093</v>
       </c>
       <c r="G11">
-        <v>10144.31720221923</v>
+        <v>0.00134</v>
       </c>
       <c r="H11">
-        <v>1.227720366310916</v>
+        <v>3195.985865765377</v>
       </c>
       <c r="I11">
-        <v>3.584993723277946</v>
+        <v>1283.62009793343</v>
       </c>
       <c r="J11">
-        <v>0.5640084583551083</v>
+        <v>10144.31735757123</v>
       </c>
       <c r="K11">
-        <v>2.455440732621831</v>
-      </c>
-      <c r="L11" t="s">
-        <v>76</v>
+        <v>1.227720360753519</v>
+      </c>
+      <c r="L11">
+        <v>3.58499392363439</v>
       </c>
       <c r="M11">
-        <v>1387.646061761844</v>
+        <v>0.5640084973685395</v>
       </c>
       <c r="N11">
-        <v>6590.499810686381</v>
-      </c>
-      <c r="O11">
-        <v>1387.646111764344</v>
+        <v>2.455440721507038</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
       </c>
       <c r="P11">
-        <v>17065.05287894409</v>
+        <v>1387.646061819942</v>
       </c>
       <c r="Q11">
-        <v>0.9696089204751097</v>
+        <v>0.000954</v>
+      </c>
+      <c r="R11">
+        <v>6590.500561625534</v>
       </c>
       <c r="S11">
-        <v>6.159759193585939</v>
+        <v>1387.646111822442</v>
       </c>
       <c r="T11">
-        <v>0.6389846734665228</v>
+        <v>17065.06825459359</v>
       </c>
       <c r="U11">
-        <v>1.939217840950219</v>
-      </c>
-      <c r="V11" t="s">
-        <v>76</v>
+        <v>0.9696088380330367</v>
       </c>
       <c r="W11">
-        <v>1263.553269261271</v>
+        <v>6.159835814875106</v>
       </c>
       <c r="X11">
-        <v>1139.498777395603</v>
+        <v>0.6389864616034684</v>
       </c>
       <c r="Y11">
-        <v>2.108651877482373</v>
-      </c>
-      <c r="Z11">
-        <v>1409.056760979064</v>
+        <v>1.939217676066073</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
       </c>
       <c r="AA11">
-        <v>1797.593751069308</v>
+        <v>1263.553269146858</v>
       </c>
       <c r="AB11">
-        <v>1.817155815645556</v>
+        <v>1139.498969590761</v>
       </c>
       <c r="AC11">
-        <v>1369.812627155802</v>
+        <v>2.108652298997026</v>
       </c>
       <c r="AD11">
-        <v>205.9215410543311</v>
+        <v>1409.056755280745</v>
       </c>
       <c r="AE11">
-        <v>0.4834929246686212</v>
+        <v>1797.625609004234</v>
       </c>
       <c r="AF11">
-        <v>1381.346595645367</v>
+        <v>1.81718840897841</v>
       </c>
       <c r="AG11">
-        <v>1002.205400287549</v>
+        <v>1369.812629377477</v>
       </c>
       <c r="AH11">
-        <v>15.3932266076934</v>
+        <v>205.9194710442016</v>
       </c>
       <c r="AI11">
-        <v>1279.964926778409</v>
+        <v>0.483492923794254</v>
       </c>
       <c r="AJ11">
-        <v>980.9773094130386</v>
+        <v>1381.345480096305</v>
       </c>
       <c r="AK11">
-        <v>20.76970470511659</v>
+        <v>1002.156374131847</v>
+      </c>
+      <c r="AL11">
+        <v>15.39257647886383</v>
+      </c>
+      <c r="AM11">
+        <v>1279.964928987146</v>
+      </c>
+      <c r="AN11">
+        <v>980.9768427839184</v>
+      </c>
+      <c r="AO11">
+        <v>20.76970028020993</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:41">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>103.9609472952172</v>
+        <v>103.9609474095466</v>
       </c>
       <c r="D12">
-        <v>1283.770159571123</v>
+        <v>0.001982</v>
       </c>
       <c r="E12">
-        <v>2937.20192684953</v>
+        <v>0.001402085589398878</v>
       </c>
       <c r="F12">
-        <v>1283.770309578624</v>
+        <v>1283.770159556019</v>
       </c>
       <c r="G12">
-        <v>9334.049857747401</v>
+        <v>0.00102</v>
       </c>
       <c r="H12">
-        <v>1.237341394917735</v>
+        <v>2937.201948307935</v>
       </c>
       <c r="I12">
-        <v>2.848956672190226</v>
+        <v>1283.77030956352</v>
       </c>
       <c r="J12">
-        <v>0.5460944678355963</v>
+        <v>9334.049581720659</v>
       </c>
       <c r="K12">
-        <v>2.47468278983547</v>
-      </c>
-      <c r="L12" t="s">
-        <v>76</v>
+        <v>1.237341368629653</v>
+      </c>
+      <c r="L12">
+        <v>2.848957031444737</v>
       </c>
       <c r="M12">
-        <v>1387.731206871341</v>
+        <v>0.5460944675958235</v>
       </c>
       <c r="N12">
-        <v>6072.584846304429</v>
-      </c>
-      <c r="O12">
-        <v>1387.731256873841</v>
+        <v>2.474682737259306</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
       </c>
       <c r="P12">
-        <v>15630.85970001586</v>
+        <v>1387.731206970566</v>
       </c>
       <c r="Q12">
-        <v>0.9677452738389811</v>
+        <v>0.000962</v>
+      </c>
+      <c r="R12">
+        <v>6072.585191513792</v>
       </c>
       <c r="S12">
-        <v>5.934088592048377</v>
+        <v>1387.731256973066</v>
       </c>
       <c r="T12">
-        <v>0.6295301394242315</v>
+        <v>15630.86653891724</v>
       </c>
       <c r="U12">
-        <v>1.935490547677962</v>
-      </c>
-      <c r="V12" t="s">
-        <v>76</v>
+        <v>0.9677452228186475</v>
       </c>
       <c r="W12">
-        <v>1263.718797333896</v>
+        <v>5.934373919891725</v>
       </c>
       <c r="X12">
-        <v>1045.099950384217</v>
+        <v>0.6295310405265221</v>
       </c>
       <c r="Y12">
-        <v>2.075927319511585</v>
-      </c>
-      <c r="Z12">
-        <v>1409.15834451818</v>
+        <v>1.935490445637295</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>80</v>
       </c>
       <c r="AA12">
-        <v>1646.31520889224</v>
+        <v>1263.718797746219</v>
       </c>
       <c r="AB12">
-        <v>1.719036451262973</v>
+        <v>1045.100161581806</v>
       </c>
       <c r="AC12">
-        <v>1369.814238150179</v>
+        <v>2.075927893320619</v>
       </c>
       <c r="AD12">
-        <v>187.9344363667165</v>
+        <v>1409.158336749524</v>
       </c>
       <c r="AE12">
-        <v>0.4822761358039458</v>
+        <v>1646.37138901949</v>
       </c>
       <c r="AF12">
-        <v>1382.293551217897</v>
+        <v>1.719094886129263</v>
       </c>
       <c r="AG12">
-        <v>1032.317659722939</v>
+        <v>1369.81438819763</v>
       </c>
       <c r="AH12">
-        <v>16.80016809785246</v>
+        <v>187.9159959010061</v>
       </c>
       <c r="AI12">
-        <v>1279.208458928857</v>
+        <v>0.4822761361146413</v>
       </c>
       <c r="AJ12">
-        <v>879.1254530836417</v>
+        <v>1382.291480858082</v>
       </c>
       <c r="AK12">
-        <v>21.63958858051723</v>
+        <v>1032.254331130204</v>
+      </c>
+      <c r="AL12">
+        <v>16.79870516443409</v>
+      </c>
+      <c r="AM12">
+        <v>1279.208459869735</v>
+      </c>
+      <c r="AN12">
+        <v>879.1229793770977</v>
+      </c>
+      <c r="AO12">
+        <v>21.63946132379501</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:41">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>103.8722224349774</v>
-      </c>
-      <c r="D13">
-        <v>1283.955808317508</v>
-      </c>
-      <c r="E13">
-        <v>2387.793635663555</v>
+        <v>103.8722224582893</v>
       </c>
       <c r="F13">
-        <v>1283.955958325009</v>
+        <v>1283.955808287892</v>
       </c>
       <c r="G13">
-        <v>7618.81993976901</v>
+        <v>0.00124</v>
       </c>
       <c r="H13">
-        <v>1.245497874320497</v>
+        <v>2387.79363564606</v>
       </c>
       <c r="I13">
-        <v>2.784159359561134</v>
+        <v>1283.955958295393</v>
       </c>
       <c r="J13">
-        <v>0.5388015876444926</v>
+        <v>7618.822108565239</v>
       </c>
       <c r="K13">
-        <v>2.490995748640993</v>
-      </c>
-      <c r="L13" t="s">
-        <v>76</v>
+        <v>1.245497920858851</v>
+      </c>
+      <c r="L13">
+        <v>2.784166004770276</v>
       </c>
       <c r="M13">
-        <v>1387.828130757486</v>
+        <v>0.5388019915082126</v>
       </c>
       <c r="N13">
-        <v>4950.992510585533</v>
-      </c>
-      <c r="O13">
-        <v>1387.828180759986</v>
+        <v>2.490995841717702</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
       </c>
       <c r="P13">
-        <v>12640.23736933864</v>
-      </c>
-      <c r="Q13">
-        <v>0.9625220239682369</v>
+        <v>1387.828130751182</v>
+      </c>
+      <c r="R13">
+        <v>4950.992560336831</v>
       </c>
       <c r="S13">
-        <v>5.00853065522576</v>
+        <v>1387.828180753682</v>
       </c>
       <c r="T13">
-        <v>0.6222410183516873</v>
+        <v>12640.23870969874</v>
       </c>
       <c r="U13">
-        <v>1.925044047936474</v>
-      </c>
-      <c r="V13" t="s">
-        <v>76</v>
+        <v>0.9625220222245503</v>
       </c>
       <c r="W13">
-        <v>1263.952206174492</v>
+        <v>5.008481020039107</v>
       </c>
       <c r="X13">
-        <v>836.6190327022314</v>
+        <v>0.622241209531779</v>
       </c>
       <c r="Y13">
-        <v>2.001839426178307</v>
-      </c>
-      <c r="Z13">
-        <v>1409.224091299061</v>
+        <v>1.925044044449101</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>80</v>
       </c>
       <c r="AA13">
-        <v>1315.61708242284</v>
+        <v>1263.952207506199</v>
       </c>
       <c r="AB13">
-        <v>1.617658668168433</v>
+        <v>836.6207102483916</v>
       </c>
       <c r="AC13">
-        <v>1370.048542922874</v>
+        <v>2.001842509088726</v>
       </c>
       <c r="AD13">
-        <v>150.7062075290282</v>
+        <v>1409.224091266811</v>
       </c>
       <c r="AE13">
-        <v>0.479657933182195</v>
+        <v>1315.616123259273</v>
       </c>
       <c r="AF13">
-        <v>1382.336618838765</v>
+        <v>1.61765764381065</v>
       </c>
       <c r="AG13">
-        <v>861.1721431832906</v>
+        <v>1370.048604383629</v>
       </c>
       <c r="AH13">
-        <v>18.07554572387789</v>
+        <v>150.709087645</v>
       </c>
       <c r="AI13">
-        <v>1278.051254821091</v>
+        <v>0.4796579332621157</v>
       </c>
       <c r="AJ13">
-        <v>684.619954308969</v>
+        <v>1382.336678946385</v>
       </c>
       <c r="AK13">
-        <v>21.57871263918791</v>
+        <v>861.1704673067604</v>
+      </c>
+      <c r="AL13">
+        <v>18.07563885161627</v>
+      </c>
+      <c r="AM13">
+        <v>1278.051315090891</v>
+      </c>
+      <c r="AN13">
+        <v>684.623617712438</v>
+      </c>
+      <c r="AO13">
+        <v>21.57927223736237</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:41">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>103.7654212398188</v>
-      </c>
-      <c r="D14">
-        <v>1284.202601908148</v>
-      </c>
-      <c r="E14">
-        <v>2091.48629193262</v>
+        <v>103.7654212146963</v>
       </c>
       <c r="F14">
-        <v>1284.202751915648</v>
+        <v>1284.202601899223</v>
       </c>
       <c r="G14">
-        <v>6544.112011024607</v>
+        <v>0.00172</v>
       </c>
       <c r="H14">
-        <v>1.232450911108068</v>
+        <v>2091.486799846873</v>
       </c>
       <c r="I14">
-        <v>3.070913319199846</v>
+        <v>1284.202751906723</v>
       </c>
       <c r="J14">
-        <v>0.5158088363344661</v>
+        <v>6544.122358772691</v>
       </c>
       <c r="K14">
-        <v>2.464901822216137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
+        <v>1.232450612530072</v>
+      </c>
+      <c r="L14">
+        <v>3.070933757671494</v>
       </c>
       <c r="M14">
-        <v>1387.968123152967</v>
+        <v>0.5158123635612197</v>
       </c>
       <c r="N14">
-        <v>4288.958331667052</v>
-      </c>
-      <c r="O14">
-        <v>1387.968173155467</v>
+        <v>2.464901225060143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
       </c>
       <c r="P14">
-        <v>10734.66492735006</v>
-      </c>
-      <c r="Q14">
-        <v>0.9486060248018507</v>
+        <v>1387.968123118919</v>
+      </c>
+      <c r="R14">
+        <v>4288.958168958132</v>
       </c>
       <c r="S14">
-        <v>5.06894801464922</v>
+        <v>1387.96817312142</v>
       </c>
       <c r="T14">
-        <v>0.6079227232776292</v>
+        <v>10734.66141840147</v>
       </c>
       <c r="U14">
-        <v>1.897212049603701</v>
-      </c>
-      <c r="V14" t="s">
-        <v>76</v>
+        <v>0.948606051212176</v>
       </c>
       <c r="W14">
-        <v>1264.169825975117</v>
+        <v>5.068893468842175</v>
       </c>
       <c r="X14">
-        <v>688.016208036675</v>
+        <v>0.6079220689111501</v>
       </c>
       <c r="Y14">
-        <v>1.795180566815089</v>
-      </c>
-      <c r="Z14">
-        <v>1409.399850878406</v>
+        <v>1.897212102424352</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>80</v>
       </c>
       <c r="AA14">
-        <v>1142.270754534786</v>
+        <v>1264.169826963084</v>
       </c>
       <c r="AB14">
-        <v>1.543574198635017</v>
+        <v>688.0285145703896</v>
       </c>
       <c r="AC14">
-        <v>1370.135708083106</v>
+        <v>1.795175395197589</v>
       </c>
       <c r="AD14">
-        <v>144.6460502016539</v>
+        <v>1409.399852860568</v>
       </c>
       <c r="AE14">
-        <v>0.4729114449153503</v>
+        <v>1142.259353051239</v>
       </c>
       <c r="AF14">
-        <v>1380.989838466482</v>
+        <v>1.54356005442877</v>
       </c>
       <c r="AG14">
-        <v>646.0803217451926</v>
+        <v>1370.135708409146</v>
       </c>
       <c r="AH14">
-        <v>17.16909641326803</v>
+        <v>144.6469508560612</v>
       </c>
       <c r="AI14">
-        <v>1277.224091044651</v>
+        <v>0.4729114436773279</v>
       </c>
       <c r="AJ14">
-        <v>650.9123016744528</v>
+        <v>1380.990679034113</v>
       </c>
       <c r="AK14">
-        <v>22.19293216799401</v>
+        <v>646.1008951283702</v>
+      </c>
+      <c r="AL14">
+        <v>17.16978096980796</v>
+      </c>
+      <c r="AM14">
+        <v>1277.224090272622</v>
+      </c>
+      <c r="AN14">
+        <v>650.8896242944496</v>
+      </c>
+      <c r="AO14">
+        <v>22.19316487818797</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:41">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15">
-        <v>104.8868101199032</v>
+        <v>104.8868101248102</v>
       </c>
       <c r="D15">
-        <v>1281.888983961091</v>
+        <v>0.002375</v>
       </c>
       <c r="E15">
-        <v>30344.97037280425</v>
+        <v>0.001747834374304385</v>
       </c>
       <c r="F15">
-        <v>1281.888933958591</v>
+        <v>1281.888983957678</v>
       </c>
       <c r="G15">
-        <v>89788.65728395003</v>
+        <v>0.00153</v>
       </c>
       <c r="H15">
-        <v>1.071560079127688</v>
+        <v>30344.97034881066</v>
       </c>
       <c r="I15">
-        <v>33.72870476331288</v>
+        <v>1281.888933955178</v>
       </c>
       <c r="J15">
-        <v>0.7380824301788638</v>
+        <v>89788.65678462619</v>
       </c>
       <c r="K15">
-        <v>2.143120158255376</v>
-      </c>
-      <c r="L15" t="s">
-        <v>76</v>
+        <v>1.071560080193109</v>
+      </c>
+      <c r="L15">
+        <v>33.72870553472643</v>
       </c>
       <c r="M15">
-        <v>1386.775794080994</v>
+        <v>0.7380824187972139</v>
       </c>
       <c r="N15">
-        <v>58208.92456034773</v>
-      </c>
-      <c r="O15">
-        <v>1386.775744078494</v>
+        <v>2.143120160386218</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
       </c>
       <c r="P15">
-        <v>166901.791068722</v>
+        <v>1386.775794082488</v>
       </c>
       <c r="Q15">
-        <v>1.026372246776149</v>
+        <v>0.000845</v>
+      </c>
+      <c r="R15">
+        <v>58208.9248682035</v>
       </c>
       <c r="S15">
-        <v>46.87093638145651</v>
+        <v>1386.775744079988</v>
       </c>
       <c r="T15">
-        <v>0.7555313985484122</v>
+        <v>166901.8030321945</v>
       </c>
       <c r="U15">
-        <v>2.052744493552298</v>
-      </c>
-      <c r="V15" t="s">
-        <v>76</v>
+        <v>1.026372249669179</v>
       </c>
       <c r="W15">
-        <v>1261.789680173865</v>
+        <v>46.87030926427281</v>
       </c>
       <c r="X15">
-        <v>12373.04590748228</v>
+        <v>0.7555315106895797</v>
       </c>
       <c r="Y15">
-        <v>3.211850557301298</v>
-      </c>
-      <c r="Z15">
-        <v>1408.080207462809</v>
+        <v>2.052744499338358</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>80</v>
       </c>
       <c r="AA15">
-        <v>15464.18038850235</v>
+        <v>1261.789681456198</v>
       </c>
       <c r="AB15">
-        <v>2.800333661048427</v>
+        <v>12373.05010494869</v>
       </c>
       <c r="AC15">
-        <v>1369.545010969692</v>
+        <v>3.211851711133353</v>
       </c>
       <c r="AD15">
-        <v>1991.100897079406</v>
+        <v>1408.080207289006</v>
       </c>
       <c r="AE15">
-        <v>0.5123852770130525</v>
+        <v>15464.16542912027</v>
       </c>
       <c r="AF15">
-        <v>1386.907337170844</v>
+        <v>2.800332804798378</v>
       </c>
       <c r="AG15">
-        <v>15445.58905014516</v>
+        <v>1369.545059884944</v>
       </c>
       <c r="AH15">
-        <v>15.25215971449477</v>
+        <v>1991.125313865138</v>
       </c>
       <c r="AI15">
-        <v>1283.97599198565</v>
+        <v>0.5123852774679414</v>
       </c>
       <c r="AJ15">
-        <v>9617.138839267616</v>
+        <v>1386.907383480212</v>
       </c>
       <c r="AK15">
-        <v>11.82110308253901</v>
+        <v>15445.57004131853</v>
+      </c>
+      <c r="AL15">
+        <v>15.25217358879668</v>
+      </c>
+      <c r="AM15">
+        <v>1283.975996922646</v>
+      </c>
+      <c r="AN15">
+        <v>9617.135864566781</v>
+      </c>
+      <c r="AO15">
+        <v>11.82109826873252</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:41">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>103.6686638943381</v>
-      </c>
-      <c r="D16">
-        <v>1284.419204156598</v>
-      </c>
-      <c r="E16">
-        <v>1863.782158905431</v>
+        <v>103.668663884228</v>
       </c>
       <c r="F16">
-        <v>1284.419354164099</v>
+        <v>1284.41920415031</v>
       </c>
       <c r="G16">
-        <v>5683.628002189698</v>
+        <v>0.00215</v>
       </c>
       <c r="H16">
-        <v>1.207405796661852</v>
+        <v>1863.78221123372</v>
       </c>
       <c r="I16">
-        <v>3.084997408360173</v>
+        <v>1284.41935415781</v>
       </c>
       <c r="J16">
-        <v>0.5021977591050959</v>
+        <v>5683.628863078708</v>
       </c>
       <c r="K16">
-        <v>2.414811593323704</v>
-      </c>
-      <c r="L16" t="s">
-        <v>76</v>
+        <v>1.207405688643023</v>
+      </c>
+      <c r="L16">
+        <v>3.084998584171689</v>
       </c>
       <c r="M16">
-        <v>1388.087968055937</v>
+        <v>0.5021982780193907</v>
       </c>
       <c r="N16">
-        <v>3825.865225473766</v>
-      </c>
-      <c r="O16">
-        <v>1388.088018058437</v>
+        <v>2.414811377286045</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
       </c>
       <c r="P16">
-        <v>9289.12566190237</v>
-      </c>
-      <c r="Q16">
-        <v>0.9275341659672534</v>
+        <v>1388.087968039538</v>
+      </c>
+      <c r="R16">
+        <v>3825.865326108167</v>
       </c>
       <c r="S16">
-        <v>4.715260574592384</v>
+        <v>1388.088018042038</v>
       </c>
       <c r="T16">
-        <v>0.5885839510223946</v>
+        <v>9289.127904354387</v>
       </c>
       <c r="U16">
-        <v>1.855068331934507</v>
-      </c>
-      <c r="V16" t="s">
-        <v>76</v>
+        <v>0.9275341512203324</v>
       </c>
       <c r="W16">
-        <v>1264.351994258026</v>
+        <v>4.715270265535593</v>
       </c>
       <c r="X16">
-        <v>627.4687882404276</v>
+        <v>0.5885844187394584</v>
       </c>
       <c r="Y16">
-        <v>1.672729591748719</v>
-      </c>
-      <c r="Z16">
-        <v>1409.474660222925</v>
+        <v>1.855068302440665</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>80</v>
       </c>
       <c r="AA16">
-        <v>994.1137701723161</v>
+        <v>1264.351995243661</v>
       </c>
       <c r="AB16">
-        <v>1.485277017087099</v>
+        <v>627.4691255115182</v>
       </c>
       <c r="AC16">
-        <v>1370.167132076339</v>
+        <v>1.67273034963465</v>
       </c>
       <c r="AD16">
-        <v>118.931627463925</v>
+        <v>1409.474658957476</v>
       </c>
       <c r="AE16">
-        <v>0.4625507739479541</v>
+        <v>994.0995708000139</v>
       </c>
       <c r="AF16">
-        <v>1381.093775130691</v>
+        <v>1.485290404969447</v>
       </c>
       <c r="AG16">
-        <v>593.7630956596029</v>
+        <v>1370.167129164088</v>
       </c>
       <c r="AH16">
-        <v>16.47291597168017</v>
+        <v>118.9326859996944</v>
       </c>
       <c r="AI16">
-        <v>1277.444048577384</v>
+        <v>0.4625595247117935</v>
       </c>
       <c r="AJ16">
-        <v>566.4730641450345</v>
+        <v>1381.093841114626</v>
       </c>
       <c r="AK16">
-        <v>21.97398498656186</v>
+        <v>593.7779191478397</v>
+      </c>
+      <c r="AL16">
+        <v>16.47365006647608</v>
+      </c>
+      <c r="AM16">
+        <v>1277.444048320411</v>
+      </c>
+      <c r="AN16">
+        <v>566.4721857525616</v>
+      </c>
+      <c r="AO16">
+        <v>21.97401074420333</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:41">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>103.6001994168203</v>
+        <v>103.6001993916527</v>
       </c>
       <c r="D17">
-        <v>1284.568850632608</v>
+        <v>0.00376</v>
       </c>
       <c r="E17">
-        <v>2587.343764933949</v>
+        <v>0.002733825159003406</v>
       </c>
       <c r="F17">
-        <v>1284.568900635108</v>
+        <v>1284.568850627064</v>
       </c>
       <c r="G17">
-        <v>7713.743803060835</v>
+        <v>0.00233</v>
       </c>
       <c r="H17">
-        <v>1.15998158672818</v>
+        <v>2587.343958449421</v>
       </c>
       <c r="I17">
-        <v>4.823665852537719</v>
+        <v>1284.568900629564</v>
       </c>
       <c r="J17">
-        <v>0.5440073550441948</v>
+        <v>7713.746846569711</v>
       </c>
       <c r="K17">
-        <v>2.319963173456361</v>
-      </c>
-      <c r="L17" t="s">
-        <v>76</v>
+        <v>1.159981476844383</v>
+      </c>
+      <c r="L17">
+        <v>4.823673277232722</v>
       </c>
       <c r="M17">
-        <v>1388.169050049429</v>
+        <v>0.5440082950822451</v>
       </c>
       <c r="N17">
-        <v>5245.621878656228</v>
-      </c>
-      <c r="O17">
-        <v>1388.169100051929</v>
+        <v>2.319962953688766</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
       </c>
       <c r="P17">
-        <v>12506.47232497638</v>
+        <v>1388.169050018716</v>
       </c>
       <c r="Q17">
-        <v>0.9062861565655158</v>
+        <v>0.00143</v>
+      </c>
+      <c r="R17">
+        <v>5245.62170872011</v>
       </c>
       <c r="S17">
-        <v>6.757560363761259</v>
+        <v>1388.169100021216</v>
       </c>
       <c r="T17">
-        <v>0.5989531038288702</v>
+        <v>12506.47065697949</v>
       </c>
       <c r="U17">
-        <v>1.812572313131032</v>
-      </c>
-      <c r="V17" t="s">
-        <v>76</v>
+        <v>0.906286199681775</v>
       </c>
       <c r="W17">
-        <v>1264.476062671601</v>
+        <v>6.757548708896433</v>
       </c>
       <c r="X17">
-        <v>872.9675363503618</v>
+        <v>0.5989527564057878</v>
       </c>
       <c r="Y17">
-        <v>1.724382915461713</v>
-      </c>
-      <c r="Z17">
-        <v>1409.5679950416</v>
+        <v>1.81257239936355</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>80</v>
       </c>
       <c r="AA17">
-        <v>1303.283092835429</v>
+        <v>1264.476063036598</v>
       </c>
       <c r="AB17">
-        <v>1.3470048088114</v>
+        <v>872.9699866799106</v>
       </c>
       <c r="AC17">
-        <v>1370.170044341769</v>
+        <v>1.724387874501173</v>
       </c>
       <c r="AD17">
-        <v>172.1763790585729</v>
+        <v>1409.567994205466</v>
       </c>
       <c r="AE17">
-        <v>0.4518968633510514</v>
+        <v>1303.280948010247</v>
       </c>
       <c r="AF17">
-        <v>1381.170779959379</v>
+        <v>1.347002842141553</v>
       </c>
       <c r="AG17">
-        <v>683.9752519072091</v>
+        <v>1370.170043848135</v>
       </c>
       <c r="AH17">
-        <v>18.38355035673306</v>
+        <v>172.1765047297644</v>
       </c>
       <c r="AI17">
-        <v>1277.620014817191</v>
+        <v>0.4518968637632313</v>
       </c>
       <c r="AJ17">
-        <v>646.8769153664792</v>
+        <v>1381.170967996751</v>
       </c>
       <c r="AK17">
-        <v>23.965441806058</v>
+        <v>683.9812779428388</v>
+      </c>
+      <c r="AL17">
+        <v>18.38373906560311</v>
+      </c>
+      <c r="AM17">
+        <v>1277.620014975711</v>
+      </c>
+      <c r="AN17">
+        <v>646.8717168878961</v>
+      </c>
+      <c r="AO17">
+        <v>23.96555400925685</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:41">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>103.5464894165284</v>
-      </c>
-      <c r="D18">
-        <v>1284.689885445024</v>
-      </c>
-      <c r="E18">
-        <v>2484.127712154107</v>
+        <v>103.5464894485222</v>
       </c>
       <c r="F18">
-        <v>1284.689935447524</v>
+        <v>1284.689885452167</v>
       </c>
       <c r="G18">
-        <v>7246.20363870954</v>
+        <v>0.00259</v>
       </c>
       <c r="H18">
-        <v>1.124016994363075</v>
+        <v>2484.127902757102</v>
       </c>
       <c r="I18">
-        <v>4.916970021620957</v>
+        <v>1284.689935454667</v>
       </c>
       <c r="J18">
-        <v>0.5660042138904645</v>
+        <v>7246.205688032977</v>
       </c>
       <c r="K18">
-        <v>2.248033988726149</v>
-      </c>
-      <c r="L18" t="s">
-        <v>76</v>
+        <v>1.124016854749844</v>
+      </c>
+      <c r="L18">
+        <v>4.916974246240994</v>
       </c>
       <c r="M18">
-        <v>1388.236374861553</v>
+        <v>0.5660049983390076</v>
       </c>
       <c r="N18">
-        <v>4935.162228527776</v>
-      </c>
-      <c r="O18">
-        <v>1388.236424864053</v>
+        <v>2.248033709499689</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
       </c>
       <c r="P18">
-        <v>11478.0140334365</v>
-      </c>
-      <c r="Q18">
-        <v>0.8871141689417092</v>
+        <v>1388.236374900689</v>
+      </c>
+      <c r="R18">
+        <v>4935.164443944966</v>
       </c>
       <c r="S18">
-        <v>6.524500432741005</v>
+        <v>1388.236424903189</v>
       </c>
       <c r="T18">
-        <v>0.5901895309887094</v>
+        <v>11478.03029982954</v>
       </c>
       <c r="U18">
-        <v>1.774228337883418</v>
-      </c>
-      <c r="V18" t="s">
-        <v>76</v>
+        <v>0.8871135041113102</v>
       </c>
       <c r="W18">
-        <v>1264.589261884441</v>
+        <v>6.524447265467067</v>
       </c>
       <c r="X18">
-        <v>800.4570251473936</v>
+        <v>0.5901936791066819</v>
       </c>
       <c r="Y18">
-        <v>1.652781128842809</v>
-      </c>
-      <c r="Z18">
-        <v>1409.624643612956</v>
+        <v>1.77422700822262</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>80</v>
       </c>
       <c r="AA18">
-        <v>1168.093665102519</v>
+        <v>1264.589259876217</v>
       </c>
       <c r="AB18">
-        <v>1.338140252701388</v>
+        <v>800.4569165850284</v>
       </c>
       <c r="AC18">
-        <v>1370.217933463309</v>
+        <v>1.652779298610478</v>
       </c>
       <c r="AD18">
-        <v>151.2245294303555</v>
+        <v>1409.624649225413</v>
       </c>
       <c r="AE18">
-        <v>0.4422313847027255</v>
+        <v>1168.141570459506</v>
       </c>
       <c r="AF18">
-        <v>1381.22574995396</v>
+        <v>1.338097112413335</v>
       </c>
       <c r="AG18">
-        <v>626.9623183667541</v>
+        <v>1370.217960424035</v>
       </c>
       <c r="AH18">
-        <v>18.17298204536904</v>
+        <v>151.2260243941699</v>
       </c>
       <c r="AI18">
-        <v>1277.751989560696</v>
+        <v>0.4422311385113921</v>
       </c>
       <c r="AJ18">
-        <v>472.959179800223</v>
+        <v>1381.225749953963</v>
       </c>
       <c r="AK18">
-        <v>24.40411375259993</v>
+        <v>626.8789713691367</v>
+      </c>
+      <c r="AL18">
+        <v>18.17090890772818</v>
+      </c>
+      <c r="AM18">
+        <v>1277.751989569832</v>
+      </c>
+      <c r="AN18">
+        <v>472.9572161560453</v>
+      </c>
+      <c r="AO18">
+        <v>24.40418180259274</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:41">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19">
-        <v>103.5036353930736</v>
-      </c>
-      <c r="D19">
-        <v>1284.813735402362</v>
-      </c>
-      <c r="E19">
-        <v>2387.18323010855</v>
+        <v>103.5036354334545</v>
       </c>
       <c r="F19">
-        <v>1284.813785404862</v>
+        <v>1284.81373539344</v>
       </c>
       <c r="G19">
-        <v>6757.493388181855</v>
+        <v>0.00248</v>
       </c>
       <c r="H19">
-        <v>1.106077833579205</v>
+        <v>2387.182960992655</v>
       </c>
       <c r="I19">
-        <v>4.692754428242882</v>
+        <v>1284.81378539594</v>
       </c>
       <c r="J19">
-        <v>0.5327412554399551</v>
+        <v>6757.486286857707</v>
       </c>
       <c r="K19">
-        <v>2.212155667158409</v>
-      </c>
-      <c r="L19" t="s">
-        <v>76</v>
+        <v>1.106077900541158</v>
+      </c>
+      <c r="L19">
+        <v>4.692720707183155</v>
       </c>
       <c r="M19">
-        <v>1388.317370795436</v>
+        <v>0.5327391611532444</v>
       </c>
       <c r="N19">
-        <v>4773.191375800329</v>
-      </c>
-      <c r="O19">
-        <v>1388.317420797936</v>
+        <v>2.212155801082316</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
       </c>
       <c r="P19">
-        <v>10842.8030994569</v>
-      </c>
-      <c r="Q19">
-        <v>0.8646591850491004</v>
+        <v>1388.317370826894</v>
+      </c>
+      <c r="R19">
+        <v>4773.190242621577</v>
       </c>
       <c r="S19">
-        <v>6.387942737928297</v>
+        <v>1388.317420829394</v>
       </c>
       <c r="T19">
-        <v>0.5950916701155113</v>
+        <v>10842.78670766431</v>
       </c>
       <c r="U19">
-        <v>1.729318370098201</v>
-      </c>
-      <c r="V19" t="s">
-        <v>76</v>
+        <v>0.8646593938111284</v>
       </c>
       <c r="W19">
-        <v>1264.738606207967</v>
+        <v>6.387921749156535</v>
       </c>
       <c r="X19">
-        <v>748.6434532053693</v>
+        <v>0.5950884416393264</v>
       </c>
       <c r="Y19">
-        <v>1.538249710745199</v>
-      </c>
-      <c r="Z19">
-        <v>1409.692724257091</v>
+        <v>1.729318787622257</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>80</v>
       </c>
       <c r="AA19">
-        <v>1121.627886631261</v>
+        <v>1264.738604504322</v>
       </c>
       <c r="AB19">
-        <v>1.245726739608804</v>
+        <v>748.6249080587394</v>
       </c>
       <c r="AC19">
-        <v>1370.221370140135</v>
+        <v>1.538276399780436</v>
       </c>
       <c r="AD19">
-        <v>154.5643220570779</v>
+        <v>1409.692723411201</v>
       </c>
       <c r="AE19">
-        <v>0.4308816427533729</v>
+        <v>1121.646017830714</v>
       </c>
       <c r="AF19">
-        <v>1381.34122793769</v>
+        <v>1.245746927287482</v>
       </c>
       <c r="AG19">
-        <v>648.0535634275597</v>
+        <v>1370.221369470454</v>
       </c>
       <c r="AH19">
-        <v>20.74957581689974</v>
+        <v>154.5625600277728</v>
       </c>
       <c r="AI19">
-        <v>1277.850970691843</v>
+        <v>0.4308816435998655</v>
       </c>
       <c r="AJ19">
-        <v>590.0042432560817</v>
+        <v>1381.341227994679</v>
       </c>
       <c r="AK19">
-        <v>24.08550720116919</v>
+        <v>648.0016618088637</v>
+      </c>
+      <c r="AL19">
+        <v>20.74560987494129</v>
+      </c>
+      <c r="AM19">
+        <v>1277.850970683719</v>
+      </c>
+      <c r="AN19">
+        <v>590.0296728031108</v>
+      </c>
+      <c r="AO19">
+        <v>24.08522516865379</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:41">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20">
-        <v>103.4548974823754</v>
+        <v>103.4548974824861</v>
       </c>
       <c r="D20">
-        <v>1284.906052361709</v>
+        <v>0.00388</v>
       </c>
       <c r="E20">
-        <v>2317.02261406221</v>
+        <v>0.002867647119155354</v>
       </c>
       <c r="F20">
-        <v>1284.906102364209</v>
+        <v>1284.906052353319</v>
       </c>
       <c r="G20">
-        <v>6407.227471218235</v>
+        <v>0.00253</v>
       </c>
       <c r="H20">
-        <v>1.069240241798519</v>
+        <v>2317.02247806504</v>
       </c>
       <c r="I20">
-        <v>4.411263131550796</v>
+        <v>1284.906102355819</v>
       </c>
       <c r="J20">
-        <v>0.556570512785727</v>
+        <v>6407.224276377207</v>
       </c>
       <c r="K20">
-        <v>2.138480483597038</v>
-      </c>
-      <c r="L20" t="s">
-        <v>76</v>
+        <v>1.069240286764392</v>
+      </c>
+      <c r="L20">
+        <v>4.411240093290067</v>
       </c>
       <c r="M20">
-        <v>1388.361049849084</v>
+        <v>0.5565695007906337</v>
       </c>
       <c r="N20">
-        <v>4556.26965126067</v>
-      </c>
-      <c r="O20">
-        <v>1388.360999846584</v>
+        <v>2.138480573528784</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
       </c>
       <c r="P20">
-        <v>10107.95550927111</v>
+        <v>1388.361049840805</v>
       </c>
       <c r="Q20">
-        <v>0.8484335570350087</v>
+        <v>0.00135</v>
+      </c>
+      <c r="R20">
+        <v>4556.269953284766</v>
       </c>
       <c r="S20">
-        <v>5.700870956476717</v>
+        <v>1388.360999838305</v>
       </c>
       <c r="T20">
-        <v>0.5831131452047911</v>
+        <v>10107.9562794632</v>
       </c>
       <c r="U20">
-        <v>1.696867114070017</v>
-      </c>
-      <c r="V20" t="s">
-        <v>76</v>
+        <v>0.8484334364382938</v>
       </c>
       <c r="W20">
-        <v>1264.771934331426</v>
+        <v>5.700855026060351</v>
       </c>
       <c r="X20">
-        <v>693.8493889406308</v>
+        <v>0.5831135761555126</v>
       </c>
       <c r="Y20">
-        <v>1.516430158689757</v>
-      </c>
-      <c r="Z20">
-        <v>1409.74833111488</v>
+        <v>1.696866872876588</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>80</v>
       </c>
       <c r="AA20">
-        <v>975.3437131901663</v>
+        <v>1264.771934767011</v>
       </c>
       <c r="AB20">
-        <v>1.219040453239962</v>
+        <v>693.8406985643919</v>
       </c>
       <c r="AC20">
-        <v>1370.258334949038</v>
+        <v>1.516438690746394</v>
       </c>
       <c r="AD20">
-        <v>138.9592332148698</v>
+        <v>1409.74833046767</v>
       </c>
       <c r="AE20">
-        <v>0.4228941636248598</v>
+        <v>975.3280100630479</v>
       </c>
       <c r="AF20">
-        <v>1388.222820923893</v>
+        <v>1.219044850532389</v>
       </c>
       <c r="AG20">
-        <v>596.2311236680117</v>
+        <v>1370.25825554701</v>
       </c>
       <c r="AH20">
-        <v>21.14470818173555</v>
+        <v>138.9666077133664</v>
       </c>
       <c r="AI20">
-        <v>1277.938953894083</v>
+        <v>0.4228941625365076</v>
       </c>
       <c r="AJ20">
-        <v>443.7541924011439</v>
+        <v>1388.224632558527</v>
       </c>
       <c r="AK20">
-        <v>26.40636941952003</v>
+        <v>596.2371517517415</v>
+      </c>
+      <c r="AL20">
+        <v>21.14470811672359</v>
+      </c>
+      <c r="AM20">
+        <v>1277.938954308376</v>
+      </c>
+      <c r="AN20">
+        <v>443.7664610575288</v>
+      </c>
+      <c r="AO20">
+        <v>26.4061665905324</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:41">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C21">
-        <v>103.4263956901705</v>
+        <v>103.4263693517216</v>
       </c>
       <c r="D21">
-        <v>1284.979652195501</v>
+        <v>0.00373</v>
       </c>
       <c r="E21">
-        <v>2301.266745247919</v>
+        <v>0.002814693589007514</v>
       </c>
       <c r="F21">
-        <v>1284.979702198001</v>
+        <v>1284.979652188743</v>
       </c>
       <c r="G21">
-        <v>6259.961495716676</v>
+        <v>0.00256</v>
       </c>
       <c r="H21">
-        <v>1.036032833690813</v>
+        <v>2301.266313379484</v>
       </c>
       <c r="I21">
-        <v>4.71309701099935</v>
+        <v>1284.979702191243</v>
       </c>
       <c r="J21">
-        <v>0.5929110246764472</v>
+        <v>6259.956331030116</v>
       </c>
       <c r="K21">
-        <v>2.072065667381626</v>
-      </c>
-      <c r="L21" t="s">
-        <v>76</v>
+        <v>1.036033106624312</v>
+      </c>
+      <c r="L21">
+        <v>4.713072531827081</v>
       </c>
       <c r="M21">
-        <v>1388.406047885672</v>
+        <v>0.5929089575258319</v>
       </c>
       <c r="N21">
-        <v>4437.056184609407</v>
-      </c>
-      <c r="O21">
-        <v>1388.406097888172</v>
+        <v>2.072066213248624</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
       </c>
       <c r="P21">
-        <v>9767.036727284585</v>
+        <v>1388.406121545464</v>
       </c>
       <c r="Q21">
-        <v>0.8376008260694611</v>
+        <v>0.00117</v>
+      </c>
+      <c r="R21">
+        <v>4437.042685416734</v>
       </c>
       <c r="S21">
-        <v>5.339120018396065</v>
+        <v>1388.406071542964</v>
       </c>
       <c r="T21">
-        <v>0.5932630159877071</v>
+        <v>9767.0914823395</v>
       </c>
       <c r="U21">
-        <v>1.675201652138922</v>
-      </c>
-      <c r="V21" t="s">
-        <v>76</v>
+        <v>0.837610607152371</v>
       </c>
       <c r="W21">
-        <v>1264.823851126335</v>
+        <v>5.293694207015952</v>
       </c>
       <c r="X21">
-        <v>704.15437655425</v>
+        <v>0.5932402565823255</v>
       </c>
       <c r="Y21">
-        <v>1.523714627470345</v>
-      </c>
-      <c r="Z21">
-        <v>1409.789600809603</v>
+        <v>1.675221214304742</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>80</v>
       </c>
       <c r="AA21">
-        <v>1023.68403455817</v>
+        <v>1264.823851095303</v>
       </c>
       <c r="AB21">
-        <v>1.197584279731517</v>
+        <v>704.1502691152616</v>
       </c>
       <c r="AC21">
-        <v>1370.265293889001</v>
+        <v>1.523704611085046</v>
       </c>
       <c r="AD21">
-        <v>134.5280980714881</v>
+        <v>1409.789866247121</v>
       </c>
       <c r="AE21">
-        <v>0.4177887320860467</v>
+        <v>1008.688049459582</v>
       </c>
       <c r="AF21">
-        <v>1381.434710090802</v>
+        <v>1.191182715790745</v>
       </c>
       <c r="AG21">
-        <v>310.7754154334255</v>
+        <v>1370.265335573959</v>
       </c>
       <c r="AH21">
-        <v>18.24628947633406</v>
+        <v>135.4645458142299</v>
       </c>
       <c r="AI21">
-        <v>1278.032436117453</v>
+        <v>0.4177887315529749</v>
       </c>
       <c r="AJ21">
-        <v>315.3219740946076</v>
+        <v>1383.622093725659</v>
       </c>
       <c r="AK21">
-        <v>25.80886379081272</v>
+        <v>339.6146733683989</v>
+      </c>
+      <c r="AL21">
+        <v>20.88942893434245</v>
+      </c>
+      <c r="AM21">
+        <v>1278.032436071132</v>
+      </c>
+      <c r="AN21">
+        <v>315.3344582051914</v>
+      </c>
+      <c r="AO21">
+        <v>25.80886346738718</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:41">
       <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>103.3934785280983</v>
-      </c>
-      <c r="D22">
-        <v>1285.059602343603</v>
-      </c>
-      <c r="E22">
-        <v>2320.016592889553</v>
+        <v>103.3934785532542</v>
       </c>
       <c r="F22">
-        <v>1285.059652346103</v>
-      </c>
-      <c r="G22">
-        <v>6079.993333458869</v>
+        <v>1285.05960231207</v>
       </c>
       <c r="H22">
-        <v>1.000953960961583</v>
+        <v>2320.016003052541</v>
       </c>
       <c r="I22">
-        <v>4.421372501147244</v>
+        <v>1285.05965231457</v>
       </c>
       <c r="J22">
-        <v>0.5873786840816789</v>
+        <v>6079.982383081249</v>
       </c>
       <c r="K22">
-        <v>2.001907921923166</v>
-      </c>
-      <c r="L22" t="s">
-        <v>76</v>
+        <v>1.000954198992818</v>
+      </c>
+      <c r="L22">
+        <v>4.42133766181608</v>
       </c>
       <c r="M22">
-        <v>1388.453080871701</v>
+        <v>0.5873749215015092</v>
       </c>
       <c r="N22">
-        <v>4438.070837083354</v>
-      </c>
-      <c r="O22">
-        <v>1388.453130874201</v>
+        <v>2.001908397985636</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
       </c>
       <c r="P22">
-        <v>9453.172056916617</v>
-      </c>
-      <c r="Q22">
-        <v>0.8127630301978026</v>
+        <v>1388.453080865324</v>
+      </c>
+      <c r="R22">
+        <v>4438.070626708346</v>
       </c>
       <c r="S22">
-        <v>5.233317894034569</v>
+        <v>1388.453130867824</v>
       </c>
       <c r="T22">
-        <v>0.5879152110420157</v>
+        <v>9453.168673014781</v>
       </c>
       <c r="U22">
-        <v>1.625526060395605</v>
-      </c>
-      <c r="V22" t="s">
-        <v>76</v>
+        <v>0.8127630635219582</v>
       </c>
       <c r="W22">
-        <v>1264.97054505596</v>
+        <v>5.233290239117386</v>
       </c>
       <c r="X22">
-        <v>664.3401242956588</v>
+        <v>0.5879144685699967</v>
       </c>
       <c r="Y22">
-        <v>1.437442509438476</v>
-      </c>
-      <c r="Z22">
-        <v>1409.844952723231</v>
+        <v>1.625526127043916</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>80</v>
       </c>
       <c r="AA22">
-        <v>971.8780735692579</v>
+        <v>1264.970543968275</v>
       </c>
       <c r="AB22">
-        <v>1.160271985927809</v>
+        <v>664.3071150577929</v>
       </c>
       <c r="AC22">
-        <v>1370.2917556069</v>
+        <v>1.437501604431606</v>
       </c>
       <c r="AD22">
-        <v>124.0693868702071</v>
+        <v>1409.844952934233</v>
       </c>
       <c r="AE22">
-        <v>0.4053833926504122</v>
+        <v>971.871916968583</v>
       </c>
       <c r="AF22">
-        <v>1383.170027098673</v>
+        <v>1.160271576706308</v>
       </c>
       <c r="AG22">
-        <v>492.9680872883476</v>
+        <v>1370.291755330741</v>
       </c>
       <c r="AH22">
-        <v>20.26917670611343</v>
+        <v>124.0697966479868</v>
       </c>
       <c r="AI22">
-        <v>1278.065429904782</v>
+        <v>0.4053834372927936</v>
       </c>
       <c r="AJ22">
-        <v>410.8593514819128</v>
+        <v>1383.170976134893</v>
       </c>
       <c r="AK22">
-        <v>24.92443743446413</v>
+        <v>492.97579097147</v>
+      </c>
+      <c r="AL22">
+        <v>20.26917668967563</v>
+      </c>
+      <c r="AM22">
+        <v>1278.065430048421</v>
+      </c>
+      <c r="AN22">
+        <v>410.9102189581617</v>
+      </c>
+      <c r="AO22">
+        <v>24.92443745578587</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:41">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C23">
-        <v>103.3654331082244</v>
+        <v>103.3654331250909</v>
       </c>
       <c r="D23">
-        <v>1285.121612835674</v>
+        <v>0.00324</v>
       </c>
       <c r="E23">
-        <v>2577.805358314734</v>
+        <v>0.002393532953606446</v>
       </c>
       <c r="F23">
-        <v>1285.121662838174</v>
+        <v>1285.121612826294</v>
       </c>
       <c r="G23">
-        <v>6621.846903325142</v>
+        <v>0.00211</v>
       </c>
       <c r="H23">
-        <v>0.9884913723300731</v>
+        <v>2577.804975048834</v>
       </c>
       <c r="I23">
-        <v>4.753367726182838</v>
+        <v>1285.121662828794</v>
       </c>
       <c r="J23">
-        <v>0.5690379560447159</v>
+        <v>6621.843218543025</v>
       </c>
       <c r="K23">
-        <v>1.976982744660146</v>
-      </c>
-      <c r="L23" t="s">
-        <v>76</v>
+        <v>0.9884916057220835</v>
+      </c>
+      <c r="L23">
+        <v>4.75335408354757</v>
       </c>
       <c r="M23">
-        <v>1388.487045943899</v>
+        <v>0.5690364382683557</v>
       </c>
       <c r="N23">
-        <v>4880.842014066554</v>
-      </c>
-      <c r="O23">
-        <v>1388.487095946399</v>
+        <v>1.976983211444167</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
       </c>
       <c r="P23">
-        <v>10370.76007526462</v>
+        <v>1388.487045951385</v>
       </c>
       <c r="Q23">
-        <v>0.8112096720309107</v>
+        <v>0.00113</v>
+      </c>
+      <c r="R23">
+        <v>4880.841660327925</v>
       </c>
       <c r="S23">
-        <v>5.854897469341027</v>
+        <v>1388.487095953885</v>
       </c>
       <c r="T23">
-        <v>0.586068322402966</v>
+        <v>10370.75392131846</v>
       </c>
       <c r="U23">
-        <v>1.622419344061821</v>
-      </c>
-      <c r="V23" t="s">
-        <v>76</v>
+        <v>0.8112097181345154</v>
       </c>
       <c r="W23">
-        <v>1265.008933705328</v>
+        <v>5.855130937739079</v>
       </c>
       <c r="X23">
-        <v>721.0482946611294</v>
+        <v>0.5860671081719194</v>
       </c>
       <c r="Y23">
-        <v>1.364657529185541</v>
-      </c>
-      <c r="Z23">
-        <v>1409.836824822489</v>
+        <v>1.622419436269031</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>80</v>
       </c>
       <c r="AA23">
-        <v>1064.025208775374</v>
+        <v>1265.008934523799</v>
       </c>
       <c r="AB23">
-        <v>1.145439670848022</v>
+        <v>721.0461320388231</v>
       </c>
       <c r="AC23">
-        <v>1370.305010916094</v>
+        <v>1.364652811235772</v>
       </c>
       <c r="AD23">
-        <v>134.3668056796209</v>
+        <v>1409.836825144891</v>
       </c>
       <c r="AE23">
-        <v>0.4047351955476874</v>
+        <v>1064.022226392733</v>
       </c>
       <c r="AF23">
-        <v>1381.511695404379</v>
+        <v>1.145438289437312</v>
       </c>
       <c r="AG23">
-        <v>504.6660524530844</v>
+        <v>1370.305201002814</v>
       </c>
       <c r="AH23">
-        <v>20.23675977738442</v>
+        <v>134.3482832763636</v>
       </c>
       <c r="AI23">
-        <v>1278.153412994595</v>
+        <v>0.4047351948808754</v>
       </c>
       <c r="AJ23">
-        <v>486.703219583792</v>
+        <v>1381.511705272351</v>
       </c>
       <c r="AK23">
-        <v>24.61101172820529</v>
+        <v>504.6915098221843</v>
+      </c>
+      <c r="AL23">
+        <v>20.23675973285614</v>
+      </c>
+      <c r="AM23">
+        <v>1278.153413041547</v>
+      </c>
+      <c r="AN23">
+        <v>486.7108255160773</v>
+      </c>
+      <c r="AO23">
+        <v>24.61101159523803</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:41">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24">
-        <v>103.2706855903828</v>
-      </c>
-      <c r="D24">
-        <v>1285.368063308731</v>
-      </c>
-      <c r="E24">
-        <v>2444.682934155978</v>
+        <v>103.2706855722392</v>
       </c>
       <c r="F24">
-        <v>1285.368113311231</v>
+        <v>1285.368063326141</v>
       </c>
       <c r="G24">
-        <v>5773.588866749577</v>
+        <v>0.00159</v>
       </c>
       <c r="H24">
-        <v>0.9100605216281145</v>
+        <v>2444.684915715326</v>
       </c>
       <c r="I24">
-        <v>4.014715813470133</v>
+        <v>1285.368113328641</v>
       </c>
       <c r="J24">
-        <v>0.5648624023549764</v>
+        <v>5773.608848997181</v>
       </c>
       <c r="K24">
-        <v>1.820121043256229</v>
-      </c>
-      <c r="L24" t="s">
-        <v>76</v>
+        <v>0.910059380758837</v>
+      </c>
+      <c r="L24">
+        <v>4.014748982176151</v>
       </c>
       <c r="M24">
-        <v>1388.638748899114</v>
+        <v>0.5648715288210278</v>
       </c>
       <c r="N24">
-        <v>4532.399793480829</v>
-      </c>
-      <c r="O24">
-        <v>1388.638798901614</v>
+        <v>1.820118761517674</v>
+      </c>
+      <c r="O24" t="s">
+        <v>80</v>
       </c>
       <c r="P24">
-        <v>8947.211812355385</v>
-      </c>
-      <c r="Q24">
-        <v>0.7612657842183326</v>
+        <v>1388.63874889838</v>
+      </c>
+      <c r="R24">
+        <v>4532.399795034154</v>
       </c>
       <c r="S24">
-        <v>4.554878203267739</v>
+        <v>1388.63879890088</v>
       </c>
       <c r="T24">
-        <v>0.5584480558040807</v>
+        <v>8947.2118282845</v>
       </c>
       <c r="U24">
-        <v>1.522531568436665</v>
-      </c>
-      <c r="V24" t="s">
-        <v>76</v>
+        <v>0.7612657837447085</v>
       </c>
       <c r="W24">
-        <v>1265.250862772809</v>
+        <v>4.554877692182675</v>
       </c>
       <c r="X24">
-        <v>637.6989637291947</v>
+        <v>0.5584480606813738</v>
       </c>
       <c r="Y24">
-        <v>1.231467716216719</v>
-      </c>
-      <c r="Z24">
-        <v>1410.001599706083</v>
+        <v>1.522531567489417</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>80</v>
       </c>
       <c r="AA24">
-        <v>913.5270779731627</v>
+        <v>1265.250861736033</v>
       </c>
       <c r="AB24">
-        <v>1.024045367008707</v>
+        <v>637.7130205043572</v>
       </c>
       <c r="AC24">
-        <v>1370.61546872465</v>
+        <v>1.231499220942416</v>
       </c>
       <c r="AD24">
-        <v>116.5168137446485</v>
+        <v>1410.001599919819</v>
       </c>
       <c r="AE24">
-        <v>0.3800760377546343</v>
+        <v>913.5270979208231</v>
       </c>
       <c r="AF24">
-        <v>1381.627173496252</v>
+        <v>1.024045400675683</v>
       </c>
       <c r="AG24">
-        <v>250.0442244818389</v>
+        <v>1370.615468772395</v>
       </c>
       <c r="AH24">
-        <v>19.00380622020327</v>
+        <v>116.5168419446752</v>
       </c>
       <c r="AI24">
-        <v>1278.37337102025</v>
+        <v>0.3800761246287256</v>
       </c>
       <c r="AJ24">
-        <v>397.8868087907282</v>
+        <v>1381.627178764769</v>
       </c>
       <c r="AK24">
-        <v>22.67837951754061</v>
+        <v>250.0441635001808</v>
+      </c>
+      <c r="AL24">
+        <v>19.0038062314365</v>
+      </c>
+      <c r="AM24">
+        <v>1278.373371020252</v>
+      </c>
+      <c r="AN24">
+        <v>397.8407693376011</v>
+      </c>
+      <c r="AO24">
+        <v>22.67837961172965</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:41">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>103.1902680433311</v>
-      </c>
-      <c r="D25">
-        <v>1285.554143477817</v>
-      </c>
-      <c r="E25">
-        <v>2256.80012350995</v>
+        <v>103.190268031093</v>
       </c>
       <c r="F25">
-        <v>1285.554193480317</v>
+        <v>1285.554143490209</v>
       </c>
       <c r="G25">
-        <v>4968.821437782325</v>
+        <v>0.0013</v>
       </c>
       <c r="H25">
-        <v>0.8452530157613025</v>
+        <v>2256.802261553688</v>
       </c>
       <c r="I25">
-        <v>3.407826463392044</v>
+        <v>1285.554193492709</v>
       </c>
       <c r="J25">
-        <v>0.5713766682982299</v>
+        <v>4968.839751143669</v>
       </c>
       <c r="K25">
-        <v>1.690506031522605</v>
-      </c>
-      <c r="L25" t="s">
-        <v>76</v>
+        <v>0.8452517328583349</v>
+      </c>
+      <c r="L25">
+        <v>3.407838305245023</v>
       </c>
       <c r="M25">
-        <v>1388.744411521148</v>
+        <v>0.5713866435313226</v>
       </c>
       <c r="N25">
-        <v>4069.045172568007</v>
-      </c>
-      <c r="O25">
-        <v>1388.744461523648</v>
+        <v>1.69050346571667</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
       </c>
       <c r="P25">
-        <v>7661.149578175229</v>
-      </c>
-      <c r="Q25">
-        <v>0.7353361819200148</v>
+        <v>1388.744411521302</v>
+      </c>
+      <c r="R25">
+        <v>4069.045116430322</v>
       </c>
       <c r="S25">
-        <v>3.748788727203181</v>
+        <v>1388.744461523802</v>
       </c>
       <c r="T25">
-        <v>0.525985755177922</v>
+        <v>7661.148507548554</v>
       </c>
       <c r="U25">
-        <v>1.47067236384003</v>
-      </c>
-      <c r="V25" t="s">
-        <v>76</v>
+        <v>0.7353361859603493</v>
       </c>
       <c r="W25">
-        <v>1265.418363817401</v>
+        <v>3.748771593998731</v>
       </c>
       <c r="X25">
-        <v>573.2961738700075</v>
+        <v>0.5259854805147437</v>
       </c>
       <c r="Y25">
-        <v>1.139816406677089</v>
-      </c>
-      <c r="Z25">
-        <v>1410.075227934201</v>
+        <v>1.470672371920699</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>80</v>
       </c>
       <c r="AA25">
-        <v>766.0828883986444</v>
+        <v>1265.418363196791</v>
       </c>
       <c r="AB25">
-        <v>0.9506300789330083</v>
+        <v>573.3080492752304</v>
       </c>
       <c r="AC25">
-        <v>1370.665317979431</v>
+        <v>1.139843623119406</v>
       </c>
       <c r="AD25">
-        <v>105.4458421119967</v>
+        <v>1410.075227942185</v>
       </c>
       <c r="AE25">
-        <v>0.3669422473508472</v>
+        <v>766.0823911023567</v>
       </c>
       <c r="AF25">
-        <v>1381.715156988497</v>
+        <v>0.9506300886443602</v>
       </c>
       <c r="AG25">
-        <v>222.403339854522</v>
+        <v>1370.665252997776</v>
       </c>
       <c r="AH25">
-        <v>18.34711236754235</v>
+        <v>105.4415707844601</v>
       </c>
       <c r="AI25">
-        <v>1278.538339549335</v>
+        <v>0.3669422455582098</v>
       </c>
       <c r="AJ25">
-        <v>201.2258804166613</v>
+        <v>1381.715156590247</v>
       </c>
       <c r="AK25">
-        <v>21.07078127263163</v>
+        <v>222.4084627673499</v>
+      </c>
+      <c r="AL25">
+        <v>18.34711227791044</v>
+      </c>
+      <c r="AM25">
+        <v>1278.538339549337</v>
+      </c>
+      <c r="AN25">
+        <v>201.1852500869428</v>
+      </c>
+      <c r="AO25">
+        <v>21.07078121018059</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:41">
       <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C26">
-        <v>104.8018801899409</v>
-      </c>
-      <c r="D26">
-        <v>1282.036833259074</v>
-      </c>
-      <c r="E26">
-        <v>29839.60570358379</v>
+        <v>104.8018802197792</v>
       </c>
       <c r="F26">
-        <v>1282.036783256573</v>
+        <v>1282.036833257622</v>
       </c>
       <c r="G26">
-        <v>87997.80779047705</v>
+        <v>0.00162</v>
       </c>
       <c r="H26">
-        <v>1.073464953529057</v>
+        <v>29839.60570607229</v>
       </c>
       <c r="I26">
-        <v>33.36792501959763</v>
+        <v>1282.036783255121</v>
       </c>
       <c r="J26">
-        <v>0.724707872117303</v>
+        <v>87997.80769995469</v>
       </c>
       <c r="K26">
-        <v>2.146929907058113</v>
-      </c>
-      <c r="L26" t="s">
-        <v>76</v>
+        <v>1.073464952974482</v>
+      </c>
+      <c r="L26">
+        <v>33.36792124053611</v>
       </c>
       <c r="M26">
-        <v>1386.838713449014</v>
+        <v>0.7247078708793261</v>
       </c>
       <c r="N26">
-        <v>57200.36971405896</v>
-      </c>
-      <c r="O26">
-        <v>1386.838663446514</v>
+        <v>2.146929905948964</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
       </c>
       <c r="P26">
-        <v>162204.1268161129</v>
-      </c>
-      <c r="Q26">
-        <v>1.021362844018428</v>
+        <v>1386.838713477401</v>
+      </c>
+      <c r="R26">
+        <v>57200.37021469526</v>
       </c>
       <c r="S26">
-        <v>46.74340588382562</v>
+        <v>1386.838663474901</v>
       </c>
       <c r="T26">
-        <v>0.7401651659989644</v>
+        <v>162204.1406519219</v>
       </c>
       <c r="U26">
-        <v>2.042725688036856</v>
-      </c>
-      <c r="V26" t="s">
-        <v>76</v>
+        <v>1.021362838645228</v>
       </c>
       <c r="W26">
-        <v>1261.97233902222</v>
+        <v>46.74324426928047</v>
       </c>
       <c r="X26">
-        <v>12481.43685925235</v>
+        <v>0.7401653259626818</v>
       </c>
       <c r="Y26">
-        <v>3.21842738439453</v>
-      </c>
-      <c r="Z26">
-        <v>1408.171268347741</v>
+        <v>2.042725677290456</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>80</v>
       </c>
       <c r="AA26">
-        <v>15289.65246202651</v>
+        <v>1261.972340305123</v>
       </c>
       <c r="AB26">
-        <v>2.663362092105373</v>
+        <v>12481.43553783127</v>
       </c>
       <c r="AC26">
-        <v>1369.548990384667</v>
+        <v>3.218426900037952</v>
       </c>
       <c r="AD26">
-        <v>1940.568452114376</v>
+        <v>1408.171259112642</v>
       </c>
       <c r="AE26">
-        <v>0.5098607742350066</v>
+        <v>15289.7256139474</v>
       </c>
       <c r="AF26">
-        <v>1386.740614213572</v>
+        <v>2.663451367655813</v>
       </c>
       <c r="AG26">
-        <v>14501.71484943052</v>
+        <v>1369.548991326358</v>
       </c>
       <c r="AH26">
-        <v>15.3493796683091</v>
+        <v>1940.56800905517</v>
       </c>
       <c r="AI26">
-        <v>1284.707546546683</v>
+        <v>0.5098607743106662</v>
       </c>
       <c r="AJ26">
-        <v>8749.126727173651</v>
+        <v>1386.740476818788</v>
       </c>
       <c r="AK26">
-        <v>11.388891125782</v>
+        <v>14501.61308501017</v>
+      </c>
+      <c r="AL26">
+        <v>15.34929678609192</v>
+      </c>
+      <c r="AM26">
+        <v>1284.707546471103</v>
+      </c>
+      <c r="AN26">
+        <v>8749.127793127989</v>
+      </c>
+      <c r="AO26">
+        <v>11.38889236737133</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:41">
       <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <v>103.1251536301179</v>
-      </c>
-      <c r="D27">
-        <v>1285.70373087092</v>
-      </c>
-      <c r="E27">
-        <v>2055.782228661304</v>
+        <v>103.12516415235</v>
       </c>
       <c r="F27">
-        <v>1285.703780873421</v>
+        <v>1285.703730774615</v>
       </c>
       <c r="G27">
-        <v>4352.82281256625</v>
+        <v>0.00146</v>
       </c>
       <c r="H27">
-        <v>0.8213089701661794</v>
+        <v>2055.784333602149</v>
       </c>
       <c r="I27">
-        <v>3.47989478398708</v>
+        <v>1285.703780777115</v>
       </c>
       <c r="J27">
-        <v>0.5434281359238764</v>
+        <v>4352.840543440475</v>
       </c>
       <c r="K27">
-        <v>1.642617940332359</v>
-      </c>
-      <c r="L27" t="s">
-        <v>76</v>
+        <v>0.8213076303366108</v>
+      </c>
+      <c r="L27">
+        <v>3.479907940415301</v>
       </c>
       <c r="M27">
-        <v>1388.828984506039</v>
+        <v>0.5434391866761877</v>
       </c>
       <c r="N27">
-        <v>3709.289759115011</v>
-      </c>
-      <c r="O27">
-        <v>1388.828934503538</v>
+        <v>1.642615260673222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
       </c>
       <c r="P27">
-        <v>6751.814956073916</v>
-      </c>
-      <c r="Q27">
-        <v>0.7108444760962722</v>
+        <v>1388.828994931965</v>
+      </c>
+      <c r="R27">
+        <v>3708.356013552643</v>
       </c>
       <c r="S27">
-        <v>3.583571023539844</v>
+        <v>1388.828944929465</v>
       </c>
       <c r="T27">
-        <v>0.5234003560732791</v>
+        <v>6740.513536455028</v>
       </c>
       <c r="U27">
-        <v>1.421688952192544</v>
-      </c>
-      <c r="V27" t="s">
-        <v>76</v>
+        <v>0.7110400108334146</v>
       </c>
       <c r="W27">
-        <v>1265.548554800164</v>
+        <v>3.501652125388639</v>
       </c>
       <c r="X27">
-        <v>493.5261997970239</v>
+        <v>0.5196820281581354</v>
       </c>
       <c r="Y27">
-        <v>1.118569313990083</v>
-      </c>
-      <c r="Z27">
-        <v>1410.087593477281</v>
+        <v>1.422080021666829</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>80</v>
       </c>
       <c r="AA27">
-        <v>670.9528306810429</v>
+        <v>1265.548552085912</v>
       </c>
       <c r="AB27">
-        <v>0.8699514279425836</v>
+        <v>493.5379175961457</v>
       </c>
       <c r="AC27">
-        <v>1370.675743002539</v>
+        <v>1.118599674374837</v>
       </c>
       <c r="AD27">
-        <v>90.91636873006624</v>
+        <v>1410.087835412386</v>
       </c>
       <c r="AE27">
-        <v>0.3549371895024502</v>
+        <v>667.4861094225015</v>
       </c>
       <c r="AF27">
-        <v>1395.807323893782</v>
+        <v>0.8702541510112288</v>
       </c>
       <c r="AG27">
-        <v>5.470262240521856</v>
+        <v>1370.674224440151</v>
       </c>
       <c r="AH27">
-        <v>17.74671525698408</v>
+        <v>88.66585585925813</v>
       </c>
       <c r="AI27">
-        <v>1278.70880705142</v>
+        <v>0.3549376371360049</v>
       </c>
       <c r="AJ27">
-        <v>107.7145105996204</v>
+        <v>1381.814137707697</v>
       </c>
       <c r="AK27">
-        <v>20.4823798276796</v>
+        <v>51.73144844970002</v>
+      </c>
+      <c r="AL27">
+        <v>17.74690880462246</v>
+      </c>
+      <c r="AM27">
+        <v>1278.708807029526</v>
+      </c>
+      <c r="AN27">
+        <v>107.6729761372855</v>
+      </c>
+      <c r="AO27">
+        <v>20.48237974934615</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:41">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>103.0191352258455</v>
-      </c>
-      <c r="D28">
-        <v>1285.956350476536</v>
-      </c>
-      <c r="E28">
-        <v>7071.222566803142</v>
+        <v>103.0192446414289</v>
       </c>
       <c r="F28">
-        <v>1285.956400479036</v>
-      </c>
-      <c r="G28">
-        <v>13617.06180306519</v>
+        <v>1285.956350477427</v>
       </c>
       <c r="H28">
-        <v>0.7655408536041346</v>
+        <v>7071.22226844781</v>
       </c>
       <c r="I28">
-        <v>9.286734678469104</v>
+        <v>1285.956400479927</v>
       </c>
       <c r="J28">
-        <v>0.4821522215370322</v>
+        <v>13617.05514822332</v>
       </c>
       <c r="K28">
-        <v>1.531081707208269</v>
-      </c>
-      <c r="L28" t="s">
-        <v>76</v>
+        <v>0.7655408613423748</v>
+      </c>
+      <c r="L28">
+        <v>9.286726875177884</v>
       </c>
       <c r="M28">
-        <v>1388.975485702381</v>
+        <v>0.4821512427822365</v>
       </c>
       <c r="N28">
-        <v>12149.00888007314</v>
-      </c>
-      <c r="O28">
-        <v>1388.975535704881</v>
+        <v>1.53108172268475</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
       </c>
       <c r="P28">
-        <v>20615.20034308859</v>
-      </c>
-      <c r="Q28">
-        <v>0.6795997787319946</v>
+        <v>1388.975595118856</v>
+      </c>
+      <c r="R28">
+        <v>12142.36456102441</v>
       </c>
       <c r="S28">
-        <v>10.45509164506001</v>
+        <v>1388.975645121356</v>
       </c>
       <c r="T28">
-        <v>0.4591398444545056</v>
+        <v>20516.05486162314</v>
       </c>
       <c r="U28">
-        <v>1.359199557463989</v>
-      </c>
-      <c r="V28" t="s">
-        <v>76</v>
+        <v>0.679883405799853</v>
       </c>
       <c r="W28">
-        <v>1265.749854528487</v>
+        <v>13.3303891963696</v>
       </c>
       <c r="X28">
-        <v>1488.880347100054</v>
+        <v>0.4487853686868274</v>
       </c>
       <c r="Y28">
-        <v>0.9321349482086347</v>
-      </c>
-      <c r="Z28">
-        <v>1410.265923532051</v>
+        <v>1.359766811599706</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>80</v>
       </c>
       <c r="AA28">
-        <v>2150.023617691992</v>
+        <v>1265.749854722475</v>
       </c>
       <c r="AB28">
-        <v>0.8315074351964639</v>
+        <v>1488.85707278408</v>
       </c>
       <c r="AC28">
-        <v>1370.712634168753</v>
+        <v>0.9321513029097277</v>
       </c>
       <c r="AD28">
-        <v>310.5426232588361</v>
+        <v>1410.26673004223</v>
       </c>
       <c r="AE28">
-        <v>0.339307407706934</v>
+        <v>2115.496591612707</v>
       </c>
       <c r="AF28">
-        <v>1381.995855397618</v>
+        <v>0.8316596773680422</v>
       </c>
       <c r="AG28">
-        <v>375.2161941082275</v>
+        <v>1372.279551776651</v>
       </c>
       <c r="AH28">
-        <v>16.96537038644694</v>
+        <v>218.9041822589407</v>
       </c>
       <c r="AI28">
-        <v>1278.939762970113</v>
+        <v>0.06152589870786213</v>
       </c>
       <c r="AJ28">
-        <v>696.9787043874894</v>
+        <v>1381.99560310345</v>
       </c>
       <c r="AK28">
-        <v>19.10386967865065</v>
+        <v>820.4524291112828</v>
+      </c>
+      <c r="AL28">
+        <v>16.96537030077887</v>
+      </c>
+      <c r="AM28">
+        <v>1278.93976297011</v>
+      </c>
+      <c r="AN28">
+        <v>697.0116084276546</v>
+      </c>
+      <c r="AO28">
+        <v>19.10386983003059</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:41">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C29">
-        <v>102.9778276052084</v>
-      </c>
-      <c r="D29">
-        <v>1286.056102670479</v>
-      </c>
-      <c r="E29">
-        <v>6188.092229577856</v>
+        <v>102.9778466260284</v>
       </c>
       <c r="F29">
-        <v>1286.056152672979</v>
-      </c>
-      <c r="G29">
-        <v>11430.23097864723</v>
+        <v>1286.056102672425</v>
       </c>
       <c r="H29">
-        <v>0.7371423988022074</v>
+        <v>6188.092391616007</v>
       </c>
       <c r="I29">
-        <v>7.689280127569833</v>
+        <v>1286.056152674925</v>
       </c>
       <c r="J29">
-        <v>0.4702100142744404</v>
+        <v>11430.23368713541</v>
       </c>
       <c r="K29">
-        <v>1.474284797604415</v>
-      </c>
-      <c r="L29" t="s">
-        <v>76</v>
+        <v>0.7371423865927879</v>
+      </c>
+      <c r="L29">
+        <v>7.689284799327599</v>
       </c>
       <c r="M29">
-        <v>1389.034030280687</v>
+        <v>0.4702105135030188</v>
       </c>
       <c r="N29">
-        <v>10278.41026205224</v>
-      </c>
-      <c r="O29">
-        <v>1389.033980278187</v>
+        <v>1.474284773185576</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
       </c>
       <c r="P29">
-        <v>17081.74223419767</v>
-      </c>
-      <c r="Q29">
-        <v>0.6723191097261925</v>
+        <v>1389.033949298454</v>
+      </c>
+      <c r="R29">
+        <v>10278.62491450832</v>
       </c>
       <c r="S29">
-        <v>8.97241366689245</v>
+        <v>1389.033999300954</v>
       </c>
       <c r="T29">
-        <v>0.4317368965591575</v>
+        <v>17086.00472109254</v>
       </c>
       <c r="U29">
-        <v>1.344638219452385</v>
-      </c>
-      <c r="V29" t="s">
-        <v>76</v>
+        <v>0.6723141539515302</v>
       </c>
       <c r="W29">
-        <v>1265.842870109311</v>
+        <v>8.978359527450108</v>
       </c>
       <c r="X29">
-        <v>1247.984157922376</v>
+        <v>0.4322558335095494</v>
       </c>
       <c r="Y29">
-        <v>0.9085815212531123</v>
-      </c>
-      <c r="Z29">
-        <v>1410.326016103964</v>
+        <v>1.34462830790306</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>80</v>
       </c>
       <c r="AA29">
-        <v>1736.888137388585</v>
+        <v>1265.842869994926</v>
       </c>
       <c r="AB29">
-        <v>0.7940657008357814</v>
+        <v>1247.992568223951</v>
       </c>
       <c r="AC29">
-        <v>1370.735586498342</v>
+        <v>0.9085742562507896</v>
       </c>
       <c r="AD29">
-        <v>275.7385317837742</v>
+        <v>1410.325746413151</v>
       </c>
       <c r="AE29">
-        <v>0.3358388690387547</v>
+        <v>1763.618410858749</v>
       </c>
       <c r="AF29">
-        <v>1396.050563374489</v>
+        <v>0.7942080244586455</v>
       </c>
       <c r="AG29">
-        <v>195.4801902346373</v>
+        <v>1370.735750799069</v>
       </c>
       <c r="AH29">
-        <v>16.7919434519367</v>
+        <v>271.3216289594467</v>
       </c>
       <c r="AI29">
+        <v>0.3358375053430369</v>
+      </c>
+      <c r="AJ29">
+        <v>1382.050592599907</v>
+      </c>
+      <c r="AK29">
+        <v>174.0611696067074</v>
+      </c>
+      <c r="AL29">
+        <v>16.79194342005804</v>
+      </c>
+      <c r="AM29">
         <v>1279.027746185622</v>
       </c>
-      <c r="AJ29">
-        <v>381.7789252510242</v>
-      </c>
-      <c r="AK29">
-        <v>18.39004982534441</v>
+      <c r="AN29">
+        <v>381.7664053903379</v>
+      </c>
+      <c r="AO29">
+        <v>18.39004965429534</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:41">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>102.9517297795828</v>
-      </c>
-      <c r="D30">
-        <v>1286.136941103422</v>
-      </c>
-      <c r="E30">
-        <v>4880.862616846537</v>
+        <v>102.9517185405755</v>
       </c>
       <c r="F30">
-        <v>1286.136991105922</v>
+        <v>1286.136953991969</v>
       </c>
       <c r="G30">
-        <v>8754.272979922296</v>
+        <v>0.0012</v>
       </c>
       <c r="H30">
-        <v>0.7119209842129843</v>
+        <v>4879.160277928851</v>
       </c>
       <c r="I30">
-        <v>7.620794411605793</v>
+        <v>1286.13700399447</v>
       </c>
       <c r="J30">
-        <v>0.4812296989166498</v>
+        <v>8734.081612812968</v>
       </c>
       <c r="K30">
-        <v>1.423841968425969</v>
-      </c>
-      <c r="L30" t="s">
-        <v>76</v>
+        <v>0.7121932584678772</v>
+      </c>
+      <c r="L30">
+        <v>7.546126257754139</v>
       </c>
       <c r="M30">
-        <v>1389.088770888005</v>
+        <v>0.4760062015575711</v>
       </c>
       <c r="N30">
-        <v>7895.640830885527</v>
-      </c>
-      <c r="O30">
-        <v>1389.088720885505</v>
+        <v>1.424386516935754</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
       </c>
       <c r="P30">
-        <v>12717.61861298976</v>
-      </c>
-      <c r="Q30">
-        <v>0.6573729887305486</v>
+        <v>1389.088772537545</v>
+      </c>
+      <c r="R30">
+        <v>7895.545596368461</v>
       </c>
       <c r="S30">
-        <v>7.15855551118629</v>
+        <v>1389.088722535045</v>
       </c>
       <c r="T30">
-        <v>0.407075657622037</v>
+        <v>12715.76154760163</v>
       </c>
       <c r="U30">
-        <v>1.314745977461097</v>
-      </c>
-      <c r="V30" t="s">
-        <v>76</v>
+        <v>0.6573770615214615</v>
       </c>
       <c r="W30">
-        <v>1265.913359505135</v>
+        <v>7.154525396925163</v>
       </c>
       <c r="X30">
-        <v>1004.007359488814</v>
+        <v>0.4067592839778464</v>
       </c>
       <c r="Y30">
-        <v>0.8997476087393471</v>
-      </c>
-      <c r="Z30">
-        <v>1410.376263378015</v>
+        <v>1.314754123042923</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>80</v>
       </c>
       <c r="AA30">
-        <v>1321.834621332689</v>
+        <v>1265.913004761611</v>
       </c>
       <c r="AB30">
-        <v>0.7787744602220978</v>
+        <v>982.8845961765386</v>
       </c>
       <c r="AC30">
-        <v>1370.727493789782</v>
+        <v>0.8958376549071065</v>
       </c>
       <c r="AD30">
-        <v>195.2501932265368</v>
+        <v>1410.376279079169</v>
       </c>
       <c r="AE30">
-        <v>0.3284684186340999</v>
+        <v>1321.247436068361</v>
       </c>
       <c r="AF30">
-        <v>1382.109492202003</v>
+        <v>0.778784715887133</v>
       </c>
       <c r="AG30">
-        <v>12.88487988263734</v>
+        <v>1370.727485774198</v>
       </c>
       <c r="AH30">
-        <v>16.42339247585544</v>
+        <v>194.879324032644</v>
       </c>
       <c r="AI30">
-        <v>1293.097920991524</v>
+        <v>0.3284684183651392</v>
       </c>
       <c r="AJ30">
-        <v>7.249446983636456</v>
+        <v>1382.094584207142</v>
       </c>
       <c r="AK30">
-        <v>17.770750054259</v>
+        <v>21.04271152675553</v>
+      </c>
+      <c r="AL30">
+        <v>16.42342091825115</v>
+      </c>
+      <c r="AM30">
+        <v>1279.110230450425</v>
+      </c>
+      <c r="AN30">
+        <v>91.63230318359214</v>
+      </c>
+      <c r="AO30">
+        <v>17.77075154696922</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:41">
       <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C31">
-        <v>102.9201085290736</v>
-      </c>
-      <c r="D31">
-        <v>1286.225673212166</v>
-      </c>
-      <c r="E31">
-        <v>4276.058937872735</v>
+        <v>102.9201056438162</v>
       </c>
       <c r="F31">
-        <v>1286.225723214666</v>
+        <v>1286.225673212203</v>
       </c>
       <c r="G31">
-        <v>7352.611763734595</v>
+        <v>0.00146</v>
       </c>
       <c r="H31">
-        <v>0.6900371333159849</v>
+        <v>4276.058947956526</v>
       </c>
       <c r="I31">
-        <v>6.795774848755972</v>
+        <v>1286.225723214703</v>
       </c>
       <c r="J31">
-        <v>0.4522475215082379</v>
+        <v>7352.611821083719</v>
       </c>
       <c r="K31">
-        <v>1.38007426663197</v>
-      </c>
-      <c r="L31" t="s">
-        <v>76</v>
+        <v>0.6900371296153225</v>
+      </c>
+      <c r="L31">
+        <v>6.795775023929172</v>
       </c>
       <c r="M31">
-        <v>1389.14578174124</v>
+        <v>0.4522475498736013</v>
       </c>
       <c r="N31">
-        <v>6776.213229864567</v>
-      </c>
-      <c r="O31">
-        <v>1389.14583174374</v>
+        <v>1.380074259230645</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
       </c>
       <c r="P31">
-        <v>10654.72530342692</v>
-      </c>
-      <c r="Q31">
-        <v>0.6507804970010547</v>
+        <v>1389.145878861019</v>
+      </c>
+      <c r="R31">
+        <v>6778.037982343483</v>
       </c>
       <c r="S31">
-        <v>7.65412147641155</v>
+        <v>1389.145828858519</v>
       </c>
       <c r="T31">
-        <v>0.3706086521987225</v>
+        <v>10692.40694151193</v>
       </c>
       <c r="U31">
-        <v>1.301560994002109</v>
-      </c>
-      <c r="V31" t="s">
-        <v>76</v>
+        <v>0.650724551420871</v>
       </c>
       <c r="W31">
-        <v>1266.012221392197</v>
+        <v>6.318699906537575</v>
       </c>
       <c r="X31">
-        <v>822.8737962268474</v>
+        <v>0.3781707353529613</v>
       </c>
       <c r="Y31">
-        <v>0.8176709054602914</v>
-      </c>
-      <c r="Z31">
-        <v>1410.420270656162</v>
+        <v>1.301449102841742</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>80</v>
       </c>
       <c r="AA31">
-        <v>1101.563801888761</v>
+        <v>1266.012221409952</v>
       </c>
       <c r="AB31">
-        <v>0.7477815865384242</v>
+        <v>822.8737876640917</v>
       </c>
       <c r="AC31">
-        <v>1372.211599485523</v>
+        <v>0.8176706868524596</v>
       </c>
       <c r="AD31">
-        <v>33.1334710538542</v>
+        <v>1410.420052427267</v>
       </c>
       <c r="AE31">
-        <v>0.3251527719476254</v>
+        <v>1112.991872839468</v>
       </c>
       <c r="AF31">
-        <v>1382.133076863929</v>
+        <v>0.7474967960314793</v>
       </c>
       <c r="AG31">
-        <v>187.8464342093559</v>
+        <v>1370.771566088131</v>
       </c>
       <c r="AH31">
-        <v>16.25763859742223</v>
+        <v>165.9712018671948</v>
       </c>
       <c r="AI31">
-        <v>1279.22024892115</v>
+        <v>0.3251527726322646</v>
       </c>
       <c r="AJ31">
-        <v>6.509354351293379</v>
+        <v>1382.141019868485</v>
       </c>
       <c r="AK31">
-        <v>17.22720740724448</v>
+        <v>11.22748394865698</v>
+      </c>
+      <c r="AL31">
+        <v>16.2574191322867</v>
+      </c>
+      <c r="AM31">
+        <v>1279.22023713876</v>
+      </c>
+      <c r="AN31">
+        <v>6.509335231623923</v>
+      </c>
+      <c r="AO31">
+        <v>17.22720733567148</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:41">
       <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>102.8854295925375</v>
-      </c>
-      <c r="D32">
-        <v>1286.308006843816</v>
-      </c>
-      <c r="E32">
-        <v>3727.494242879325</v>
+        <v>102.885428798415</v>
       </c>
       <c r="F32">
-        <v>1286.308056846316</v>
+        <v>1286.308005431342</v>
       </c>
       <c r="G32">
-        <v>6269.759194996229</v>
+        <v>0.0013</v>
       </c>
       <c r="H32">
-        <v>0.6898700940181514</v>
+        <v>3727.489053789747</v>
       </c>
       <c r="I32">
-        <v>5.615998576115458</v>
+        <v>1286.308055433842</v>
       </c>
       <c r="J32">
-        <v>0.3938460564693556</v>
+        <v>6269.682143465086</v>
       </c>
       <c r="K32">
-        <v>1.379740188036303</v>
-      </c>
-      <c r="L32" t="s">
-        <v>76</v>
+        <v>0.6898710024322272</v>
+      </c>
+      <c r="L32">
+        <v>5.619609592567457</v>
       </c>
       <c r="M32">
-        <v>1389.193536441353</v>
+        <v>0.3938176533724603</v>
       </c>
       <c r="N32">
-        <v>5897.781881623565</v>
-      </c>
-      <c r="O32">
-        <v>1389.193486438853</v>
+        <v>1.379742004864454</v>
+      </c>
+      <c r="O32" t="s">
+        <v>80</v>
       </c>
       <c r="P32">
-        <v>9076.259477568097</v>
-      </c>
-      <c r="Q32">
-        <v>0.634804671427488</v>
+        <v>1389.193534234757</v>
+      </c>
+      <c r="R32">
+        <v>5897.783400789958</v>
       </c>
       <c r="S32">
-        <v>5.933897458954885</v>
+        <v>1389.193484232257</v>
       </c>
       <c r="T32">
-        <v>0.3781871732638963</v>
+        <v>9076.280230865614</v>
       </c>
       <c r="U32">
-        <v>1.269609342854976</v>
-      </c>
-      <c r="V32" t="s">
-        <v>76</v>
+        <v>0.6348043886890355</v>
       </c>
       <c r="W32">
-        <v>1266.050176543374</v>
+        <v>5.941698097133287</v>
       </c>
       <c r="X32">
-        <v>689.6805449733482</v>
+        <v>0.3781934343757289</v>
       </c>
       <c r="Y32">
-        <v>0.7478212127479307</v>
-      </c>
-      <c r="Z32">
-        <v>1410.465771734635</v>
+        <v>1.269608777378071</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>80</v>
       </c>
       <c r="AA32">
-        <v>943.4134891668926</v>
+        <v>1266.05016005848</v>
       </c>
       <c r="AB32">
-        <v>0.6789490713257114</v>
+        <v>690.3181923424243</v>
       </c>
       <c r="AC32">
-        <v>1370.785603255201</v>
+        <v>0.7478278211599179</v>
       </c>
       <c r="AD32">
-        <v>139.3106974169298</v>
+        <v>1410.465762478643</v>
       </c>
       <c r="AE32">
-        <v>0.3171825854964131</v>
+        <v>942.1638189491558</v>
       </c>
       <c r="AF32">
-        <v>1382.166901455635</v>
+        <v>0.6789628926439725</v>
       </c>
       <c r="AG32">
+        <v>1370.785459841354</v>
+      </c>
+      <c r="AH32">
+        <v>139.6210267439015</v>
+      </c>
+      <c r="AI32">
+        <v>0.3171825842988124</v>
+      </c>
+      <c r="AJ32">
+        <v>1396.166046043375</v>
+      </c>
+      <c r="AK32">
         <v>10.3333950234046</v>
       </c>
-      <c r="AH32">
-        <v>15.85912927445219</v>
-      </c>
-      <c r="AI32">
-        <v>1279.319252822993</v>
-      </c>
-      <c r="AJ32">
-        <v>6.03057360171919</v>
-      </c>
-      <c r="AK32">
-        <v>17.22947996430191</v>
+      <c r="AL32">
+        <v>15.85890700374032</v>
+      </c>
+      <c r="AM32">
+        <v>1291.193677368919</v>
+      </c>
+      <c r="AN32">
+        <v>6.030575383041596</v>
+      </c>
+      <c r="AO32">
+        <v>17.22933333092529</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:41">
       <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33">
-        <v>102.8590173478697</v>
-      </c>
-      <c r="D33">
-        <v>1286.380075712093</v>
-      </c>
-      <c r="E33">
-        <v>3191.836446241082</v>
+        <v>102.8590208713815</v>
       </c>
       <c r="F33">
-        <v>1286.380125714593</v>
+        <v>1286.380073923823</v>
       </c>
       <c r="G33">
-        <v>5161.459730576838</v>
+        <v>0.00155</v>
       </c>
       <c r="H33">
-        <v>0.6689689264725365</v>
+        <v>3191.835161730935</v>
       </c>
       <c r="I33">
-        <v>5.578143674223032</v>
+        <v>1286.380123926323</v>
       </c>
       <c r="J33">
-        <v>0.3703780892486183</v>
+        <v>5161.43889341398</v>
       </c>
       <c r="K33">
-        <v>1.337937852945073</v>
-      </c>
-      <c r="L33" t="s">
-        <v>76</v>
+        <v>0.6689693138341056</v>
+      </c>
+      <c r="L33">
+        <v>5.585879648961289</v>
       </c>
       <c r="M33">
-        <v>1389.239193064963</v>
+        <v>0.3703675137743682</v>
       </c>
       <c r="N33">
-        <v>4929.061701218316</v>
-      </c>
-      <c r="O33">
-        <v>1389.239143062463</v>
+        <v>1.337938627668211</v>
+      </c>
+      <c r="O33" t="s">
+        <v>80</v>
       </c>
       <c r="P33">
-        <v>7400.448736719269</v>
-      </c>
-      <c r="Q33">
-        <v>0.6218538633093041</v>
+        <v>1389.239194800204</v>
+      </c>
+      <c r="R33">
+        <v>4929.035987932541</v>
       </c>
       <c r="S33">
-        <v>5.564358560419621</v>
+        <v>1389.239144797704</v>
       </c>
       <c r="T33">
-        <v>0.3670186300469175</v>
+        <v>7400.251174518336</v>
       </c>
       <c r="U33">
-        <v>1.243707726618608</v>
-      </c>
-      <c r="V33" t="s">
-        <v>76</v>
+        <v>0.6218600890193333</v>
       </c>
       <c r="W33">
-        <v>1266.150434745256</v>
+        <v>5.414423917675035</v>
       </c>
       <c r="X33">
-        <v>553.2457363175065</v>
+        <v>0.3669348894284422</v>
       </c>
       <c r="Y33">
-        <v>0.7689501890492643</v>
-      </c>
-      <c r="Z33">
-        <v>1410.505932778728</v>
+        <v>1.243720178038667</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>80</v>
       </c>
       <c r="AA33">
-        <v>756.3264448374478</v>
+        <v>1266.150406480342</v>
       </c>
       <c r="AB33">
-        <v>0.6652052142265086</v>
+        <v>553.8869764958115</v>
       </c>
       <c r="AC33">
-        <v>1371.120686772547</v>
+        <v>0.7690017828569706</v>
       </c>
       <c r="AD33">
-        <v>88.10381935199443</v>
+        <v>1410.505933061889</v>
       </c>
       <c r="AE33">
-        <v>0.3106845818437764</v>
+        <v>757.3702100432179</v>
       </c>
       <c r="AF33">
-        <v>1396.199038460925</v>
+        <v>0.6651208636009794</v>
       </c>
       <c r="AG33">
+        <v>1370.78327454526</v>
+      </c>
+      <c r="AH33">
+        <v>103.6298220222964</v>
+      </c>
+      <c r="AI33">
+        <v>0.3106845814623063</v>
+      </c>
+      <c r="AJ33">
+        <v>1382.199820894013</v>
+      </c>
+      <c r="AK33">
         <v>8.759133062794405</v>
       </c>
-      <c r="AH33">
-        <v>15.5340650940734</v>
-      </c>
-      <c r="AI33">
-        <v>1279.385312257242</v>
-      </c>
-      <c r="AJ33">
-        <v>4.959266273117417</v>
-      </c>
-      <c r="AK33">
-        <v>16.71203867301581</v>
+      <c r="AL33">
+        <v>15.53384770986168</v>
+      </c>
+      <c r="AM33">
+        <v>1293.316996139078</v>
+      </c>
+      <c r="AN33">
+        <v>4.959266297100748</v>
+      </c>
+      <c r="AO33">
+        <v>16.71203862310144</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:41">
       <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C34">
-        <v>102.833816359223</v>
+        <v>102.8338052956067</v>
       </c>
       <c r="D34">
-        <v>1286.448205718638</v>
+        <v>0.00271</v>
       </c>
       <c r="E34">
-        <v>2445.848078920651</v>
+        <v>0.001944865033877672</v>
       </c>
       <c r="F34">
-        <v>1286.448255721138</v>
+        <v>1286.448205720193</v>
       </c>
       <c r="G34">
-        <v>3865.89653687688</v>
+        <v>0.00159</v>
       </c>
       <c r="H34">
-        <v>0.6591760973362446</v>
+        <v>2445.848079311452</v>
       </c>
       <c r="I34">
-        <v>4.559199349046938</v>
+        <v>1286.448255722693</v>
       </c>
       <c r="J34">
-        <v>0.3482218961015329</v>
+        <v>3865.896544587899</v>
       </c>
       <c r="K34">
-        <v>1.318352194672489</v>
-      </c>
-      <c r="L34" t="s">
-        <v>76</v>
+        <v>0.6591760973335132</v>
+      </c>
+      <c r="L34">
+        <v>4.559199035665386</v>
       </c>
       <c r="M34">
-        <v>1389.282122082861</v>
+        <v>0.348221900164398</v>
       </c>
       <c r="N34">
-        <v>3853.172624923816</v>
-      </c>
-      <c r="O34">
-        <v>1389.282072080361</v>
+        <v>1.318352194667026</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
       </c>
       <c r="P34">
-        <v>5630.894787244783</v>
+        <v>1389.2820110158</v>
       </c>
       <c r="Q34">
-        <v>0.6106294217395249</v>
+        <v>0.00112</v>
+      </c>
+      <c r="R34">
+        <v>3852.737232167707</v>
       </c>
       <c r="S34">
-        <v>4.764655260488242</v>
+        <v>1389.2820610183</v>
       </c>
       <c r="T34">
-        <v>0.3428211152207747</v>
+        <v>5625.772961672032</v>
       </c>
       <c r="U34">
-        <v>1.22125884347905</v>
-      </c>
-      <c r="V34" t="s">
-        <v>76</v>
+        <v>0.6106842527628662</v>
       </c>
       <c r="W34">
-        <v>1266.172672458204</v>
+        <v>5.178311111774199</v>
       </c>
       <c r="X34">
-        <v>419.9436367064066</v>
+        <v>0.3407843543135903</v>
       </c>
       <c r="Y34">
-        <v>0.7775126549738872</v>
-      </c>
-      <c r="Z34">
-        <v>1410.54693089082</v>
+        <v>1.221368505525732</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>80</v>
       </c>
       <c r="AA34">
-        <v>576.4476124918898</v>
+        <v>1266.172672633349</v>
       </c>
       <c r="AB34">
-        <v>0.6679139647848464</v>
+        <v>419.9436269150848</v>
       </c>
       <c r="AC34">
-        <v>1371.159856094047</v>
+        <v>0.7775127451878615</v>
       </c>
       <c r="AD34">
-        <v>70.89939882719227</v>
+        <v>1410.546934171473</v>
       </c>
       <c r="AE34">
-        <v>0.3050333364853943</v>
+        <v>575.2233908324253</v>
       </c>
       <c r="AF34">
-        <v>1382.243055883319</v>
+        <v>0.6680747941428967</v>
       </c>
       <c r="AG34">
-        <v>6.451345877480234</v>
+        <v>1369.763736386407</v>
       </c>
       <c r="AH34">
-        <v>15.25166682426698</v>
+        <v>32.5306847953666</v>
       </c>
       <c r="AI34">
-        <v>1279.442017886767</v>
+        <v>0.3050333358528851</v>
       </c>
       <c r="AJ34">
-        <v>3.785799793570052</v>
+        <v>1382.243080019403</v>
       </c>
       <c r="AK34">
-        <v>16.46843824676497</v>
+        <v>31.45727951962619</v>
+      </c>
+      <c r="AL34">
+        <v>15.25166646753303</v>
+      </c>
+      <c r="AM34">
+        <v>1279.441654960354</v>
+      </c>
+      <c r="AN34">
+        <v>3.785799826633285</v>
+      </c>
+      <c r="AO34">
+        <v>16.46845801506432</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:41">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C35">
-        <v>102.8110838064929</v>
-      </c>
-      <c r="D35">
-        <v>1286.490977568646</v>
-      </c>
-      <c r="E35">
-        <v>2228.415311635877</v>
+        <v>102.811083964074</v>
       </c>
       <c r="F35">
-        <v>1286.491027571146</v>
+        <v>1286.490977570475</v>
       </c>
       <c r="G35">
-        <v>3461.090003665417</v>
+        <v>0.0015</v>
       </c>
       <c r="H35">
-        <v>0.6522441857828846</v>
+        <v>2228.415310383218</v>
       </c>
       <c r="I35">
-        <v>4.211698543023962</v>
+        <v>1286.491027572975</v>
       </c>
       <c r="J35">
-        <v>0.3290109635066401</v>
+        <v>3461.089990523192</v>
       </c>
       <c r="K35">
-        <v>1.304488371565769</v>
-      </c>
-      <c r="L35" t="s">
-        <v>76</v>
+        <v>0.6522441861821806</v>
+      </c>
+      <c r="L35">
+        <v>4.211698719825797</v>
       </c>
       <c r="M35">
-        <v>1389.302161380139</v>
+        <v>0.3290109540208509</v>
       </c>
       <c r="N35">
-        <v>3451.346063238287</v>
-      </c>
-      <c r="O35">
-        <v>1389.302111377639</v>
+        <v>1.304488372364361</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
       </c>
       <c r="P35">
-        <v>4981.912427065598</v>
-      </c>
-      <c r="Q35">
-        <v>0.6105953714757852</v>
+        <v>1389.302161539549</v>
+      </c>
+      <c r="R35">
+        <v>3451.356802443343</v>
       </c>
       <c r="S35">
-        <v>4.648155927012145</v>
+        <v>1389.302111537049</v>
       </c>
       <c r="T35">
-        <v>0.3087512510097552</v>
+        <v>4981.973099606687</v>
       </c>
       <c r="U35">
-        <v>1.22119074295157</v>
-      </c>
-      <c r="V35" t="s">
-        <v>76</v>
+        <v>0.6105918950535894</v>
       </c>
       <c r="W35">
-        <v>1266.233391880919</v>
+        <v>4.67561024550786</v>
       </c>
       <c r="X35">
-        <v>357.7210347319246</v>
+        <v>0.3087914774454438</v>
       </c>
       <c r="Y35">
-        <v>0.7681712168225067</v>
-      </c>
-      <c r="Z35">
-        <v>1410.568754987887</v>
+        <v>1.221183790107179</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>80</v>
       </c>
       <c r="AA35">
-        <v>506.4323728239909</v>
+        <v>1266.233392110749</v>
       </c>
       <c r="AB35">
-        <v>0.6160596851184675</v>
+        <v>357.7210386533085</v>
       </c>
       <c r="AC35">
-        <v>1370.81085567931</v>
+        <v>0.7681713352263143</v>
       </c>
       <c r="AD35">
-        <v>74.14961653549555</v>
+        <v>1410.568755378844</v>
       </c>
       <c r="AE35">
-        <v>0.3049854391379446</v>
+        <v>506.4490508785892</v>
       </c>
       <c r="AF35">
-        <v>1396.263954812441</v>
+        <v>0.6160480640138837</v>
       </c>
       <c r="AG35">
-        <v>6.428633143375828</v>
+        <v>1371.128606022272</v>
       </c>
       <c r="AH35">
-        <v>15.24927195669763</v>
+        <v>67.32310768842953</v>
       </c>
       <c r="AI35">
-        <v>1279.46871300165</v>
+        <v>0.3049853001753089</v>
       </c>
       <c r="AJ35">
-        <v>3.368570822917672</v>
+        <v>1396.265051500502</v>
       </c>
       <c r="AK35">
-        <v>16.29562839999972</v>
+        <v>6.428633139573357</v>
+      </c>
+      <c r="AL35">
+        <v>15.24927196240514</v>
+      </c>
+      <c r="AM35">
+        <v>1279.469181419099</v>
+      </c>
+      <c r="AN35">
+        <v>3.368570863131827</v>
+      </c>
+      <c r="AO35">
+        <v>16.29561941198367</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:41">
       <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C36">
-        <v>104.7003797629179</v>
-      </c>
-      <c r="D36">
-        <v>1282.221577372529</v>
-      </c>
-      <c r="E36">
-        <v>28888.88473257737</v>
+        <v>104.7003795838914</v>
       </c>
       <c r="F36">
-        <v>1282.221527370029</v>
+        <v>1282.221577270369</v>
       </c>
       <c r="G36">
-        <v>85184.42150528086</v>
+        <v>0.00155</v>
       </c>
       <c r="H36">
-        <v>1.076144900721599</v>
+        <v>28888.88529945059</v>
       </c>
       <c r="I36">
-        <v>31.22266188104176</v>
+        <v>1282.221527267869</v>
       </c>
       <c r="J36">
-        <v>0.7155615199696103</v>
+        <v>85184.43217316327</v>
       </c>
       <c r="K36">
-        <v>2.152289801443198</v>
-      </c>
-      <c r="L36" t="s">
-        <v>76</v>
+        <v>1.076144872276743</v>
+      </c>
+      <c r="L36">
+        <v>31.22314150208556</v>
       </c>
       <c r="M36">
-        <v>1386.921957135447</v>
+        <v>0.7155618041532816</v>
       </c>
       <c r="N36">
-        <v>55487.62261759468</v>
-      </c>
-      <c r="O36">
-        <v>1386.921907132946</v>
+        <v>2.152289744553486</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
       </c>
       <c r="P36">
-        <v>155009.3230968757</v>
-      </c>
-      <c r="Q36">
-        <v>1.010970350787714</v>
+        <v>1386.921956854261</v>
+      </c>
+      <c r="R36">
+        <v>55487.62367017451</v>
       </c>
       <c r="S36">
-        <v>46.57360329573428</v>
+        <v>1386.92190685176</v>
       </c>
       <c r="T36">
-        <v>0.7279830760850159</v>
+        <v>155009.3483687332</v>
       </c>
       <c r="U36">
-        <v>2.021940701575428</v>
-      </c>
-      <c r="V36" t="s">
-        <v>76</v>
+        <v>1.010970336217743</v>
       </c>
       <c r="W36">
-        <v>1262.14214126122</v>
+        <v>46.57328854335491</v>
       </c>
       <c r="X36">
-        <v>11934.19444069796</v>
+        <v>0.7279833888927373</v>
       </c>
       <c r="Y36">
-        <v>3.118458599062584</v>
-      </c>
-      <c r="Z36">
-        <v>1408.251495562924</v>
+        <v>2.021940672435486</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>80</v>
       </c>
       <c r="AA36">
-        <v>15207.04049760589</v>
+        <v>1262.142156967388</v>
       </c>
       <c r="AB36">
-        <v>2.522448304030653</v>
+        <v>11934.58125823219</v>
       </c>
       <c r="AC36">
-        <v>1369.570460876986</v>
+        <v>3.118577478085737</v>
       </c>
       <c r="AD36">
-        <v>1874.878679815623</v>
+        <v>1408.251482944159</v>
       </c>
       <c r="AE36">
-        <v>0.5048308691021444</v>
+        <v>15207.23034082854</v>
       </c>
       <c r="AF36">
-        <v>1385.844707891574</v>
+        <v>2.522573050073915</v>
       </c>
       <c r="AG36">
-        <v>13093.57592580271</v>
+        <v>1369.570460592764</v>
       </c>
       <c r="AH36">
-        <v>15.21470601751253</v>
+        <v>1874.876933309355</v>
       </c>
       <c r="AI36">
-        <v>1285.107432597332</v>
+        <v>0.5048308691467081</v>
       </c>
       <c r="AJ36">
-        <v>7979.875024442186</v>
+        <v>1385.844434018918</v>
       </c>
       <c r="AK36">
-        <v>12.15050623302348</v>
+        <v>13093.35986117597</v>
+      </c>
+      <c r="AL36">
+        <v>15.21451108812205</v>
+      </c>
+      <c r="AM36">
+        <v>1285.10788684787</v>
+      </c>
+      <c r="AN36">
+        <v>7979.551291553133</v>
+      </c>
+      <c r="AO36">
+        <v>12.14998985794278</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:41">
       <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C37">
-        <v>104.6492951766459</v>
-      </c>
-      <c r="D37">
-        <v>1282.314887149005</v>
-      </c>
-      <c r="E37">
-        <v>28671.75701265979</v>
+        <v>104.6492951700131</v>
       </c>
       <c r="F37">
-        <v>1282.314837146505</v>
+        <v>1282.314887112945</v>
       </c>
       <c r="G37">
-        <v>84683.18126416058</v>
+        <v>0.0016</v>
       </c>
       <c r="H37">
-        <v>1.082502272608376</v>
+        <v>28671.75723088098</v>
       </c>
       <c r="I37">
-        <v>32.38312174010819</v>
+        <v>1282.314837110445</v>
       </c>
       <c r="J37">
-        <v>0.7050298621694567</v>
+        <v>84683.18555751239</v>
       </c>
       <c r="K37">
-        <v>2.165004545216753</v>
-      </c>
-      <c r="L37" t="s">
-        <v>76</v>
+        <v>1.082502262330809</v>
+      </c>
+      <c r="L37">
+        <v>32.38328018755587</v>
       </c>
       <c r="M37">
-        <v>1386.964182325651</v>
+        <v>0.7050299720506257</v>
       </c>
       <c r="N37">
-        <v>55427.76996960495</v>
-      </c>
-      <c r="O37">
-        <v>1386.964132323151</v>
+        <v>2.165004524661618</v>
+      </c>
+      <c r="O37" t="s">
+        <v>80</v>
       </c>
       <c r="P37">
-        <v>153548.6701196128</v>
-      </c>
-      <c r="Q37">
-        <v>1.003909905079256</v>
+        <v>1386.964182282958</v>
+      </c>
+      <c r="R37">
+        <v>55427.76810427137</v>
       </c>
       <c r="S37">
-        <v>44.86805300007831</v>
+        <v>1386.964132280458</v>
       </c>
       <c r="T37">
-        <v>0.7241368890190047</v>
+        <v>153548.6252050466</v>
       </c>
       <c r="U37">
-        <v>2.007819810158512</v>
-      </c>
-      <c r="V37" t="s">
-        <v>76</v>
+        <v>1.003909929732698</v>
       </c>
       <c r="W37">
-        <v>1262.242539040923</v>
+        <v>44.86758430595945</v>
       </c>
       <c r="X37">
-        <v>12070.50612360564</v>
+        <v>0.7241363210480979</v>
       </c>
       <c r="Y37">
-        <v>3.114899225601032</v>
-      </c>
-      <c r="Z37">
-        <v>1408.301373633259</v>
+        <v>2.007819859465396</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>80</v>
       </c>
       <c r="AA37">
-        <v>15097.04081467037</v>
+        <v>1262.242540490418</v>
       </c>
       <c r="AB37">
-        <v>2.497722575568799</v>
+        <v>12070.62232984226</v>
       </c>
       <c r="AC37">
-        <v>1369.588294868372</v>
+        <v>3.114936687736186</v>
       </c>
       <c r="AD37">
-        <v>1897.557600131219</v>
+        <v>1408.301398717806</v>
       </c>
       <c r="AE37">
-        <v>0.5012230896871948</v>
+        <v>15096.76475566435</v>
       </c>
       <c r="AF37">
-        <v>1385.863052451577</v>
+        <v>2.497456533788222</v>
       </c>
       <c r="AG37">
-        <v>12824.85980527463</v>
+        <v>1369.588292644224</v>
       </c>
       <c r="AH37">
-        <v>15.48125888015586</v>
+        <v>1897.560634057227</v>
       </c>
       <c r="AI37">
-        <v>1285.680462384843</v>
+        <v>0.5012232193306899</v>
       </c>
       <c r="AJ37">
-        <v>7554.23791487494</v>
+        <v>1385.863560090948</v>
       </c>
       <c r="AK37">
-        <v>11.66307219587199</v>
+        <v>12825.21714065251</v>
+      </c>
+      <c r="AL37">
+        <v>15.48161620383425</v>
+      </c>
+      <c r="AM37">
+        <v>1285.680589933575</v>
+      </c>
+      <c r="AN37">
+        <v>7554.144607506149</v>
+      </c>
+      <c r="AO37">
+        <v>11.66291622782653</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:41">
       <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C38">
-        <v>104.5928576285326</v>
-      </c>
-      <c r="D38">
-        <v>1282.422512210076</v>
-      </c>
-      <c r="E38">
-        <v>27808.74152508332</v>
+        <v>104.5928595913972</v>
       </c>
       <c r="F38">
-        <v>1282.422462207576</v>
+        <v>1282.422510209638</v>
       </c>
       <c r="G38">
-        <v>82327.4735626637</v>
+        <v>0.00157</v>
       </c>
       <c r="H38">
-        <v>1.086695555486744</v>
+        <v>27808.76567466416</v>
       </c>
       <c r="I38">
-        <v>31.60508004639547</v>
+        <v>1282.422460207138</v>
       </c>
       <c r="J38">
-        <v>0.6998260985684661</v>
+        <v>82328.22714051255</v>
       </c>
       <c r="K38">
-        <v>2.173391110973489</v>
-      </c>
-      <c r="L38" t="s">
-        <v>76</v>
+        <v>1.086695348740956</v>
+      </c>
+      <c r="L38">
+        <v>31.60913643685535</v>
       </c>
       <c r="M38">
-        <v>1387.015269833609</v>
+        <v>0.6998421525748669</v>
       </c>
       <c r="N38">
-        <v>53957.83378012445</v>
-      </c>
-      <c r="O38">
-        <v>1387.015319836109</v>
+        <v>2.173390697481911</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
       </c>
       <c r="P38">
-        <v>148632.1784005554</v>
-      </c>
-      <c r="Q38">
-        <v>0.9979556051594392</v>
+        <v>1387.015269796035</v>
+      </c>
+      <c r="R38">
+        <v>53957.83301325639</v>
       </c>
       <c r="S38">
-        <v>43.39264994789877</v>
+        <v>1387.015319798535</v>
       </c>
       <c r="T38">
-        <v>0.7236862965975069</v>
+        <v>148632.1580804424</v>
       </c>
       <c r="U38">
-        <v>1.995911210318878</v>
-      </c>
-      <c r="V38" t="s">
-        <v>76</v>
+        <v>0.9979556121316314</v>
       </c>
       <c r="W38">
-        <v>1262.398764195026</v>
+        <v>43.3925846291029</v>
       </c>
       <c r="X38">
-        <v>11752.07823100914</v>
+        <v>0.7236860474987292</v>
       </c>
       <c r="Y38">
-        <v>3.107550489357904</v>
-      </c>
-      <c r="Z38">
-        <v>1408.362284409666</v>
+        <v>1.995911224263263</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>80</v>
       </c>
       <c r="AA38">
-        <v>14872.68350315301</v>
+        <v>1262.400423298878</v>
       </c>
       <c r="AB38">
-        <v>2.423604237965486</v>
+        <v>11756.03383280666</v>
       </c>
       <c r="AC38">
-        <v>1369.590133852641</v>
+        <v>3.108557395917531</v>
       </c>
       <c r="AD38">
-        <v>1846.30904894533</v>
+        <v>1408.362290066206</v>
       </c>
       <c r="AE38">
-        <v>0.4981509389939988</v>
+        <v>14872.56707785384</v>
       </c>
       <c r="AF38">
-        <v>1385.187264937298</v>
+        <v>2.423551288762806</v>
       </c>
       <c r="AG38">
-        <v>11809.42848629868</v>
+        <v>1369.590134064342</v>
       </c>
       <c r="AH38">
-        <v>15.86310446809471</v>
+        <v>1846.310474088388</v>
       </c>
       <c r="AI38">
-        <v>1286.362203789249</v>
+        <v>0.4981509384801517</v>
       </c>
       <c r="AJ38">
-        <v>6892.058510473872</v>
+        <v>1385.187469187958</v>
       </c>
       <c r="AK38">
-        <v>11.68784702480406</v>
+        <v>11809.56178252189</v>
+      </c>
+      <c r="AL38">
+        <v>15.86322316225969</v>
+      </c>
+      <c r="AM38">
+        <v>1286.369801612764</v>
+      </c>
+      <c r="AN38">
+        <v>6887.130152204621</v>
+      </c>
+      <c r="AO38">
+        <v>11.67979553435505</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:41">
       <c r="A39" s="1">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>104.5282596045495</v>
+        <v>104.5282593711224</v>
       </c>
       <c r="D39">
-        <v>1282.556685433077</v>
+        <v>0.002335</v>
       </c>
       <c r="E39">
-        <v>26093.96197300673</v>
+        <v>0.001737447840943722</v>
       </c>
       <c r="F39">
-        <v>1282.556635430577</v>
+        <v>1282.5566856652</v>
       </c>
       <c r="G39">
-        <v>77628.48805959914</v>
+        <v>0.00155</v>
       </c>
       <c r="H39">
-        <v>1.096552450652685</v>
+        <v>26093.96019998832</v>
       </c>
       <c r="I39">
-        <v>29.29630623687495</v>
+        <v>1282.5566356627</v>
       </c>
       <c r="J39">
-        <v>0.6884818115653456</v>
+        <v>77628.43982339035</v>
       </c>
       <c r="K39">
-        <v>2.19310490130537</v>
-      </c>
-      <c r="L39" t="s">
-        <v>76</v>
+        <v>1.096552490423834</v>
+      </c>
+      <c r="L39">
+        <v>29.29566861934629</v>
       </c>
       <c r="M39">
-        <v>1387.084845032626</v>
+        <v>0.6884806587226626</v>
       </c>
       <c r="N39">
-        <v>50879.2271010598</v>
-      </c>
-      <c r="O39">
-        <v>1387.084895035126</v>
+        <v>2.193104980847667</v>
+      </c>
+      <c r="O39" t="s">
+        <v>80</v>
       </c>
       <c r="P39">
-        <v>138780.227223412</v>
+        <v>1387.084845031323</v>
       </c>
       <c r="Q39">
-        <v>0.9919694438197022</v>
+        <v>0.000785</v>
+      </c>
+      <c r="R39">
+        <v>50879.22745218083</v>
       </c>
       <c r="S39">
-        <v>38.8342356271249</v>
+        <v>1387.084895033823</v>
       </c>
       <c r="T39">
-        <v>0.7139272889382107</v>
+        <v>138780.2384389916</v>
       </c>
       <c r="U39">
-        <v>1.983938887639404</v>
-      </c>
-      <c r="V39" t="s">
-        <v>76</v>
+        <v>0.9919694450965438</v>
       </c>
       <c r="W39">
-        <v>1262.488467504136</v>
+        <v>38.83434545889963</v>
       </c>
       <c r="X39">
-        <v>10952.35082235924</v>
+        <v>0.7139274225564756</v>
       </c>
       <c r="Y39">
-        <v>2.994860846026207</v>
-      </c>
-      <c r="Z39">
-        <v>1408.433867657747</v>
+        <v>1.983938890193088</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>80</v>
       </c>
       <c r="AA39">
-        <v>13991.49494846789</v>
+        <v>1262.4884427155</v>
       </c>
       <c r="AB39">
-        <v>2.357546290308953</v>
+        <v>10951.81645647333</v>
       </c>
       <c r="AC39">
-        <v>1369.606385736487</v>
+        <v>2.994684038989044</v>
       </c>
       <c r="AD39">
-        <v>1717.919363845612</v>
+        <v>1408.433867702149</v>
       </c>
       <c r="AE39">
-        <v>0.4949938555423453</v>
+        <v>13991.46624056618</v>
       </c>
       <c r="AF39">
-        <v>1384.961280720254</v>
+        <v>2.357545255968852</v>
       </c>
       <c r="AG39">
-        <v>10576.79967186367</v>
+        <v>1369.606449566954</v>
       </c>
       <c r="AH39">
-        <v>15.79154445960365</v>
+        <v>1717.937074943822</v>
       </c>
       <c r="AI39">
-        <v>1286.582928467888</v>
+        <v>0.4949938548826729</v>
       </c>
       <c r="AJ39">
-        <v>6166.64685013973</v>
+        <v>1384.961341798366</v>
       </c>
       <c r="AK39">
-        <v>11.89247397191147</v>
+        <v>10576.80200535877</v>
+      </c>
+      <c r="AL39">
+        <v>15.79160202026258</v>
+      </c>
+      <c r="AM39">
+        <v>1286.5821134967</v>
+      </c>
+      <c r="AN39">
+        <v>6167.130621654813</v>
+      </c>
+      <c r="AO39">
+        <v>11.89345315109207</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:41">
       <c r="A40" s="1">
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40">
-        <v>104.4418431942258</v>
+        <v>104.4418428580325</v>
       </c>
       <c r="D40">
-        <v>1282.731032995125</v>
+        <v>0.0023</v>
       </c>
       <c r="E40">
-        <v>14917.98422758499</v>
+        <v>0.001756929139151605</v>
       </c>
       <c r="F40">
-        <v>1282.730982992625</v>
+        <v>1282.731033079311</v>
       </c>
       <c r="G40">
-        <v>44962.50812704499</v>
+        <v>0.00162</v>
       </c>
       <c r="H40">
-        <v>1.107161705279172</v>
+        <v>14917.9838585209</v>
       </c>
       <c r="I40">
-        <v>17.60989365346996</v>
+        <v>1282.730983076811</v>
       </c>
       <c r="J40">
-        <v>0.6929916688642102</v>
+        <v>44962.49600770499</v>
       </c>
       <c r="K40">
-        <v>2.214323410558343</v>
-      </c>
-      <c r="L40" t="s">
-        <v>76</v>
+        <v>1.107161718697309</v>
+      </c>
+      <c r="L40">
+        <v>17.60978166226722</v>
       </c>
       <c r="M40">
-        <v>1387.172776184351</v>
+        <v>0.6929911854593709</v>
       </c>
       <c r="N40">
-        <v>29356.83750673524</v>
-      </c>
-      <c r="O40">
-        <v>1387.172826186851</v>
+        <v>2.214323437394619</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
       </c>
       <c r="P40">
-        <v>79228.06488606505</v>
+        <v>1387.172775932344</v>
       </c>
       <c r="Q40">
-        <v>0.9800098021039627</v>
+        <v>0.00068</v>
+      </c>
+      <c r="R40">
+        <v>29356.82663751967</v>
       </c>
       <c r="S40">
-        <v>22.15612939754629</v>
+        <v>1387.172825934844</v>
       </c>
       <c r="T40">
-        <v>0.7163382294546097</v>
+        <v>79227.80236450351</v>
       </c>
       <c r="U40">
-        <v>1.960019604207925</v>
-      </c>
-      <c r="V40" t="s">
-        <v>76</v>
+        <v>0.9800099762562692</v>
       </c>
       <c r="W40">
-        <v>1262.655867290192</v>
+        <v>22.15544584643465</v>
       </c>
       <c r="X40">
-        <v>6273.115031686622</v>
+        <v>0.7163322272638613</v>
       </c>
       <c r="Y40">
-        <v>2.920788475883842</v>
-      </c>
-      <c r="Z40">
-        <v>1408.510428612566</v>
+        <v>1.960019952512538</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>80</v>
       </c>
       <c r="AA40">
-        <v>8304.915797831949</v>
+        <v>1262.655860040228</v>
       </c>
       <c r="AB40">
-        <v>2.270071719883948</v>
+        <v>6273.035307632977</v>
       </c>
       <c r="AC40">
-        <v>1369.62984017316</v>
+        <v>2.920753480721634</v>
       </c>
       <c r="AD40">
-        <v>1005.916518965032</v>
+        <v>1408.510439674766</v>
       </c>
       <c r="AE40">
-        <v>0.4887694255312665</v>
+        <v>8303.22418503064</v>
       </c>
       <c r="AF40">
-        <v>1383.926304083026</v>
+        <v>2.27017107836916</v>
       </c>
       <c r="AG40">
-        <v>5680.802676592879</v>
+        <v>1369.629841280439</v>
       </c>
       <c r="AH40">
-        <v>16.0884812556769</v>
+        <v>1005.936815266694</v>
       </c>
       <c r="AI40">
-        <v>1288.021741708432</v>
+        <v>0.4887694256029742</v>
       </c>
       <c r="AJ40">
-        <v>3067.299462013228</v>
+        <v>1383.931688368478</v>
       </c>
       <c r="AK40">
-        <v>12.53146368292564</v>
+        <v>5682.513489739506</v>
+      </c>
+      <c r="AL40">
+        <v>16.09169423351641</v>
+      </c>
+      <c r="AM40">
+        <v>1288.021386147824</v>
+      </c>
+      <c r="AN40">
+        <v>3067.395792165986</v>
+      </c>
+      <c r="AO40">
+        <v>12.53192312277479</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:41">
       <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>104.3844330572683</v>
+        <v>104.3844331386485</v>
       </c>
       <c r="D41">
-        <v>1282.85016672348</v>
+        <v>0.002359</v>
       </c>
       <c r="E41">
-        <v>3950.444996348671</v>
+        <v>0.001780595686841906</v>
       </c>
       <c r="F41">
-        <v>1282.850016715979</v>
+        <v>1282.85016666356</v>
       </c>
       <c r="G41">
-        <v>11926.14834809823</v>
+        <v>0.00162</v>
       </c>
       <c r="H41">
-        <v>1.10772832942112</v>
+        <v>3950.445251770601</v>
       </c>
       <c r="I41">
-        <v>5.287403621318031</v>
+        <v>1282.850016656059</v>
       </c>
       <c r="J41">
-        <v>0.6935371940335083</v>
+        <v>11926.15726168541</v>
       </c>
       <c r="K41">
-        <v>2.21545665884224</v>
-      </c>
-      <c r="L41" t="s">
-        <v>76</v>
+        <v>1.107728337647368</v>
+      </c>
+      <c r="L41">
+        <v>5.287414960563815</v>
       </c>
       <c r="M41">
-        <v>1387.234399770747</v>
+        <v>0.6935384371686433</v>
       </c>
       <c r="N41">
-        <v>7749.44142877384</v>
-      </c>
-      <c r="O41">
-        <v>1387.234449773247</v>
+        <v>2.215456675294736</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
       </c>
       <c r="P41">
-        <v>20845.38786839506</v>
+        <v>1387.234399792208</v>
       </c>
       <c r="Q41">
-        <v>0.9798706687990475</v>
+        <v>0.000739</v>
+      </c>
+      <c r="R41">
+        <v>7749.44167052979</v>
       </c>
       <c r="S41">
-        <v>6.03530188443793</v>
+        <v>1387.234449794708</v>
       </c>
       <c r="T41">
-        <v>0.7077312350503455</v>
+        <v>20845.3927117102</v>
       </c>
       <c r="U41">
-        <v>1.959741337598095</v>
-      </c>
-      <c r="V41" t="s">
-        <v>76</v>
+        <v>0.9798706448306834</v>
       </c>
       <c r="W41">
-        <v>1262.792986330035</v>
+        <v>6.035320734238994</v>
       </c>
       <c r="X41">
-        <v>1712.219474079958</v>
+        <v>0.7077316877807533</v>
       </c>
       <c r="Y41">
-        <v>2.915703733234587</v>
-      </c>
-      <c r="Z41">
-        <v>1408.58461498781</v>
+        <v>1.959741289661367</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>80</v>
       </c>
       <c r="AA41">
-        <v>2158.827911305098</v>
+        <v>1262.792993156854</v>
       </c>
       <c r="AB41">
-        <v>2.258170910978098</v>
+        <v>1712.234880676637</v>
       </c>
       <c r="AC41">
-        <v>1369.645742283</v>
+        <v>2.915734411190439</v>
       </c>
       <c r="AD41">
-        <v>268.8559814322542</v>
+        <v>1408.584608599532</v>
       </c>
       <c r="AE41">
-        <v>0.4885972416712904</v>
+        <v>2158.853188483442</v>
       </c>
       <c r="AF41">
-        <v>1383.450365192512</v>
+        <v>2.258210244710402</v>
       </c>
       <c r="AG41">
-        <v>1364.169579365865</v>
+        <v>1369.645742594732</v>
       </c>
       <c r="AH41">
-        <v>15.96080415174535</v>
+        <v>268.8557300037288</v>
       </c>
       <c r="AI41">
-        <v>1289.693551745597</v>
+        <v>0.4885972417703011</v>
       </c>
       <c r="AJ41">
-        <v>695.1306470096641</v>
+        <v>1383.450000814516</v>
       </c>
       <c r="AK41">
-        <v>11.69260365435211</v>
+        <v>1364.138778270095</v>
+      </c>
+      <c r="AL41">
+        <v>15.96051245050186</v>
+      </c>
+      <c r="AM41">
+        <v>1289.693953468998</v>
+      </c>
+      <c r="AN41">
+        <v>695.1085237403335</v>
+      </c>
+      <c r="AO41">
+        <v>11.69230301447403</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/strong_Diads.xlsx
@@ -637,37 +637,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.5024723388358</v>
+        <v>103.5024722961471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002479006874602778</v>
+        <v>0.002479007554427318</v>
       </c>
       <c r="D2" t="n">
-        <v>1284.782189057983</v>
+        <v>1284.782189052242</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002066881327527992</v>
+        <v>0.002066881754284587</v>
       </c>
       <c r="F2" t="n">
-        <v>2016.844023226094</v>
+        <v>2016.844611159066</v>
       </c>
       <c r="G2" t="n">
-        <v>1284.782339065483</v>
+        <v>1284.782339059743</v>
       </c>
       <c r="H2" t="n">
-        <v>5982.647353761672</v>
+        <v>5982.664617693696</v>
       </c>
       <c r="I2" t="n">
-        <v>1.184251046649429</v>
+        <v>1.184250866630397</v>
       </c>
       <c r="J2" t="n">
-        <v>3.979678614426228</v>
+        <v>3.979665759438434</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4815823273369324</v>
+        <v>0.481588192588348</v>
       </c>
       <c r="L2" t="n">
-        <v>2.368502093298859</v>
+        <v>2.368501733260794</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -675,34 +675,34 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1388.284861406819</v>
+        <v>1388.28486135839</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00136875003643615</v>
+        <v>0.00136875062327408</v>
       </c>
       <c r="P2" t="n">
-        <v>4086.24520231699</v>
+        <v>4086.243674574749</v>
       </c>
       <c r="Q2" t="n">
-        <v>1388.284811404319</v>
+        <v>1388.28481135589</v>
       </c>
       <c r="R2" t="n">
-        <v>9768.44044814444</v>
+        <v>9768.420393784769</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9182526730699665</v>
+        <v>0.9182530928672421</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>5.20887049745283</v>
+        <v>5.208796351647161</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5730034565560566</v>
+        <v>0.5729986930654242</v>
       </c>
       <c r="W2" t="n">
-        <v>1.836505346139933</v>
+        <v>1.836506185734484</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -710,49 +710,49 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>1264.770308481944</v>
+        <v>1264.770310746519</v>
       </c>
       <c r="Z2" t="n">
-        <v>883.0290742475812</v>
+        <v>883.0528438127631</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.654390984460115</v>
+        <v>1.654391320528515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1409.684414055528</v>
+        <v>1409.684413016035</v>
       </c>
       <c r="AC2" t="n">
-        <v>1298.465870494608</v>
+        <v>1298.423776161292</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.309321244860871</v>
+        <v>1.309328455348105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1370.209840288025</v>
+        <v>1370.209841672363</v>
       </c>
       <c r="AF2" t="n">
-        <v>131.6979244715923</v>
+        <v>131.6982531646395</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.4574487090256144</v>
+        <v>0.4574487090252459</v>
       </c>
       <c r="AH2" t="n">
-        <v>1388.866281938684</v>
+        <v>1388.869255087931</v>
       </c>
       <c r="AI2" t="n">
-        <v>643.7741322465365</v>
+        <v>643.8408717950285</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22.87243529338487</v>
+        <v>22.87243524007438</v>
       </c>
       <c r="AK2" t="n">
-        <v>1277.806979077515</v>
+        <v>1277.806979071167</v>
       </c>
       <c r="AL2" t="n">
-        <v>699.386205652441</v>
+        <v>699.3372522755818</v>
       </c>
       <c r="AM2" t="n">
-        <v>23.86904068803468</v>
+        <v>23.86975592865199</v>
       </c>
     </row>
     <row r="3">
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.7099208324228</v>
+        <v>103.7099208044322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002715924521291587</v>
+        <v>0.002715919748288863</v>
       </c>
       <c r="D3" t="n">
-        <v>1284.338716740343</v>
+        <v>1284.338716748561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002301449512308896</v>
+        <v>0.002301446289517323</v>
       </c>
       <c r="F3" t="n">
-        <v>921.578520608089</v>
+        <v>921.5785797540468</v>
       </c>
       <c r="G3" t="n">
-        <v>1284.338766742843</v>
+        <v>1284.338766751061</v>
       </c>
       <c r="H3" t="n">
-        <v>2757.718455847421</v>
+        <v>2757.7177191419</v>
       </c>
       <c r="I3" t="n">
-        <v>1.149527017321803</v>
+        <v>1.14952677259603</v>
       </c>
       <c r="J3" t="n">
-        <v>1.973460705923496</v>
+        <v>1.973458362893716</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5742795922520482</v>
+        <v>0.57427950524061</v>
       </c>
       <c r="L3" t="n">
-        <v>2.299054034643606</v>
+        <v>2.299053545192059</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -800,34 +800,34 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1388.048637572766</v>
+        <v>1388.048637552993</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001442073558333999</v>
+        <v>0.001442069712466213</v>
       </c>
       <c r="P3" t="n">
-        <v>1854.643408422602</v>
+        <v>1854.643446890338</v>
       </c>
       <c r="Q3" t="n">
-        <v>1388.048687575266</v>
+        <v>1388.048687555493</v>
       </c>
       <c r="R3" t="n">
-        <v>4504.296081875966</v>
+        <v>4504.296954159879</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9147326027330056</v>
+        <v>0.9147325905191908</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.688128554343761</v>
+        <v>2.688148692355578</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6228579547229575</v>
+        <v>0.6228583357295128</v>
       </c>
       <c r="W3" t="n">
-        <v>1.829465205466011</v>
+        <v>1.829465181038382</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -835,49 +835,49 @@
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>1264.203597560047</v>
+        <v>1264.203599153396</v>
       </c>
       <c r="Z3" t="n">
-        <v>355.7828866934295</v>
+        <v>355.7792326393483</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.849368055394994</v>
+        <v>1.849342977131253</v>
       </c>
       <c r="AB3" t="n">
-        <v>1409.430971831522</v>
+        <v>1409.430967736184</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.5178713437401</v>
+        <v>510.5027126127271</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.493221183331945</v>
+        <v>1.493273161029985</v>
       </c>
       <c r="AE3" t="n">
-        <v>1370.214084684465</v>
+        <v>1370.214085157085</v>
       </c>
       <c r="AF3" t="n">
-        <v>60.83204225547775</v>
+        <v>60.83183035929993</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.456291490188781</v>
+        <v>0.4562914901888974</v>
       </c>
       <c r="AH3" t="n">
-        <v>1381.049783544026</v>
+        <v>1381.049783597889</v>
       </c>
       <c r="AI3" t="n">
-        <v>241.5277003781145</v>
+        <v>241.5407253645169</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.91634773035297</v>
+        <v>15.9174402417719</v>
       </c>
       <c r="AK3" t="n">
-        <v>1277.345067220777</v>
+        <v>1277.345067254885</v>
       </c>
       <c r="AL3" t="n">
-        <v>159.8601618167841</v>
+        <v>159.8649038005904</v>
       </c>
       <c r="AM3" t="n">
-        <v>21.56762057025022</v>
+        <v>21.56756763898271</v>
       </c>
     </row>
     <row r="4">
@@ -887,37 +887,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.9478496291754</v>
+        <v>104.9478496292106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001623469808719844</v>
+        <v>0.001623469855859057</v>
       </c>
       <c r="D4" t="n">
-        <v>1281.782853040567</v>
+        <v>1281.782853040566</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001404630186728666</v>
+        <v>0.001404630265413643</v>
       </c>
       <c r="F4" t="n">
-        <v>19925.59177875449</v>
+        <v>19925.59177873456</v>
       </c>
       <c r="G4" t="n">
-        <v>1281.782803038067</v>
+        <v>1281.782803038066</v>
       </c>
       <c r="H4" t="n">
-        <v>59223.82526547104</v>
+        <v>59223.82526474103</v>
       </c>
       <c r="I4" t="n">
-        <v>1.072207802959881</v>
+        <v>1.072207802959483</v>
       </c>
       <c r="J4" t="n">
-        <v>22.25959460016651</v>
+        <v>22.25959459747929</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7478997857315794</v>
+        <v>0.7478997857142329</v>
       </c>
       <c r="L4" t="n">
-        <v>2.144415605919762</v>
+        <v>2.144415605918965</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -925,34 +925,34 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1386.730702669742</v>
+        <v>1386.730702669777</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0008140443835292027</v>
+        <v>0.0008140443417695543</v>
       </c>
       <c r="P4" t="n">
-        <v>38316.94881000612</v>
+        <v>38316.94886565787</v>
       </c>
       <c r="Q4" t="n">
-        <v>1386.730652667242</v>
+        <v>1386.730652667277</v>
       </c>
       <c r="R4" t="n">
-        <v>110740.8026657743</v>
+        <v>110740.8034373709</v>
       </c>
       <c r="S4" t="n">
-        <v>1.031877864134567</v>
+        <v>1.031877862256701</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>30.09092873922847</v>
+        <v>30.09092349274954</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7623908823910834</v>
+        <v>0.7623908981731563</v>
       </c>
       <c r="W4" t="n">
-        <v>2.063755728269134</v>
+        <v>2.063755724513403</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -960,49 +960,49 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>1261.675030190893</v>
+        <v>1261.675030191485</v>
       </c>
       <c r="Z4" t="n">
-        <v>8071.372571612329</v>
+        <v>8071.372575292204</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.214333733612638</v>
+        <v>3.214333734985813</v>
       </c>
       <c r="AB4" t="n">
-        <v>1408.045200785879</v>
+        <v>1408.045200007377</v>
       </c>
       <c r="AC4" t="n">
-        <v>9990.115421437898</v>
+        <v>9990.111188007457</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.882257436180201</v>
+        <v>2.882260848435026</v>
       </c>
       <c r="AE4" t="n">
-        <v>1369.530276680382</v>
+        <v>1369.530276679265</v>
       </c>
       <c r="AF4" t="n">
-        <v>1318.786863930838</v>
+        <v>1318.786838181094</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.515200886776782</v>
+        <v>0.5152008867768544</v>
       </c>
       <c r="AH4" t="n">
-        <v>1387.124322744728</v>
+        <v>1387.124324735646</v>
       </c>
       <c r="AI4" t="n">
-        <v>10605.77509102764</v>
+        <v>10605.77675281569</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.12792762699528</v>
+        <v>15.12792926252968</v>
       </c>
       <c r="AK4" t="n">
-        <v>1283.449759584449</v>
+        <v>1283.449759591154</v>
       </c>
       <c r="AL4" t="n">
-        <v>6552.336053201208</v>
+        <v>6552.336049513784</v>
       </c>
       <c r="AM4" t="n">
-        <v>12.02185667560816</v>
+        <v>12.02185666480601</v>
       </c>
     </row>
     <row r="5">
@@ -1012,37 +1012,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.3067390850658</v>
+        <v>104.3067391038931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001692875930841293</v>
+        <v>0.001692875989437935</v>
       </c>
       <c r="D5" t="n">
-        <v>1283.013429348542</v>
+        <v>1283.013429348594</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001509833867587457</v>
+        <v>0.001509833864763023</v>
       </c>
       <c r="F5" t="n">
-        <v>3840.009479845161</v>
+        <v>3840.009480146513</v>
       </c>
       <c r="G5" t="n">
-        <v>1283.013379346042</v>
+        <v>1283.013379346094</v>
       </c>
       <c r="H5" t="n">
-        <v>11741.22587572908</v>
+        <v>11741.22588096422</v>
       </c>
       <c r="I5" t="n">
-        <v>1.134570677907137</v>
+        <v>1.134570677812316</v>
       </c>
       <c r="J5" t="n">
-        <v>5.057415898414923</v>
+        <v>5.057415891212395</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6670656522016263</v>
+        <v>0.6670656531462191</v>
       </c>
       <c r="L5" t="n">
-        <v>2.269141355814273</v>
+        <v>2.269141355624631</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1050,34 +1050,34 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1387.320068428608</v>
+        <v>1387.320068447487</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0007656569790106234</v>
+        <v>0.0007656571141380591</v>
       </c>
       <c r="P5" t="n">
-        <v>7637.018005426053</v>
+        <v>7637.018239501138</v>
       </c>
       <c r="Q5" t="n">
-        <v>1387.320118431108</v>
+        <v>1387.320118449987</v>
       </c>
       <c r="R5" t="n">
-        <v>20283.23557504961</v>
+        <v>20283.24095368461</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9749738802904007</v>
+        <v>0.9749738627703488</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>6.403892048046841</v>
+        <v>6.403913657323511</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6888303135273236</v>
+        <v>0.6888308092408226</v>
       </c>
       <c r="W5" t="n">
-        <v>1.949947760580801</v>
+        <v>1.949947725540698</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1085,49 +1085,49 @@
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>1262.942452124825</v>
+        <v>1262.942452124009</v>
       </c>
       <c r="Z5" t="n">
-        <v>1636.169802755541</v>
+        <v>1636.169801700337</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.790255095141367</v>
+        <v>2.790255099688134</v>
       </c>
       <c r="AB5" t="n">
-        <v>1408.687982645015</v>
+        <v>1408.687981551603</v>
       </c>
       <c r="AC5" t="n">
-        <v>2081.028583904547</v>
+        <v>2081.063645054363</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.112778421959456</v>
+        <v>2.112776262972257</v>
       </c>
       <c r="AE5" t="n">
-        <v>1369.669619796537</v>
+        <v>1369.669619769672</v>
       </c>
       <c r="AF5" t="n">
-        <v>260.2808343244233</v>
+        <v>260.2803929477771</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.4861236538364417</v>
+        <v>0.4861236538356266</v>
       </c>
       <c r="AH5" t="n">
-        <v>1384.494224794335</v>
+        <v>1384.493690507943</v>
       </c>
       <c r="AI5" t="n">
-        <v>1368.082617943015</v>
+        <v>1368.044767739989</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.92683215900868</v>
+        <v>16.92652481792667</v>
       </c>
       <c r="AK5" t="n">
-        <v>1288.779713340899</v>
+        <v>1288.779713299366</v>
       </c>
       <c r="AL5" t="n">
-        <v>699.7249859850947</v>
+        <v>699.7249870990438</v>
       </c>
       <c r="AM5" t="n">
-        <v>11.98801752372761</v>
+        <v>11.98801775640944</v>
       </c>
     </row>
     <row r="6">
@@ -1137,37 +1137,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.2506662427199</v>
+        <v>104.2506662380438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001990530382018439</v>
+        <v>0.00199053053265574</v>
       </c>
       <c r="D6" t="n">
-        <v>1283.138753301051</v>
+        <v>1283.13875330143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00183092363034278</v>
+        <v>0.001830923678188236</v>
       </c>
       <c r="F6" t="n">
-        <v>3180.585088357756</v>
+        <v>3180.585088128294</v>
       </c>
       <c r="G6" t="n">
-        <v>1283.138803303551</v>
+        <v>1283.13880330393</v>
       </c>
       <c r="H6" t="n">
-        <v>9823.987214637817</v>
+        <v>9823.987216443085</v>
       </c>
       <c r="I6" t="n">
-        <v>1.167959763210685</v>
+        <v>1.167959763484332</v>
       </c>
       <c r="J6" t="n">
-        <v>4.487364951093311</v>
+        <v>4.487364831772001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6213803682845069</v>
+        <v>0.6213803680083292</v>
       </c>
       <c r="L6" t="n">
-        <v>2.33591952642137</v>
+        <v>2.335919526968663</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1387.389419543771</v>
+        <v>1387.389419539473</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0007809800647845564</v>
+        <v>0.0007809803365542596</v>
       </c>
       <c r="P6" t="n">
-        <v>6469.972208410796</v>
+        <v>6469.972153101048</v>
       </c>
       <c r="Q6" t="n">
-        <v>1387.389469546271</v>
+        <v>1387.389469541974</v>
       </c>
       <c r="R6" t="n">
-        <v>17129.69087787982</v>
+        <v>17129.6895795112</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9640919746894139</v>
+        <v>0.9640919791299365</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5.255780274055238</v>
+        <v>5.255776176606284</v>
       </c>
       <c r="V6" t="n">
-        <v>0.706822152778303</v>
+        <v>0.7068220133958794</v>
       </c>
       <c r="W6" t="n">
-        <v>1.928183949378828</v>
+        <v>1.928183958259873</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1210,49 +1210,49 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>1263.067714512964</v>
+        <v>1263.067714537521</v>
       </c>
       <c r="Z6" t="n">
-        <v>1171.924071107729</v>
+        <v>1171.923896322977</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.393333051132878</v>
+        <v>2.393332724676403</v>
       </c>
       <c r="AB6" t="n">
-        <v>1408.756298459364</v>
+        <v>1408.756298975225</v>
       </c>
       <c r="AC6" t="n">
-        <v>1840.624863592532</v>
+        <v>1840.621357868953</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.065651413571407</v>
+        <v>2.065648934678828</v>
       </c>
       <c r="AE6" t="n">
-        <v>1369.725808650594</v>
+        <v>1369.725808600435</v>
       </c>
       <c r="AF6" t="n">
-        <v>211.2616355220148</v>
+        <v>211.2617934771782</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.4808274978085612</v>
+        <v>0.4808274978083379</v>
       </c>
       <c r="AH6" t="n">
-        <v>1381.192277263093</v>
+        <v>1381.192391623816</v>
       </c>
       <c r="AI6" t="n">
-        <v>993.9579190483714</v>
+        <v>993.9624873784896</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.06977892016458</v>
+        <v>16.06983612436679</v>
       </c>
       <c r="AK6" t="n">
-        <v>1283.223793682619</v>
+        <v>1283.223787699647</v>
       </c>
       <c r="AL6" t="n">
-        <v>835.6191097406873</v>
+        <v>835.6193393116474</v>
       </c>
       <c r="AM6" t="n">
-        <v>17.69946609872462</v>
+        <v>17.69947081273979</v>
       </c>
     </row>
     <row r="7">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.1636840886056</v>
+        <v>104.1636840929257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001728294829508675</v>
+        <v>0.00172829466002053</v>
       </c>
       <c r="D7" t="n">
-        <v>1283.321213129131</v>
+        <v>1283.321213128893</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001539487307442532</v>
+        <v>0.001539487294030463</v>
       </c>
       <c r="F7" t="n">
-        <v>4283.682566550693</v>
+        <v>4283.682570276486</v>
       </c>
       <c r="G7" t="n">
-        <v>1283.321263131631</v>
+        <v>1283.321263131393</v>
       </c>
       <c r="H7" t="n">
-        <v>13368.44873460229</v>
+        <v>13368.44874195801</v>
       </c>
       <c r="I7" t="n">
-        <v>1.188386660647851</v>
+        <v>1.188386658446717</v>
       </c>
       <c r="J7" t="n">
-        <v>5.068715064205465</v>
+        <v>5.068715021280321</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6027425419696539</v>
+        <v>0.6027425474333558</v>
       </c>
       <c r="L7" t="n">
-        <v>2.376773321295701</v>
+        <v>2.376773316893433</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1300,34 +1300,34 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1387.484897217737</v>
+        <v>1387.484897221819</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0007854819208166171</v>
+        <v>0.0007854815741786947</v>
       </c>
       <c r="P7" t="n">
-        <v>8737.260687907865</v>
+        <v>8737.26072531092</v>
       </c>
       <c r="Q7" t="n">
-        <v>1387.484947220237</v>
+        <v>1387.484947224319</v>
       </c>
       <c r="R7" t="n">
-        <v>22927.44103472517</v>
+        <v>22927.44219690226</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9678053354298051</v>
+        <v>0.9678053353348619</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.298586053444993</v>
+        <v>7.298591065501141</v>
       </c>
       <c r="V7" t="n">
-        <v>0.676334250435739</v>
+        <v>0.6763343381976652</v>
       </c>
       <c r="W7" t="n">
-        <v>1.93561067085961</v>
+        <v>1.935610670669724</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1335,49 +1335,49 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>1263.253841318746</v>
+        <v>1263.25384125955</v>
       </c>
       <c r="Z7" t="n">
-        <v>1537.378947202843</v>
+        <v>1537.379122705662</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.273207290802224</v>
+        <v>2.273207571933427</v>
       </c>
       <c r="AB7" t="n">
-        <v>1408.861585707549</v>
+        <v>1408.86158569385</v>
       </c>
       <c r="AC7" t="n">
-        <v>2412.37670489888</v>
+        <v>2412.384040135382</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.965239389550313</v>
+        <v>1.965237764561285</v>
       </c>
       <c r="AE7" t="n">
-        <v>1369.725557639413</v>
+        <v>1369.725558153072</v>
       </c>
       <c r="AF7" t="n">
-        <v>288.9075593225415</v>
+        <v>288.9073712190732</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.4826823247138128</v>
+        <v>0.4826823247136505</v>
       </c>
       <c r="AH7" t="n">
-        <v>1382.840979448471</v>
+        <v>1382.840856396311</v>
       </c>
       <c r="AI7" t="n">
-        <v>1399.130015350519</v>
+        <v>1399.122516517241</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.73368588792207</v>
+        <v>16.73361747526694</v>
       </c>
       <c r="AK7" t="n">
-        <v>1281.914219816144</v>
+        <v>1281.914221616743</v>
       </c>
       <c r="AL7" t="n">
-        <v>1170.987888934686</v>
+        <v>1170.987480708219</v>
       </c>
       <c r="AM7" t="n">
-        <v>19.75462950537823</v>
+        <v>19.75462087789007</v>
       </c>
     </row>
     <row r="8">
@@ -1387,37 +1387,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.1340456006653</v>
+        <v>104.1340455819729</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001671164439992011</v>
+        <v>0.001671163826062498</v>
       </c>
       <c r="D8" t="n">
-        <v>1283.384609535292</v>
+        <v>1283.384609535286</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001465704039941567</v>
+        <v>0.001465703922056024</v>
       </c>
       <c r="F8" t="n">
-        <v>4011.284262011038</v>
+        <v>4011.284262105987</v>
       </c>
       <c r="G8" t="n">
-        <v>1283.384659537792</v>
+        <v>1283.384659537786</v>
       </c>
       <c r="H8" t="n">
-        <v>12619.85603504001</v>
+        <v>12619.85603598109</v>
       </c>
       <c r="I8" t="n">
-        <v>1.197456101389348</v>
+        <v>1.197456101354595</v>
       </c>
       <c r="J8" t="n">
-        <v>4.509645049702579</v>
+        <v>4.50964504935497</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6035672664770517</v>
+        <v>0.6035672666854567</v>
       </c>
       <c r="L8" t="n">
-        <v>2.394912202778696</v>
+        <v>2.39491220270919</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1425,34 +1425,34 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1387.518655135957</v>
+        <v>1387.518655117259</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00080280897652728</v>
+        <v>0.0008028079137685655</v>
       </c>
       <c r="P8" t="n">
-        <v>8263.070839221322</v>
+        <v>8263.070661579581</v>
       </c>
       <c r="Q8" t="n">
-        <v>1387.518705138458</v>
+        <v>1387.518705119759</v>
       </c>
       <c r="R8" t="n">
-        <v>21696.56785356416</v>
+        <v>21696.56347153087</v>
       </c>
       <c r="S8" t="n">
-        <v>0.970118195029813</v>
+        <v>0.9701182047075212</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7.067064626343057</v>
+        <v>7.06705949203925</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6718998981302614</v>
+        <v>0.6718995242492709</v>
       </c>
       <c r="W8" t="n">
-        <v>1.940236390059626</v>
+        <v>1.940236409415042</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1460,49 +1460,49 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>1263.382053342554</v>
+        <v>1263.382053338985</v>
       </c>
       <c r="Z8" t="n">
-        <v>1483.308832582861</v>
+        <v>1483.308832434009</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.268321241293246</v>
+        <v>2.268321241932989</v>
       </c>
       <c r="AB8" t="n">
-        <v>1408.877992124415</v>
+        <v>1408.87799277729</v>
       </c>
       <c r="AC8" t="n">
-        <v>2287.265118590357</v>
+        <v>2287.239684900146</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.955473264310841</v>
+        <v>1.955475022492271</v>
       </c>
       <c r="AE8" t="n">
-        <v>1369.751635481927</v>
+        <v>1369.75163535377</v>
       </c>
       <c r="AF8" t="n">
-        <v>279.2281112577817</v>
+        <v>279.2287297035456</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.4838008143894704</v>
+        <v>0.483800814389064</v>
       </c>
       <c r="AH8" t="n">
-        <v>1382.415608508026</v>
+        <v>1382.416062639516</v>
       </c>
       <c r="AI8" t="n">
-        <v>1283.299048084234</v>
+        <v>1283.327660814507</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.28591264490408</v>
+        <v>16.28623876327358</v>
       </c>
       <c r="AK8" t="n">
-        <v>1281.763554769523</v>
+        <v>1281.763554756978</v>
       </c>
       <c r="AL8" t="n">
-        <v>1088.486761364101</v>
+        <v>1088.48676010597</v>
       </c>
       <c r="AM8" t="n">
-        <v>20.19877019161955</v>
+        <v>20.19877015295504</v>
       </c>
     </row>
     <row r="9">
@@ -1512,37 +1512,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.1083712707764</v>
+        <v>104.108371174221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00167369303902151</v>
+        <v>0.001673691838433787</v>
       </c>
       <c r="D9" t="n">
-        <v>1283.442761938928</v>
+        <v>1283.442761978884</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001422331968858491</v>
+        <v>0.001422331373821441</v>
       </c>
       <c r="F9" t="n">
-        <v>3719.984387695827</v>
+        <v>3719.983548536916</v>
       </c>
       <c r="G9" t="n">
-        <v>1283.442811941428</v>
+        <v>1283.442811981384</v>
       </c>
       <c r="H9" t="n">
-        <v>11830.44189383372</v>
+        <v>11830.42569028444</v>
       </c>
       <c r="I9" t="n">
-        <v>1.211481888693949</v>
+        <v>1.211482174314697</v>
       </c>
       <c r="J9" t="n">
-        <v>4.361927949595795</v>
+        <v>4.361908056367973</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6012215950864112</v>
+        <v>0.6012186087312994</v>
       </c>
       <c r="L9" t="n">
-        <v>2.422963777387898</v>
+        <v>2.422964348629394</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1550,34 +1550,34 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1387.551133209704</v>
+        <v>1387.551133153105</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000882167874745044</v>
+        <v>0.0008821665563163702</v>
       </c>
       <c r="P9" t="n">
-        <v>7698.690929963963</v>
+        <v>7698.690470250321</v>
       </c>
       <c r="Q9" t="n">
-        <v>1387.551183212204</v>
+        <v>1387.551183155605</v>
       </c>
       <c r="R9" t="n">
-        <v>20138.88902532684</v>
+        <v>20138.8762496088</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9669073041934502</v>
+        <v>0.9669073170924869</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.85404484201872</v>
+        <v>6.853998064329416</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6706110862222514</v>
+        <v>0.6706099509089353</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9338146083869</v>
+        <v>1.933814634184974</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1585,49 +1585,49 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>1263.402238077571</v>
+        <v>1263.402239875184</v>
       </c>
       <c r="Z9" t="n">
-        <v>1372.297229310293</v>
+        <v>1372.267489994046</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.208518800358203</v>
+        <v>2.208470516540118</v>
       </c>
       <c r="AB9" t="n">
-        <v>1408.908591606514</v>
+        <v>1408.908593134813</v>
       </c>
       <c r="AC9" t="n">
-        <v>2178.633126178855</v>
+        <v>2178.554676588219</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.970640306685293</v>
+        <v>1.970656104015913</v>
       </c>
       <c r="AE9" t="n">
-        <v>1369.747022846957</v>
+        <v>1369.747022546015</v>
       </c>
       <c r="AF9" t="n">
-        <v>250.438224012845</v>
+        <v>250.4399740174964</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.4822525248144827</v>
+        <v>0.4822525248143575</v>
       </c>
       <c r="AH9" t="n">
-        <v>1381.87362861472</v>
+        <v>1381.875042740032</v>
       </c>
       <c r="AI9" t="n">
-        <v>1175.278480812403</v>
+        <v>1175.363273892262</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.3037959414834</v>
+        <v>16.30486486537127</v>
       </c>
       <c r="AK9" t="n">
-        <v>1281.578698947691</v>
+        <v>1281.577949640933</v>
       </c>
       <c r="AL9" t="n">
-        <v>1027.557890401799</v>
+        <v>1027.612148562655</v>
       </c>
       <c r="AM9" t="n">
-        <v>20.81200351071664</v>
+        <v>20.8122053967793</v>
       </c>
     </row>
     <row r="10">
@@ -1637,37 +1637,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.0683619710019</v>
+        <v>104.0683619709921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001568101876346561</v>
+        <v>0.001568101907849965</v>
       </c>
       <c r="D10" t="n">
-        <v>1283.528756354419</v>
+        <v>1283.528756354427</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001306167043101268</v>
+        <v>0.001306167080271245</v>
       </c>
       <c r="F10" t="n">
-        <v>3486.272394629711</v>
+        <v>3486.272394617547</v>
       </c>
       <c r="G10" t="n">
-        <v>1283.528806356919</v>
+        <v>1283.528806356927</v>
       </c>
       <c r="H10" t="n">
-        <v>11077.10850182146</v>
+        <v>11077.10850126641</v>
       </c>
       <c r="I10" t="n">
-        <v>1.212767607824857</v>
+        <v>1.212767607821994</v>
       </c>
       <c r="J10" t="n">
-        <v>3.822149891753859</v>
+        <v>3.822149889027084</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5962929223741158</v>
+        <v>0.596292922286595</v>
       </c>
       <c r="L10" t="n">
-        <v>2.425535215649714</v>
+        <v>2.425535215643989</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1675,34 +1675,34 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1387.597118325421</v>
+        <v>1387.597118325419</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0008676814796442847</v>
+        <v>0.000867681480624309</v>
       </c>
       <c r="P10" t="n">
-        <v>7159.721248188691</v>
+        <v>7159.721248193508</v>
       </c>
       <c r="Q10" t="n">
-        <v>1387.597168327921</v>
+        <v>1387.597168327919</v>
       </c>
       <c r="R10" t="n">
-        <v>18583.4230572851</v>
+        <v>18583.42305743846</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9672859246949066</v>
+        <v>0.9672859246950574</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>6.453237844015108</v>
+        <v>6.45323784541381</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6514379955380158</v>
+        <v>0.6514379955520561</v>
       </c>
       <c r="W10" t="n">
-        <v>1.934571849389813</v>
+        <v>1.934571849390115</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1710,49 +1710,49 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>1263.465978268559</v>
+        <v>1263.46597826921</v>
       </c>
       <c r="Z10" t="n">
-        <v>1293.029017809519</v>
+        <v>1293.0290104761</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.224719611635945</v>
+        <v>2.224719599128046</v>
       </c>
       <c r="AB10" t="n">
-        <v>1408.98604682851</v>
+        <v>1408.986046828488</v>
       </c>
       <c r="AC10" t="n">
-        <v>2007.619131463012</v>
+        <v>2007.619131970623</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.900327696837725</v>
+        <v>1.90032769731982</v>
       </c>
       <c r="AE10" t="n">
-        <v>1369.767035156364</v>
+        <v>1369.767035156681</v>
       </c>
       <c r="AF10" t="n">
-        <v>237.6814732335897</v>
+        <v>237.6814732347582</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.4823729453426707</v>
+        <v>0.4823729453431658</v>
       </c>
       <c r="AH10" t="n">
-        <v>1381.574332698294</v>
+        <v>1381.574332683797</v>
       </c>
       <c r="AI10" t="n">
-        <v>1204.890037083185</v>
+        <v>1204.890036402777</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.18536122683301</v>
+        <v>16.18536121906981</v>
       </c>
       <c r="AK10" t="n">
-        <v>1281.769410590755</v>
+        <v>1281.769410317466</v>
       </c>
       <c r="AL10" t="n">
-        <v>921.8662675878478</v>
+        <v>921.86627781587</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.94667931548827</v>
+        <v>19.94667945161834</v>
       </c>
     </row>
     <row r="11">
@@ -1762,37 +1762,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.0260138920335</v>
+        <v>104.0260138889203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001623069159402548</v>
+        <v>0.001623068452580739</v>
       </c>
       <c r="D11" t="n">
-        <v>1283.620047883527</v>
+        <v>1283.620047883498</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001324936649174504</v>
+        <v>0.001324936638666305</v>
       </c>
       <c r="F11" t="n">
-        <v>3195.985921057355</v>
+        <v>3195.985920976943</v>
       </c>
       <c r="G11" t="n">
-        <v>1283.620097886027</v>
+        <v>1283.620097885998</v>
       </c>
       <c r="H11" t="n">
-        <v>10144.3188991485</v>
+        <v>10144.31889715797</v>
       </c>
       <c r="I11" t="n">
-        <v>1.227720353076985</v>
+        <v>1.22772035310161</v>
       </c>
       <c r="J11" t="n">
-        <v>3.585005292244499</v>
+        <v>3.58500528204861</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5640087988106879</v>
+        <v>0.5640087984033273</v>
       </c>
       <c r="L11" t="n">
-        <v>2.45544070615397</v>
+        <v>2.455440706203221</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1800,34 +1800,34 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1387.64606177556</v>
+        <v>1387.646061772418</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0009374947316534265</v>
+        <v>0.0009374935227949414</v>
       </c>
       <c r="P11" t="n">
-        <v>6590.499810811594</v>
+        <v>6590.49979715157</v>
       </c>
       <c r="Q11" t="n">
-        <v>1387.64611177806</v>
+        <v>1387.646111774918</v>
       </c>
       <c r="R11" t="n">
-        <v>17065.0546586775</v>
+        <v>17065.05428920313</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9696089408375095</v>
+        <v>0.9696089406999595</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.159998875368801</v>
+        <v>6.159948124244798</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6389848236924791</v>
+        <v>0.638984786398936</v>
       </c>
       <c r="W11" t="n">
-        <v>1.939217881675019</v>
+        <v>1.939217881399919</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1835,49 +1835,49 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>1263.553265516319</v>
+        <v>1263.553265517771</v>
       </c>
       <c r="Z11" t="n">
-        <v>1139.52506163262</v>
+        <v>1139.525045956871</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.108702151793671</v>
+        <v>2.108702122912949</v>
       </c>
       <c r="AB11" t="n">
-        <v>1409.056759974714</v>
+        <v>1409.056760152314</v>
       </c>
       <c r="AC11" t="n">
-        <v>1797.600196105558</v>
+        <v>1797.599278217978</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.817161281773866</v>
+        <v>1.81716040917089</v>
       </c>
       <c r="AE11" t="n">
-        <v>1369.812830375143</v>
+        <v>1369.812786439306</v>
       </c>
       <c r="AF11" t="n">
-        <v>205.9080777019462</v>
+        <v>205.910875643805</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.4834911854050449</v>
+        <v>0.4834911854048285</v>
       </c>
       <c r="AH11" t="n">
-        <v>1381.346130822973</v>
+        <v>1381.346217282461</v>
       </c>
       <c r="AI11" t="n">
-        <v>1002.207495583724</v>
+        <v>1002.206455720699</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15.39315888541402</v>
+        <v>15.39315934580529</v>
       </c>
       <c r="AK11" t="n">
-        <v>1279.965964318598</v>
+        <v>1279.965963651165</v>
       </c>
       <c r="AL11" t="n">
-        <v>980.9390922440807</v>
+        <v>980.939114299373</v>
       </c>
       <c r="AM11" t="n">
-        <v>20.76924347452824</v>
+        <v>20.76924366484819</v>
       </c>
     </row>
     <row r="12">
@@ -1887,37 +1887,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.960947410711</v>
+        <v>103.9609473319811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001381101645965888</v>
+        <v>0.001381101804450541</v>
       </c>
       <c r="D12" t="n">
-        <v>1283.770159591252</v>
+        <v>1283.770159591263</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001007702747097628</v>
+        <v>0.001007702754530802</v>
       </c>
       <c r="F12" t="n">
-        <v>2937.201667583742</v>
+        <v>2937.20166755457</v>
       </c>
       <c r="G12" t="n">
-        <v>1283.770309598752</v>
+        <v>1283.770309598763</v>
       </c>
       <c r="H12" t="n">
-        <v>9334.043500569793</v>
+        <v>9334.043499943493</v>
       </c>
       <c r="I12" t="n">
-        <v>1.237341485350645</v>
+        <v>1.237341485361324</v>
       </c>
       <c r="J12" t="n">
-        <v>2.848954328817915</v>
+        <v>2.848954328618565</v>
       </c>
       <c r="K12" t="n">
-        <v>0.546093068078535</v>
+        <v>0.5460930679341924</v>
       </c>
       <c r="L12" t="n">
-        <v>2.47468297070129</v>
+        <v>2.474682970722649</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1925,34 +1925,34 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1387.731207006963</v>
+        <v>1387.731206928244</v>
       </c>
       <c r="O12" t="n">
-        <v>0.000944445302800315</v>
+        <v>0.0009444455266279655</v>
       </c>
       <c r="P12" t="n">
-        <v>6072.585573094967</v>
+        <v>6072.585056907344</v>
       </c>
       <c r="Q12" t="n">
-        <v>1387.731257009463</v>
+        <v>1387.731256930744</v>
       </c>
       <c r="R12" t="n">
-        <v>15630.8763490142</v>
+        <v>15630.86575882679</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9677451903075502</v>
+        <v>0.9677452646357516</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>5.934350587865605</v>
+        <v>5.934268132825069</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6295322591622432</v>
+        <v>0.6295308840767726</v>
       </c>
       <c r="W12" t="n">
-        <v>1.9354903806151</v>
+        <v>1.935490529271503</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1960,49 +1960,49 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>1263.718796382178</v>
+        <v>1263.718796380656</v>
       </c>
       <c r="Z12" t="n">
-        <v>1045.094742121488</v>
+        <v>1045.094741698614</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.075917888460541</v>
+        <v>2.07591788757253</v>
       </c>
       <c r="AB12" t="n">
-        <v>1409.158332696757</v>
+        <v>1409.158339443569</v>
       </c>
       <c r="AC12" t="n">
-        <v>1646.394266653006</v>
+        <v>1646.347380678623</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.719116273612724</v>
+        <v>1.719068921956679</v>
       </c>
       <c r="AE12" t="n">
-        <v>1369.814324418672</v>
+        <v>1369.814337922855</v>
       </c>
       <c r="AF12" t="n">
-        <v>187.9240973316661</v>
+        <v>187.9255483534845</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.4822758430261583</v>
+        <v>0.4822758403054218</v>
       </c>
       <c r="AH12" t="n">
-        <v>1382.290665382049</v>
+        <v>1382.292288671222</v>
       </c>
       <c r="AI12" t="n">
-        <v>1032.20211085322</v>
+        <v>1032.275785009178</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16.79801871600885</v>
+        <v>16.79930681720969</v>
       </c>
       <c r="AK12" t="n">
-        <v>1279.208317379604</v>
+        <v>1279.208317378203</v>
       </c>
       <c r="AL12" t="n">
-        <v>879.1312948188965</v>
+        <v>879.1312955674695</v>
       </c>
       <c r="AM12" t="n">
-        <v>21.63919345302735</v>
+        <v>21.6391934309728</v>
       </c>
     </row>
     <row r="13">
@@ -2012,37 +2012,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.8723858795433</v>
+        <v>103.8723858795647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001882304738508203</v>
+        <v>0.001882304721286273</v>
       </c>
       <c r="D13" t="n">
-        <v>1283.955808289714</v>
+        <v>1283.955808289721</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001223186549958906</v>
+        <v>0.001223186548390463</v>
       </c>
       <c r="F13" t="n">
-        <v>2387.793630767013</v>
+        <v>2387.793630482968</v>
       </c>
       <c r="G13" t="n">
-        <v>1283.955958297215</v>
+        <v>1283.955958297222</v>
       </c>
       <c r="H13" t="n">
-        <v>7618.822143417595</v>
+        <v>7618.822138180254</v>
       </c>
       <c r="I13" t="n">
-        <v>1.245497939528515</v>
+        <v>1.245497939674173</v>
       </c>
       <c r="J13" t="n">
-        <v>2.784165802149843</v>
+        <v>2.784165793762323</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5388019877755478</v>
+        <v>0.5388019862145217</v>
       </c>
       <c r="L13" t="n">
-        <v>2.49099587905703</v>
+        <v>2.490995879348346</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2050,34 +2050,34 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1387.828294174258</v>
+        <v>1387.828294174286</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001430694164596355</v>
+        <v>0.001430694143279135</v>
       </c>
       <c r="P13" t="n">
-        <v>4947.914496388271</v>
+        <v>4947.914493569437</v>
       </c>
       <c r="Q13" t="n">
-        <v>1387.828344176758</v>
+        <v>1387.828344176786</v>
       </c>
       <c r="R13" t="n">
-        <v>12562.21454690631</v>
+        <v>12562.21452024671</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9627651276470781</v>
+        <v>0.9627651285033985</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>6.473446212876667</v>
+        <v>6.473446234652358</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6106531132962418</v>
+        <v>0.6106531076371868</v>
       </c>
       <c r="W13" t="n">
-        <v>1.925530255294156</v>
+        <v>1.925530257006797</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2085,43 +2085,43 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>1263.952208252739</v>
+        <v>1263.952208252006</v>
       </c>
       <c r="Z13" t="n">
-        <v>836.6208420461994</v>
+        <v>836.6208371492838</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.001842785464546</v>
+        <v>2.001842773461521</v>
       </c>
       <c r="AB13" t="n">
-        <v>1409.226816497</v>
+        <v>1409.22681649332</v>
       </c>
       <c r="AC13" t="n">
-        <v>1323.277103515372</v>
+        <v>1323.277120305836</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.623540112693476</v>
+        <v>1.623540139858435</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>1380.840823410504</v>
+        <v>1380.840823411164</v>
       </c>
       <c r="AI13" t="n">
-        <v>1071.03256087002</v>
+        <v>1071.032568027083</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.29847215653923</v>
+        <v>16.29847163720619</v>
       </c>
       <c r="AK13" t="n">
-        <v>1278.051352506272</v>
+        <v>1278.051352409543</v>
       </c>
       <c r="AL13" t="n">
-        <v>684.623872243254</v>
+        <v>684.6238825300392</v>
       </c>
       <c r="AM13" t="n">
-        <v>21.57926152381938</v>
+        <v>21.5792614718319</v>
       </c>
     </row>
     <row r="14">
@@ -2131,37 +2131,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.7654212768607</v>
+        <v>103.7654212783812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002126451435372975</v>
+        <v>0.002126451358199285</v>
       </c>
       <c r="D14" t="n">
-        <v>1284.202601887534</v>
+        <v>1284.202601887519</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001698853890867469</v>
+        <v>0.001698853888153189</v>
       </c>
       <c r="F14" t="n">
-        <v>2091.485622976068</v>
+        <v>2091.485624372415</v>
       </c>
       <c r="G14" t="n">
-        <v>1284.202751895035</v>
+        <v>1284.20275189502</v>
       </c>
       <c r="H14" t="n">
-        <v>6544.093471220975</v>
+        <v>6544.0935160192</v>
       </c>
       <c r="I14" t="n">
-        <v>1.232451160791026</v>
+        <v>1.232451160464997</v>
       </c>
       <c r="J14" t="n">
-        <v>3.070874413117163</v>
+        <v>3.070874496156647</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5158030712068129</v>
+        <v>0.5158030846163333</v>
       </c>
       <c r="L14" t="n">
-        <v>2.464902321582051</v>
+        <v>2.464902320929995</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -2169,34 +2169,34 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1387.968123169396</v>
+        <v>1387.968123170901</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00127894142339837</v>
+        <v>0.00127894129868981</v>
       </c>
       <c r="P14" t="n">
-        <v>4288.958304416558</v>
+        <v>4288.958313268115</v>
       </c>
       <c r="Q14" t="n">
-        <v>1387.968173171896</v>
+        <v>1387.968173173401</v>
       </c>
       <c r="R14" t="n">
-        <v>10734.66655352651</v>
+        <v>10734.66670079011</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9486060619247476</v>
+        <v>0.9486060598807147</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.068976902811647</v>
+        <v>5.068978836623286</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6079229545897966</v>
+        <v>0.6079229844340381</v>
       </c>
       <c r="W14" t="n">
-        <v>1.897212123849495</v>
+        <v>1.897212119761429</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2204,49 +2204,49 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>1264.16982120663</v>
+        <v>1264.169821218767</v>
       </c>
       <c r="Z14" t="n">
-        <v>687.9867664070138</v>
+        <v>687.9868392648</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.795174547746837</v>
+        <v>1.795174545015191</v>
       </c>
       <c r="AB14" t="n">
-        <v>1409.399849831633</v>
+        <v>1409.399849752057</v>
       </c>
       <c r="AC14" t="n">
-        <v>1142.275986785317</v>
+        <v>1142.276593412248</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.543582468547622</v>
+        <v>1.543583017678567</v>
       </c>
       <c r="AE14" t="n">
-        <v>1370.135707641465</v>
+        <v>1370.135707618619</v>
       </c>
       <c r="AF14" t="n">
-        <v>144.6455897812302</v>
+        <v>144.6455605215601</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.4729115856113241</v>
+        <v>0.4729115856120616</v>
       </c>
       <c r="AH14" t="n">
-        <v>1380.989417761695</v>
+        <v>1380.989384799614</v>
       </c>
       <c r="AI14" t="n">
-        <v>646.0703566835211</v>
+        <v>646.0692927135362</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17.16875398769464</v>
+        <v>17.16871778296011</v>
       </c>
       <c r="AK14" t="n">
-        <v>1277.224091136507</v>
+        <v>1277.224091141635</v>
       </c>
       <c r="AL14" t="n">
-        <v>650.96694462703</v>
+        <v>650.9668160079743</v>
       </c>
       <c r="AM14" t="n">
-        <v>22.19254319755773</v>
+        <v>22.19254465924697</v>
       </c>
     </row>
     <row r="15">
@@ -2256,37 +2256,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.8868101034498</v>
+        <v>104.886810083213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001714404312787895</v>
+        <v>0.001714404452765034</v>
       </c>
       <c r="D15" t="n">
-        <v>1281.888983951138</v>
+        <v>1281.888983951136</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001500956510389944</v>
+        <v>0.001500956515852663</v>
       </c>
       <c r="F15" t="n">
-        <v>30344.97035338003</v>
+        <v>30344.97035335908</v>
       </c>
       <c r="G15" t="n">
-        <v>1281.888933948638</v>
+        <v>1281.888933948636</v>
       </c>
       <c r="H15" t="n">
-        <v>89788.65640292129</v>
+        <v>89788.65640171774</v>
       </c>
       <c r="I15" t="n">
-        <v>1.071560077141093</v>
+        <v>1.071560077138506</v>
       </c>
       <c r="J15" t="n">
-        <v>33.72871643491509</v>
+        <v>33.7287164453052</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7380824211147662</v>
+        <v>0.738082421097378</v>
       </c>
       <c r="L15" t="n">
-        <v>2.143120154282186</v>
+        <v>2.143120154277012</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1386.775794054588</v>
+        <v>1386.775794034349</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0008284393168022498</v>
+        <v>0.00082843959657902</v>
       </c>
       <c r="P15" t="n">
-        <v>58208.92131647262</v>
+        <v>58208.92040055409</v>
       </c>
       <c r="Q15" t="n">
-        <v>1386.775744052088</v>
+        <v>1386.775744031849</v>
       </c>
       <c r="R15" t="n">
-        <v>166901.7100263459</v>
+        <v>166901.6880263992</v>
       </c>
       <c r="S15" t="n">
-        <v>1.026372284660873</v>
+        <v>1.026372298655279</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>46.87252664606141</v>
+        <v>46.87239239601161</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7555305029547996</v>
+        <v>0.7555302455803934</v>
       </c>
       <c r="W15" t="n">
-        <v>2.052744569321747</v>
+        <v>2.052744597310557</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2329,49 +2329,49 @@
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>1261.789682353119</v>
+        <v>1261.78968235324</v>
       </c>
       <c r="Z15" t="n">
-        <v>12373.07947132806</v>
+        <v>12373.07948100038</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.211860172332226</v>
+        <v>3.21186017431624</v>
       </c>
       <c r="AB15" t="n">
-        <v>1408.080240301504</v>
+        <v>1408.080255143772</v>
       </c>
       <c r="AC15" t="n">
-        <v>15464.09245066875</v>
+        <v>15464.01385819088</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.800009895435999</v>
+        <v>2.799862512394091</v>
       </c>
       <c r="AE15" t="n">
-        <v>1369.544868077307</v>
+        <v>1369.544868278972</v>
       </c>
       <c r="AF15" t="n">
-        <v>1991.02970895417</v>
+        <v>1991.031432061547</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5123846797113858</v>
+        <v>0.5123846797119173</v>
       </c>
       <c r="AH15" t="n">
-        <v>1386.90757683475</v>
+        <v>1386.90776613926</v>
       </c>
       <c r="AI15" t="n">
-        <v>15445.92175017355</v>
+        <v>15446.06103775132</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15.25236252040879</v>
+        <v>15.25247753228761</v>
       </c>
       <c r="AK15" t="n">
-        <v>1283.976024393804</v>
+        <v>1283.976024403509</v>
       </c>
       <c r="AL15" t="n">
-        <v>9617.112026073075</v>
+        <v>9617.112019770522</v>
       </c>
       <c r="AM15" t="n">
-        <v>11.82106589977906</v>
+        <v>11.82106588807103</v>
       </c>
     </row>
     <row r="16">
@@ -2381,37 +2381,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.6686638854781</v>
+        <v>103.6686638822175</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002510935561076147</v>
+        <v>0.00251093616953248</v>
       </c>
       <c r="D16" t="n">
-        <v>1284.419204160428</v>
+        <v>1284.419204159875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002130307946660572</v>
+        <v>0.002130308059772541</v>
       </c>
       <c r="F16" t="n">
-        <v>1863.782161915359</v>
+        <v>1863.782163735855</v>
       </c>
       <c r="G16" t="n">
-        <v>1284.419354167929</v>
+        <v>1284.419354167376</v>
       </c>
       <c r="H16" t="n">
-        <v>5683.627805025793</v>
+        <v>5683.627843213494</v>
       </c>
       <c r="I16" t="n">
-        <v>1.207405729647985</v>
+        <v>1.207405715772859</v>
       </c>
       <c r="J16" t="n">
-        <v>3.084998002859032</v>
+        <v>3.084998023991566</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5021978678310332</v>
+        <v>0.5021979082396949</v>
       </c>
       <c r="L16" t="n">
-        <v>2.41481145929597</v>
+        <v>2.414811431545718</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2419,34 +2419,34 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1388.087968050907</v>
+        <v>1388.087968047093</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001329129581444789</v>
+        <v>0.001329130549620539</v>
       </c>
       <c r="P16" t="n">
-        <v>3825.865231952163</v>
+        <v>3825.865173027944</v>
       </c>
       <c r="Q16" t="n">
-        <v>1388.088018053407</v>
+        <v>1388.088018049593</v>
       </c>
       <c r="R16" t="n">
-        <v>9289.126927645033</v>
+        <v>9289.125811698679</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9275341819009382</v>
+        <v>0.9275341932582357</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.715259657473496</v>
+        <v>4.715250522852601</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5885841753602991</v>
+        <v>0.5885839282675057</v>
       </c>
       <c r="W16" t="n">
-        <v>1.855068363801876</v>
+        <v>1.855068386516471</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2454,49 +2454,49 @@
         </is>
       </c>
       <c r="Y16" t="n">
-        <v>1264.351994589293</v>
+        <v>1264.351994497999</v>
       </c>
       <c r="Z16" t="n">
-        <v>627.4681258030681</v>
+        <v>627.4684196899003</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.672727408591854</v>
+        <v>1.672728723805519</v>
       </c>
       <c r="AB16" t="n">
-        <v>1409.474659842938</v>
+        <v>1409.474660322136</v>
       </c>
       <c r="AC16" t="n">
-        <v>994.107517360608</v>
+        <v>994.1074622517872</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.485280460432346</v>
+        <v>1.485277786284078</v>
       </c>
       <c r="AE16" t="n">
-        <v>1370.167130047681</v>
+        <v>1370.167130184307</v>
       </c>
       <c r="AF16" t="n">
-        <v>118.9323041852041</v>
+        <v>118.9324395857283</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.4625557962793906</v>
+        <v>0.4625557962809065</v>
       </c>
       <c r="AH16" t="n">
-        <v>1381.093825554791</v>
+        <v>1381.093959868899</v>
       </c>
       <c r="AI16" t="n">
-        <v>593.7703283142355</v>
+        <v>593.7713986249314</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16.47332497378878</v>
+        <v>16.47332403987186</v>
       </c>
       <c r="AK16" t="n">
-        <v>1277.444048930356</v>
+        <v>1277.444051880418</v>
       </c>
       <c r="AL16" t="n">
-        <v>566.4723606728412</v>
+        <v>566.4720766132991</v>
       </c>
       <c r="AM16" t="n">
-        <v>21.97385039179724</v>
+        <v>21.97384953470382</v>
       </c>
     </row>
     <row r="17">
@@ -2506,37 +2506,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>103.6001993037992</v>
+        <v>103.6001993020486</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002697126483056851</v>
+        <v>0.00269712748849398</v>
       </c>
       <c r="D17" t="n">
-        <v>1284.568850663176</v>
+        <v>1284.568850663376</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002304389735112542</v>
+        <v>0.002304390236270189</v>
       </c>
       <c r="F17" t="n">
-        <v>2587.344621595738</v>
+        <v>2587.344613457259</v>
       </c>
       <c r="G17" t="n">
-        <v>1284.568900665676</v>
+        <v>1284.568900665876</v>
       </c>
       <c r="H17" t="n">
-        <v>7713.75674337921</v>
+        <v>7713.756556049083</v>
       </c>
       <c r="I17" t="n">
-        <v>1.159981093226642</v>
+        <v>1.159981095854021</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8236990229017</v>
+        <v>4.823698687476475</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5440114232587819</v>
+        <v>0.5440113733450314</v>
       </c>
       <c r="L17" t="n">
-        <v>2.319962186453283</v>
+        <v>2.319962191708043</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2544,34 +2544,34 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1388.169049966975</v>
+        <v>1388.169049965424</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001401527457567124</v>
+        <v>0.001401528568446776</v>
       </c>
       <c r="P17" t="n">
-        <v>5245.621670248728</v>
+        <v>5245.621873329337</v>
       </c>
       <c r="Q17" t="n">
-        <v>1388.169099969475</v>
+        <v>1388.169099967924</v>
       </c>
       <c r="R17" t="n">
-        <v>12506.47208554472</v>
+        <v>12506.47433613811</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9062862336990065</v>
+        <v>0.9062861850365658</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.757559059599737</v>
+        <v>6.757561279201265</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5989529394792763</v>
+        <v>0.5989533782395737</v>
       </c>
       <c r="W17" t="n">
-        <v>1.812572467398013</v>
+        <v>1.812572370073132</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2579,49 +2579,49 @@
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>1264.476061321146</v>
+        <v>1264.476061310641</v>
       </c>
       <c r="Z17" t="n">
-        <v>872.9767089251274</v>
+        <v>872.9766214502572</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.724402267567849</v>
+        <v>1.724401974294682</v>
       </c>
       <c r="AB17" t="n">
-        <v>1409.567994489581</v>
+        <v>1409.567994775272</v>
       </c>
       <c r="AC17" t="n">
-        <v>1303.283771123529</v>
+        <v>1303.280822922174</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.347005716407593</v>
+        <v>1.347002304526941</v>
       </c>
       <c r="AE17" t="n">
-        <v>1370.17004409632</v>
+        <v>1370.170044339979</v>
       </c>
       <c r="AF17" t="n">
-        <v>172.17637584227</v>
+        <v>172.1765721448745</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.4518971135611995</v>
+        <v>0.4518971135608974</v>
       </c>
       <c r="AH17" t="n">
-        <v>1381.170761412601</v>
+        <v>1381.170778825842</v>
       </c>
       <c r="AI17" t="n">
-        <v>683.9748018283115</v>
+        <v>683.9787673822319</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18.38354050050138</v>
+        <v>18.38382323262103</v>
       </c>
       <c r="AK17" t="n">
-        <v>1277.620014804439</v>
+        <v>1277.620014803903</v>
       </c>
       <c r="AL17" t="n">
-        <v>646.8538062014876</v>
+        <v>646.8537473474162</v>
       </c>
       <c r="AM17" t="n">
-        <v>23.96574869300042</v>
+        <v>23.96572017924257</v>
       </c>
     </row>
     <row r="18">
@@ -2631,37 +2631,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.5464892890827</v>
+        <v>103.5464892934692</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002895264804647334</v>
+        <v>0.002895265095082478</v>
       </c>
       <c r="D18" t="n">
-        <v>1284.689885579125</v>
+        <v>1284.689885579899</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002564765779792733</v>
+        <v>0.002564765740190978</v>
       </c>
       <c r="F18" t="n">
-        <v>2484.130437437309</v>
+        <v>2484.130467762866</v>
       </c>
       <c r="G18" t="n">
-        <v>1284.689935581625</v>
+        <v>1284.689935582399</v>
       </c>
       <c r="H18" t="n">
-        <v>7246.244857454463</v>
+        <v>7246.245262881099</v>
       </c>
       <c r="I18" t="n">
-        <v>1.12401535001782</v>
+        <v>1.124015330748851</v>
       </c>
       <c r="J18" t="n">
-        <v>4.917033133407358</v>
+        <v>4.917033808983518</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5660177386031782</v>
+        <v>0.5660178779298585</v>
       </c>
       <c r="L18" t="n">
-        <v>2.248030700035639</v>
+        <v>2.248030661497702</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2669,34 +2669,34 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1388.236374868207</v>
+        <v>1388.236374873369</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001343329737567713</v>
+        <v>0.001343330439149495</v>
       </c>
       <c r="P18" t="n">
-        <v>4935.165424243179</v>
+        <v>4935.165147236151</v>
       </c>
       <c r="Q18" t="n">
-        <v>1388.236424870707</v>
+        <v>1388.236424875869</v>
       </c>
       <c r="R18" t="n">
-        <v>11478.04395971005</v>
+        <v>11478.04091487745</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8871133107156122</v>
+        <v>0.8871133786357452</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>6.52452240274424</v>
+        <v>6.524499458469838</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5901963570812234</v>
+        <v>0.5901957148909425</v>
       </c>
       <c r="W18" t="n">
-        <v>1.774226621431224</v>
+        <v>1.77422675727149</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2704,49 +2704,49 @@
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>1264.589254301083</v>
+        <v>1264.589254296154</v>
       </c>
       <c r="Z18" t="n">
-        <v>800.508098066575</v>
+        <v>800.5084043956405</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.652909875121977</v>
+        <v>1.652910573963437</v>
       </c>
       <c r="AB18" t="n">
-        <v>1409.624646434175</v>
+        <v>1409.624647489347</v>
       </c>
       <c r="AC18" t="n">
-        <v>1168.103789788224</v>
+        <v>1168.113017941539</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.338111431034107</v>
+        <v>1.338105067197194</v>
       </c>
       <c r="AE18" t="n">
-        <v>1370.217962301411</v>
+        <v>1370.217962006506</v>
       </c>
       <c r="AF18" t="n">
-        <v>151.2265394840741</v>
+        <v>151.2264823488059</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.4422313528674047</v>
+        <v>0.442231351713758</v>
       </c>
       <c r="AH18" t="n">
-        <v>1381.225749954176</v>
+        <v>1381.225749961392</v>
       </c>
       <c r="AI18" t="n">
-        <v>626.9284753082393</v>
+        <v>626.9176094063653</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18.17360820259577</v>
+        <v>18.1730338171205</v>
       </c>
       <c r="AK18" t="n">
-        <v>1277.751989696823</v>
+        <v>1277.75198970189</v>
       </c>
       <c r="AL18" t="n">
-        <v>472.8604588277813</v>
+        <v>472.8597458852157</v>
       </c>
       <c r="AM18" t="n">
-        <v>24.4054459566115</v>
+        <v>24.40546122070678</v>
       </c>
     </row>
     <row r="19">
@@ -2756,37 +2756,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.5036353924372</v>
+        <v>103.5036353833359</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002845293635306255</v>
+        <v>0.002845294166777449</v>
       </c>
       <c r="D19" t="n">
-        <v>1284.813735422847</v>
+        <v>1284.813735412073</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002449493716358578</v>
+        <v>0.002449494546514734</v>
       </c>
       <c r="F19" t="n">
-        <v>2387.18323597363</v>
+        <v>2387.182877379063</v>
       </c>
       <c r="G19" t="n">
-        <v>1284.813785425347</v>
+        <v>1284.813785414573</v>
       </c>
       <c r="H19" t="n">
-        <v>6757.485692554559</v>
+        <v>6757.475098755733</v>
       </c>
       <c r="I19" t="n">
-        <v>1.106077642891573</v>
+        <v>1.106077700958785</v>
       </c>
       <c r="J19" t="n">
-        <v>4.692805034306404</v>
+        <v>4.692764651530893</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5327395636358199</v>
+        <v>0.5327365319781981</v>
       </c>
       <c r="L19" t="n">
-        <v>2.212155285783146</v>
+        <v>2.21215540191757</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2794,34 +2794,34 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1388.317370815284</v>
+        <v>1388.317370795409</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001447645123859479</v>
+        <v>0.00144764476377748</v>
       </c>
       <c r="P19" t="n">
-        <v>4773.190588318022</v>
+        <v>4773.191545280977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1388.317420817784</v>
+        <v>1388.317420797909</v>
       </c>
       <c r="R19" t="n">
-        <v>10842.79419023014</v>
+        <v>10842.80727564817</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8646593608953268</v>
+        <v>0.8646591700156829</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>6.38793373891822</v>
+        <v>6.387950704089612</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5950898343581501</v>
+        <v>0.5950924721444282</v>
       </c>
       <c r="W19" t="n">
-        <v>1.729318721790654</v>
+        <v>1.729318340031366</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2829,49 +2829,49 @@
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>1264.738604100424</v>
+        <v>1264.73860142865</v>
       </c>
       <c r="Z19" t="n">
-        <v>748.6178016965894</v>
+        <v>748.5893529480985</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.538282479976498</v>
+        <v>1.538325150911111</v>
       </c>
       <c r="AB19" t="n">
-        <v>1409.692724193589</v>
+        <v>1409.692724549645</v>
       </c>
       <c r="AC19" t="n">
-        <v>1121.638209953103</v>
+        <v>1121.624305614553</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.245738150189357</v>
+        <v>1.245722790340699</v>
       </c>
       <c r="AE19" t="n">
-        <v>1370.221369576613</v>
+        <v>1370.221369627149</v>
       </c>
       <c r="AF19" t="n">
-        <v>154.5634385724425</v>
+        <v>154.5648220010408</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.4308818279704966</v>
+        <v>0.4308818279515098</v>
       </c>
       <c r="AH19" t="n">
-        <v>1381.341227934922</v>
+        <v>1381.341227933097</v>
       </c>
       <c r="AI19" t="n">
-        <v>648.0226866901182</v>
+        <v>648.060592991225</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20.74728934993777</v>
+        <v>20.7502620033897</v>
       </c>
       <c r="AK19" t="n">
-        <v>1277.850970848845</v>
+        <v>1277.850970681294</v>
       </c>
       <c r="AL19" t="n">
-        <v>590.0394392851015</v>
+        <v>590.0784407170771</v>
       </c>
       <c r="AM19" t="n">
-        <v>24.08511679495618</v>
+        <v>24.08467252485052</v>
       </c>
     </row>
     <row r="20">
@@ -2881,37 +2881,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.4548972938194</v>
+        <v>103.4548972950672</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002833248491944418</v>
+        <v>0.002833248725512027</v>
       </c>
       <c r="D20" t="n">
-        <v>1284.906052542162</v>
+        <v>1284.906052553078</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002500948475741348</v>
+        <v>0.002500948655320888</v>
       </c>
       <c r="F20" t="n">
-        <v>2317.026712198245</v>
+        <v>2317.026981177516</v>
       </c>
       <c r="G20" t="n">
-        <v>1284.906102544662</v>
+        <v>1284.906102555578</v>
       </c>
       <c r="H20" t="n">
-        <v>6407.334485483252</v>
+        <v>6407.341963197613</v>
       </c>
       <c r="I20" t="n">
-        <v>1.069239282360489</v>
+        <v>1.069239231247043</v>
       </c>
       <c r="J20" t="n">
-        <v>4.411949406526878</v>
+        <v>4.411992807556662</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5566031907304365</v>
+        <v>0.5566054380875779</v>
       </c>
       <c r="L20" t="n">
-        <v>2.138478564720977</v>
+        <v>2.138478462494087</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2919,34 +2919,34 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1388.361049840981</v>
+        <v>1388.361049853145</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00133137287744356</v>
+        <v>0.001331373037155315</v>
       </c>
       <c r="P20" t="n">
-        <v>4556.269503448441</v>
+        <v>4556.27049721033</v>
       </c>
       <c r="Q20" t="n">
-        <v>1388.360999838481</v>
+        <v>1388.360999850645</v>
       </c>
       <c r="R20" t="n">
-        <v>10107.95545411534</v>
+        <v>10107.96420586639</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8484336148053462</v>
+        <v>0.8484333321525375</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5.700866424290682</v>
+        <v>5.700899237211398</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5831130488882942</v>
+        <v>0.5831153301087764</v>
       </c>
       <c r="W20" t="n">
-        <v>1.696867229610692</v>
+        <v>1.696866664305075</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2954,49 +2954,49 @@
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>1264.771939128093</v>
+        <v>1264.77193933556</v>
       </c>
       <c r="Z20" t="n">
-        <v>694.1368431781827</v>
+        <v>694.1577010205493</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.515996576436501</v>
+        <v>1.515966558803569</v>
       </c>
       <c r="AB20" t="n">
-        <v>1409.748330731493</v>
+        <v>1409.748330772691</v>
       </c>
       <c r="AC20" t="n">
-        <v>975.3382735553849</v>
+        <v>975.34300330476</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.219041110017389</v>
+        <v>1.219038643757937</v>
       </c>
       <c r="AE20" t="n">
-        <v>1370.258264808179</v>
+        <v>1370.258273411755</v>
       </c>
       <c r="AF20" t="n">
-        <v>138.9640883535591</v>
+        <v>138.965844716332</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.4228941383929743</v>
+        <v>0.4228940716488573</v>
       </c>
       <c r="AH20" t="n">
-        <v>1388.223631354915</v>
+        <v>1388.223666111316</v>
       </c>
       <c r="AI20" t="n">
-        <v>596.2323252489919</v>
+        <v>596.2136806910768</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21.14471338437421</v>
+        <v>21.14471338449102</v>
       </c>
       <c r="AK20" t="n">
-        <v>1277.938954108868</v>
+        <v>1277.938953958086</v>
       </c>
       <c r="AL20" t="n">
-        <v>443.3878406290758</v>
+        <v>443.3611064285743</v>
       </c>
       <c r="AM20" t="n">
-        <v>26.41747485098575</v>
+        <v>26.41823113371343</v>
       </c>
     </row>
     <row r="21">
@@ -3006,37 +3006,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103.4263737574786</v>
+        <v>103.426373817442</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002772949235093337</v>
+        <v>0.002772949262193479</v>
       </c>
       <c r="D21" t="n">
-        <v>1284.979647732583</v>
+        <v>1284.979647732439</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002520708198441264</v>
+        <v>0.002520708199412393</v>
       </c>
       <c r="F21" t="n">
-        <v>2301.219528280529</v>
+        <v>2301.219526188807</v>
       </c>
       <c r="G21" t="n">
-        <v>1284.979697735083</v>
+        <v>1284.979697734939</v>
       </c>
       <c r="H21" t="n">
-        <v>6257.279971329736</v>
+        <v>6257.279948225696</v>
       </c>
       <c r="I21" t="n">
-        <v>1.035971268186127</v>
+        <v>1.035971269569321</v>
       </c>
       <c r="J21" t="n">
-        <v>4.747613224179688</v>
+        <v>4.747613127842376</v>
       </c>
       <c r="K21" t="n">
-        <v>0.592317421233897</v>
+        <v>0.5923174117817792</v>
       </c>
       <c r="L21" t="n">
-        <v>2.071942536372254</v>
+        <v>2.071942539138641</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -3044,34 +3044,34 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1388.406121495062</v>
+        <v>1388.406121554881</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001155542140605751</v>
+        <v>0.001155542203519408</v>
       </c>
       <c r="P21" t="n">
-        <v>4437.040384106335</v>
+        <v>4437.04289273973</v>
       </c>
       <c r="Q21" t="n">
-        <v>1388.406071492562</v>
+        <v>1388.406071552381</v>
       </c>
       <c r="R21" t="n">
-        <v>9767.056402260203</v>
+        <v>9767.098503763404</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8376110313204732</v>
+        <v>0.8376106265318317</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5.293410798994624</v>
+        <v>5.293754610366311</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5932327383199391</v>
+        <v>0.5932415773433928</v>
       </c>
       <c r="W21" t="n">
-        <v>1.675222062640946</v>
+        <v>1.675221253063663</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -3079,49 +3079,49 @@
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>1264.82412302316</v>
+        <v>1264.824123024344</v>
       </c>
       <c r="Z21" t="n">
-        <v>701.129891505075</v>
+        <v>701.1298762624501</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.518659877091645</v>
+        <v>1.518659841706011</v>
       </c>
       <c r="AB21" t="n">
-        <v>1409.789864954633</v>
+        <v>1409.789866702881</v>
       </c>
       <c r="AC21" t="n">
-        <v>1008.599494823319</v>
+        <v>1008.709027058055</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.191225539041384</v>
+        <v>1.191163319429087</v>
       </c>
       <c r="AE21" t="n">
-        <v>1370.265335052817</v>
+        <v>1370.265337916702</v>
       </c>
       <c r="AF21" t="n">
-        <v>135.4666474638013</v>
+        <v>135.4641863301214</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.4177892137930611</v>
+        <v>0.4177892144585409</v>
       </c>
       <c r="AH21" t="n">
-        <v>1383.635224550911</v>
+        <v>1383.619569716113</v>
       </c>
       <c r="AI21" t="n">
-        <v>339.7161990372821</v>
+        <v>339.5923975075905</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20.88946075807972</v>
+        <v>20.88945222998065</v>
       </c>
       <c r="AK21" t="n">
-        <v>1278.032436061692</v>
+        <v>1278.032436061691</v>
       </c>
       <c r="AL21" t="n">
-        <v>332.9298482870911</v>
+        <v>332.9299047264414</v>
       </c>
       <c r="AM21" t="n">
-        <v>25.80458930438164</v>
+        <v>25.80458930425644</v>
       </c>
     </row>
     <row r="22">
@@ -3131,37 +3131,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.3934785354152</v>
+        <v>103.3934785180461</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002510555105256214</v>
+        <v>0.002510550619788468</v>
       </c>
       <c r="D22" t="n">
-        <v>1285.059602392147</v>
+        <v>1285.059602381631</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00221960054205237</v>
+        <v>0.002219595792203371</v>
       </c>
       <c r="F22" t="n">
-        <v>2320.017276589514</v>
+        <v>2320.017475714953</v>
       </c>
       <c r="G22" t="n">
-        <v>1285.059652394647</v>
+        <v>1285.059652384131</v>
       </c>
       <c r="H22" t="n">
-        <v>6080.001951535847</v>
+        <v>6080.008489281573</v>
       </c>
       <c r="I22" t="n">
-        <v>1.000953554752357</v>
+        <v>1.000953570244836</v>
       </c>
       <c r="J22" t="n">
-        <v>4.421397649899612</v>
+        <v>4.421417831714638</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5873821467323477</v>
+        <v>0.5873840608200773</v>
       </c>
       <c r="L22" t="n">
-        <v>2.001907109504714</v>
+        <v>2.001907140489672</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -3169,34 +3169,34 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1388.453080927562</v>
+        <v>1388.453080899677</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001173141240537073</v>
+        <v>0.001173140628293706</v>
       </c>
       <c r="P22" t="n">
-        <v>4438.072632208026</v>
+        <v>4438.071503747862</v>
       </c>
       <c r="Q22" t="n">
-        <v>1388.453130930062</v>
+        <v>1388.453130902177</v>
       </c>
       <c r="R22" t="n">
-        <v>9453.205615976416</v>
+        <v>9453.187147935356</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8127628059622944</v>
+        <v>0.8127629847840367</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.233607762569863</v>
+        <v>5.233453913405987</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5879223646258701</v>
+        <v>0.5879183168325569</v>
       </c>
       <c r="W22" t="n">
-        <v>1.625525611924589</v>
+        <v>1.625525969568073</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3204,49 +3204,49 @@
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>1264.970544016892</v>
+        <v>1264.970545833514</v>
       </c>
       <c r="Z22" t="n">
-        <v>664.343677749674</v>
+        <v>664.3795885732212</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.437471922460105</v>
+        <v>1.437361092414589</v>
       </c>
       <c r="AB22" t="n">
-        <v>1409.844950349092</v>
+        <v>1409.844951382111</v>
       </c>
       <c r="AC22" t="n">
-        <v>971.9403383897128</v>
+        <v>971.9065500106599</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.160275530158664</v>
+        <v>1.160277245938696</v>
       </c>
       <c r="AE22" t="n">
-        <v>1370.29176089301</v>
+        <v>1370.291758459721</v>
       </c>
       <c r="AF22" t="n">
-        <v>124.0652166864876</v>
+        <v>124.0673204108897</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.4053834992374518</v>
+        <v>0.4053835014716664</v>
       </c>
       <c r="AH22" t="n">
-        <v>1383.160037702176</v>
+        <v>1383.165227445755</v>
       </c>
       <c r="AI22" t="n">
-        <v>492.8909683700269</v>
+        <v>492.9335534067258</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20.26917508017799</v>
+        <v>20.26917508021518</v>
       </c>
       <c r="AK22" t="n">
-        <v>1278.065430268233</v>
+        <v>1278.06542977769</v>
       </c>
       <c r="AL22" t="n">
-        <v>410.8344265651404</v>
+        <v>410.7951575806886</v>
       </c>
       <c r="AM22" t="n">
-        <v>24.92446196366442</v>
+        <v>24.92446196351823</v>
       </c>
     </row>
     <row r="23">
@@ -3256,37 +3256,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>103.3654336251218</v>
+        <v>103.3654336008383</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002365559460432366</v>
+        <v>0.002365558892344322</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.121612920047</v>
+        <v>1285.121612935302</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002090000129891592</v>
+        <v>0.002089999776321595</v>
       </c>
       <c r="F23" t="n">
-        <v>2577.805077447404</v>
+        <v>2577.806618823821</v>
       </c>
       <c r="G23" t="n">
-        <v>1285.121662922547</v>
+        <v>1285.121662937802</v>
       </c>
       <c r="H23" t="n">
-        <v>6621.842793970671</v>
+        <v>6621.858081852504</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9884915112352495</v>
+        <v>0.9884905888105666</v>
       </c>
       <c r="J23" t="n">
-        <v>4.753353619916884</v>
+        <v>4.75340534547628</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5690364418275597</v>
+        <v>0.5690426771700321</v>
       </c>
       <c r="L23" t="n">
-        <v>1.976983022470499</v>
+        <v>1.976981177621133</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -3294,34 +3294,34 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1388.487046545168</v>
+        <v>1388.48704653614</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001108048292221146</v>
+        <v>0.001108047746320065</v>
       </c>
       <c r="P23" t="n">
-        <v>4880.825034309001</v>
+        <v>4880.824638469511</v>
       </c>
       <c r="Q23" t="n">
-        <v>1388.487096547668</v>
+        <v>1388.48709653864</v>
       </c>
       <c r="R23" t="n">
-        <v>10370.32804000858</v>
+        <v>10370.32009245276</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8112092786235328</v>
+        <v>0.8112093167215573</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>5.839219095808216</v>
+        <v>5.839167051078497</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5859949960761623</v>
+        <v>0.5859934913823901</v>
       </c>
       <c r="W23" t="n">
-        <v>1.622418557247066</v>
+        <v>1.622418633443115</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3329,49 +3329,49 @@
         </is>
       </c>
       <c r="Y23" t="n">
-        <v>1265.008933327278</v>
+        <v>1265.00893329504</v>
       </c>
       <c r="Z23" t="n">
-        <v>721.0447240858286</v>
+        <v>721.0520046659375</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.364648831772465</v>
+        <v>1.364662852624142</v>
       </c>
       <c r="AB23" t="n">
-        <v>1409.836819403248</v>
+        <v>1409.836819803005</v>
       </c>
       <c r="AC23" t="n">
-        <v>1064.094230729638</v>
+        <v>1064.081910337768</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.145339609711028</v>
+        <v>1.145338193163552</v>
       </c>
       <c r="AE23" t="n">
-        <v>1370.305267557335</v>
+        <v>1370.30527624678</v>
       </c>
       <c r="AF23" t="n">
-        <v>134.2544895909697</v>
+        <v>134.2545308429937</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.4047275425803012</v>
+        <v>0.4047275365704071</v>
       </c>
       <c r="AH23" t="n">
-        <v>1381.515603321945</v>
+        <v>1381.517881767455</v>
       </c>
       <c r="AI23" t="n">
-        <v>506.8496053215837</v>
+        <v>506.866397685339</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20.23637714052784</v>
+        <v>20.23637714050368</v>
       </c>
       <c r="AK23" t="n">
-        <v>1278.153413769448</v>
+        <v>1278.153412990657</v>
       </c>
       <c r="AL23" t="n">
-        <v>486.7124884052249</v>
+        <v>486.6817371476</v>
       </c>
       <c r="AM23" t="n">
-        <v>24.61100177348923</v>
+        <v>24.61100448908055</v>
       </c>
     </row>
     <row r="24">
@@ -3381,37 +3381,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.2706859515279</v>
+        <v>103.270685950795</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001828774076085759</v>
+        <v>0.001828774065636143</v>
       </c>
       <c r="D24" t="n">
-        <v>1285.368063288511</v>
+        <v>1285.368063288516</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001574244643378274</v>
+        <v>0.00157424463939913</v>
       </c>
       <c r="F24" t="n">
-        <v>2444.681951569082</v>
+        <v>2444.681951574208</v>
       </c>
       <c r="G24" t="n">
-        <v>1285.368113291011</v>
+        <v>1285.368113291016</v>
       </c>
       <c r="H24" t="n">
-        <v>5773.580538319443</v>
+        <v>5773.580538376062</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9100611284059058</v>
+        <v>0.9100611284028475</v>
       </c>
       <c r="J24" t="n">
-        <v>4.014705199428748</v>
+        <v>4.014705199491056</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5648584064694573</v>
+        <v>0.5648584064954462</v>
       </c>
       <c r="L24" t="n">
-        <v>1.820122256811812</v>
+        <v>1.820122256805695</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -3419,34 +3419,34 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1388.638749240039</v>
+        <v>1388.638749239311</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0009306816986264046</v>
+        <v>0.0009306816848237929</v>
       </c>
       <c r="P24" t="n">
-        <v>4532.309763129873</v>
+        <v>4532.309999471712</v>
       </c>
       <c r="Q24" t="n">
-        <v>1388.638799242539</v>
+        <v>1388.638799241811</v>
       </c>
       <c r="R24" t="n">
-        <v>8945.263789194025</v>
+        <v>8945.268378190636</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7612707241352994</v>
+        <v>0.7612707012321329</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4.64692802474201</v>
+        <v>4.646825051206</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5580281459436248</v>
+        <v>0.5580291760246526</v>
       </c>
       <c r="W24" t="n">
-        <v>1.522541448270599</v>
+        <v>1.522541402464266</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3454,49 +3454,49 @@
         </is>
       </c>
       <c r="Y24" t="n">
-        <v>1265.250864761278</v>
+        <v>1265.250864761267</v>
       </c>
       <c r="Z24" t="n">
-        <v>637.6926472317662</v>
+        <v>637.6926472640422</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.231453711152944</v>
+        <v>1.231453711266511</v>
       </c>
       <c r="AB24" t="n">
-        <v>1410.001660217632</v>
+        <v>1410.00166008742</v>
       </c>
       <c r="AC24" t="n">
-        <v>912.5181629679336</v>
+        <v>912.520442557494</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.023950030209158</v>
+        <v>1.02395014854597</v>
       </c>
       <c r="AE24" t="n">
-        <v>1370.358313459128</v>
+        <v>1370.358080123713</v>
       </c>
       <c r="AF24" t="n">
-        <v>110.1751649584653</v>
+        <v>110.1937935661811</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.380075976210059</v>
+        <v>0.3800761267130101</v>
       </c>
       <c r="AH24" t="n">
-        <v>1381.627173623846</v>
+        <v>1381.627173376661</v>
       </c>
       <c r="AI24" t="n">
-        <v>259.3841799837389</v>
+        <v>259.363826183629</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19.00380633819684</v>
+        <v>19.0038063316551</v>
       </c>
       <c r="AK24" t="n">
-        <v>1278.373371021038</v>
+        <v>1278.373371021033</v>
       </c>
       <c r="AL24" t="n">
-        <v>397.9057533996984</v>
+        <v>397.9057532748726</v>
       </c>
       <c r="AM24" t="n">
-        <v>22.67832199645572</v>
+        <v>22.67832199643803</v>
       </c>
     </row>
     <row r="25">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.190268041745</v>
+        <v>103.1902680387043</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001494209283616742</v>
+        <v>0.00149420933927136</v>
       </c>
       <c r="D25" t="n">
         <v>1285.554143477647</v>
@@ -3544,34 +3544,34 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1388.744411519392</v>
+        <v>1388.744411516351</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0007654132662335669</v>
+        <v>0.0007654133748802895</v>
       </c>
       <c r="P25" t="n">
-        <v>4069.045015440806</v>
+        <v>4069.044959408552</v>
       </c>
       <c r="Q25" t="n">
-        <v>1388.744461521892</v>
+        <v>1388.744461518851</v>
       </c>
       <c r="R25" t="n">
-        <v>7661.149728791314</v>
+        <v>7661.148854626698</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7353362452662906</v>
+        <v>0.7353362532705006</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.748791708111505</v>
+        <v>3.748787927655428</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5259856783338155</v>
+        <v>0.5259854409311621</v>
       </c>
       <c r="W25" t="n">
-        <v>1.470672490532581</v>
+        <v>1.470672506541001</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3588,31 +3588,31 @@
         <v>1.139816568914208</v>
       </c>
       <c r="AB25" t="n">
-        <v>1410.075227861381</v>
+        <v>1410.075227924568</v>
       </c>
       <c r="AC25" t="n">
-        <v>766.0828403123857</v>
+        <v>766.0816510422201</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.9506300407747689</v>
+        <v>0.9506299644891806</v>
       </c>
       <c r="AE25" t="n">
-        <v>1370.665323369944</v>
+        <v>1370.665323439296</v>
       </c>
       <c r="AF25" t="n">
-        <v>105.4463865642806</v>
+        <v>105.4465344784996</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.3669422661071073</v>
+        <v>0.3669422661096275</v>
       </c>
       <c r="AH25" t="n">
-        <v>1381.715271425421</v>
+        <v>1381.715859345746</v>
       </c>
       <c r="AI25" t="n">
-        <v>222.4023754159733</v>
+        <v>222.4036024952299</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.34711028061965</v>
+        <v>18.3471132587108</v>
       </c>
       <c r="AK25" t="n">
         <v>1278.538339576056</v>
@@ -3631,37 +3631,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.8018817556879</v>
+        <v>104.8018817539062</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001827285186810766</v>
+        <v>0.001827285610387539</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.036831537629</v>
+        <v>1282.036831540676</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001589367116797309</v>
+        <v>0.001589367449424903</v>
       </c>
       <c r="F26" t="n">
-        <v>29839.52681563709</v>
+        <v>29839.52682139286</v>
       </c>
       <c r="G26" t="n">
-        <v>1282.036781535129</v>
+        <v>1282.036781538176</v>
       </c>
       <c r="H26" t="n">
-        <v>87994.28486546708</v>
+        <v>87994.28537550678</v>
       </c>
       <c r="I26" t="n">
-        <v>1.073462029721855</v>
+        <v>1.073462030983986</v>
       </c>
       <c r="J26" t="n">
-        <v>33.33691133292586</v>
+        <v>33.33690177595477</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7246476232381727</v>
+        <v>0.7246476299108803</v>
       </c>
       <c r="L26" t="n">
-        <v>2.146924059443709</v>
+        <v>2.146924061967972</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -3669,34 +3669,34 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1386.838713293317</v>
+        <v>1386.838713294582</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0009016004225716988</v>
+        <v>0.0009016006946747208</v>
       </c>
       <c r="P26" t="n">
-        <v>57199.59737811128</v>
+        <v>57199.59759082811</v>
       </c>
       <c r="Q26" t="n">
-        <v>1386.838663290817</v>
+        <v>1386.838663292082</v>
       </c>
       <c r="R26" t="n">
-        <v>162202.7270281893</v>
+        <v>162202.7294582852</v>
       </c>
       <c r="S26" t="n">
-        <v>1.021362614146269</v>
+        <v>1.021362608532291</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>46.83320214692631</v>
+        <v>46.83310388984956</v>
       </c>
       <c r="V26" t="n">
-        <v>0.7401512455642949</v>
+        <v>0.740151285226144</v>
       </c>
       <c r="W26" t="n">
-        <v>2.042725228292537</v>
+        <v>2.042725217064581</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3704,49 +3704,49 @@
         </is>
       </c>
       <c r="Y26" t="n">
-        <v>1261.972494281757</v>
+        <v>1261.972493794645</v>
       </c>
       <c r="Z26" t="n">
-        <v>12483.87956990774</v>
+        <v>12483.86990757392</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.218484646974586</v>
+        <v>3.218481668332509</v>
       </c>
       <c r="AB26" t="n">
-        <v>1408.171076775588</v>
+        <v>1408.171071887243</v>
       </c>
       <c r="AC26" t="n">
-        <v>15273.75740952203</v>
+        <v>15273.7292581328</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.663536717662473</v>
+        <v>2.663568327752303</v>
       </c>
       <c r="AE26" t="n">
-        <v>1369.548990196378</v>
+        <v>1369.548990182766</v>
       </c>
       <c r="AF26" t="n">
-        <v>1940.571588631678</v>
+        <v>1940.571449747446</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.5098602812688191</v>
+        <v>0.5098602812694388</v>
       </c>
       <c r="AH26" t="n">
-        <v>1386.742662190693</v>
+        <v>1386.742662975166</v>
       </c>
       <c r="AI26" t="n">
-        <v>14470.54831279322</v>
+        <v>14470.55662235685</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15.33910559564012</v>
+        <v>15.33910222052686</v>
       </c>
       <c r="AK26" t="n">
-        <v>1284.706639628406</v>
+        <v>1284.706630911752</v>
       </c>
       <c r="AL26" t="n">
-        <v>8747.010086367907</v>
+        <v>8747.01747536435</v>
       </c>
       <c r="AM26" t="n">
-        <v>11.37540628229035</v>
+        <v>11.37541844361838</v>
       </c>
     </row>
     <row r="27">
@@ -3756,37 +3756,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103.1251641262159</v>
+        <v>103.1251641657304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001654105499711071</v>
+        <v>0.00165410352352953</v>
       </c>
       <c r="D27" t="n">
-        <v>1285.703730801996</v>
+        <v>1285.703730762694</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001444747785492007</v>
+        <v>0.001444745515503719</v>
       </c>
       <c r="F27" t="n">
-        <v>2055.783481257935</v>
+        <v>2055.784417147639</v>
       </c>
       <c r="G27" t="n">
-        <v>1285.703780804497</v>
+        <v>1285.703780765194</v>
       </c>
       <c r="H27" t="n">
-        <v>4352.834448874381</v>
+        <v>4352.842353602834</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8213082861245021</v>
+        <v>0.8213077182238319</v>
       </c>
       <c r="J27" t="n">
-        <v>3.479903995723482</v>
+        <v>3.479910014862609</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5434349051712444</v>
+        <v>0.5434397377229294</v>
       </c>
       <c r="L27" t="n">
-        <v>1.642616572249004</v>
+        <v>1.642615436447664</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3794,34 +3794,34 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1388.828994933212</v>
+        <v>1388.828994933425</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0008054618802217474</v>
+        <v>0.0008054618935646177</v>
       </c>
       <c r="P27" t="n">
-        <v>3708.355744163364</v>
+        <v>3708.355736706847</v>
       </c>
       <c r="Q27" t="n">
-        <v>1388.828944930712</v>
+        <v>1388.828944930925</v>
       </c>
       <c r="R27" t="n">
-        <v>6740.513506229785</v>
+        <v>6740.513447421864</v>
       </c>
       <c r="S27" t="n">
-        <v>0.7110401212999846</v>
+        <v>0.7110401233685379</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.501651648815844</v>
+        <v>3.501651533999677</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5196817961328716</v>
+        <v>0.5196817736864112</v>
       </c>
       <c r="W27" t="n">
-        <v>1.422080242599969</v>
+        <v>1.422080246737076</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3829,49 +3829,49 @@
         </is>
       </c>
       <c r="Y27" t="n">
-        <v>1265.548552947849</v>
+        <v>1265.548552347036</v>
       </c>
       <c r="Z27" t="n">
-        <v>493.534079209087</v>
+        <v>493.5391881254975</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.118588784297327</v>
+        <v>1.118601592575259</v>
       </c>
       <c r="AB27" t="n">
-        <v>1410.087835412435</v>
+        <v>1410.087835411626</v>
       </c>
       <c r="AC27" t="n">
-        <v>667.4862012220437</v>
+        <v>667.4862653141946</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.8702540876107446</v>
+        <v>0.8702540874048458</v>
       </c>
       <c r="AE27" t="n">
-        <v>1370.674224285184</v>
+        <v>1370.674224260927</v>
       </c>
       <c r="AF27" t="n">
-        <v>88.66592938996503</v>
+        <v>88.66591334395993</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.35493819503156</v>
+        <v>0.3549381950299492</v>
       </c>
       <c r="AH27" t="n">
-        <v>1381.814196304252</v>
+        <v>1381.814137713118</v>
       </c>
       <c r="AI27" t="n">
-        <v>51.73078375201906</v>
+        <v>51.73076029340133</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17.74686421871869</v>
+        <v>17.74676152864138</v>
       </c>
       <c r="AK27" t="n">
-        <v>1278.708807029426</v>
+        <v>1278.708807047892</v>
       </c>
       <c r="AL27" t="n">
-        <v>107.6858182093084</v>
+        <v>107.6670786365661</v>
       </c>
       <c r="AM27" t="n">
-        <v>20.48240253981713</v>
+        <v>20.48240256168662</v>
       </c>
     </row>
     <row r="28">
@@ -3881,37 +3881,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.0191353903328</v>
+        <v>103.0191354022259</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001365465768988653</v>
+        <v>0.001365466049770981</v>
       </c>
       <c r="D28" t="n">
-        <v>1285.956350478862</v>
+        <v>1285.956350478866</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001077775871120306</v>
+        <v>0.001077775871279788</v>
       </c>
       <c r="F28" t="n">
-        <v>7071.22412051914</v>
+        <v>7071.224124714865</v>
       </c>
       <c r="G28" t="n">
-        <v>1285.956400481362</v>
+        <v>1285.956400481366</v>
       </c>
       <c r="H28" t="n">
-        <v>13617.09700896451</v>
+        <v>13617.09709145963</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7655408055250297</v>
+        <v>0.7655408052551703</v>
       </c>
       <c r="J28" t="n">
-        <v>9.286780625229264</v>
+        <v>9.28678075522922</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4821574602109627</v>
+        <v>0.4821574728375133</v>
       </c>
       <c r="L28" t="n">
-        <v>1.531081611050059</v>
+        <v>1.531081610510341</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3919,34 +3919,34 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1388.975485869195</v>
+        <v>1388.975485881092</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0008383888941956713</v>
+        <v>0.000838389351294649</v>
       </c>
       <c r="P28" t="n">
-        <v>12148.99564537681</v>
+        <v>12148.99522501595</v>
       </c>
       <c r="Q28" t="n">
-        <v>1388.975535871695</v>
+        <v>1388.975535883592</v>
       </c>
       <c r="R28" t="n">
-        <v>20615.10653709546</v>
+        <v>20615.09910491619</v>
       </c>
       <c r="S28" t="n">
-        <v>0.679600930698893</v>
+        <v>0.6796009376154583</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>10.45480481821242</v>
+        <v>10.45473103266503</v>
       </c>
       <c r="V28" t="n">
-        <v>0.459127075629247</v>
+        <v>0.4591263338244532</v>
       </c>
       <c r="W28" t="n">
-        <v>1.359201861397786</v>
+        <v>1.359201875230917</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3954,49 +3954,49 @@
         </is>
       </c>
       <c r="Y28" t="n">
-        <v>1265.749853574444</v>
+        <v>1265.749853574031</v>
       </c>
       <c r="Z28" t="n">
-        <v>1488.969178028223</v>
+        <v>1488.969335751363</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.9321014371407649</v>
+        <v>0.9321013914116512</v>
       </c>
       <c r="AB28" t="n">
-        <v>1410.265924535209</v>
+        <v>1410.265924581483</v>
       </c>
       <c r="AC28" t="n">
-        <v>2149.994349804201</v>
+        <v>2149.991702874468</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.8315132927159273</v>
+        <v>0.8315131067406384</v>
       </c>
       <c r="AE28" t="n">
-        <v>1370.712634855813</v>
+        <v>1370.712633007329</v>
       </c>
       <c r="AF28" t="n">
-        <v>310.541325977353</v>
+        <v>310.532318812893</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.3393088614930284</v>
+        <v>0.3393088968205528</v>
       </c>
       <c r="AH28" t="n">
         <v>1381.995603089907</v>
       </c>
       <c r="AI28" t="n">
-        <v>375.404523883035</v>
+        <v>375.4359762456617</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.9654451958256</v>
+        <v>16.96544516385426</v>
       </c>
       <c r="AK28" t="n">
-        <v>1278.93976297513</v>
+        <v>1278.939762975135</v>
       </c>
       <c r="AL28" t="n">
-        <v>696.8138192041771</v>
+        <v>696.8134433806003</v>
       </c>
       <c r="AM28" t="n">
-        <v>19.10386242181342</v>
+        <v>19.10386242222128</v>
       </c>
     </row>
     <row r="29">
@@ -4006,37 +4006,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.9778466113614</v>
+        <v>102.9778466102869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001256026557730667</v>
+        <v>0.001256025774874811</v>
       </c>
       <c r="D29" t="n">
-        <v>1286.056102687241</v>
+        <v>1286.056102687244</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0009243889179816031</v>
+        <v>0.0009243889180748057</v>
       </c>
       <c r="F29" t="n">
-        <v>6188.094845035698</v>
+        <v>6188.094845848989</v>
       </c>
       <c r="G29" t="n">
-        <v>1286.056152689741</v>
+        <v>1286.056152689745</v>
       </c>
       <c r="H29" t="n">
-        <v>11430.26941261408</v>
+        <v>11430.2694246553</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7371421143037524</v>
+        <v>0.7371421142144902</v>
       </c>
       <c r="J29" t="n">
-        <v>7.689318899841949</v>
+        <v>7.689318911709835</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4702174389423824</v>
+        <v>0.470217441251227</v>
       </c>
       <c r="L29" t="n">
-        <v>1.474284228607505</v>
+        <v>1.47428422842898</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -4044,34 +4044,34 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1389.033949298602</v>
+        <v>1389.033949297531</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0008503574789684335</v>
+        <v>0.0008503563225438845</v>
       </c>
       <c r="P29" t="n">
-        <v>10278.62467546869</v>
+        <v>10278.62473257718</v>
       </c>
       <c r="Q29" t="n">
-        <v>1389.033999301102</v>
+        <v>1389.033999300031</v>
       </c>
       <c r="R29" t="n">
-        <v>17086.00457895242</v>
+        <v>17086.0052733123</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6723141867665133</v>
+        <v>0.6723141825964565</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.97835482416734</v>
+        <v>8.978356585641761</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4322557437305249</v>
+        <v>0.4322558409280035</v>
       </c>
       <c r="W29" t="n">
-        <v>1.344628373533027</v>
+        <v>1.344628365192913</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -4079,49 +4079,49 @@
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>1265.842868527597</v>
+        <v>1265.842868527469</v>
       </c>
       <c r="Z29" t="n">
-        <v>1248.051477683884</v>
+        <v>1248.051494461736</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9085546179496574</v>
+        <v>0.9085546155285003</v>
       </c>
       <c r="AB29" t="n">
-        <v>1410.325746341202</v>
+        <v>1410.325746337162</v>
       </c>
       <c r="AC29" t="n">
-        <v>1763.618230476532</v>
+        <v>1763.618394964403</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.7942079814661245</v>
+        <v>0.7942079648071946</v>
       </c>
       <c r="AE29" t="n">
-        <v>1370.73575068478</v>
+        <v>1370.735750734485</v>
       </c>
       <c r="AF29" t="n">
-        <v>271.3218080748865</v>
+        <v>271.3221697765513</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.3358388083697303</v>
+        <v>0.3358400743829845</v>
       </c>
       <c r="AH29" t="n">
-        <v>1382.05059280006</v>
+        <v>1382.050692510202</v>
       </c>
       <c r="AI29" t="n">
-        <v>174.0617940293924</v>
+        <v>174.0588870253461</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16.79200417858671</v>
+        <v>16.79198741252932</v>
       </c>
       <c r="AK29" t="n">
-        <v>1279.027746187816</v>
+        <v>1279.02774618784</v>
       </c>
       <c r="AL29" t="n">
-        <v>381.6176170907029</v>
+        <v>381.6175647881661</v>
       </c>
       <c r="AM29" t="n">
-        <v>18.39004995231892</v>
+        <v>18.39004995211761</v>
       </c>
     </row>
     <row r="30">
@@ -4131,37 +4131,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.9517640304541</v>
+        <v>102.9517174680407</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001611968824556283</v>
+        <v>0.001440086152321384</v>
       </c>
       <c r="D30" t="n">
-        <v>1286.136953966377</v>
+        <v>1286.136953966321</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001191776465766668</v>
+        <v>0.001191776462188632</v>
       </c>
       <c r="F30" t="n">
-        <v>4879.161875374839</v>
+        <v>4879.16187981337</v>
       </c>
       <c r="G30" t="n">
-        <v>1286.137003968877</v>
+        <v>1286.137003968821</v>
       </c>
       <c r="H30" t="n">
-        <v>8734.104669937033</v>
+        <v>8734.104721394751</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7121930553500559</v>
+        <v>0.7121930546306963</v>
       </c>
       <c r="J30" t="n">
-        <v>7.546190191838466</v>
+        <v>7.546190325995297</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4760119080380014</v>
+        <v>0.4760119214046373</v>
       </c>
       <c r="L30" t="n">
-        <v>1.424386110700112</v>
+        <v>1.424386109261393</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -4169,34 +4169,34 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1389.088717996832</v>
+        <v>1389.088771439362</v>
       </c>
       <c r="O30" t="n">
-        <v>0.001085408838634583</v>
+        <v>0.0008084039771555787</v>
       </c>
       <c r="P30" t="n">
-        <v>7892.934634313719</v>
+        <v>7895.626850857631</v>
       </c>
       <c r="Q30" t="n">
-        <v>1389.088767999332</v>
+        <v>1389.088721436862</v>
       </c>
       <c r="R30" t="n">
-        <v>12661.94234773327</v>
+        <v>12717.337986326</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6574481675179267</v>
+        <v>0.6573733984488994</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>8.931699311368197</v>
+        <v>7.161973985966449</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3977897577587117</v>
+        <v>0.4070290458574516</v>
       </c>
       <c r="W30" t="n">
-        <v>1.314896335035853</v>
+        <v>1.314746796897799</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -4204,49 +4204,49 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>1265.913006479863</v>
+        <v>1265.913006476217</v>
       </c>
       <c r="Z30" t="n">
-        <v>982.9151362664256</v>
+        <v>982.9151966174685</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.895835814605234</v>
+        <v>0.8958358140331187</v>
       </c>
       <c r="AB30" t="n">
-        <v>1410.376620166672</v>
+        <v>1410.376267660508</v>
       </c>
       <c r="AC30" t="n">
-        <v>1303.96296952723</v>
+        <v>1322.035049893285</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.7790265121975547</v>
+        <v>0.7787784012624396</v>
       </c>
       <c r="AE30" t="n">
-        <v>1369.084734331498</v>
+        <v>1370.72748668089</v>
       </c>
       <c r="AF30" t="n">
-        <v>24.71896920411166</v>
+        <v>195.2081948351436</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.3284688385417777</v>
+        <v>0.3284222210003175</v>
       </c>
       <c r="AH30" t="n">
-        <v>1382.094584233866</v>
+        <v>1382.094783464325</v>
       </c>
       <c r="AI30" t="n">
-        <v>272.3675076906708</v>
+        <v>12.88488008114064</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16.42345126856</v>
+        <v>14.57422708822119</v>
       </c>
       <c r="AK30" t="n">
-        <v>1279.110230450166</v>
+        <v>1279.110230450165</v>
       </c>
       <c r="AL30" t="n">
-        <v>91.52994275136147</v>
+        <v>91.52972583685974</v>
       </c>
       <c r="AM30" t="n">
-        <v>17.77074908987295</v>
+        <v>17.77074909103529</v>
       </c>
     </row>
     <row r="31">
@@ -4256,37 +4256,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.920103558519</v>
+        <v>102.9201056303127</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001683633468193491</v>
+        <v>0.001683632893055272</v>
       </c>
       <c r="D31" t="n">
-        <v>1286.225673226442</v>
+        <v>1286.22567322617</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001446341758766103</v>
+        <v>0.00144634168029193</v>
       </c>
       <c r="F31" t="n">
-        <v>4276.05872588964</v>
+        <v>4276.058736081001</v>
       </c>
       <c r="G31" t="n">
-        <v>1286.225723228942</v>
+        <v>1286.22572322867</v>
       </c>
       <c r="H31" t="n">
-        <v>7352.611658638155</v>
+        <v>7352.611709292006</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6900372031609767</v>
+        <v>0.6900372015451557</v>
       </c>
       <c r="J31" t="n">
-        <v>6.795772832269915</v>
+        <v>6.795773059538947</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4522473467552858</v>
+        <v>0.4522473646868319</v>
       </c>
       <c r="L31" t="n">
-        <v>1.380074406321953</v>
+        <v>1.380074403090311</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -4294,34 +4294,34 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1389.145876789961</v>
+        <v>1389.145878861483</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0008618104037841604</v>
+        <v>0.0008618094118933613</v>
       </c>
       <c r="P31" t="n">
-        <v>6778.04027436766</v>
+        <v>6778.037866713356</v>
       </c>
       <c r="Q31" t="n">
-        <v>1389.145826787461</v>
+        <v>1389.145828858983</v>
       </c>
       <c r="R31" t="n">
-        <v>10692.43540613447</v>
+        <v>10692.40577947195</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6507241852942068</v>
+        <v>0.6507245719132833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.320047760460318</v>
+        <v>6.318933525371918</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3781780199107837</v>
+        <v>0.3781704158012769</v>
       </c>
       <c r="W31" t="n">
-        <v>1.301448370588414</v>
+        <v>1.301449143826567</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -4329,49 +4329,49 @@
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>1266.012221486505</v>
+        <v>1266.012221503854</v>
       </c>
       <c r="Z31" t="n">
-        <v>822.8738224225109</v>
+        <v>822.8738636472182</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.8176707453133164</v>
+        <v>0.8176707286525734</v>
       </c>
       <c r="AB31" t="n">
-        <v>1410.420054138686</v>
+        <v>1410.420052404752</v>
       </c>
       <c r="AC31" t="n">
-        <v>1111.569167162135</v>
+        <v>1112.991905312681</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.7474917363146337</v>
+        <v>0.7474968471402129</v>
       </c>
       <c r="AE31" t="n">
-        <v>1370.7714765291</v>
+        <v>1370.770820619764</v>
       </c>
       <c r="AF31" t="n">
-        <v>166.2945897300773</v>
+        <v>166.0538478973453</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.325153408201356</v>
+        <v>0.3251534092183073</v>
       </c>
       <c r="AH31" t="n">
-        <v>1396.111378994858</v>
+        <v>1382.133076864145</v>
       </c>
       <c r="AI31" t="n">
-        <v>11.22958077255631</v>
+        <v>11.23081440681415</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16.25749869261238</v>
+        <v>16.25768951415993</v>
       </c>
       <c r="AK31" t="n">
-        <v>1279.220209470427</v>
+        <v>1279.220211584914</v>
       </c>
       <c r="AL31" t="n">
-        <v>6.50935111167124</v>
+        <v>6.509331203457728</v>
       </c>
       <c r="AM31" t="n">
-        <v>17.22719798790231</v>
+        <v>17.22719723084757</v>
       </c>
     </row>
     <row r="32">
@@ -4381,37 +4381,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.8854292023057</v>
+        <v>102.8854314031043</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001536765654306109</v>
+        <v>0.001536701137049477</v>
       </c>
       <c r="D32" t="n">
-        <v>1286.308005029638</v>
+        <v>1286.308005029665</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001289605313995476</v>
+        <v>0.001289605314296306</v>
       </c>
       <c r="F32" t="n">
-        <v>3727.492333883307</v>
+        <v>3727.492333188436</v>
       </c>
       <c r="G32" t="n">
-        <v>1286.308055032138</v>
+        <v>1286.308055032165</v>
       </c>
       <c r="H32" t="n">
-        <v>6269.736439684479</v>
+        <v>6269.736434758873</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6898706628236099</v>
+        <v>0.6898706628846283</v>
       </c>
       <c r="J32" t="n">
-        <v>5.619348496684073</v>
+        <v>5.619348496345303</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3938360951575559</v>
+        <v>0.3938360933578385</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37974132564722</v>
+        <v>1.379741325769257</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -4419,34 +4419,34 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1389.193534236944</v>
+        <v>1389.19353643777</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0008358030930605085</v>
+        <v>0.0008356844607553042</v>
       </c>
       <c r="P32" t="n">
-        <v>5897.782822733587</v>
+        <v>5897.781606082416</v>
       </c>
       <c r="Q32" t="n">
-        <v>1389.193484234444</v>
+        <v>1389.19348643527</v>
       </c>
       <c r="R32" t="n">
-        <v>9076.274363875003</v>
+        <v>9076.258863240982</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6348044643725836</v>
+        <v>0.6348047289592914</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.941792443879574</v>
+        <v>5.933914824631384</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3781918917159778</v>
+        <v>0.3781868953300662</v>
       </c>
       <c r="W32" t="n">
-        <v>1.269608928745167</v>
+        <v>1.269609457918583</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -4454,49 +4454,49 @@
         </is>
       </c>
       <c r="Y32" t="n">
-        <v>1266.050157785828</v>
+        <v>1266.050157690675</v>
       </c>
       <c r="Z32" t="n">
-        <v>690.4148416056502</v>
+        <v>690.4148456490904</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7478258681542646</v>
+        <v>0.7478258621356264</v>
       </c>
       <c r="AB32" t="n">
-        <v>1410.465762656544</v>
+        <v>1410.465771748722</v>
       </c>
       <c r="AC32" t="n">
-        <v>942.1730334530617</v>
+        <v>943.412962430347</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.6789627745678201</v>
+        <v>0.678949039854243</v>
       </c>
       <c r="AE32" t="n">
-        <v>1370.785462155056</v>
+        <v>1370.785603022809</v>
       </c>
       <c r="AF32" t="n">
-        <v>139.622365419636</v>
+        <v>139.3107181775802</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.3171812968867341</v>
+        <v>0.3171807003063758</v>
       </c>
       <c r="AH32" t="n">
-        <v>1396.075651341362</v>
+        <v>1382.175604354191</v>
       </c>
       <c r="AI32" t="n">
-        <v>10.33339518260281</v>
+        <v>10.33339518259995</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15.85907028157677</v>
+        <v>15.85912967250704</v>
       </c>
       <c r="AK32" t="n">
-        <v>1293.319190499454</v>
+        <v>1293.319190503959</v>
       </c>
       <c r="AL32" t="n">
-        <v>6.030582440892226</v>
+        <v>6.030573448887025</v>
       </c>
       <c r="AM32" t="n">
-        <v>17.22949052828386</v>
+        <v>17.22944655437831</v>
       </c>
     </row>
     <row r="33">
@@ -4506,37 +4506,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.8590168509081</v>
+        <v>102.8590195538293</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001775835363114212</v>
+        <v>0.001788566058416426</v>
       </c>
       <c r="D33" t="n">
-        <v>1286.380075722</v>
+        <v>1286.380075722072</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001527661972074927</v>
+        <v>0.001527661950634734</v>
       </c>
       <c r="F33" t="n">
-        <v>3191.836344751945</v>
+        <v>3191.836340124386</v>
       </c>
       <c r="G33" t="n">
-        <v>1286.3801257245</v>
+        <v>1286.380125724572</v>
       </c>
       <c r="H33" t="n">
-        <v>5161.459716907089</v>
+        <v>5161.459686461718</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6689689731222652</v>
+        <v>0.6689689732256425</v>
       </c>
       <c r="J33" t="n">
-        <v>5.5781428690211</v>
+        <v>5.578142783407611</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3703779779514982</v>
+        <v>0.3703779653534955</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33793794624453</v>
+        <v>1.337937946451285</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -4544,34 +4544,34 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1389.239192577908</v>
+        <v>1389.239195280901</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0009054502393633395</v>
+        <v>0.0009301706885847073</v>
       </c>
       <c r="P33" t="n">
-        <v>4929.036983561229</v>
+        <v>4929.060069411004</v>
       </c>
       <c r="Q33" t="n">
-        <v>1389.239142575408</v>
+        <v>1389.239145278401</v>
       </c>
       <c r="R33" t="n">
-        <v>7400.267306108205</v>
+        <v>7400.432885516983</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6218598762525203</v>
+        <v>0.6218542437851603</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>5.416014061224214</v>
+        <v>5.560927744930123</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3669408139668523</v>
+        <v>0.3670124269822516</v>
       </c>
       <c r="W33" t="n">
-        <v>1.243719752505041</v>
+        <v>1.243708487570321</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4579,49 +4579,49 @@
         </is>
       </c>
       <c r="Y33" t="n">
-        <v>1266.150434665715</v>
+        <v>1266.150434665636</v>
       </c>
       <c r="Z33" t="n">
-        <v>553.245749873238</v>
+        <v>553.2457504053867</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.7689501209555912</v>
+        <v>0.7689501210125098</v>
       </c>
       <c r="AB33" t="n">
-        <v>1410.505932166595</v>
+        <v>1410.50593368841</v>
       </c>
       <c r="AC33" t="n">
-        <v>756.2797651046013</v>
+        <v>757.4169532497568</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.6652245390855964</v>
+        <v>0.6651016311716967</v>
       </c>
       <c r="AE33" t="n">
-        <v>1370.783111526333</v>
+        <v>1371.119870848569</v>
       </c>
       <c r="AF33" t="n">
-        <v>103.8997550718709</v>
+        <v>87.78672096395013</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.3106845770354374</v>
+        <v>0.3106846344720089</v>
       </c>
       <c r="AH33" t="n">
-        <v>1396.197013166921</v>
+        <v>1382.202818362604</v>
       </c>
       <c r="AI33" t="n">
         <v>8.759133197736817</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15.53423374717654</v>
+        <v>15.53422351131262</v>
       </c>
       <c r="AK33" t="n">
-        <v>1279.385197814871</v>
+        <v>1279.385198230109</v>
       </c>
       <c r="AL33" t="n">
-        <v>4.959274087280036</v>
+        <v>4.95927272798708</v>
       </c>
       <c r="AM33" t="n">
-        <v>16.71211058580564</v>
+        <v>16.71211058583604</v>
       </c>
     </row>
     <row r="34">
@@ -4631,37 +4631,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.8338186504627</v>
+        <v>102.8338163473084</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001929408521967627</v>
+        <v>0.001847532053453734</v>
       </c>
       <c r="D34" t="n">
-        <v>1286.448205719185</v>
+        <v>1286.448205719173</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001571751890985715</v>
+        <v>0.001571751884431601</v>
       </c>
       <c r="F34" t="n">
-        <v>2445.847988464349</v>
+        <v>2445.847988733236</v>
       </c>
       <c r="G34" t="n">
-        <v>1286.448255721685</v>
+        <v>1286.448255721673</v>
       </c>
       <c r="H34" t="n">
-        <v>3865.896543032824</v>
+        <v>3865.896545142493</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6591761502202769</v>
+        <v>0.6591761500394916</v>
       </c>
       <c r="J34" t="n">
-        <v>4.559198046044996</v>
+        <v>4.559198020971519</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3482217773608903</v>
+        <v>0.3482217792089842</v>
       </c>
       <c r="L34" t="n">
-        <v>1.318352300440554</v>
+        <v>1.318352300078983</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -4669,34 +4669,34 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1389.282124374648</v>
+        <v>1389.282122071481</v>
       </c>
       <c r="O34" t="n">
-        <v>0.001119023341054212</v>
+        <v>0.0009710667857179977</v>
       </c>
       <c r="P34" t="n">
-        <v>3853.363693297649</v>
+        <v>3853.172023287733</v>
       </c>
       <c r="Q34" t="n">
-        <v>1389.282074372147</v>
+        <v>1389.282072068981</v>
       </c>
       <c r="R34" t="n">
-        <v>5632.031957549472</v>
+        <v>5630.891030306934</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6105719972013572</v>
+        <v>0.6106295727431033</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.252741497720653</v>
+        <v>4.764714881944954</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3434901320979925</v>
+        <v>0.3428193185165971</v>
       </c>
       <c r="W34" t="n">
-        <v>1.221143994402714</v>
+        <v>1.221259145486207</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4704,49 +4704,49 @@
         </is>
       </c>
       <c r="Y34" t="n">
-        <v>1266.17267261322</v>
+        <v>1266.172672611237</v>
       </c>
       <c r="Z34" t="n">
-        <v>419.9435874998463</v>
+        <v>419.9435849623923</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.7775126892443784</v>
+        <v>0.7775126895913922</v>
       </c>
       <c r="AB34" t="n">
-        <v>1410.54692612566</v>
+        <v>1410.546930962221</v>
       </c>
       <c r="AC34" t="n">
-        <v>575.869085560306</v>
+        <v>576.4477919072539</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.6678794382363569</v>
+        <v>0.6679139006474154</v>
       </c>
       <c r="AE34" t="n">
-        <v>1369.348818436838</v>
+        <v>1371.159816338797</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.62362441869592</v>
+        <v>70.89292945632543</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.3050245009094322</v>
+        <v>0.305032487174944</v>
       </c>
       <c r="AH34" t="n">
-        <v>1395.891624677099</v>
+        <v>1382.279730093529</v>
       </c>
       <c r="AI34" t="n">
-        <v>6.451345156000111</v>
+        <v>6.451345158434692</v>
       </c>
       <c r="AJ34" t="n">
-        <v>15.25167349086814</v>
+        <v>15.2202723584157</v>
       </c>
       <c r="AK34" t="n">
-        <v>1279.440500195486</v>
+        <v>1279.440450287011</v>
       </c>
       <c r="AL34" t="n">
-        <v>3.785799742756479</v>
+        <v>3.785800474432759</v>
       </c>
       <c r="AM34" t="n">
-        <v>16.46849315259317</v>
+        <v>16.46849315606015</v>
       </c>
     </row>
     <row r="35">
@@ -4756,37 +4756,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.8110860490826</v>
+        <v>102.8110860486743</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001826201598114543</v>
+        <v>0.001826201581798545</v>
       </c>
       <c r="D35" t="n">
-        <v>1286.490977567766</v>
+        <v>1286.490977567763</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001487206529679992</v>
+        <v>0.001487206524335936</v>
       </c>
       <c r="F35" t="n">
-        <v>2228.415225195578</v>
+        <v>2228.41522540782</v>
       </c>
       <c r="G35" t="n">
-        <v>1286.491027570266</v>
+        <v>1286.491027570263</v>
       </c>
       <c r="H35" t="n">
-        <v>3461.089984218325</v>
+        <v>3461.0899863024</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6522442396145465</v>
+        <v>0.6522442396250887</v>
       </c>
       <c r="J35" t="n">
-        <v>4.211697410259531</v>
+        <v>4.211697384522631</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3290108245150229</v>
+        <v>0.3290108257412925</v>
       </c>
       <c r="L35" t="n">
-        <v>1.304488479229093</v>
+        <v>1.304488479250177</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -4794,34 +4794,34 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1389.302163621849</v>
+        <v>1389.302163621437</v>
       </c>
       <c r="O35" t="n">
-        <v>0.001059824992644213</v>
+        <v>0.001059824972028935</v>
       </c>
       <c r="P35" t="n">
-        <v>3451.34377294846</v>
+        <v>3451.343806551861</v>
       </c>
       <c r="Q35" t="n">
-        <v>1389.302113619349</v>
+        <v>1389.302113618937</v>
       </c>
       <c r="R35" t="n">
-        <v>4981.899499233064</v>
+        <v>4981.899617997982</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6105961093517943</v>
+        <v>0.6105960986311646</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>4.649195587478021</v>
+        <v>4.649187103036592</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3087429076273244</v>
+        <v>0.3087429964084728</v>
       </c>
       <c r="W35" t="n">
-        <v>1.221192218703589</v>
+        <v>1.221192197262329</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4829,49 +4829,49 @@
         </is>
       </c>
       <c r="Y35" t="n">
-        <v>1266.233392155096</v>
+        <v>1266.233392154496</v>
       </c>
       <c r="Z35" t="n">
-        <v>357.7209909122206</v>
+        <v>357.7209921453994</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.7681712419019645</v>
+        <v>0.7681712419002727</v>
       </c>
       <c r="AB35" t="n">
-        <v>1410.568763997143</v>
+        <v>1410.568763993556</v>
       </c>
       <c r="AC35" t="n">
-        <v>507.2336801695104</v>
+        <v>507.2337325567038</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.615858170404387</v>
+        <v>0.6158580933153935</v>
       </c>
       <c r="AE35" t="n">
-        <v>1370.811136980608</v>
+        <v>1370.811128415073</v>
       </c>
       <c r="AF35" t="n">
-        <v>73.94171947167186</v>
+        <v>73.94242990025397</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.3049850405275506</v>
+        <v>0.3049853688777364</v>
       </c>
       <c r="AH35" t="n">
-        <v>1382.265051687413</v>
+        <v>1382.265051687412</v>
       </c>
       <c r="AI35" t="n">
-        <v>6.428633238612298</v>
+        <v>6.428639017044253</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15.24927351378199</v>
+        <v>15.24927351363761</v>
       </c>
       <c r="AK35" t="n">
-        <v>1279.467662263585</v>
+        <v>1279.467662263414</v>
       </c>
       <c r="AL35" t="n">
-        <v>3.368571023564022</v>
+        <v>3.368573823383771</v>
       </c>
       <c r="AM35" t="n">
-        <v>16.29550624503575</v>
+        <v>16.29555216846881</v>
       </c>
     </row>
     <row r="36">
@@ -4881,37 +4881,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.70038017351</v>
+        <v>104.7003801611868</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001778268783521521</v>
+        <v>0.001778269873326585</v>
       </c>
       <c r="D36" t="n">
-        <v>1282.221576921613</v>
+        <v>1282.221576955837</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001521523556328319</v>
+        <v>0.001521524051391871</v>
       </c>
       <c r="F36" t="n">
-        <v>28888.88667490591</v>
+        <v>28888.88663165217</v>
       </c>
       <c r="G36" t="n">
-        <v>1282.221526919113</v>
+        <v>1282.221526953337</v>
       </c>
       <c r="H36" t="n">
-        <v>85184.45943711582</v>
+        <v>85184.46061596388</v>
       </c>
       <c r="I36" t="n">
-        <v>1.076144801455253</v>
+        <v>1.076144813818825</v>
       </c>
       <c r="J36" t="n">
-        <v>31.22468703664076</v>
+        <v>31.22456791522814</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7155625314443311</v>
+        <v>0.7155625284902528</v>
       </c>
       <c r="L36" t="n">
-        <v>2.152289602910505</v>
+        <v>2.152289627637651</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -4919,34 +4919,34 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1386.921957095123</v>
+        <v>1386.921957117024</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0009204379033835656</v>
+        <v>0.0009204391905047369</v>
       </c>
       <c r="P36" t="n">
-        <v>55487.62364393287</v>
+        <v>55487.62419506602</v>
       </c>
       <c r="Q36" t="n">
-        <v>1386.921907092623</v>
+        <v>1386.921907114524</v>
       </c>
       <c r="R36" t="n">
-        <v>155009.3447948181</v>
+        <v>155009.3664191793</v>
       </c>
       <c r="S36" t="n">
-        <v>1.010970333052566</v>
+        <v>1.010970338311837</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>46.57338560455867</v>
+        <v>46.57338175360656</v>
       </c>
       <c r="V36" t="n">
-        <v>0.7279833515823896</v>
+        <v>0.7279835855648189</v>
       </c>
       <c r="W36" t="n">
-        <v>2.021940666105132</v>
+        <v>2.021940676623673</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4954,49 +4954,49 @@
         </is>
       </c>
       <c r="Y36" t="n">
-        <v>1262.142208466004</v>
+        <v>1262.142203516693</v>
       </c>
       <c r="Z36" t="n">
-        <v>11935.81682210343</v>
+        <v>11935.70936532645</v>
       </c>
       <c r="AA36" t="n">
-        <v>3.118957346771262</v>
+        <v>3.118927087141465</v>
       </c>
       <c r="AB36" t="n">
-        <v>1408.25148688336</v>
+        <v>1408.251485134373</v>
       </c>
       <c r="AC36" t="n">
-        <v>15207.25455495355</v>
+        <v>15207.50787399115</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.522538823388594</v>
+        <v>2.52258169822082</v>
       </c>
       <c r="AE36" t="n">
-        <v>1369.570460979917</v>
+        <v>1369.57046072732</v>
       </c>
       <c r="AF36" t="n">
-        <v>1874.876124887111</v>
+        <v>1874.873855483804</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.5048304928034649</v>
+        <v>0.504830492803566</v>
       </c>
       <c r="AH36" t="n">
-        <v>1385.844426878464</v>
+        <v>1385.84411806005</v>
       </c>
       <c r="AI36" t="n">
-        <v>13093.3503234749</v>
+        <v>13093.11010835715</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15.21450150252951</v>
+        <v>15.21430083816587</v>
       </c>
       <c r="AK36" t="n">
-        <v>1285.109335373191</v>
+        <v>1285.10921188252</v>
       </c>
       <c r="AL36" t="n">
-        <v>7978.527291655249</v>
+        <v>7978.618818909424</v>
       </c>
       <c r="AM36" t="n">
-        <v>12.1483461220027</v>
+        <v>12.14850514880128</v>
       </c>
     </row>
     <row r="37">
@@ -5006,37 +5006,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.649296642323</v>
+        <v>104.6492964729166</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001810816205407742</v>
+        <v>0.001810816121138354</v>
       </c>
       <c r="D37" t="n">
-        <v>1282.314884626716</v>
+        <v>1282.31488472964</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001570223923867276</v>
+        <v>0.001570223533527344</v>
       </c>
       <c r="F37" t="n">
-        <v>28671.26044059852</v>
+        <v>28671.25991299755</v>
       </c>
       <c r="G37" t="n">
-        <v>1282.314834624216</v>
+        <v>1282.31483472714</v>
       </c>
       <c r="H37" t="n">
-        <v>84679.19911573113</v>
+        <v>84679.18924809038</v>
       </c>
       <c r="I37" t="n">
-        <v>1.082498780476505</v>
+        <v>1.082498808144612</v>
       </c>
       <c r="J37" t="n">
-        <v>32.41948435115808</v>
+        <v>32.419069635108</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7049591015716956</v>
+        <v>0.7049588420224218</v>
       </c>
       <c r="L37" t="n">
-        <v>2.16499756095301</v>
+        <v>2.164997616289225</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -5044,34 +5044,34 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1386.964181269039</v>
+        <v>1386.964181202557</v>
       </c>
       <c r="O37" t="n">
-        <v>0.00090191582682762</v>
+        <v>0.0009019163372128567</v>
       </c>
       <c r="P37" t="n">
-        <v>55425.96955507366</v>
+        <v>55425.96575053914</v>
       </c>
       <c r="Q37" t="n">
-        <v>1386.964131266539</v>
+        <v>1386.964131200057</v>
       </c>
       <c r="R37" t="n">
-        <v>153543.8895722501</v>
+        <v>153543.8016651969</v>
       </c>
       <c r="S37" t="n">
-        <v>1.00390845181992</v>
+        <v>1.003908497684776</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>45.09602088175858</v>
+        <v>45.09562902258416</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7240878523991688</v>
+        <v>0.7240867676329759</v>
       </c>
       <c r="W37" t="n">
-        <v>2.00781690363984</v>
+        <v>2.007816995369552</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -5079,49 +5079,49 @@
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>1262.243013563337</v>
+        <v>1262.242999309814</v>
       </c>
       <c r="Z37" t="n">
-        <v>12070.21844295286</v>
+        <v>12069.91624381894</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.114574005484283</v>
+        <v>3.114480063549267</v>
       </c>
       <c r="AB37" t="n">
-        <v>1408.301179253172</v>
+        <v>1408.301197773798</v>
       </c>
       <c r="AC37" t="n">
-        <v>15077.75628062013</v>
+        <v>15077.00439988133</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.49788769945974</v>
+        <v>2.497769284785533</v>
       </c>
       <c r="AE37" t="n">
-        <v>1369.588269530682</v>
+        <v>1369.588365521268</v>
       </c>
       <c r="AF37" t="n">
-        <v>1898.370220764306</v>
+        <v>1898.414332306427</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.5012230923719727</v>
+        <v>0.5012230907910865</v>
       </c>
       <c r="AH37" t="n">
-        <v>1385.889730507921</v>
+        <v>1385.890786552993</v>
       </c>
       <c r="AI37" t="n">
-        <v>12728.30847691472</v>
+        <v>12729.03116811968</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15.42318241655923</v>
+        <v>15.42377491602724</v>
       </c>
       <c r="AK37" t="n">
-        <v>1285.67327175293</v>
+        <v>1285.672924738606</v>
       </c>
       <c r="AL37" t="n">
-        <v>7530.827357007987</v>
+        <v>7531.07924722746</v>
       </c>
       <c r="AM37" t="n">
-        <v>11.63045256138671</v>
+        <v>11.63088217772724</v>
       </c>
     </row>
     <row r="38">
@@ -5131,37 +5131,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.5928597681743</v>
+        <v>104.5928596244003</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001762785341327716</v>
+        <v>0.001762785652492045</v>
       </c>
       <c r="D38" t="n">
-        <v>1282.422510126921</v>
+        <v>1282.422510270596</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00154145661165189</v>
+        <v>0.001541456973406906</v>
       </c>
       <c r="F38" t="n">
-        <v>27808.76595115319</v>
+        <v>27808.76460401121</v>
       </c>
       <c r="G38" t="n">
-        <v>1282.42246012442</v>
+        <v>1282.422460268096</v>
       </c>
       <c r="H38" t="n">
-        <v>82328.24649912553</v>
+        <v>82328.20989012819</v>
       </c>
       <c r="I38" t="n">
-        <v>1.08669538008864</v>
+        <v>1.086695404773076</v>
       </c>
       <c r="J38" t="n">
-        <v>31.60947950594799</v>
+        <v>31.60897601148437</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6998424869744498</v>
+        <v>0.699841677194178</v>
       </c>
       <c r="L38" t="n">
-        <v>2.173390760177281</v>
+        <v>2.173390809546151</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -5169,34 +5169,34 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1387.015269890095</v>
+        <v>1387.015269889996</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0008551746453178712</v>
+        <v>0.0008551746346606786</v>
       </c>
       <c r="P38" t="n">
-        <v>53957.83804829013</v>
+        <v>53957.83811979985</v>
       </c>
       <c r="Q38" t="n">
-        <v>1387.015319892595</v>
+        <v>1387.015319892496</v>
       </c>
       <c r="R38" t="n">
-        <v>148632.2890404562</v>
+        <v>148632.2900676147</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9979555760708563</v>
+        <v>0.9979555752621425</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>43.39305040195765</v>
+        <v>43.39305646796706</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7236876330322924</v>
+        <v>0.7236876463283952</v>
       </c>
       <c r="W38" t="n">
-        <v>1.995911152141713</v>
+        <v>1.995911150524285</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -5204,49 +5204,49 @@
         </is>
       </c>
       <c r="Y38" t="n">
-        <v>1262.40042757238</v>
+        <v>1262.400408175991</v>
       </c>
       <c r="Z38" t="n">
-        <v>11756.38328348447</v>
+        <v>11755.95668586792</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.108686456552669</v>
+        <v>3.108544246214847</v>
       </c>
       <c r="AB38" t="n">
-        <v>1408.362276910307</v>
+        <v>1408.362280863002</v>
       </c>
       <c r="AC38" t="n">
-        <v>14873.42346818634</v>
+        <v>14873.44596855512</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.423615602168415</v>
+        <v>2.423592796793247</v>
       </c>
       <c r="AE38" t="n">
-        <v>1369.590133222992</v>
+        <v>1369.590133221471</v>
       </c>
       <c r="AF38" t="n">
-        <v>1846.303279570513</v>
+        <v>1846.303217112298</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.4981514681600385</v>
+        <v>0.4981514681596778</v>
       </c>
       <c r="AH38" t="n">
-        <v>1385.186211499698</v>
+        <v>1385.186198342055</v>
       </c>
       <c r="AI38" t="n">
-        <v>11808.68200494428</v>
+        <v>11808.66866761403</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15.86251305919692</v>
+        <v>15.86250534196816</v>
       </c>
       <c r="AK38" t="n">
-        <v>1286.370176997807</v>
+        <v>1286.369644073805</v>
       </c>
       <c r="AL38" t="n">
-        <v>6886.876054398335</v>
+        <v>6887.242176400488</v>
       </c>
       <c r="AM38" t="n">
-        <v>11.67937633722938</v>
+        <v>11.68000997385355</v>
       </c>
     </row>
     <row r="39">
@@ -5256,37 +5256,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.5282597081596</v>
+        <v>104.5282596951765</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001712445746025567</v>
+        <v>0.001712447294622809</v>
       </c>
       <c r="D39" t="n">
-        <v>1282.55668533458</v>
+        <v>1282.556685323314</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001529600454397586</v>
+        <v>0.001529602229942213</v>
       </c>
       <c r="F39" t="n">
-        <v>26093.96263222351</v>
+        <v>26093.96278786747</v>
       </c>
       <c r="G39" t="n">
-        <v>1282.55663533208</v>
+        <v>1282.556635320814</v>
       </c>
       <c r="H39" t="n">
-        <v>77628.51267557447</v>
+        <v>77628.51565579657</v>
       </c>
       <c r="I39" t="n">
-        <v>1.096552454685638</v>
+        <v>1.096552450555125</v>
       </c>
       <c r="J39" t="n">
-        <v>29.29666266824294</v>
+        <v>29.29671868626791</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6884823504074251</v>
+        <v>0.688482430392773</v>
       </c>
       <c r="L39" t="n">
-        <v>2.193104909371276</v>
+        <v>2.193104901110249</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -5294,34 +5294,34 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1387.084845037739</v>
+        <v>1387.08484501349</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0007699304403566339</v>
+        <v>0.0007699303572510869</v>
       </c>
       <c r="P39" t="n">
-        <v>50879.22663691778</v>
+        <v>50879.22529709969</v>
       </c>
       <c r="Q39" t="n">
-        <v>1387.084895040239</v>
+        <v>1387.08489501599</v>
       </c>
       <c r="R39" t="n">
-        <v>138780.2153769979</v>
+        <v>138780.1848290629</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9919694475712415</v>
+        <v>0.991969467063889</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>38.83413194829729</v>
+        <v>38.83450257032385</v>
       </c>
       <c r="V39" t="n">
-        <v>0.7139271407449823</v>
+        <v>0.7139267135722855</v>
       </c>
       <c r="W39" t="n">
-        <v>1.983938895142483</v>
+        <v>1.983938934127778</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -5329,49 +5329,49 @@
         </is>
       </c>
       <c r="Y39" t="n">
-        <v>1262.488482200007</v>
+        <v>1262.488482599809</v>
       </c>
       <c r="Z39" t="n">
-        <v>10952.69662343741</v>
+        <v>10952.71675795778</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.994980551009594</v>
+        <v>2.994987096626044</v>
       </c>
       <c r="AB39" t="n">
-        <v>1408.433867543087</v>
+        <v>1408.43389080026</v>
       </c>
       <c r="AC39" t="n">
-        <v>13991.51544127613</v>
+        <v>13991.41891381505</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.357546620566547</v>
+        <v>2.357336653544294</v>
       </c>
       <c r="AE39" t="n">
-        <v>1369.60631770349</v>
+        <v>1369.606317803977</v>
       </c>
       <c r="AF39" t="n">
-        <v>1717.899564124179</v>
+        <v>1717.902233336486</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.4949939830936232</v>
+        <v>0.4949940686254555</v>
       </c>
       <c r="AH39" t="n">
-        <v>1384.961214836427</v>
+        <v>1384.961530049575</v>
       </c>
       <c r="AI39" t="n">
-        <v>10576.80805005792</v>
+        <v>10576.96995988338</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15.79149655784989</v>
+        <v>15.79170227739806</v>
       </c>
       <c r="AK39" t="n">
-        <v>1286.583412064593</v>
+        <v>1286.583465087524</v>
       </c>
       <c r="AL39" t="n">
-        <v>6166.354164239018</v>
+        <v>6166.332939537874</v>
       </c>
       <c r="AM39" t="n">
-        <v>11.89189079602537</v>
+        <v>11.89183658063558</v>
       </c>
     </row>
     <row r="40">
@@ -5381,37 +5381,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.4418433833914</v>
+        <v>104.4418573728356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001729422038188735</v>
+        <v>0.001729609447964801</v>
       </c>
       <c r="D40" t="n">
-        <v>1282.731032823941</v>
+        <v>1282.731032853159</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001595335697652329</v>
+        <v>0.001595336029392544</v>
       </c>
       <c r="F40" t="n">
-        <v>14917.98512909751</v>
+        <v>14917.98517346106</v>
       </c>
       <c r="G40" t="n">
-        <v>1282.730982821441</v>
+        <v>1282.730982850659</v>
       </c>
       <c r="H40" t="n">
-        <v>44962.54914914402</v>
+        <v>44962.54906047014</v>
       </c>
       <c r="I40" t="n">
-        <v>1.107161757869255</v>
+        <v>1.107161756882636</v>
       </c>
       <c r="J40" t="n">
-        <v>17.61021528970233</v>
+        <v>17.6101947770036</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6929931233483809</v>
+        <v>0.692993124847808</v>
       </c>
       <c r="L40" t="n">
-        <v>2.214323515738509</v>
+        <v>2.214323513765273</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -5419,34 +5419,34 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>1387.172776202333</v>
+        <v>1387.172790220994</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0006676860025259156</v>
+        <v>0.0006681704840915489</v>
       </c>
       <c r="P40" t="n">
-        <v>29356.83979325493</v>
+        <v>29357.23493796031</v>
       </c>
       <c r="Q40" t="n">
-        <v>1387.172826204833</v>
+        <v>1387.172840223494</v>
       </c>
       <c r="R40" t="n">
-        <v>79228.13874446785</v>
+        <v>79240.29545872404</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9800098171261622</v>
+        <v>0.9800100998679702</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>22.15648411891506</v>
+        <v>22.19969518059766</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7163397797748828</v>
+        <v>0.7165982697530134</v>
       </c>
       <c r="W40" t="n">
-        <v>1.960019634252324</v>
+        <v>1.96002019973594</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -5454,49 +5454,49 @@
         </is>
       </c>
       <c r="Y40" t="n">
-        <v>1262.655886688532</v>
+        <v>1262.655884532174</v>
       </c>
       <c r="Z40" t="n">
-        <v>6273.360258640584</v>
+        <v>6273.340043475997</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.920923736118152</v>
+        <v>2.920917264031374</v>
       </c>
       <c r="AB40" t="n">
-        <v>1408.510436410823</v>
+        <v>1408.510546317084</v>
       </c>
       <c r="AC40" t="n">
-        <v>8305.221509112518</v>
+        <v>8414.161365306296</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.269946157428127</v>
+        <v>2.255383504640614</v>
       </c>
       <c r="AE40" t="n">
-        <v>1369.629840340084</v>
+        <v>1369.629775777961</v>
       </c>
       <c r="AF40" t="n">
-        <v>1005.915385896782</v>
+        <v>1004.823478071094</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.4887697890325818</v>
+        <v>0.4887697895215532</v>
       </c>
       <c r="AH40" t="n">
-        <v>1383.925531308744</v>
+        <v>1383.616225513124</v>
       </c>
       <c r="AI40" t="n">
-        <v>5680.551264338514</v>
+        <v>5580.313524480022</v>
       </c>
       <c r="AJ40" t="n">
-        <v>16.08843375938509</v>
+        <v>15.89064924492766</v>
       </c>
       <c r="AK40" t="n">
-        <v>1288.022683039091</v>
+        <v>1288.02260452972</v>
       </c>
       <c r="AL40" t="n">
-        <v>3067.05030486269</v>
+        <v>3067.076219503073</v>
       </c>
       <c r="AM40" t="n">
-        <v>12.53045434951675</v>
+        <v>12.53059824357729</v>
       </c>
     </row>
     <row r="41">
@@ -5506,37 +5506,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.3844332644169</v>
+        <v>104.3844332612478</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001748669059394555</v>
+        <v>0.001748670413942147</v>
       </c>
       <c r="D41" t="n">
-        <v>1282.850166463423</v>
+        <v>1282.85016646284</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001590776816357471</v>
+        <v>0.001590776736785566</v>
       </c>
       <c r="F41" t="n">
-        <v>3950.445878492001</v>
+        <v>3950.445881433383</v>
       </c>
       <c r="G41" t="n">
-        <v>1282.850016455923</v>
+        <v>1282.85001645534</v>
       </c>
       <c r="H41" t="n">
-        <v>11926.19650843235</v>
+        <v>11926.19658823017</v>
       </c>
       <c r="I41" t="n">
-        <v>1.107728705123095</v>
+        <v>1.107728704740852</v>
       </c>
       <c r="J41" t="n">
-        <v>5.287474035472319</v>
+        <v>5.287474134367428</v>
       </c>
       <c r="K41" t="n">
-        <v>0.693543277224522</v>
+        <v>0.69354328917889</v>
       </c>
       <c r="L41" t="n">
-        <v>2.21545741024619</v>
+        <v>2.215457409481705</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -5544,34 +5544,34 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1387.23439971784</v>
+        <v>1387.234399714088</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0007261353867037657</v>
+        <v>0.0007261388230210983</v>
       </c>
       <c r="P41" t="n">
-        <v>7749.440207166834</v>
+        <v>7749.440146409836</v>
       </c>
       <c r="Q41" t="n">
-        <v>1387.23444972034</v>
+        <v>1387.234449716588</v>
       </c>
       <c r="R41" t="n">
-        <v>20845.36225583979</v>
+        <v>20845.36089355739</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9798707764007331</v>
+        <v>0.9798707809471505</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.035194821732948</v>
+        <v>6.035190342129567</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7077289388328853</v>
+        <v>0.7077288178762682</v>
       </c>
       <c r="W41" t="n">
-        <v>1.959741552801466</v>
+        <v>1.959741561894301</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -5579,49 +5579,49 @@
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>1262.793015885407</v>
+        <v>1262.793015945225</v>
       </c>
       <c r="Z41" t="n">
-        <v>1712.273736693349</v>
+        <v>1712.27387303467</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.915795169198129</v>
+        <v>2.915795439442574</v>
       </c>
       <c r="AB41" t="n">
-        <v>1408.584617786362</v>
+        <v>1408.58461792878</v>
       </c>
       <c r="AC41" t="n">
-        <v>2158.718066836646</v>
+        <v>2158.7111437423</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.2581979771178</v>
+        <v>2.258199695353474</v>
       </c>
       <c r="AE41" t="n">
-        <v>1369.645805499506</v>
+        <v>1369.645799243013</v>
       </c>
       <c r="AF41" t="n">
-        <v>268.8582839854647</v>
+        <v>268.8582958436451</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.4885974533624308</v>
+        <v>0.488597452645975</v>
       </c>
       <c r="AH41" t="n">
-        <v>1383.45187645493</v>
+        <v>1383.451967708086</v>
       </c>
       <c r="AI41" t="n">
-        <v>1364.27751901354</v>
+        <v>1364.284809146523</v>
       </c>
       <c r="AJ41" t="n">
-        <v>15.96142645460519</v>
+        <v>15.96147977771845</v>
       </c>
       <c r="AK41" t="n">
-        <v>1289.696016891773</v>
+        <v>1289.696020129726</v>
       </c>
       <c r="AL41" t="n">
-        <v>695.0374127148992</v>
+        <v>695.0372100683973</v>
       </c>
       <c r="AM41" t="n">
-        <v>11.69156167380628</v>
+        <v>11.69155883123316</v>
       </c>
     </row>
   </sheetData>
